--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22707BD-8A56-45AE-9FA8-C4420B38B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400718A9-61C8-4B4D-B77B-94B054D3DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint2 (dari Aplikasi Baru (2)" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="799">
   <si>
     <t>konsumen</t>
   </si>
@@ -2043,9 +2043,6 @@
     <t xml:space="preserve">3772086105750012 </t>
   </si>
   <si>
-    <t>3525010510930023</t>
-  </si>
-  <si>
     <t>7/07/2003</t>
   </si>
   <si>
@@ -2055,9 +2052,6 @@
     <t>regurel@gmail.com</t>
   </si>
   <si>
-    <t>kurapika@gmail.com</t>
-  </si>
-  <si>
     <t>reject@gmail.com</t>
   </si>
   <si>
@@ -2124,15 +2118,6 @@
     <t>FEITAN</t>
   </si>
   <si>
-    <t>LEORIO 1</t>
-  </si>
-  <si>
-    <t>KILLUA 1</t>
-  </si>
-  <si>
-    <t>GON 1</t>
-  </si>
-  <si>
     <t>HISOKA 1</t>
   </si>
   <si>
@@ -2277,39 +2262,12 @@
     <t>RYO 16</t>
   </si>
   <si>
-    <t>KURAPIKA 1</t>
-  </si>
-  <si>
-    <t>KURAPIKA 3</t>
-  </si>
-  <si>
     <t>KURAPIKA 4</t>
   </si>
   <si>
-    <t>2525010510930024</t>
-  </si>
-  <si>
-    <t>2525010510930025</t>
-  </si>
-  <si>
-    <t>2525010510930026</t>
-  </si>
-  <si>
     <t>2525010510930027</t>
   </si>
   <si>
-    <t>kura1@gmail.com</t>
-  </si>
-  <si>
-    <t>kura2@gmail.com</t>
-  </si>
-  <si>
-    <t>kura3@gmail.com</t>
-  </si>
-  <si>
-    <t>kura4@gmail.com</t>
-  </si>
-  <si>
     <t>pasangankr4@gmail.com</t>
   </si>
   <si>
@@ -2335,13 +2293,160 @@
   </si>
   <si>
     <t>DMORAPINDOC006</t>
+  </si>
+  <si>
+    <t>E.V. - W2</t>
+  </si>
+  <si>
+    <t>A1096 - Auto High</t>
+  </si>
+  <si>
+    <t>BUDI</t>
+  </si>
+  <si>
+    <t>BAGAS</t>
+  </si>
+  <si>
+    <t>PETER</t>
+  </si>
+  <si>
+    <t>OKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6171011511790007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3215011304950002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3215011304950001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3215011304950005 </t>
+  </si>
+  <si>
+    <t>0895</t>
+  </si>
+  <si>
+    <t>0894</t>
+  </si>
+  <si>
+    <t>0891</t>
+  </si>
+  <si>
+    <t>0838</t>
+  </si>
+  <si>
+    <t>budi@gmail.com</t>
+  </si>
+  <si>
+    <t>kirayoshikage@gmail.com</t>
+  </si>
+  <si>
+    <t>peter@gmail.com</t>
+  </si>
+  <si>
+    <t>oki@gmail.com</t>
+  </si>
+  <si>
+    <t>pasangankr1@gmail.com</t>
+  </si>
+  <si>
+    <t>pasangankr2@gmail.com</t>
+  </si>
+  <si>
+    <t>AYANA</t>
+  </si>
+  <si>
+    <t>SINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3215011304950009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3215011304950004 </t>
+  </si>
+  <si>
+    <t>2111222299</t>
+  </si>
+  <si>
+    <t>6111222299</t>
+  </si>
+  <si>
+    <t>PETER 1</t>
+  </si>
+  <si>
+    <t>OKI 1</t>
+  </si>
+  <si>
+    <t>BUDI 1</t>
+  </si>
+  <si>
+    <t>8672086105750080</t>
+  </si>
+  <si>
+    <t>4672086105750080</t>
+  </si>
+  <si>
+    <t>BUDI 2</t>
+  </si>
+  <si>
+    <t>BAGAS 2</t>
+  </si>
+  <si>
+    <t>PETER 2</t>
+  </si>
+  <si>
+    <t>OKI 2</t>
+  </si>
+  <si>
+    <t>BUDI 3</t>
+  </si>
+  <si>
+    <t>BAGAS 3</t>
+  </si>
+  <si>
+    <t>PETER 3</t>
+  </si>
+  <si>
+    <t>OKI 3</t>
+  </si>
+  <si>
+    <t>C677 - CVO Motor</t>
+  </si>
+  <si>
+    <t>AD NON PACKET ARREAR</t>
+  </si>
+  <si>
+    <t>TLP</t>
+  </si>
+  <si>
+    <t>BCAI</t>
+  </si>
+  <si>
+    <t>DEP - UMUM BCA (BCAI)</t>
+  </si>
+  <si>
+    <t>TIPE 3 - W2 - CS</t>
+  </si>
+  <si>
+    <t>DMO23RAPINDO004</t>
+  </si>
+  <si>
+    <t>ANATA GA SUKI DE</t>
+  </si>
+  <si>
+    <t>3525010510930689</t>
+  </si>
+  <si>
+    <t>sukide@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +2479,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2595,7 +2715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2995,26 +3115,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4200,13 +4366,13 @@
         <v>633</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E2" s="141" t="s">
         <v>347</v>
@@ -4224,7 +4390,7 @@
         <v>14430</v>
       </c>
       <c r="J2" s="153" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>544</v>
@@ -4398,10 +4564,10 @@
         <v>1111222202</v>
       </c>
       <c r="DJ2" s="25" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="DK2" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="DL2" s="25" t="s">
         <v>179</v>
@@ -4431,7 +4597,7 @@
         <v>10000000</v>
       </c>
       <c r="DU2" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV2" s="25">
         <v>1122335</v>
@@ -4494,7 +4660,7 @@
         <v>98</v>
       </c>
       <c r="EP2" s="25" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="EQ2" s="26" t="s">
         <v>258</v>
@@ -4699,13 +4865,13 @@
         <v>633</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E3" s="141" t="s">
         <v>347</v>
@@ -4723,7 +4889,7 @@
         <v>14430</v>
       </c>
       <c r="J3" s="153" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>544</v>
@@ -4852,19 +5018,19 @@
         <v>103</v>
       </c>
       <c r="CW3" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX3" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY3" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ3" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA3" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB3" s="25" t="s">
         <v>105</v>
@@ -4891,10 +5057,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ3" s="25" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="DK3" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL3" s="25" t="s">
         <v>179</v>
@@ -4906,7 +5072,7 @@
         <v>133</v>
       </c>
       <c r="DO3" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP3" s="25" t="s">
         <v>662</v>
@@ -4987,7 +5153,7 @@
         <v>98</v>
       </c>
       <c r="EP3" s="25" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="EQ3" s="25" t="s">
         <v>258</v>
@@ -5192,13 +5358,13 @@
         <v>633</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E4" s="141" t="s">
         <v>347</v>
@@ -5216,7 +5382,7 @@
         <v>14430</v>
       </c>
       <c r="J4" s="153" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>544</v>
@@ -5395,7 +5561,7 @@
         <v>350</v>
       </c>
       <c r="BY4" s="26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="BZ4" s="25">
         <v>3213115323</v>
@@ -5410,7 +5576,7 @@
         <v>14430</v>
       </c>
       <c r="CD4" s="152" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CE4" s="26" t="s">
         <v>544</v>
@@ -5504,7 +5670,7 @@
       </c>
       <c r="DI4" s="25"/>
       <c r="DJ4" s="25" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="DK4" s="25"/>
       <c r="DL4" s="25"/>
@@ -5515,7 +5681,7 @@
         <v>133</v>
       </c>
       <c r="DO4" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DP4" s="25" t="s">
         <v>243</v>
@@ -5533,7 +5699,7 @@
         <v>10000000</v>
       </c>
       <c r="DU4" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV4" s="25">
         <v>1122333</v>
@@ -5596,7 +5762,7 @@
         <v>98</v>
       </c>
       <c r="EP4" s="25" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="EQ4" s="25" t="s">
         <v>258</v>
@@ -5801,13 +5967,13 @@
         <v>633</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E5" s="141" t="s">
         <v>347</v>
@@ -5825,7 +5991,7 @@
         <v>14430</v>
       </c>
       <c r="J5" s="153" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>544</v>
@@ -5963,7 +6129,7 @@
         <v>233</v>
       </c>
       <c r="BL5" s="151" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BM5" s="21" t="s">
         <v>540</v>
@@ -5988,7 +6154,7 @@
       <c r="BW5" s="21"/>
       <c r="BX5" s="24"/>
       <c r="BY5" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="BZ5" s="21">
         <v>3213115323</v>
@@ -6003,7 +6169,7 @@
         <v>14430</v>
       </c>
       <c r="CD5" s="152" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="CE5" s="25" t="s">
         <v>544</v>
@@ -6054,19 +6220,19 @@
         <v>103</v>
       </c>
       <c r="CW5" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX5" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY5" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ5" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA5" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB5" s="25" t="s">
         <v>105</v>
@@ -6093,10 +6259,10 @@
         <v>1111222203</v>
       </c>
       <c r="DJ5" s="25" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="DK5" s="26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="DL5" s="25" t="s">
         <v>179</v>
@@ -6108,7 +6274,7 @@
         <v>133</v>
       </c>
       <c r="DO5" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="DP5" s="25" t="s">
         <v>660</v>
@@ -6126,7 +6292,7 @@
         <v>10000000</v>
       </c>
       <c r="DU5" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV5" s="25">
         <v>1122334</v>
@@ -6189,7 +6355,7 @@
         <v>98</v>
       </c>
       <c r="EP5" s="25" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="EQ5" s="25" t="s">
         <v>258</v>
@@ -6394,13 +6560,13 @@
         <v>633</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E6" s="141" t="s">
         <v>347</v>
@@ -6418,7 +6584,7 @@
         <v>14430</v>
       </c>
       <c r="J6" s="153" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>544</v>
@@ -6551,19 +6717,19 @@
         <v>103</v>
       </c>
       <c r="CW6" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY6" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ6" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA6" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB6" s="25" t="s">
         <v>105</v>
@@ -6578,7 +6744,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF6" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="DG6" s="25" t="s">
         <v>114</v>
@@ -6590,10 +6756,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ6" s="25" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="DK6" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL6" s="25" t="s">
         <v>179</v>
@@ -6605,7 +6771,7 @@
         <v>133</v>
       </c>
       <c r="DO6" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP6" s="25" t="s">
         <v>662</v>
@@ -6686,7 +6852,7 @@
         <v>98</v>
       </c>
       <c r="EP6" s="25" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="EQ6" s="25" t="s">
         <v>258</v>
@@ -6891,13 +7057,13 @@
         <v>633</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>347</v>
@@ -6915,7 +7081,7 @@
         <v>14430</v>
       </c>
       <c r="J7" s="153" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>544</v>
@@ -7044,19 +7210,19 @@
         <v>103</v>
       </c>
       <c r="CW7" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX7" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY7" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ7" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA7" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB7" s="25" t="s">
         <v>105</v>
@@ -7071,7 +7237,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF7" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="DG7" s="25" t="s">
         <v>114</v>
@@ -7083,10 +7249,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ7" s="25" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="DK7" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL7" s="25" t="s">
         <v>179</v>
@@ -7098,7 +7264,7 @@
         <v>133</v>
       </c>
       <c r="DO7" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP7" s="25" t="s">
         <v>662</v>
@@ -7179,7 +7345,7 @@
         <v>98</v>
       </c>
       <c r="EP7" s="25" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="EQ7" s="25" t="s">
         <v>258</v>
@@ -7384,13 +7550,13 @@
         <v>633</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E8" s="141" t="s">
         <v>347</v>
@@ -7408,7 +7574,7 @@
         <v>14430</v>
       </c>
       <c r="J8" s="153" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>544</v>
@@ -7541,19 +7707,19 @@
         <v>103</v>
       </c>
       <c r="CW8" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX8" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY8" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ8" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA8" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB8" s="25" t="s">
         <v>105</v>
@@ -7568,7 +7734,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF8" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="DG8" s="25" t="s">
         <v>114</v>
@@ -7580,10 +7746,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ8" s="25" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="DK8" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL8" s="25" t="s">
         <v>179</v>
@@ -7595,7 +7761,7 @@
         <v>133</v>
       </c>
       <c r="DO8" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP8" s="25" t="s">
         <v>662</v>
@@ -7676,7 +7842,7 @@
         <v>98</v>
       </c>
       <c r="EP8" s="25" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="EQ8" s="25" t="s">
         <v>258</v>
@@ -7881,13 +8047,13 @@
         <v>633</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E9" s="141" t="s">
         <v>347</v>
@@ -7905,7 +8071,7 @@
         <v>14430</v>
       </c>
       <c r="J9" s="153" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>544</v>
@@ -8036,19 +8202,19 @@
         <v>103</v>
       </c>
       <c r="CW9" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX9" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY9" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ9" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA9" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB9" s="25" t="s">
         <v>105</v>
@@ -8063,7 +8229,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF9" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="DG9" s="25" t="s">
         <v>114</v>
@@ -8075,10 +8241,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ9" s="25" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="DK9" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL9" s="25" t="s">
         <v>179</v>
@@ -8090,7 +8256,7 @@
         <v>133</v>
       </c>
       <c r="DO9" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP9" s="25" t="s">
         <v>662</v>
@@ -8171,7 +8337,7 @@
         <v>98</v>
       </c>
       <c r="EP9" s="25" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="EQ9" s="25" t="s">
         <v>258</v>
@@ -8376,13 +8542,13 @@
         <v>633</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E10" s="141" t="s">
         <v>347</v>
@@ -8400,7 +8566,7 @@
         <v>14430</v>
       </c>
       <c r="J10" s="153" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>544</v>
@@ -8535,19 +8701,19 @@
         <v>103</v>
       </c>
       <c r="CW10" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX10" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY10" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ10" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA10" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB10" s="25" t="s">
         <v>105</v>
@@ -8562,7 +8728,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF10" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="DG10" s="25" t="s">
         <v>114</v>
@@ -8574,10 +8740,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ10" s="25" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="DK10" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL10" s="25" t="s">
         <v>179</v>
@@ -8589,7 +8755,7 @@
         <v>133</v>
       </c>
       <c r="DO10" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP10" s="25" t="s">
         <v>662</v>
@@ -8670,7 +8836,7 @@
         <v>98</v>
       </c>
       <c r="EP10" s="25" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="EQ10" s="25" t="s">
         <v>258</v>
@@ -8875,13 +9041,13 @@
         <v>633</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D11" s="146" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E11" s="147" t="s">
         <v>347</v>
@@ -8899,7 +9065,7 @@
         <v>14430</v>
       </c>
       <c r="J11" s="154" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K11" s="145" t="s">
         <v>544</v>
@@ -9030,19 +9196,19 @@
         <v>103</v>
       </c>
       <c r="CW11" s="92" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX11" s="91" t="s">
         <v>104</v>
       </c>
       <c r="CY11" s="92" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ11" s="91" t="s">
         <v>98</v>
       </c>
       <c r="DA11" s="92" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB11" s="91" t="s">
         <v>105</v>
@@ -9057,7 +9223,7 @@
         <v>1111222277</v>
       </c>
       <c r="DF11" s="91" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="DG11" s="91" t="s">
         <v>114</v>
@@ -9069,10 +9235,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ11" s="91" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="DK11" s="92" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL11" s="91" t="s">
         <v>179</v>
@@ -9084,7 +9250,7 @@
         <v>133</v>
       </c>
       <c r="DO11" s="91" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP11" s="91" t="s">
         <v>662</v>
@@ -9165,7 +9331,7 @@
         <v>98</v>
       </c>
       <c r="EP11" s="91" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="EQ11" s="91" t="s">
         <v>258</v>
@@ -11864,7 +12030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87219BD-EEF3-4788-81C2-0D638916E126}">
   <dimension ref="A1:FJ7"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
+    <sheetView topLeftCell="EV1" workbookViewId="0">
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
@@ -14492,10 +14658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9714DEC-43C5-4011-A240-3BE24ABA98F9}">
-  <dimension ref="A1:HE10"/>
+  <dimension ref="A1:HE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CQ3" sqref="CQ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14508,7 +14674,7 @@
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
@@ -14666,12 +14832,12 @@
     <col min="168" max="168" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="10" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="172" max="172" width="20" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="11" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="178" max="178" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -15085,7 +15251,7 @@
       <c r="DU1" s="134" t="s">
         <v>583</v>
       </c>
-      <c r="DV1" s="172" t="s">
+      <c r="DV1" s="165" t="s">
         <v>584</v>
       </c>
       <c r="DW1" s="86" t="s">
@@ -15358,7 +15524,7 @@
         <v>659</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>663</v>
@@ -15379,7 +15545,7 @@
         <v>14430</v>
       </c>
       <c r="J2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>544</v>
@@ -15495,7 +15661,7 @@
       <c r="CN2" s="25"/>
       <c r="CO2" s="25"/>
       <c r="CP2" s="93"/>
-      <c r="CQ2" s="165" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>82</v>
       </c>
       <c r="CR2" s="25" t="s">
@@ -15553,10 +15719,10 @@
         <v>1111222202</v>
       </c>
       <c r="DJ2" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="DK2" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="DL2" s="25" t="s">
         <v>179</v>
@@ -15568,7 +15734,7 @@
         <v>133</v>
       </c>
       <c r="DO2" s="25" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="DP2" s="25" t="s">
         <v>659</v>
@@ -15586,13 +15752,13 @@
         <v>10000000</v>
       </c>
       <c r="DU2" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV2" s="93">
         <v>1122335</v>
       </c>
-      <c r="DW2" s="165" t="s">
-        <v>762</v>
+      <c r="DW2" s="25" t="s">
+        <v>748</v>
       </c>
       <c r="DX2" s="25" t="s">
         <v>171</v>
@@ -15664,7 +15830,7 @@
         <v>181</v>
       </c>
       <c r="EU2" s="25" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="EV2" s="25">
         <v>5238528</v>
@@ -15673,7 +15839,7 @@
         <v>185</v>
       </c>
       <c r="EX2" s="25" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="EY2" s="25" t="s">
         <v>200</v>
@@ -15708,7 +15874,7 @@
       <c r="FI2" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ2" s="165" t="s">
+      <c r="FJ2" s="25" t="s">
         <v>318</v>
       </c>
       <c r="FK2" s="25" t="s">
@@ -15727,7 +15893,7 @@
         <v>234</v>
       </c>
       <c r="FP2" s="25" t="s">
-        <v>235</v>
+        <v>750</v>
       </c>
       <c r="FQ2" s="25" t="s">
         <v>613</v>
@@ -15748,11 +15914,11 @@
       <c r="FW2" s="25">
         <v>24</v>
       </c>
-      <c r="FX2" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY2" s="25">
-        <v>6</v>
+      <c r="FX2" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="FY2" s="26" t="s">
+        <v>601</v>
       </c>
       <c r="FZ2" s="25">
         <v>1000000</v>
@@ -15849,21 +16015,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:213" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:213" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>633</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>662</v>
+        <v>796</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>662</v>
+        <v>796</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3" s="141" t="s">
         <v>666</v>
-      </c>
-      <c r="E3" s="141" t="s">
-        <v>667</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>434</v>
@@ -15877,8 +16043,8 @@
       <c r="I3" s="21">
         <v>14430</v>
       </c>
-      <c r="J3" t="s">
-        <v>670</v>
+      <c r="J3" s="190" t="s">
+        <v>798</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>544</v>
@@ -15887,28 +16053,34 @@
         <v>134</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="21"/>
+        <v>416</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="O3" s="21">
         <v>15413</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="Q3" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="S3" s="21">
         <v>15413</v>
       </c>
       <c r="T3" s="21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>149</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="W3" s="21" t="s">
         <v>0</v>
@@ -15988,8 +16160,8 @@
       <c r="CN3" s="25"/>
       <c r="CO3" s="25"/>
       <c r="CP3" s="93"/>
-      <c r="CQ3" s="165" t="s">
-        <v>82</v>
+      <c r="CQ3" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="CR3" s="25" t="s">
         <v>94</v>
@@ -16007,19 +16179,19 @@
         <v>103</v>
       </c>
       <c r="CW3" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX3" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY3" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ3" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA3" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB3" s="25" t="s">
         <v>105</v>
@@ -16046,10 +16218,10 @@
         <v>1111222278</v>
       </c>
       <c r="DJ3" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="DK3" s="26" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="DL3" s="25" t="s">
         <v>179</v>
@@ -16061,7 +16233,7 @@
         <v>133</v>
       </c>
       <c r="DO3" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="DP3" s="25" t="s">
         <v>662</v>
@@ -16084,7 +16256,7 @@
       <c r="DV3" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW3" s="165" t="s">
+      <c r="DW3" s="25" t="s">
         <v>170</v>
       </c>
       <c r="DX3" s="25" t="s">
@@ -16157,7 +16329,7 @@
         <v>181</v>
       </c>
       <c r="EU3" s="25" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="EV3" s="25">
         <v>5238528</v>
@@ -16166,7 +16338,7 @@
         <v>185</v>
       </c>
       <c r="EX3" s="25" t="s">
-        <v>186</v>
+        <v>795</v>
       </c>
       <c r="EY3" s="25" t="s">
         <v>200</v>
@@ -16201,7 +16373,7 @@
       <c r="FI3" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ3" s="165" t="s">
+      <c r="FJ3" s="25" t="s">
         <v>318</v>
       </c>
       <c r="FK3" s="25" t="s">
@@ -16220,7 +16392,7 @@
         <v>234</v>
       </c>
       <c r="FP3" s="25" t="s">
-        <v>235</v>
+        <v>750</v>
       </c>
       <c r="FQ3" s="25" t="s">
         <v>613</v>
@@ -16241,11 +16413,11 @@
       <c r="FW3" s="25">
         <v>24</v>
       </c>
-      <c r="FX3" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY3" s="25">
-        <v>6</v>
+      <c r="FX3" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="FY3" s="26" t="s">
+        <v>601</v>
       </c>
       <c r="FZ3" s="25">
         <v>1000000</v>
@@ -16362,7 +16534,7 @@
         <v>434</v>
       </c>
       <c r="G4" s="142">
-        <v>99887766</v>
+        <v>99887711</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>543</v>
@@ -16371,7 +16543,7 @@
         <v>14430</v>
       </c>
       <c r="J4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>544</v>
@@ -16550,7 +16722,7 @@
         <v>350</v>
       </c>
       <c r="BY4" s="26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="BZ4" s="25">
         <v>3213115323</v>
@@ -16565,7 +16737,7 @@
         <v>14430</v>
       </c>
       <c r="CD4" s="152" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CE4" s="26" t="s">
         <v>544</v>
@@ -16603,7 +16775,7 @@
       <c r="CP4" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="CQ4" s="165" t="s">
+      <c r="CQ4" s="25" t="s">
         <v>416</v>
       </c>
       <c r="CR4" s="25" t="s">
@@ -16668,7 +16840,7 @@
         <v>133</v>
       </c>
       <c r="DO4" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="DP4" s="25" t="s">
         <v>243</v>
@@ -16686,12 +16858,12 @@
         <v>10000000</v>
       </c>
       <c r="DU4" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV4" s="93">
         <v>1122333</v>
       </c>
-      <c r="DW4" s="165" t="s">
+      <c r="DW4" s="25" t="s">
         <v>170</v>
       </c>
       <c r="DX4" s="25" t="s">
@@ -16764,7 +16936,7 @@
         <v>181</v>
       </c>
       <c r="EU4" s="25" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="EV4" s="25">
         <v>5238528</v>
@@ -16808,7 +16980,7 @@
       <c r="FI4" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ4" s="165" t="s">
+      <c r="FJ4" s="25" t="s">
         <v>318</v>
       </c>
       <c r="FK4" s="25" t="s">
@@ -16827,7 +16999,7 @@
         <v>234</v>
       </c>
       <c r="FP4" s="25" t="s">
-        <v>235</v>
+        <v>750</v>
       </c>
       <c r="FQ4" s="25" t="s">
         <v>613</v>
@@ -16848,11 +17020,11 @@
       <c r="FW4" s="25">
         <v>24</v>
       </c>
-      <c r="FX4" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY4" s="25">
-        <v>6</v>
+      <c r="FX4" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="FY4" s="26" t="s">
+        <v>601</v>
       </c>
       <c r="FZ4" s="25">
         <v>1000000</v>
@@ -16969,7 +17141,7 @@
         <v>434</v>
       </c>
       <c r="G5" s="142">
-        <v>9887711</v>
+        <v>99887766</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>543</v>
@@ -16978,7 +17150,7 @@
         <v>14430</v>
       </c>
       <c r="J5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>544</v>
@@ -17116,7 +17288,7 @@
         <v>233</v>
       </c>
       <c r="BL5" s="151" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BM5" s="21" t="s">
         <v>540</v>
@@ -17141,7 +17313,7 @@
       <c r="BW5" s="21"/>
       <c r="BX5" s="24"/>
       <c r="BY5" s="24" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="BZ5" s="21">
         <v>3213115323</v>
@@ -17156,7 +17328,7 @@
         <v>14430</v>
       </c>
       <c r="CD5" s="152" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="CE5" s="25" t="s">
         <v>544</v>
@@ -17188,7 +17360,7 @@
       <c r="CP5" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="CQ5" s="165" t="s">
+      <c r="CQ5" s="25" t="s">
         <v>82</v>
       </c>
       <c r="CR5" s="25" t="s">
@@ -17207,19 +17379,19 @@
         <v>103</v>
       </c>
       <c r="CW5" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX5" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY5" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ5" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA5" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB5" s="25" t="s">
         <v>105</v>
@@ -17233,7 +17405,7 @@
       <c r="DE5" s="25">
         <v>1111222204</v>
       </c>
-      <c r="DF5" s="25" t="s">
+      <c r="DF5" s="91" t="s">
         <v>660</v>
       </c>
       <c r="DG5" s="25" t="s">
@@ -17246,10 +17418,10 @@
         <v>1111222203</v>
       </c>
       <c r="DJ5" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="DK5" s="26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="DL5" s="25" t="s">
         <v>179</v>
@@ -17261,7 +17433,7 @@
         <v>133</v>
       </c>
       <c r="DO5" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="DP5" s="91" t="s">
         <v>660</v>
@@ -17279,12 +17451,12 @@
         <v>10000000</v>
       </c>
       <c r="DU5" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="DV5" s="93">
         <v>1122334</v>
       </c>
-      <c r="DW5" s="165" t="s">
+      <c r="DW5" s="25" t="s">
         <v>170</v>
       </c>
       <c r="DX5" s="25" t="s">
@@ -17356,8 +17528,8 @@
       <c r="ET5" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU5" s="25" t="s">
-        <v>184</v>
+      <c r="EU5" s="99" t="s">
+        <v>789</v>
       </c>
       <c r="EV5" s="25">
         <v>5238528</v>
@@ -17401,7 +17573,7 @@
       <c r="FI5" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ5" s="165" t="s">
+      <c r="FJ5" s="25" t="s">
         <v>318</v>
       </c>
       <c r="FK5" s="25" t="s">
@@ -17420,7 +17592,7 @@
         <v>234</v>
       </c>
       <c r="FP5" s="25" t="s">
-        <v>235</v>
+        <v>750</v>
       </c>
       <c r="FQ5" s="25" t="s">
         <v>613</v>
@@ -17441,11 +17613,11 @@
       <c r="FW5" s="25">
         <v>24</v>
       </c>
-      <c r="FX5" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY5" s="25">
-        <v>6</v>
+      <c r="FX5" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="FY5" s="26" t="s">
+        <v>601</v>
       </c>
       <c r="FZ5" s="25">
         <v>1000000</v>
@@ -17547,22 +17719,22 @@
         <v>633</v>
       </c>
       <c r="B6" s="156" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="D6" s="157" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="E6" s="158" t="s">
-        <v>667</v>
+        <v>347</v>
       </c>
       <c r="F6" s="157" t="s">
-        <v>434</v>
+        <v>760</v>
       </c>
       <c r="G6" s="159">
-        <v>31267833</v>
+        <v>99887777</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>543</v>
@@ -17571,7 +17743,7 @@
         <v>14430</v>
       </c>
       <c r="J6" s="160" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>544</v>
@@ -17580,17 +17752,23 @@
         <v>134</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="23"/>
+        <v>416</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="O6" s="23">
         <v>15413</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="Q6" s="177" t="s">
+        <v>768</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>692</v>
+      </c>
       <c r="S6" s="23">
         <v>15413</v>
       </c>
@@ -17682,7 +17860,7 @@
       <c r="CO6" s="155"/>
       <c r="CP6" s="161"/>
       <c r="CQ6" s="155" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="CR6" s="155" t="s">
         <v>94</v>
@@ -17700,19 +17878,19 @@
         <v>103</v>
       </c>
       <c r="CW6" s="163" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX6" s="155" t="s">
         <v>104</v>
       </c>
       <c r="CY6" s="163" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ6" s="155" t="s">
         <v>98</v>
       </c>
       <c r="DA6" s="163" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB6" s="155" t="s">
         <v>105</v>
@@ -17724,10 +17902,10 @@
         <v>132</v>
       </c>
       <c r="DE6" s="155">
-        <v>1111222277</v>
+        <v>1111222299</v>
       </c>
       <c r="DF6" s="25" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="DG6" s="155" t="s">
         <v>114</v>
@@ -17736,13 +17914,13 @@
         <v>79</v>
       </c>
       <c r="DI6" s="155">
-        <v>1111222278</v>
+        <v>2111222202</v>
       </c>
       <c r="DJ6" s="155" t="s">
-        <v>693</v>
+        <v>778</v>
       </c>
       <c r="DK6" s="163" t="s">
-        <v>681</v>
+        <v>780</v>
       </c>
       <c r="DL6" s="155" t="s">
         <v>179</v>
@@ -17754,10 +17932,10 @@
         <v>133</v>
       </c>
       <c r="DO6" s="155" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="DP6" s="25" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="DQ6" s="155" t="s">
         <v>83</v>
@@ -17778,7 +17956,7 @@
         <v>1122777</v>
       </c>
       <c r="DW6" s="155" t="s">
-        <v>170</v>
+        <v>785</v>
       </c>
       <c r="DX6" s="155" t="s">
         <v>171</v>
@@ -17849,8 +18027,8 @@
       <c r="ET6" s="161" t="s">
         <v>181</v>
       </c>
-      <c r="EU6" s="155" t="s">
-        <v>184</v>
+      <c r="EU6" s="25" t="s">
+        <v>789</v>
       </c>
       <c r="EV6" s="155">
         <v>5238528</v>
@@ -17906,14 +18084,12 @@
       <c r="FM6" s="155">
         <v>200000</v>
       </c>
-      <c r="FN6" s="155" t="s">
-        <v>615</v>
-      </c>
+      <c r="FN6" s="155"/>
       <c r="FO6" s="155" t="s">
-        <v>234</v>
+        <v>793</v>
       </c>
       <c r="FP6" s="155" t="s">
-        <v>235</v>
+        <v>794</v>
       </c>
       <c r="FQ6" s="155" t="s">
         <v>613</v>
@@ -17925,20 +18101,20 @@
         <v>390</v>
       </c>
       <c r="FT6" s="155">
-        <v>250000000</v>
+        <v>1250000000</v>
       </c>
       <c r="FU6" s="155">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="FV6" s="155"/>
       <c r="FW6" s="155">
-        <v>24</v>
-      </c>
-      <c r="FX6" s="155" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY6" s="155">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="FX6" s="163">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="FY6" s="163">
+        <v>15</v>
       </c>
       <c r="FZ6" s="155">
         <v>1000000</v>
@@ -18040,16 +18216,16 @@
         <v>633</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="E7" s="141" t="s">
-        <v>667</v>
+        <v>347</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>434</v>
@@ -18064,7 +18240,7 @@
         <v>14430</v>
       </c>
       <c r="J7" s="153" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>544</v>
@@ -18073,17 +18249,23 @@
         <v>134</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="21"/>
+        <v>416</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="O7" s="21">
         <v>15413</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="Q7" s="143" t="s">
+        <v>769</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>692</v>
+      </c>
       <c r="S7" s="21">
         <v>15413</v>
       </c>
@@ -18174,8 +18356,8 @@
       <c r="CN7" s="25"/>
       <c r="CO7" s="25"/>
       <c r="CP7" s="93"/>
-      <c r="CQ7" s="165" t="s">
-        <v>82</v>
+      <c r="CQ7" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="CR7" s="25" t="s">
         <v>94</v>
@@ -18193,19 +18375,19 @@
         <v>103</v>
       </c>
       <c r="CW7" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CX7" s="25" t="s">
         <v>104</v>
       </c>
       <c r="CY7" s="26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CZ7" s="25" t="s">
         <v>98</v>
       </c>
       <c r="DA7" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="DB7" s="25" t="s">
         <v>105</v>
@@ -18217,10 +18399,10 @@
         <v>132</v>
       </c>
       <c r="DE7" s="25">
-        <v>1111222277</v>
+        <v>1111222211</v>
       </c>
       <c r="DF7" s="25" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
       <c r="DG7" s="25" t="s">
         <v>114</v>
@@ -18228,18 +18410,10 @@
       <c r="DH7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DI7" s="25">
-        <v>1111222278</v>
-      </c>
-      <c r="DJ7" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="DK7" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="DL7" s="25" t="s">
-        <v>179</v>
-      </c>
+      <c r="DI7" s="25"/>
+      <c r="DJ7" s="25"/>
+      <c r="DK7" s="26"/>
+      <c r="DL7" s="25"/>
       <c r="DM7" s="25" t="s">
         <v>501</v>
       </c>
@@ -18247,10 +18421,10 @@
         <v>133</v>
       </c>
       <c r="DO7" s="25" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="DP7" s="25" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
       <c r="DQ7" s="25" t="s">
         <v>83</v>
@@ -18270,8 +18444,8 @@
       <c r="DV7" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW7" s="165" t="s">
-        <v>170</v>
+      <c r="DW7" s="25" t="s">
+        <v>786</v>
       </c>
       <c r="DX7" s="25" t="s">
         <v>171</v>
@@ -18343,7 +18517,7 @@
         <v>181</v>
       </c>
       <c r="EU7" s="25" t="s">
-        <v>184</v>
+        <v>789</v>
       </c>
       <c r="EV7" s="25">
         <v>5238528</v>
@@ -18387,7 +18561,7 @@
       <c r="FI7" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ7" s="165" t="s">
+      <c r="FJ7" s="25" t="s">
         <v>318</v>
       </c>
       <c r="FK7" s="25" t="s">
@@ -18399,14 +18573,12 @@
       <c r="FM7" s="25">
         <v>200000</v>
       </c>
-      <c r="FN7" s="25" t="s">
-        <v>615</v>
-      </c>
+      <c r="FN7" s="25"/>
       <c r="FO7" s="25" t="s">
-        <v>234</v>
+        <v>793</v>
       </c>
       <c r="FP7" s="25" t="s">
-        <v>235</v>
+        <v>794</v>
       </c>
       <c r="FQ7" s="25" t="s">
         <v>613</v>
@@ -18418,23 +18590,23 @@
         <v>390</v>
       </c>
       <c r="FT7" s="25">
-        <v>250000000</v>
+        <v>1250000000</v>
       </c>
       <c r="FU7" s="25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="FV7" s="25"/>
       <c r="FW7" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX7" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY7" s="25">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="FX7" s="26">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="FY7" s="26">
+        <v>15</v>
       </c>
       <c r="FZ7" s="25">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="GA7" s="25">
         <v>750000</v>
@@ -18452,7 +18624,7 @@
         <v>318</v>
       </c>
       <c r="GF7" s="25" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="GG7" s="25"/>
       <c r="GH7" s="25">
@@ -18462,16 +18634,16 @@
         <v>233</v>
       </c>
       <c r="GJ7" s="25" t="s">
-        <v>241</v>
+        <v>791</v>
       </c>
       <c r="GK7" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL7" s="25" t="s">
-        <v>243</v>
+        <v>792</v>
+      </c>
+      <c r="GL7" s="25">
+        <v>20</v>
       </c>
       <c r="GM7" s="25" t="s">
-        <v>233</v>
+        <v>596</v>
       </c>
       <c r="GN7" s="25" t="s">
         <v>244</v>
@@ -18528,1519 +18700,2229 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:213" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:213" s="184" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>633</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>745</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="E8" s="141" t="s">
-        <v>667</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="B8" s="83" t="s">
+        <v>753</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="180" t="s">
+        <v>757</v>
+      </c>
+      <c r="E8" s="181" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="180" t="s">
         <v>434</v>
       </c>
-      <c r="G8" s="142">
+      <c r="G8" s="182">
         <v>31267833</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="179" t="s">
         <v>543</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="179">
         <v>14430</v>
       </c>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="186" t="s">
+        <v>765</v>
+      </c>
+      <c r="K8" s="179" t="s">
+        <v>544</v>
+      </c>
+      <c r="L8" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="179" t="s">
+        <v>416</v>
+      </c>
+      <c r="N8" s="179" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="179">
+        <v>15413</v>
+      </c>
+      <c r="P8" s="179" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="187" t="s">
+        <v>769</v>
+      </c>
+      <c r="R8" s="179" t="s">
+        <v>692</v>
+      </c>
+      <c r="S8" s="179">
+        <v>15413</v>
+      </c>
+      <c r="T8" s="179">
+        <v>30</v>
+      </c>
+      <c r="U8" s="179" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" s="179" t="s">
+        <v>148</v>
+      </c>
+      <c r="W8" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="182" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="182"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="180"/>
+      <c r="AK8" s="180"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="179"/>
+      <c r="AN8" s="179"/>
+      <c r="AO8" s="179"/>
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="179"/>
+      <c r="AR8" s="179"/>
+      <c r="AS8" s="180"/>
+      <c r="AT8" s="179"/>
+      <c r="AU8" s="179"/>
+      <c r="AV8" s="179"/>
+      <c r="AW8" s="180"/>
+      <c r="AX8" s="179"/>
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179"/>
+      <c r="BA8" s="179"/>
+      <c r="BB8" s="179"/>
+      <c r="BC8" s="179"/>
+      <c r="BD8" s="179"/>
+      <c r="BE8" s="179"/>
+      <c r="BF8" s="179"/>
+      <c r="BG8" s="180"/>
+      <c r="BH8" s="179"/>
+      <c r="BI8" s="179"/>
+      <c r="BJ8" s="179"/>
+      <c r="BK8" s="179"/>
+      <c r="BL8" s="182"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="179"/>
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="179"/>
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="179"/>
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="179"/>
+      <c r="BU8" s="180"/>
+      <c r="BV8" s="179"/>
+      <c r="BW8" s="179"/>
+      <c r="BX8" s="180"/>
+      <c r="BY8" s="180"/>
+      <c r="BZ8" s="179"/>
+      <c r="CA8" s="179"/>
+      <c r="CB8" s="178"/>
+      <c r="CC8" s="84"/>
+      <c r="CD8" s="84"/>
+      <c r="CE8" s="84"/>
+      <c r="CF8" s="84"/>
+      <c r="CG8" s="84"/>
+      <c r="CH8" s="84"/>
+      <c r="CI8" s="84"/>
+      <c r="CJ8" s="84"/>
+      <c r="CK8" s="84"/>
+      <c r="CL8" s="84"/>
+      <c r="CM8" s="84"/>
+      <c r="CN8" s="84"/>
+      <c r="CO8" s="84"/>
+      <c r="CP8" s="178"/>
+      <c r="CQ8" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR8" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT8" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU8" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV8" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW8" s="183" t="s">
+        <v>675</v>
+      </c>
+      <c r="CX8" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CY8" s="183" t="s">
+        <v>676</v>
+      </c>
+      <c r="CZ8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA8" s="183" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB8" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC8" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD8" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="DE8" s="84">
+        <v>1111222211</v>
+      </c>
+      <c r="DF8" s="84" t="s">
         <v>753</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="DG8" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="DH8" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="DI8" s="84"/>
+      <c r="DJ8" s="84"/>
+      <c r="DK8" s="183"/>
+      <c r="DL8" s="84"/>
+      <c r="DM8" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="DN8" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="DO8" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="DP8" s="84" t="s">
+        <v>782</v>
+      </c>
+      <c r="DQ8" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR8" s="84">
+        <v>10</v>
+      </c>
+      <c r="DS8" s="84">
+        <v>1</v>
+      </c>
+      <c r="DT8" s="84">
+        <v>10000000</v>
+      </c>
+      <c r="DU8" s="183" t="s">
+        <v>255</v>
+      </c>
+      <c r="DV8" s="178">
+        <v>1122777</v>
+      </c>
+      <c r="DW8" s="84" t="s">
+        <v>786</v>
+      </c>
+      <c r="DX8" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY8" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ8" s="84">
+        <v>735947227</v>
+      </c>
+      <c r="EA8" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="EB8" s="84">
+        <v>59185</v>
+      </c>
+      <c r="EC8" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE8" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF8" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="EG8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="EH8" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI8" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="EJ8" s="84">
+        <v>12430</v>
+      </c>
+      <c r="EK8" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL8" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="EN8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="EO8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="EP8" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ8" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="ER8" s="84" t="s">
+        <v>589</v>
+      </c>
+      <c r="ES8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET8" s="178" t="s">
+        <v>181</v>
+      </c>
+      <c r="EU8" s="84" t="s">
+        <v>789</v>
+      </c>
+      <c r="EV8" s="84">
+        <v>5238528</v>
+      </c>
+      <c r="EW8" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="EX8" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="EY8" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="EZ8" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="FA8" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="FB8" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="FC8" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="FD8" s="84">
+        <v>2023</v>
+      </c>
+      <c r="FE8" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="FF8" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="FG8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="FH8" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="FI8" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="FJ8" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="FK8" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="FL8" s="84">
+        <v>15</v>
+      </c>
+      <c r="FM8" s="84">
+        <v>200000</v>
+      </c>
+      <c r="FN8" s="84"/>
+      <c r="FO8" s="84" t="s">
+        <v>793</v>
+      </c>
+      <c r="FP8" s="84" t="s">
+        <v>794</v>
+      </c>
+      <c r="FQ8" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="FR8" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="FS8" s="84" t="s">
+        <v>390</v>
+      </c>
+      <c r="FT8" s="84">
+        <v>1000000000</v>
+      </c>
+      <c r="FU8" s="84">
+        <v>30</v>
+      </c>
+      <c r="FV8" s="84"/>
+      <c r="FW8" s="84">
+        <v>48</v>
+      </c>
+      <c r="FX8" s="183">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="FY8" s="183">
+        <v>15</v>
+      </c>
+      <c r="FZ8" s="84">
+        <v>5000000</v>
+      </c>
+      <c r="GA8" s="84">
+        <v>750000</v>
+      </c>
+      <c r="GB8" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="GC8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GD8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GE8" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="GF8" s="84" t="s">
+        <v>598</v>
+      </c>
+      <c r="GG8" s="84"/>
+      <c r="GH8" s="84">
+        <v>250000000</v>
+      </c>
+      <c r="GI8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GJ8" s="84" t="s">
+        <v>791</v>
+      </c>
+      <c r="GK8" s="84" t="s">
+        <v>792</v>
+      </c>
+      <c r="GL8" s="84">
+        <v>20</v>
+      </c>
+      <c r="GM8" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="GN8" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="GO8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GP8" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="GQ8" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR8" s="188" t="s">
+        <v>246</v>
+      </c>
+      <c r="GS8" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="GT8" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="GU8" s="178" t="s">
+        <v>250</v>
+      </c>
+      <c r="GV8" s="84">
+        <v>120100</v>
+      </c>
+      <c r="GW8" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="GX8" s="84">
+        <v>12430</v>
+      </c>
+      <c r="GY8" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="GZ8" s="84" t="s">
+        <v>519</v>
+      </c>
+      <c r="HA8" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="HB8" s="84" t="s">
+        <v>513</v>
+      </c>
+      <c r="HC8" s="84" t="s">
+        <v>515</v>
+      </c>
+      <c r="HD8" s="84" t="s">
+        <v>517</v>
+      </c>
+      <c r="HE8" s="178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:213" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="E9" s="141" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="G9" s="142">
+        <v>99887777</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I9" s="21">
+        <v>14430</v>
+      </c>
+      <c r="J9" s="153" t="s">
+        <v>766</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L9" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O9" s="21">
         <v>15413</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P9" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q8" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="R8" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="S8" s="21">
+      <c r="Q9" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="S9" s="21">
         <v>15413</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T9" s="21">
         <v>50</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U9" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="V9" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="W8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="142"/>
-      <c r="BM8" s="21"/>
-      <c r="BN8" s="21"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="24"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="93"/>
-      <c r="CC8" s="25"/>
-      <c r="CD8" s="25"/>
-      <c r="CE8" s="25"/>
-      <c r="CF8" s="25"/>
-      <c r="CG8" s="25"/>
-      <c r="CH8" s="25"/>
-      <c r="CI8" s="25"/>
-      <c r="CJ8" s="25"/>
-      <c r="CK8" s="25"/>
-      <c r="CL8" s="25"/>
-      <c r="CM8" s="25"/>
-      <c r="CN8" s="25"/>
-      <c r="CO8" s="25"/>
-      <c r="CP8" s="93"/>
-      <c r="CQ8" s="165" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="CU8" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="CV8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="CW8" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="CX8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="CY8" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="CZ8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="DA8" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="DB8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC8" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="DD8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="DE8" s="25">
-        <v>1111222277</v>
-      </c>
-      <c r="DF8" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="DG8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DH8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI8" s="25">
-        <v>1111222278</v>
-      </c>
-      <c r="DJ8" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="DK8" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="DL8" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM8" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="DN8" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO8" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="DP8" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="DQ8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR8" s="25">
-        <v>10</v>
-      </c>
-      <c r="DS8" s="25">
-        <v>1</v>
-      </c>
-      <c r="DT8" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="DU8" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV8" s="93">
-        <v>1122777</v>
-      </c>
-      <c r="DW8" s="165" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX8" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY8" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ8" s="25">
-        <v>735947227</v>
-      </c>
-      <c r="EA8" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="EB8" s="25">
-        <v>59185</v>
-      </c>
-      <c r="EC8" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="ED8" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="EE8" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF8" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="EG8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="EH8" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="EI8" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="EJ8" s="25">
-        <v>12430</v>
-      </c>
-      <c r="EK8" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="EL8" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="EM8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="EN8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="EO8" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="EP8" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="EQ8" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="ER8" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="ES8" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="ET8" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="EU8" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="EV8" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW8" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX8" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY8" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ8" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA8" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB8" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC8" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD8" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE8" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF8" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG8" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH8" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI8" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ8" s="165" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK8" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="FL8" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM8" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN8" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO8" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP8" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="FQ8" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR8" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS8" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT8" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="FU8" s="25">
-        <v>10</v>
-      </c>
-      <c r="FV8" s="25"/>
-      <c r="FW8" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX8" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY8" s="25">
-        <v>6</v>
-      </c>
-      <c r="FZ8" s="25">
-        <v>1000000</v>
-      </c>
-      <c r="GA8" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB8" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE8" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF8" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG8" s="25"/>
-      <c r="GH8" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ8" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK8" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL8" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN8" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO8" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP8" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ8" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR8" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="GS8" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="GT8" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="GU8" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="GV8" s="25">
-        <v>120100</v>
-      </c>
-      <c r="GW8" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="GX8" s="25">
-        <v>12430</v>
-      </c>
-      <c r="GY8" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="GZ8" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="HA8" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="HB8" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="HC8" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="HD8" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="HE8" s="93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:213" s="171" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
-        <v>633</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>746</v>
-      </c>
-      <c r="C9" s="166" t="s">
-        <v>746</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>750</v>
-      </c>
-      <c r="E9" s="168" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="167" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="142">
-        <v>31267833</v>
-      </c>
-      <c r="H9" s="166" t="s">
-        <v>543</v>
-      </c>
-      <c r="I9" s="166">
-        <v>14430</v>
-      </c>
-      <c r="J9" s="169" t="s">
-        <v>754</v>
-      </c>
-      <c r="K9" s="166" t="s">
-        <v>544</v>
-      </c>
-      <c r="L9" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="166" t="s">
-        <v>416</v>
-      </c>
-      <c r="N9" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="166">
-        <v>15413</v>
-      </c>
-      <c r="P9" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="R9" s="167" t="s">
-        <v>697</v>
-      </c>
-      <c r="S9" s="166">
-        <v>15413</v>
-      </c>
-      <c r="T9" s="166">
-        <v>20</v>
-      </c>
-      <c r="U9" s="166" t="s">
-        <v>149</v>
-      </c>
-      <c r="V9" s="166" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" s="166" t="s">
+      <c r="W9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="X9" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166" t="s">
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="166"/>
-      <c r="AD9" s="166"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
       <c r="AE9" s="142"/>
-      <c r="AF9" s="166"/>
-      <c r="AG9" s="166"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="166"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="167"/>
-      <c r="AL9" s="166"/>
-      <c r="AM9" s="166"/>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="166"/>
-      <c r="AP9" s="166"/>
-      <c r="AQ9" s="166"/>
-      <c r="AR9" s="166"/>
-      <c r="AS9" s="167"/>
-      <c r="AT9" s="166"/>
-      <c r="AU9" s="166"/>
-      <c r="AV9" s="166"/>
-      <c r="AW9" s="167"/>
-      <c r="AX9" s="166"/>
-      <c r="AY9" s="166"/>
-      <c r="AZ9" s="166"/>
-      <c r="BA9" s="166"/>
-      <c r="BB9" s="166"/>
-      <c r="BC9" s="166"/>
-      <c r="BD9" s="166"/>
-      <c r="BE9" s="166"/>
-      <c r="BF9" s="166"/>
-      <c r="BG9" s="167"/>
-      <c r="BH9" s="166"/>
-      <c r="BI9" s="166"/>
-      <c r="BJ9" s="166"/>
-      <c r="BK9" s="166"/>
-      <c r="BL9" s="142"/>
-      <c r="BM9" s="166"/>
-      <c r="BN9" s="166"/>
-      <c r="BO9" s="166"/>
-      <c r="BP9" s="166"/>
-      <c r="BQ9" s="166"/>
-      <c r="BR9" s="166"/>
-      <c r="BS9" s="166"/>
-      <c r="BT9" s="166"/>
-      <c r="BU9" s="167"/>
-      <c r="BV9" s="166"/>
-      <c r="BW9" s="166"/>
-      <c r="BX9" s="167"/>
-      <c r="BY9" s="167"/>
-      <c r="BZ9" s="166"/>
-      <c r="CA9" s="166"/>
-      <c r="CB9" s="93"/>
-      <c r="CC9" s="165"/>
-      <c r="CD9" s="165"/>
-      <c r="CE9" s="165"/>
-      <c r="CF9" s="165"/>
-      <c r="CG9" s="165"/>
-      <c r="CH9" s="165"/>
-      <c r="CI9" s="165"/>
-      <c r="CJ9" s="165"/>
-      <c r="CK9" s="165"/>
-      <c r="CL9" s="165"/>
-      <c r="CM9" s="165"/>
-      <c r="CN9" s="165"/>
-      <c r="CO9" s="165"/>
-      <c r="CP9" s="93"/>
-      <c r="CQ9" s="165" t="s">
+      <c r="AF9" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI9" s="21">
+        <v>1250000000</v>
+      </c>
+      <c r="AJ9" s="24">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="21">
+        <v>48</v>
+      </c>
+      <c r="AM9" s="21">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="AN9" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="AP9" s="21">
+        <v>5000000</v>
+      </c>
+      <c r="AQ9" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT9" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU9" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV9" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW9" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX9" s="21">
+        <v>2022</v>
+      </c>
+      <c r="AY9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21">
+        <v>1250000000</v>
+      </c>
+      <c r="BD9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF9" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="BG9" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="BH9" s="21">
+        <v>20</v>
+      </c>
+      <c r="BI9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL9" s="151" t="s">
+        <v>758</v>
+      </c>
+      <c r="BM9" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN9" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR9" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS9" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="BT9" s="21">
+        <v>99887777</v>
+      </c>
+      <c r="BU9" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV9" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="BW9" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="BX9" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY9" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="BZ9" s="21"/>
+      <c r="CA9" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="CB9" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC9" s="25">
+        <v>14430</v>
+      </c>
+      <c r="CD9" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="CE9" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF9" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG9" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="CR9" s="165" t="s">
+      <c r="CH9" s="25">
+        <v>15413</v>
+      </c>
+      <c r="CI9" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ9" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK9" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM9" s="25">
+        <v>15413</v>
+      </c>
+      <c r="CN9" s="25">
+        <v>12</v>
+      </c>
+      <c r="CO9" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP9" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ9" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR9" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS9" s="165" t="s">
+      <c r="CS9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT9" s="165" t="s">
+      <c r="CT9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU9" s="165" t="s">
+      <c r="CU9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV9" s="165" t="s">
+      <c r="CV9" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW9" s="170" t="s">
+      <c r="CW9" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="CX9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CY9" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="CZ9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA9" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="CX9" s="165" t="s">
-        <v>104</v>
-      </c>
-      <c r="CY9" s="170" t="s">
-        <v>678</v>
-      </c>
-      <c r="CZ9" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="DA9" s="170" t="s">
-        <v>679</v>
-      </c>
-      <c r="DB9" s="165" t="s">
+      <c r="DB9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC9" s="165" t="s">
+      <c r="DC9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD9" s="165" t="s">
+      <c r="DD9" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE9" s="165">
-        <v>1111222277</v>
-      </c>
-      <c r="DF9" s="165" t="s">
-        <v>746</v>
-      </c>
-      <c r="DG9" s="165" t="s">
+      <c r="DE9" s="25">
+        <v>2111222299</v>
+      </c>
+      <c r="DF9" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="DG9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH9" s="165" t="s">
+      <c r="DH9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DI9" s="165">
-        <v>1111222278</v>
-      </c>
-      <c r="DJ9" s="165" t="s">
-        <v>696</v>
-      </c>
-      <c r="DK9" s="170" t="s">
-        <v>681</v>
-      </c>
-      <c r="DL9" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM9" s="165" t="s">
+      <c r="DI9" s="25"/>
+      <c r="DJ9" s="25"/>
+      <c r="DK9" s="26"/>
+      <c r="DL9" s="25"/>
+      <c r="DM9" s="25" t="s">
         <v>501</v>
       </c>
       <c r="DN9" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO9" s="165" t="s">
-        <v>760</v>
-      </c>
-      <c r="DP9" s="165" t="s">
-        <v>746</v>
-      </c>
-      <c r="DQ9" s="165" t="s">
+      <c r="DO9" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="DP9" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="DQ9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR9" s="165">
+      <c r="DR9" s="25">
         <v>10</v>
       </c>
-      <c r="DS9" s="165">
+      <c r="DS9" s="25">
         <v>1</v>
       </c>
-      <c r="DT9" s="165">
+      <c r="DT9" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU9" s="170" t="s">
+      <c r="DU9" s="26" t="s">
         <v>255</v>
       </c>
       <c r="DV9" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW9" s="165" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX9" s="165" t="s">
+      <c r="DW9" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="DX9" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY9" s="165" t="s">
+      <c r="DY9" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ9" s="165">
+      <c r="DZ9" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA9" s="165" t="s">
+      <c r="EA9" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB9" s="165">
+      <c r="EB9" s="25">
         <v>59185</v>
       </c>
-      <c r="EC9" s="165" t="s">
+      <c r="EC9" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED9" s="165" t="s">
+      <c r="ED9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE9" s="165" t="s">
+      <c r="EE9" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF9" s="165" t="s">
+      <c r="EF9" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG9" s="165" t="s">
+      <c r="EG9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH9" s="165" t="s">
+      <c r="EH9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI9" s="165" t="s">
+      <c r="EI9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ9" s="165">
+      <c r="EJ9" s="25">
         <v>12430</v>
       </c>
-      <c r="EK9" s="165" t="s">
+      <c r="EK9" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL9" s="165" t="s">
+      <c r="EL9" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM9" s="165" t="s">
+      <c r="EM9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN9" s="165" t="s">
+      <c r="EN9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO9" s="165" t="s">
+      <c r="EO9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP9" s="165" t="s">
+      <c r="EP9" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ9" s="165" t="s">
+      <c r="EQ9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER9" s="165" t="s">
+      <c r="ER9" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES9" s="165" t="s">
+      <c r="ES9" s="25" t="s">
         <v>175</v>
       </c>
       <c r="ET9" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU9" s="165" t="s">
-        <v>184</v>
-      </c>
-      <c r="EV9" s="165">
+      <c r="EU9" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="EV9" s="25">
         <v>5238528</v>
       </c>
-      <c r="EW9" s="165" t="s">
+      <c r="EW9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="EX9" s="165" t="s">
+      <c r="EX9" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="EY9" s="165" t="s">
+      <c r="EY9" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="EZ9" s="165" t="s">
+      <c r="EZ9" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="FA9" s="165" t="s">
+      <c r="FA9" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="FB9" s="165" t="s">
+      <c r="FB9" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="FC9" s="165" t="s">
+      <c r="FC9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="FD9" s="165">
+      <c r="FD9" s="25">
         <v>2023</v>
       </c>
-      <c r="FE9" s="165" t="s">
+      <c r="FE9" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="FF9" s="165" t="s">
+      <c r="FF9" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="FG9" s="165" t="s">
+      <c r="FG9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="FH9" s="165" t="s">
+      <c r="FH9" s="25" t="s">
         <v>204</v>
       </c>
       <c r="FI9" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="FJ9" s="165" t="s">
+      <c r="FJ9" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="FK9" s="165" t="s">
+      <c r="FK9" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL9" s="165">
+      <c r="FL9" s="25">
         <v>15</v>
       </c>
-      <c r="FM9" s="165">
+      <c r="FM9" s="25">
         <v>200000</v>
       </c>
-      <c r="FN9" s="165" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO9" s="165" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP9" s="165" t="s">
-        <v>235</v>
-      </c>
-      <c r="FQ9" s="165" t="s">
+      <c r="FN9" s="25"/>
+      <c r="FO9" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FP9" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="FQ9" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="FR9" s="165" t="s">
+      <c r="FR9" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="FS9" s="165" t="s">
+      <c r="FS9" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="FT9" s="165">
+      <c r="FT9" s="25">
+        <v>1250000000</v>
+      </c>
+      <c r="FU9" s="25">
+        <v>30</v>
+      </c>
+      <c r="FV9" s="25"/>
+      <c r="FW9" s="25">
+        <v>48</v>
+      </c>
+      <c r="FX9" s="26">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="FY9" s="26">
+        <v>15</v>
+      </c>
+      <c r="FZ9" s="25">
+        <v>5000000</v>
+      </c>
+      <c r="GA9" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GB9" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GC9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GD9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GE9" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GF9" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GG9" s="25"/>
+      <c r="GH9" s="25">
         <v>250000000</v>
       </c>
-      <c r="FU9" s="165">
-        <v>10</v>
-      </c>
-      <c r="FV9" s="165"/>
-      <c r="FW9" s="165">
-        <v>24</v>
-      </c>
-      <c r="FX9" s="165" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY9" s="165">
-        <v>6</v>
-      </c>
-      <c r="FZ9" s="165">
-        <v>1000000</v>
-      </c>
-      <c r="GA9" s="165">
-        <v>750000</v>
-      </c>
-      <c r="GB9" s="165" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE9" s="165" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF9" s="165" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG9" s="165"/>
-      <c r="GH9" s="165">
-        <v>250000000</v>
-      </c>
-      <c r="GI9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ9" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK9" s="165" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL9" s="165" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN9" s="165" t="s">
+      <c r="GI9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GJ9" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="GK9" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="GL9" s="25">
+        <v>20</v>
+      </c>
+      <c r="GM9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GN9" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="GO9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP9" s="165" t="s">
+      <c r="GO9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GP9" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="GQ9" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR9" s="165" t="s">
+      <c r="GQ9" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR9" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS9" s="165" t="s">
+      <c r="GS9" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT9" s="165" t="s">
+      <c r="GT9" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU9" s="165" t="s">
+      <c r="GU9" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV9" s="165">
+      <c r="GV9" s="25">
         <v>120100</v>
       </c>
-      <c r="GW9" s="165" t="s">
+      <c r="GW9" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX9" s="165">
+      <c r="GX9" s="25">
         <v>12430</v>
       </c>
-      <c r="GY9" s="165" t="s">
+      <c r="GY9" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ9" s="165" t="s">
+      <c r="GZ9" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA9" s="165" t="s">
+      <c r="HA9" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB9" s="165" t="s">
+      <c r="HB9" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC9" s="165" t="s">
+      <c r="HC9" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD9" s="165" t="s">
+      <c r="HD9" s="25" t="s">
         <v>517</v>
       </c>
       <c r="HE9" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:213" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+    <row r="10" spans="1:213" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="93" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="E10" s="141" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="G10" s="142">
+        <v>99887777</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I10" s="21">
+        <v>14430</v>
+      </c>
+      <c r="J10" s="185" t="s">
+        <v>767</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="21">
+        <v>15413</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="189" t="s">
+        <v>741</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="S10" s="21">
+        <v>15413</v>
+      </c>
+      <c r="T10" s="21">
+        <v>20</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="AH10" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI10" s="21">
+        <v>1280000000</v>
+      </c>
+      <c r="AJ10" s="24">
+        <v>20</v>
+      </c>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="21">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="21">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="AN10" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO10" s="21">
+        <v>1000000</v>
+      </c>
+      <c r="AP10" s="21">
+        <v>40960000</v>
+      </c>
+      <c r="AQ10" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR10" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS10" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="AT10" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU10" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV10" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW10" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX10" s="21">
+        <v>2024</v>
+      </c>
+      <c r="AY10" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ10" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21">
+        <v>1280000000</v>
+      </c>
+      <c r="BD10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE10" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF10" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="BG10" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="BH10" s="21">
+        <v>20</v>
+      </c>
+      <c r="BI10" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="BJ10" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL10" s="151" t="s">
+        <v>759</v>
+      </c>
+      <c r="BM10" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN10" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR10" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS10" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="BT10" s="21">
+        <v>99887777</v>
+      </c>
+      <c r="BU10" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV10" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="BW10" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="BX10" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY10" s="24" t="s">
+        <v>775</v>
+      </c>
+      <c r="BZ10" s="21">
+        <v>4211222202</v>
+      </c>
+      <c r="CA10" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="CB10" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC10" s="25">
+        <v>14430</v>
+      </c>
+      <c r="CD10" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="CE10" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF10" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG10" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH10" s="25">
+        <v>15413</v>
+      </c>
+      <c r="CI10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK10" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM10" s="25">
+        <v>15413</v>
+      </c>
+      <c r="CN10" s="25">
+        <v>12</v>
+      </c>
+      <c r="CO10" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP10" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ10" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR10" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT10" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW10" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="CX10" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CY10" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="CZ10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA10" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC10" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD10" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="DE10" s="25">
+        <v>6111222299</v>
+      </c>
+      <c r="DF10" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="DG10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DH10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="DI10" s="25">
+        <v>4211222202</v>
+      </c>
+      <c r="DJ10" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="DK10" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="DL10" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="DM10" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="DN10" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="DO10" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="DP10" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="DQ10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR10" s="25">
+        <v>10</v>
+      </c>
+      <c r="DS10" s="25">
+        <v>1</v>
+      </c>
+      <c r="DT10" s="25">
+        <v>10000000</v>
+      </c>
+      <c r="DU10" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="DV10" s="93">
+        <v>1122777</v>
+      </c>
+      <c r="DW10" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="DX10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY10" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ10" s="25">
+        <v>735947227</v>
+      </c>
+      <c r="EA10" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="EB10" s="25">
+        <v>59185</v>
+      </c>
+      <c r="EC10" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF10" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="EG10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="EH10" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI10" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="EJ10" s="25">
+        <v>12430</v>
+      </c>
+      <c r="EK10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL10" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="EN10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="EO10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="EP10" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ10" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="ER10" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="ES10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET10" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="EU10" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="EV10" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EW10" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="EX10" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="EY10" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="EZ10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FA10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FB10" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FC10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FD10" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FE10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FF10" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FG10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FH10" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FI10" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FJ10" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FK10" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FL10" s="25">
+        <v>15</v>
+      </c>
+      <c r="FM10" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FN10" s="25"/>
+      <c r="FO10" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FP10" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="FQ10" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FR10" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FS10" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="FT10" s="25">
+        <v>1280000000</v>
+      </c>
+      <c r="FU10" s="25">
+        <v>30</v>
+      </c>
+      <c r="FV10" s="25"/>
+      <c r="FW10" s="25">
+        <v>48</v>
+      </c>
+      <c r="FX10" s="26">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="FY10" s="26">
+        <v>15</v>
+      </c>
+      <c r="FZ10" s="25">
+        <v>40960000</v>
+      </c>
+      <c r="GA10" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GB10" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GC10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GD10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GE10" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GF10" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GG10" s="25"/>
+      <c r="GH10" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GI10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GJ10" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="GK10" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="GL10" s="25">
+        <v>20</v>
+      </c>
+      <c r="GM10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GN10" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GO10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GP10" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="GQ10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR10" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="GS10" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="GT10" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="GU10" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="GV10" s="25">
+        <v>120100</v>
+      </c>
+      <c r="GW10" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="GX10" s="25">
+        <v>12430</v>
+      </c>
+      <c r="GY10" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="GZ10" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="HA10" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="HB10" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="HC10" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="HD10" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="HE10" s="93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:213" s="176" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="166" t="s">
         <v>633</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B11" s="167" t="s">
         <v>659</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C11" s="167" t="s">
         <v>659</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D11" s="168" t="s">
+        <v>740</v>
+      </c>
+      <c r="E11" s="169" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="168" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="170">
+        <v>31267833</v>
+      </c>
+      <c r="H11" s="167" t="s">
+        <v>543</v>
+      </c>
+      <c r="I11" s="167">
+        <v>14430</v>
+      </c>
+      <c r="J11" s="171" t="s">
+        <v>667</v>
+      </c>
+      <c r="K11" s="167" t="s">
+        <v>544</v>
+      </c>
+      <c r="L11" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="167" t="s">
+        <v>416</v>
+      </c>
+      <c r="N11" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="167">
+        <v>15413</v>
+      </c>
+      <c r="P11" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="172" t="s">
+        <v>741</v>
+      </c>
+      <c r="R11" s="168" t="s">
+        <v>692</v>
+      </c>
+      <c r="S11" s="167">
+        <v>15413</v>
+      </c>
+      <c r="T11" s="167">
+        <v>20</v>
+      </c>
+      <c r="U11" s="167" t="s">
+        <v>149</v>
+      </c>
+      <c r="V11" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y11" s="167"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="167" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="167"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="167"/>
+      <c r="AG11" s="167"/>
+      <c r="AH11" s="167"/>
+      <c r="AI11" s="167"/>
+      <c r="AJ11" s="168"/>
+      <c r="AK11" s="168"/>
+      <c r="AL11" s="167"/>
+      <c r="AM11" s="167"/>
+      <c r="AN11" s="167"/>
+      <c r="AO11" s="167"/>
+      <c r="AP11" s="167"/>
+      <c r="AQ11" s="167"/>
+      <c r="AR11" s="167"/>
+      <c r="AS11" s="168"/>
+      <c r="AT11" s="167"/>
+      <c r="AU11" s="167"/>
+      <c r="AV11" s="167"/>
+      <c r="AW11" s="168"/>
+      <c r="AX11" s="167"/>
+      <c r="AY11" s="167"/>
+      <c r="AZ11" s="167"/>
+      <c r="BA11" s="167"/>
+      <c r="BB11" s="167"/>
+      <c r="BC11" s="167"/>
+      <c r="BD11" s="167"/>
+      <c r="BE11" s="167"/>
+      <c r="BF11" s="167"/>
+      <c r="BG11" s="168"/>
+      <c r="BH11" s="167"/>
+      <c r="BI11" s="167"/>
+      <c r="BJ11" s="167"/>
+      <c r="BK11" s="167"/>
+      <c r="BL11" s="170"/>
+      <c r="BM11" s="167"/>
+      <c r="BN11" s="167"/>
+      <c r="BO11" s="167"/>
+      <c r="BP11" s="167"/>
+      <c r="BQ11" s="167"/>
+      <c r="BR11" s="167"/>
+      <c r="BS11" s="167"/>
+      <c r="BT11" s="167"/>
+      <c r="BU11" s="168"/>
+      <c r="BV11" s="167"/>
+      <c r="BW11" s="167"/>
+      <c r="BX11" s="168"/>
+      <c r="BY11" s="168"/>
+      <c r="BZ11" s="167"/>
+      <c r="CA11" s="167"/>
+      <c r="CB11" s="166"/>
+      <c r="CC11" s="173"/>
+      <c r="CD11" s="173"/>
+      <c r="CE11" s="173"/>
+      <c r="CF11" s="173"/>
+      <c r="CG11" s="173"/>
+      <c r="CH11" s="173"/>
+      <c r="CI11" s="173"/>
+      <c r="CJ11" s="173"/>
+      <c r="CK11" s="173"/>
+      <c r="CL11" s="173"/>
+      <c r="CM11" s="173"/>
+      <c r="CN11" s="173"/>
+      <c r="CO11" s="173"/>
+      <c r="CP11" s="166"/>
+      <c r="CQ11" s="173" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR11" s="173" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS11" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT11" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU11" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV11" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW11" s="174" t="s">
+        <v>675</v>
+      </c>
+      <c r="CX11" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="CY11" s="174" t="s">
+        <v>676</v>
+      </c>
+      <c r="CZ11" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="DA11" s="174" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB11" s="173" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC11" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="DD11" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="DE11" s="173">
+        <v>1111222277</v>
+      </c>
+      <c r="DF11" s="173" t="s">
+        <v>739</v>
+      </c>
+      <c r="DG11" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="DH11" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="DI11" s="173">
+        <v>1111222278</v>
+      </c>
+      <c r="DJ11" s="173" t="s">
+        <v>691</v>
+      </c>
+      <c r="DK11" s="174" t="s">
+        <v>679</v>
+      </c>
+      <c r="DL11" s="173" t="s">
+        <v>179</v>
+      </c>
+      <c r="DM11" s="173" t="s">
+        <v>501</v>
+      </c>
+      <c r="DN11" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="DO11" s="173" t="s">
+        <v>746</v>
+      </c>
+      <c r="DP11" s="173" t="s">
+        <v>739</v>
+      </c>
+      <c r="DQ11" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR11" s="173">
+        <v>10</v>
+      </c>
+      <c r="DS11" s="173">
+        <v>1</v>
+      </c>
+      <c r="DT11" s="173">
+        <v>10000000</v>
+      </c>
+      <c r="DU11" s="174" t="s">
+        <v>255</v>
+      </c>
+      <c r="DV11" s="166">
+        <v>1122777</v>
+      </c>
+      <c r="DW11" s="173" t="s">
+        <v>170</v>
+      </c>
+      <c r="DX11" s="173" t="s">
+        <v>171</v>
+      </c>
+      <c r="DY11" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ11" s="173">
+        <v>735947227</v>
+      </c>
+      <c r="EA11" s="173" t="s">
+        <v>173</v>
+      </c>
+      <c r="EB11" s="173">
+        <v>59185</v>
+      </c>
+      <c r="EC11" s="173" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED11" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE11" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="EF11" s="173" t="s">
+        <v>177</v>
+      </c>
+      <c r="EG11" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="EH11" s="173" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI11" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="EJ11" s="173">
+        <v>12430</v>
+      </c>
+      <c r="EK11" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="EL11" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="EM11" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="EN11" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="EO11" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="EP11" s="173" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ11" s="173" t="s">
+        <v>258</v>
+      </c>
+      <c r="ER11" s="173" t="s">
+        <v>589</v>
+      </c>
+      <c r="ES11" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET11" s="166" t="s">
+        <v>181</v>
+      </c>
+      <c r="EU11" s="175" t="s">
+        <v>751</v>
+      </c>
+      <c r="EV11" s="173">
+        <v>5238528</v>
+      </c>
+      <c r="EW11" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="EX11" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="EY11" s="173" t="s">
+        <v>200</v>
+      </c>
+      <c r="EZ11" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="FA11" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="FB11" s="173" t="s">
+        <v>393</v>
+      </c>
+      <c r="FC11" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="FD11" s="173">
+        <v>2023</v>
+      </c>
+      <c r="FE11" s="173" t="s">
+        <v>202</v>
+      </c>
+      <c r="FF11" s="173" t="s">
+        <v>203</v>
+      </c>
+      <c r="FG11" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="FH11" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="FI11" s="166" t="s">
+        <v>179</v>
+      </c>
+      <c r="FJ11" s="173" t="s">
+        <v>318</v>
+      </c>
+      <c r="FK11" s="173" t="s">
+        <v>237</v>
+      </c>
+      <c r="FL11" s="173">
+        <v>15</v>
+      </c>
+      <c r="FM11" s="173">
+        <v>200000</v>
+      </c>
+      <c r="FN11" s="173" t="s">
+        <v>615</v>
+      </c>
+      <c r="FO11" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="FP11" s="173" t="s">
         <v>750</v>
       </c>
-      <c r="E10" s="147" t="s">
-        <v>667</v>
-      </c>
-      <c r="F10" s="146" t="s">
-        <v>434</v>
-      </c>
-      <c r="G10" s="148">
-        <v>31267833</v>
-      </c>
-      <c r="H10" s="145" t="s">
-        <v>543</v>
-      </c>
-      <c r="I10" s="145">
-        <v>14430</v>
-      </c>
-      <c r="J10" s="154" t="s">
-        <v>668</v>
-      </c>
-      <c r="K10" s="145" t="s">
-        <v>544</v>
-      </c>
-      <c r="L10" s="145" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" s="145" t="s">
-        <v>416</v>
-      </c>
-      <c r="N10" s="145" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="145">
-        <v>15413</v>
-      </c>
-      <c r="P10" s="145" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10" s="149" t="s">
-        <v>755</v>
-      </c>
-      <c r="R10" s="146" t="s">
-        <v>697</v>
-      </c>
-      <c r="S10" s="145">
-        <v>15413</v>
-      </c>
-      <c r="T10" s="145">
-        <v>20</v>
-      </c>
-      <c r="U10" s="145" t="s">
-        <v>149</v>
-      </c>
-      <c r="V10" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="W10" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="148" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="146"/>
-      <c r="AK10" s="146"/>
-      <c r="AL10" s="145"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="145"/>
-      <c r="AS10" s="146"/>
-      <c r="AT10" s="145"/>
-      <c r="AU10" s="145"/>
-      <c r="AV10" s="145"/>
-      <c r="AW10" s="146"/>
-      <c r="AX10" s="145"/>
-      <c r="AY10" s="145"/>
-      <c r="AZ10" s="145"/>
-      <c r="BA10" s="145"/>
-      <c r="BB10" s="145"/>
-      <c r="BC10" s="145"/>
-      <c r="BD10" s="145"/>
-      <c r="BE10" s="145"/>
-      <c r="BF10" s="145"/>
-      <c r="BG10" s="146"/>
-      <c r="BH10" s="145"/>
-      <c r="BI10" s="145"/>
-      <c r="BJ10" s="145"/>
-      <c r="BK10" s="145"/>
-      <c r="BL10" s="148"/>
-      <c r="BM10" s="145"/>
-      <c r="BN10" s="145"/>
-      <c r="BO10" s="145"/>
-      <c r="BP10" s="145"/>
-      <c r="BQ10" s="145"/>
-      <c r="BR10" s="145"/>
-      <c r="BS10" s="145"/>
-      <c r="BT10" s="145"/>
-      <c r="BU10" s="146"/>
-      <c r="BV10" s="145"/>
-      <c r="BW10" s="145"/>
-      <c r="BX10" s="146"/>
-      <c r="BY10" s="146"/>
-      <c r="BZ10" s="145"/>
-      <c r="CA10" s="145"/>
-      <c r="CB10" s="94"/>
-      <c r="CC10" s="91"/>
-      <c r="CD10" s="91"/>
-      <c r="CE10" s="91"/>
-      <c r="CF10" s="91"/>
-      <c r="CG10" s="91"/>
-      <c r="CH10" s="91"/>
-      <c r="CI10" s="91"/>
-      <c r="CJ10" s="91"/>
-      <c r="CK10" s="91"/>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="91"/>
-      <c r="CO10" s="91"/>
-      <c r="CP10" s="94"/>
-      <c r="CQ10" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR10" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS10" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT10" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="CU10" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="CV10" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="CW10" s="92" t="s">
-        <v>677</v>
-      </c>
-      <c r="CX10" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="CY10" s="92" t="s">
-        <v>678</v>
-      </c>
-      <c r="CZ10" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="DA10" s="92" t="s">
-        <v>679</v>
-      </c>
-      <c r="DB10" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC10" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="DD10" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="DE10" s="91">
-        <v>1111222277</v>
-      </c>
-      <c r="DF10" s="91" t="s">
-        <v>746</v>
-      </c>
-      <c r="DG10" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="DH10" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="DI10" s="91">
-        <v>1111222278</v>
-      </c>
-      <c r="DJ10" s="91" t="s">
-        <v>696</v>
-      </c>
-      <c r="DK10" s="92" t="s">
-        <v>681</v>
-      </c>
-      <c r="DL10" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM10" s="91" t="s">
+      <c r="FQ11" s="173" t="s">
+        <v>613</v>
+      </c>
+      <c r="FR11" s="173" t="s">
+        <v>614</v>
+      </c>
+      <c r="FS11" s="173" t="s">
+        <v>390</v>
+      </c>
+      <c r="FT11" s="173">
+        <v>250000000</v>
+      </c>
+      <c r="FU11" s="173">
+        <v>10</v>
+      </c>
+      <c r="FV11" s="173"/>
+      <c r="FW11" s="173">
+        <v>24</v>
+      </c>
+      <c r="FX11" s="174" t="s">
+        <v>601</v>
+      </c>
+      <c r="FY11" s="174" t="s">
+        <v>601</v>
+      </c>
+      <c r="FZ11" s="173">
+        <v>1000000</v>
+      </c>
+      <c r="GA11" s="173">
+        <v>750000</v>
+      </c>
+      <c r="GB11" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="GC11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GD11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GE11" s="173" t="s">
+        <v>318</v>
+      </c>
+      <c r="GF11" s="173" t="s">
+        <v>597</v>
+      </c>
+      <c r="GG11" s="173"/>
+      <c r="GH11" s="173">
+        <v>250000000</v>
+      </c>
+      <c r="GI11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GJ11" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="GK11" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="GL11" s="173" t="s">
+        <v>243</v>
+      </c>
+      <c r="GM11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GN11" s="173" t="s">
+        <v>244</v>
+      </c>
+      <c r="GO11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GP11" s="173" t="s">
+        <v>237</v>
+      </c>
+      <c r="GQ11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR11" s="173" t="s">
+        <v>246</v>
+      </c>
+      <c r="GS11" s="173" t="s">
+        <v>248</v>
+      </c>
+      <c r="GT11" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="GU11" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="GV11" s="173">
+        <v>120100</v>
+      </c>
+      <c r="GW11" s="173" t="s">
         <v>501</v>
       </c>
-      <c r="DN10" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO10" s="91" t="s">
-        <v>760</v>
-      </c>
-      <c r="DP10" s="91" t="s">
-        <v>746</v>
-      </c>
-      <c r="DQ10" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR10" s="91">
-        <v>10</v>
-      </c>
-      <c r="DS10" s="91">
-        <v>1</v>
-      </c>
-      <c r="DT10" s="91">
-        <v>10000000</v>
-      </c>
-      <c r="DU10" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV10" s="94">
-        <v>1122777</v>
-      </c>
-      <c r="DW10" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX10" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY10" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ10" s="91">
-        <v>735947227</v>
-      </c>
-      <c r="EA10" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="EB10" s="91">
-        <v>59185</v>
-      </c>
-      <c r="EC10" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="ED10" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="EE10" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF10" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="EG10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="EH10" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="EI10" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="EJ10" s="91">
+      <c r="GX11" s="173">
         <v>12430</v>
       </c>
-      <c r="EK10" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="EL10" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="EM10" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="EN10" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="EO10" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="EP10" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="EQ10" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="ER10" s="91" t="s">
-        <v>589</v>
-      </c>
-      <c r="ES10" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="ET10" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="EU10" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="EV10" s="91">
-        <v>5238528</v>
-      </c>
-      <c r="EW10" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX10" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY10" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ10" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA10" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB10" s="91" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC10" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD10" s="91">
-        <v>2023</v>
-      </c>
-      <c r="FE10" s="91" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF10" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG10" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH10" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI10" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ10" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK10" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="FL10" s="91">
-        <v>15</v>
-      </c>
-      <c r="FM10" s="91">
-        <v>200000</v>
-      </c>
-      <c r="FN10" s="91" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO10" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP10" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="FQ10" s="91" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR10" s="91" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS10" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT10" s="91">
-        <v>250000000</v>
-      </c>
-      <c r="FU10" s="91">
-        <v>10</v>
-      </c>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91">
-        <v>24</v>
-      </c>
-      <c r="FX10" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="FY10" s="91">
-        <v>6</v>
-      </c>
-      <c r="FZ10" s="91">
-        <v>1000000</v>
-      </c>
-      <c r="GA10" s="91">
-        <v>750000</v>
-      </c>
-      <c r="GB10" s="91" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE10" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF10" s="91" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG10" s="91"/>
-      <c r="GH10" s="91">
-        <v>250000000</v>
-      </c>
-      <c r="GI10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ10" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK10" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL10" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN10" s="91" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP10" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ10" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR10" s="91" t="s">
-        <v>246</v>
-      </c>
-      <c r="GS10" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="GT10" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="GU10" s="91" t="s">
-        <v>250</v>
-      </c>
-      <c r="GV10" s="91">
-        <v>120100</v>
-      </c>
-      <c r="GW10" s="91" t="s">
-        <v>501</v>
-      </c>
-      <c r="GX10" s="91">
-        <v>12430</v>
-      </c>
-      <c r="GY10" s="91" t="s">
+      <c r="GY11" s="173" t="s">
         <v>508</v>
       </c>
-      <c r="GZ10" s="91" t="s">
+      <c r="GZ11" s="173" t="s">
         <v>519</v>
       </c>
-      <c r="HA10" s="91" t="s">
+      <c r="HA11" s="173" t="s">
         <v>511</v>
       </c>
-      <c r="HB10" s="91" t="s">
+      <c r="HB11" s="173" t="s">
         <v>513</v>
       </c>
-      <c r="HC10" s="91" t="s">
+      <c r="HC11" s="173" t="s">
         <v>515</v>
       </c>
-      <c r="HD10" s="91" t="s">
+      <c r="HD11" s="173" t="s">
         <v>517</v>
       </c>
-      <c r="HE10" s="94" t="s">
+      <c r="HE11" s="166" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="CD4" r:id="rId1" xr:uid="{580FF1F5-C549-4491-AA65-3D9750BC6E28}"/>
-    <hyperlink ref="CD5" r:id="rId2" xr:uid="{07F0636A-7934-4F68-98E3-A40458F1DE0C}"/>
-    <hyperlink ref="Q9" r:id="rId3" xr:uid="{A6E953C4-641C-435A-95C9-509C7486EE3E}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{2974DB2E-BF81-44CE-A49E-D3A55761F2C5}"/>
-    <hyperlink ref="J8" r:id="rId5" xr:uid="{7D954E0A-C43F-4DE8-A3BF-756F23EAAC40}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{2FFF8DFF-B84D-4400-A002-8EB486A9CF93}"/>
-    <hyperlink ref="J6" r:id="rId7" xr:uid="{DDD47950-0E37-452B-A1C1-AB56105ED32E}"/>
-    <hyperlink ref="Q8" r:id="rId8" xr:uid="{AF9FAEA8-DB6F-478C-9083-2582CAE2387F}"/>
-    <hyperlink ref="Q10" r:id="rId9" xr:uid="{D717FEB7-D964-4186-B5A6-A32C658C90B7}"/>
-    <hyperlink ref="J10" r:id="rId10" xr:uid="{773CE8EB-9EED-460D-B3F4-738E5A7A2F32}"/>
+    <hyperlink ref="CD4" r:id="rId1" xr:uid="{418D9573-84F2-4F0E-8C04-DBF600443B68}"/>
+    <hyperlink ref="CD5" r:id="rId2" xr:uid="{48F86F45-A943-488C-A4E3-B06792327C88}"/>
+    <hyperlink ref="Q10" r:id="rId3" xr:uid="{59012C1E-25C9-4781-95D6-59E5520DA23F}"/>
+    <hyperlink ref="J10" r:id="rId4" xr:uid="{914BD7DF-548F-400D-B583-3EF9EB3363DB}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{41AFF5FB-1705-4DE8-A38B-302360212420}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{A31BD246-EA3C-4447-9225-7123A073580B}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{13F492AE-03CE-4E99-A48E-9500A1BFD167}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{9B1E4D4E-E1D6-4C5E-907B-B2F776E412EF}"/>
+    <hyperlink ref="Q11" r:id="rId9" xr:uid="{35AA2A02-4291-4E14-B9EC-08251F57AA1F}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{4EEA8533-3094-4278-867D-E33DB60D335A}"/>
+    <hyperlink ref="Q6" r:id="rId11" xr:uid="{B7613DA7-65A3-4DB5-B502-355956CF57FE}"/>
+    <hyperlink ref="Q8" r:id="rId12" xr:uid="{251E3847-6085-4274-A00E-63D105464CC4}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{026851A7-7436-42F1-9503-8C9E7472C62D}"/>
+    <hyperlink ref="Q7" r:id="rId14" xr:uid="{24CA6D00-6DBF-463A-AE7D-78891F30B082}"/>
+    <hyperlink ref="J3" r:id="rId15" xr:uid="{0D9D3A8B-644F-4224-A3CF-33DB134CF988}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400718A9-61C8-4B4D-B77B-94B054D3DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE3E17-214C-4000-AB79-3E2620BA96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint2 (dari Aplikasi Baru (2)" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="812">
   <si>
     <t>konsumen</t>
   </si>
@@ -2298,9 +2298,6 @@
     <t>E.V. - W2</t>
   </si>
   <si>
-    <t>A1096 - Auto High</t>
-  </si>
-  <si>
     <t>BUDI</t>
   </si>
   <si>
@@ -2412,9 +2409,6 @@
     <t>OKI 3</t>
   </si>
   <si>
-    <t>C677 - CVO Motor</t>
-  </si>
-  <si>
     <t>AD NON PACKET ARREAR</t>
   </si>
   <si>
@@ -2433,13 +2427,58 @@
     <t>DMO23RAPINDO004</t>
   </si>
   <si>
-    <t>ANATA GA SUKI DE</t>
-  </si>
-  <si>
     <t>3525010510930689</t>
   </si>
   <si>
     <t>sukide@gmail.com</t>
+  </si>
+  <si>
+    <t>K_nomorNPWP</t>
+  </si>
+  <si>
+    <t>K_NpwpMilik</t>
+  </si>
+  <si>
+    <t>092542943407000</t>
+  </si>
+  <si>
+    <t>F_tujuanPembiayaan</t>
+  </si>
+  <si>
+    <t>Investasi</t>
+  </si>
+  <si>
+    <t>Modal Kerja</t>
+  </si>
+  <si>
+    <t>Konsumsi</t>
+  </si>
+  <si>
+    <t>Lainnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C677 </t>
+  </si>
+  <si>
+    <t>DP RINGAN</t>
+  </si>
+  <si>
+    <t>8.3969</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>L_AsuransiLainnyaTenor</t>
+  </si>
+  <si>
+    <t>BUDI 5</t>
+  </si>
+  <si>
+    <t>CHAMBER</t>
+  </si>
+  <si>
+    <t>KILLJOY</t>
   </si>
 </sst>
 </file>
@@ -9559,8 +9598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E6878C-B034-47D1-9866-C29D059CCCD9}">
   <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12030,7 +12069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87219BD-EEF3-4788-81C2-0D638916E126}">
   <dimension ref="A1:FJ7"/>
   <sheetViews>
-    <sheetView topLeftCell="EV1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
@@ -14658,10 +14697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9714DEC-43C5-4011-A240-3BE24ABA98F9}">
-  <dimension ref="A1:HE11"/>
+  <dimension ref="A1:HI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14758,124 +14797,128 @@
     <col min="93" max="93" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.44140625" customWidth="1"/>
     <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="26" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="25" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="16" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="9" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="15" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="26" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="21" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="16" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="16" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="9" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="10" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="20" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="11" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="17" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="185" max="186" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="20" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="29" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="34" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="22" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="146.88671875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="16" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="10" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="20" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="185" max="186" width="17" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="20" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="29" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="29" customWidth="1"/>
+    <col min="198" max="198" width="34" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="22" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="146.88671875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="16" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:213" s="138" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:217" s="138" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
         <v>632</v>
       </c>
@@ -15162,361 +15205,373 @@
         <v>555</v>
       </c>
       <c r="CR1" s="132" t="s">
+        <v>797</v>
+      </c>
+      <c r="CS1" s="132" t="s">
+        <v>796</v>
+      </c>
+      <c r="CT1" s="132" t="s">
         <v>518</v>
       </c>
-      <c r="CS1" s="132" t="s">
+      <c r="CU1" s="132" t="s">
         <v>556</v>
       </c>
-      <c r="CT1" s="132" t="s">
+      <c r="CV1" s="132" t="s">
         <v>557</v>
       </c>
-      <c r="CU1" s="132" t="s">
+      <c r="CW1" s="132" t="s">
         <v>558</v>
       </c>
-      <c r="CV1" s="132" t="s">
+      <c r="CX1" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="CW1" s="132" t="s">
+      <c r="CY1" s="132" t="s">
         <v>560</v>
       </c>
-      <c r="CX1" s="132" t="s">
+      <c r="CZ1" s="132" t="s">
         <v>561</v>
       </c>
-      <c r="CY1" s="132" t="s">
+      <c r="DA1" s="132" t="s">
         <v>562</v>
       </c>
-      <c r="CZ1" s="132" t="s">
+      <c r="DB1" s="132" t="s">
         <v>563</v>
       </c>
-      <c r="DA1" s="132" t="s">
+      <c r="DC1" s="132" t="s">
         <v>564</v>
       </c>
-      <c r="DB1" s="132" t="s">
+      <c r="DD1" s="132" t="s">
         <v>565</v>
       </c>
-      <c r="DC1" s="132" t="s">
+      <c r="DE1" s="132" t="s">
         <v>566</v>
       </c>
-      <c r="DD1" s="132" t="s">
+      <c r="DF1" s="132" t="s">
         <v>567</v>
       </c>
-      <c r="DE1" s="132" t="s">
+      <c r="DG1" s="132" t="s">
         <v>568</v>
       </c>
-      <c r="DF1" s="132" t="s">
+      <c r="DH1" s="132" t="s">
         <v>569</v>
       </c>
-      <c r="DG1" s="132" t="s">
+      <c r="DI1" s="132" t="s">
         <v>570</v>
       </c>
-      <c r="DH1" s="132" t="s">
+      <c r="DJ1" s="132" t="s">
         <v>571</v>
       </c>
-      <c r="DI1" s="132" t="s">
+      <c r="DK1" s="132" t="s">
         <v>572</v>
       </c>
-      <c r="DJ1" s="132" t="s">
+      <c r="DL1" s="132" t="s">
         <v>573</v>
       </c>
-      <c r="DK1" s="132" t="s">
+      <c r="DM1" s="132" t="s">
         <v>574</v>
       </c>
-      <c r="DL1" s="132" t="s">
+      <c r="DN1" s="132" t="s">
         <v>575</v>
       </c>
-      <c r="DM1" s="132" t="s">
+      <c r="DO1" s="132" t="s">
         <v>576</v>
       </c>
-      <c r="DN1" s="133" t="s">
+      <c r="DP1" s="133" t="s">
         <v>577</v>
       </c>
-      <c r="DO1" s="134" t="s">
+      <c r="DQ1" s="134" t="s">
         <v>579</v>
       </c>
-      <c r="DP1" s="134" t="s">
+      <c r="DR1" s="134" t="s">
+        <v>799</v>
+      </c>
+      <c r="DS1" s="134" t="s">
         <v>603</v>
       </c>
-      <c r="DQ1" s="134" t="s">
+      <c r="DT1" s="134" t="s">
         <v>604</v>
       </c>
-      <c r="DR1" s="134" t="s">
+      <c r="DU1" s="134" t="s">
         <v>580</v>
       </c>
-      <c r="DS1" s="134" t="s">
+      <c r="DV1" s="134" t="s">
         <v>581</v>
       </c>
-      <c r="DT1" s="134" t="s">
+      <c r="DW1" s="134" t="s">
         <v>582</v>
       </c>
-      <c r="DU1" s="134" t="s">
+      <c r="DX1" s="134" t="s">
         <v>583</v>
       </c>
-      <c r="DV1" s="165" t="s">
+      <c r="DY1" s="165" t="s">
         <v>584</v>
       </c>
-      <c r="DW1" s="86" t="s">
+      <c r="DZ1" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="DX1" s="86" t="s">
+      <c r="EA1" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="DY1" s="86" t="s">
+      <c r="EB1" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="DZ1" s="86" t="s">
+      <c r="EC1" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="EA1" s="86" t="s">
+      <c r="ED1" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="EB1" s="86" t="s">
+      <c r="EE1" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="EC1" s="86" t="s">
+      <c r="EF1" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="ED1" s="86" t="s">
+      <c r="EG1" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="EE1" s="86" t="s">
+      <c r="EH1" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="EF1" s="86" t="s">
+      <c r="EI1" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="EG1" s="86" t="s">
+      <c r="EJ1" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="EH1" s="86" t="s">
+      <c r="EK1" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="EI1" s="86" t="s">
+      <c r="EL1" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="EJ1" s="86" t="s">
+      <c r="EM1" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="EK1" s="86" t="s">
+      <c r="EN1" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="EL1" s="86" t="s">
+      <c r="EO1" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="EM1" s="86" t="s">
+      <c r="EP1" s="86" t="s">
         <v>503</v>
       </c>
-      <c r="EN1" s="86" t="s">
+      <c r="EQ1" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="EO1" s="86" t="s">
+      <c r="ER1" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="EP1" s="86" t="s">
+      <c r="ES1" s="86" t="s">
         <v>585</v>
       </c>
-      <c r="EQ1" s="86" t="s">
+      <c r="ET1" s="86" t="s">
         <v>586</v>
       </c>
-      <c r="ER1" s="86" t="s">
+      <c r="EU1" s="86" t="s">
         <v>587</v>
       </c>
-      <c r="ES1" s="86" t="s">
+      <c r="EV1" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="ET1" s="90" t="s">
+      <c r="EW1" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="EU1" s="132" t="s">
+      <c r="EX1" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="EV1" s="132" t="s">
+      <c r="EY1" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="EW1" s="132" t="s">
+      <c r="EZ1" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="EX1" s="132" t="s">
+      <c r="FA1" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="EY1" s="132" t="s">
+      <c r="FB1" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="EZ1" s="132" t="s">
+      <c r="FC1" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="FA1" s="132" t="s">
+      <c r="FD1" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="FB1" s="132" t="s">
+      <c r="FE1" s="132" t="s">
         <v>392</v>
       </c>
-      <c r="FC1" s="132" t="s">
+      <c r="FF1" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="FD1" s="132" t="s">
+      <c r="FG1" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="FE1" s="132" t="s">
+      <c r="FH1" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="FF1" s="132" t="s">
+      <c r="FI1" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="FG1" s="132" t="s">
+      <c r="FJ1" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="FH1" s="132" t="s">
+      <c r="FK1" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="FI1" s="133" t="s">
+      <c r="FL1" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="FJ1" s="86" t="s">
+      <c r="FM1" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="FK1" s="86" t="s">
+      <c r="FN1" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="FL1" s="86" t="s">
+      <c r="FO1" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="FM1" s="86" t="s">
+      <c r="FP1" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="FN1" s="86" t="s">
+      <c r="FQ1" s="86" t="s">
         <v>611</v>
       </c>
-      <c r="FO1" s="86" t="s">
+      <c r="FR1" s="86" t="s">
         <v>610</v>
       </c>
-      <c r="FP1" s="86" t="s">
+      <c r="FS1" s="86" t="s">
         <v>612</v>
       </c>
-      <c r="FQ1" s="86" t="s">
+      <c r="FT1" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="FR1" s="86" t="s">
+      <c r="FU1" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="FS1" s="86" t="s">
+      <c r="FV1" s="86" t="s">
         <v>635</v>
       </c>
-      <c r="FT1" s="86" t="s">
+      <c r="FW1" s="86" t="s">
         <v>636</v>
       </c>
-      <c r="FU1" s="86" t="s">
+      <c r="FX1" s="86" t="s">
         <v>637</v>
       </c>
-      <c r="FV1" s="86" t="s">
+      <c r="FY1" s="86" t="s">
         <v>638</v>
       </c>
-      <c r="FW1" s="86" t="s">
+      <c r="FZ1" s="86" t="s">
         <v>639</v>
       </c>
-      <c r="FX1" s="86" t="s">
+      <c r="GA1" s="86" t="s">
         <v>640</v>
       </c>
-      <c r="FY1" s="86" t="s">
+      <c r="GB1" s="86" t="s">
         <v>641</v>
       </c>
-      <c r="FZ1" s="86" t="s">
+      <c r="GC1" s="86" t="s">
         <v>642</v>
       </c>
-      <c r="GA1" s="86" t="s">
+      <c r="GD1" s="86" t="s">
         <v>643</v>
       </c>
-      <c r="GB1" s="86" t="s">
+      <c r="GE1" s="86" t="s">
         <v>644</v>
       </c>
-      <c r="GC1" s="86" t="s">
+      <c r="GF1" s="86" t="s">
         <v>645</v>
       </c>
-      <c r="GD1" s="86" t="s">
+      <c r="GG1" s="86" t="s">
         <v>646</v>
       </c>
-      <c r="GE1" s="86" t="s">
+      <c r="GH1" s="86" t="s">
         <v>647</v>
       </c>
-      <c r="GF1" s="86" t="s">
+      <c r="GI1" s="86" t="s">
         <v>648</v>
       </c>
-      <c r="GG1" s="86" t="s">
+      <c r="GJ1" s="86" t="s">
         <v>649</v>
       </c>
-      <c r="GH1" s="86" t="s">
+      <c r="GK1" s="86" t="s">
         <v>650</v>
       </c>
-      <c r="GI1" s="86" t="s">
+      <c r="GL1" s="86" t="s">
         <v>651</v>
       </c>
-      <c r="GJ1" s="86" t="s">
+      <c r="GM1" s="86" t="s">
         <v>652</v>
       </c>
-      <c r="GK1" s="86" t="s">
+      <c r="GN1" s="86" t="s">
         <v>653</v>
       </c>
-      <c r="GL1" s="86" t="s">
+      <c r="GO1" s="86" t="s">
+        <v>808</v>
+      </c>
+      <c r="GP1" s="86" t="s">
         <v>654</v>
       </c>
-      <c r="GM1" s="86" t="s">
+      <c r="GQ1" s="86" t="s">
         <v>655</v>
       </c>
-      <c r="GN1" s="86" t="s">
+      <c r="GR1" s="86" t="s">
         <v>656</v>
       </c>
-      <c r="GO1" s="86" t="s">
+      <c r="GS1" s="86" t="s">
         <v>657</v>
       </c>
-      <c r="GP1" s="86" t="s">
+      <c r="GT1" s="86" t="s">
         <v>658</v>
       </c>
-      <c r="GQ1" s="90" t="s">
+      <c r="GU1" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="GR1" s="135" t="s">
+      <c r="GV1" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="GS1" s="136" t="s">
+      <c r="GW1" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="GT1" s="136" t="s">
+      <c r="GX1" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="GU1" s="137" t="s">
+      <c r="GY1" s="137" t="s">
         <v>251</v>
       </c>
-      <c r="GV1" s="86" t="s">
+      <c r="GZ1" s="86" t="s">
         <v>504</v>
       </c>
-      <c r="GW1" s="86" t="s">
+      <c r="HA1" s="86" t="s">
         <v>505</v>
       </c>
-      <c r="GX1" s="86" t="s">
+      <c r="HB1" s="86" t="s">
         <v>506</v>
       </c>
-      <c r="GY1" s="86" t="s">
+      <c r="HC1" s="86" t="s">
         <v>507</v>
       </c>
-      <c r="GZ1" s="86" t="s">
+      <c r="HD1" s="86" t="s">
         <v>509</v>
       </c>
-      <c r="HA1" s="86" t="s">
+      <c r="HE1" s="86" t="s">
         <v>510</v>
       </c>
-      <c r="HB1" s="86" t="s">
+      <c r="HF1" s="86" t="s">
         <v>512</v>
       </c>
-      <c r="HC1" s="86" t="s">
+      <c r="HG1" s="86" t="s">
         <v>514</v>
       </c>
-      <c r="HD1" s="86" t="s">
+      <c r="HH1" s="86" t="s">
         <v>516</v>
       </c>
-      <c r="HE1" s="90" t="s">
+      <c r="HI1" s="90" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:213" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>633</v>
       </c>
@@ -15665,368 +15720,380 @@
         <v>82</v>
       </c>
       <c r="CR2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS2" s="25" t="s">
+      <c r="CU2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CV2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CW2" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV2" s="25" t="s">
+      <c r="CX2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW2" s="25">
+      <c r="CY2" s="25">
         <v>2000</v>
       </c>
-      <c r="CX2" s="25" t="s">
+      <c r="CZ2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY2" s="25">
+      <c r="DA2" s="25">
         <v>10000000</v>
       </c>
-      <c r="CZ2" s="25" t="s">
+      <c r="DB2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA2" s="25">
+      <c r="DC2" s="25">
         <v>30000000</v>
       </c>
-      <c r="DB2" s="25" t="s">
+      <c r="DD2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="25" t="s">
+      <c r="DE2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD2" s="25" t="s">
+      <c r="DF2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE2" s="25">
+      <c r="DG2" s="25">
         <v>1111222201</v>
       </c>
-      <c r="DF2" s="25" t="s">
+      <c r="DH2" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="DG2" s="25" t="s">
+      <c r="DI2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH2" s="25" t="s">
+      <c r="DJ2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="DI2" s="25">
+      <c r="DK2" s="25">
         <v>1111222202</v>
       </c>
-      <c r="DJ2" s="25" t="s">
+      <c r="DL2" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="DK2" s="26" t="s">
+      <c r="DM2" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="DL2" s="25" t="s">
+      <c r="DN2" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="DM2" s="25" t="s">
+      <c r="DO2" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN2" s="93" t="s">
+      <c r="DP2" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO2" s="25" t="s">
+      <c r="DQ2" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="DP2" s="25" t="s">
+      <c r="DR2" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS2" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="DQ2" s="25" t="s">
+      <c r="DT2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR2" s="25">
+      <c r="DU2" s="25">
         <v>10</v>
       </c>
-      <c r="DS2" s="25">
+      <c r="DV2" s="25">
         <v>1</v>
       </c>
-      <c r="DT2" s="25">
+      <c r="DW2" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU2" s="26" t="s">
+      <c r="DX2" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="DV2" s="93">
+      <c r="DY2" s="93">
         <v>1122335</v>
       </c>
-      <c r="DW2" s="25" t="s">
+      <c r="DZ2" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="DX2" s="25" t="s">
+      <c r="EA2" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY2" s="25" t="s">
+      <c r="EB2" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ2" s="25">
+      <c r="EC2" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA2" s="25" t="s">
+      <c r="ED2" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB2" s="25">
+      <c r="EE2" s="25">
         <v>59185</v>
       </c>
-      <c r="EC2" s="25" t="s">
+      <c r="EF2" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED2" s="25" t="s">
+      <c r="EG2" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE2" s="25" t="s">
+      <c r="EH2" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF2" s="25" t="s">
+      <c r="EI2" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG2" s="25" t="s">
+      <c r="EJ2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH2" s="25" t="s">
+      <c r="EK2" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI2" s="25" t="s">
+      <c r="EL2" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ2" s="25">
+      <c r="EM2" s="25">
         <v>12430</v>
       </c>
-      <c r="EK2" s="25" t="s">
+      <c r="EN2" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL2" s="25" t="s">
+      <c r="EO2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM2" s="25" t="s">
+      <c r="EP2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN2" s="25" t="s">
+      <c r="EQ2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO2" s="25" t="s">
+      <c r="ER2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP2" s="25" t="s">
+      <c r="ES2" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ2" s="26" t="s">
+      <c r="ET2" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="ER2" s="26" t="s">
+      <c r="EU2" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="ES2" s="26" t="s">
+      <c r="EV2" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="ET2" s="93" t="s">
+      <c r="EW2" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU2" s="25" t="s">
+      <c r="EX2" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY2" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ2" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA2" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB2" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC2" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD2" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE2" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG2" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH2" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI2" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ2" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK2" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL2" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM2" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN2" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO2" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP2" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ2" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR2" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS2" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT2" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU2" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV2" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW2" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="FX2" s="25">
+        <v>10</v>
+      </c>
+      <c r="FY2" s="25"/>
+      <c r="FZ2" s="25">
+        <v>24</v>
+      </c>
+      <c r="GA2" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB2" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC2" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="GD2" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE2" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH2" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI2" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ2" s="25"/>
+      <c r="GK2" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM2" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV2" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW2" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX2" s="25" t="s">
-        <v>749</v>
-      </c>
-      <c r="EY2" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ2" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA2" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB2" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC2" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD2" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE2" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF2" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG2" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH2" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI2" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ2" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK2" s="25" t="s">
+      <c r="GN2" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO2" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP2" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR2" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS2" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT2" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL2" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM2" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN2" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO2" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP2" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="FQ2" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR2" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS2" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT2" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="FU2" s="25">
-        <v>10</v>
-      </c>
-      <c r="FV2" s="25"/>
-      <c r="FW2" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX2" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FY2" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FZ2" s="25">
-        <v>1000000</v>
-      </c>
-      <c r="GA2" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB2" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE2" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF2" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG2" s="25"/>
-      <c r="GH2" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ2" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK2" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL2" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN2" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO2" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP2" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ2" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR2" s="98" t="s">
+      <c r="GU2" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV2" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS2" s="25" t="s">
+      <c r="GW2" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT2" s="25" t="s">
+      <c r="GX2" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU2" s="93" t="s">
+      <c r="GY2" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV2" s="25">
+      <c r="GZ2" s="25">
         <v>120100</v>
       </c>
-      <c r="GW2" s="25" t="s">
+      <c r="HA2" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX2" s="25">
+      <c r="HB2" s="25">
         <v>12430</v>
       </c>
-      <c r="GY2" s="25" t="s">
+      <c r="HC2" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ2" s="25" t="s">
+      <c r="HD2" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA2" s="25" t="s">
+      <c r="HE2" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB2" s="25" t="s">
+      <c r="HF2" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC2" s="25" t="s">
+      <c r="HG2" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD2" s="25" t="s">
+      <c r="HH2" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE2" s="93" t="s">
+      <c r="HI2" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:213" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:217" x14ac:dyDescent="0.3">
+      <c r="A3" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>796</v>
+      <c r="B3" s="21" t="s">
+        <v>811</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E3" s="141" t="s">
         <v>666</v>
@@ -16044,7 +16111,7 @@
         <v>14430</v>
       </c>
       <c r="J3" s="190" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>544</v>
@@ -16164,357 +16231,369 @@
         <v>416</v>
       </c>
       <c r="CR3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS3" s="25" t="s">
+      <c r="CU3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="25" t="s">
+      <c r="CV3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU3" s="25" t="s">
+      <c r="CW3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV3" s="25" t="s">
+      <c r="CX3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW3" s="26" t="s">
+      <c r="CY3" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="CX3" s="25" t="s">
+      <c r="CZ3" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY3" s="26" t="s">
+      <c r="DA3" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="CZ3" s="25" t="s">
+      <c r="DB3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA3" s="26" t="s">
+      <c r="DC3" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="DB3" s="25" t="s">
+      <c r="DD3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC3" s="25" t="s">
+      <c r="DE3" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD3" s="25" t="s">
+      <c r="DF3" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE3" s="25">
+      <c r="DG3" s="25">
         <v>1111222277</v>
       </c>
-      <c r="DF3" s="25" t="s">
+      <c r="DH3" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="DI3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK3" s="25">
+        <v>1111222278</v>
+      </c>
+      <c r="DL3" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="DM3" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="DN3" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO3" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP3" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ3" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="DR3" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="DS3" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="DG3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="DH3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="DI3" s="25">
-        <v>1111222278</v>
-      </c>
-      <c r="DJ3" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="DK3" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="DL3" s="25" t="s">
+      <c r="DT3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU3" s="25">
+        <v>10</v>
+      </c>
+      <c r="DV3" s="25">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="25">
+        <v>10000000</v>
+      </c>
+      <c r="DX3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="DY3" s="93">
+        <v>1122777</v>
+      </c>
+      <c r="DZ3" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC3" s="25">
+        <v>735947227</v>
+      </c>
+      <c r="ED3" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE3" s="25">
+        <v>59185</v>
+      </c>
+      <c r="EF3" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI3" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK3" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="DM3" s="25" t="s">
+      <c r="EL3" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM3" s="25">
+        <v>12430</v>
+      </c>
+      <c r="EN3" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO3" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER3" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES3" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET3" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU3" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW3" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX3" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY3" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA3" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE3" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF3" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG3" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH3" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI3" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ3" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK3" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL3" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM3" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN3" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO3" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP3" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ3" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR3" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS3" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT3" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU3" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV3" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW3" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="FX3" s="25">
+        <v>10</v>
+      </c>
+      <c r="FY3" s="25"/>
+      <c r="FZ3" s="25">
+        <v>24</v>
+      </c>
+      <c r="GA3" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB3" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC3" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="GD3" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE3" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH3" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI3" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ3" s="25"/>
+      <c r="GK3" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM3" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN3" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO3" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP3" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR3" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS3" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT3" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU3" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV3" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW3" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX3" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY3" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ3" s="25">
+        <v>120100</v>
+      </c>
+      <c r="HA3" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN3" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO3" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="DP3" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="DQ3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR3" s="25">
-        <v>10</v>
-      </c>
-      <c r="DS3" s="25">
-        <v>1</v>
-      </c>
-      <c r="DT3" s="25">
-        <v>10000000</v>
-      </c>
-      <c r="DU3" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV3" s="93">
-        <v>1122777</v>
-      </c>
-      <c r="DW3" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX3" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY3" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ3" s="25">
-        <v>735947227</v>
-      </c>
-      <c r="EA3" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="EB3" s="25">
-        <v>59185</v>
-      </c>
-      <c r="EC3" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="ED3" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="EE3" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF3" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="EG3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="EH3" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="EI3" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="EJ3" s="25">
+      <c r="HB3" s="25">
         <v>12430</v>
       </c>
-      <c r="EK3" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="EL3" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="EM3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="EN3" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="EO3" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="EP3" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="EQ3" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="ER3" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="ES3" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="ET3" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="EU3" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="EV3" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW3" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX3" s="25" t="s">
-        <v>795</v>
-      </c>
-      <c r="EY3" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ3" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA3" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB3" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC3" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD3" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE3" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF3" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG3" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH3" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI3" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ3" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK3" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="FL3" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM3" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN3" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO3" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP3" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="FQ3" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR3" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS3" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT3" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="FU3" s="25">
-        <v>10</v>
-      </c>
-      <c r="FV3" s="25"/>
-      <c r="FW3" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX3" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FY3" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FZ3" s="25">
-        <v>1000000</v>
-      </c>
-      <c r="GA3" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB3" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE3" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF3" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG3" s="25"/>
-      <c r="GH3" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ3" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK3" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL3" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN3" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO3" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP3" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ3" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR3" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="GS3" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="GT3" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="GU3" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="GV3" s="25">
-        <v>120100</v>
-      </c>
-      <c r="GW3" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="GX3" s="25">
-        <v>12430</v>
-      </c>
-      <c r="GY3" s="25" t="s">
+      <c r="HC3" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ3" s="25" t="s">
+      <c r="HD3" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA3" s="25" t="s">
+      <c r="HE3" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB3" s="25" t="s">
+      <c r="HF3" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC3" s="25" t="s">
+      <c r="HG3" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD3" s="25" t="s">
+      <c r="HH3" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE3" s="93" t="s">
+      <c r="HI3" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:213" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>634</v>
       </c>
@@ -16779,349 +16858,361 @@
         <v>416</v>
       </c>
       <c r="CR4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS4" s="25" t="s">
+      <c r="CU4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT4" s="25" t="s">
+      <c r="CV4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU4" s="25" t="s">
+      <c r="CW4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV4" s="25" t="s">
+      <c r="CX4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW4" s="25">
+      <c r="CY4" s="25">
         <v>2000</v>
       </c>
-      <c r="CX4" s="25" t="s">
+      <c r="CZ4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY4" s="25">
+      <c r="DA4" s="25">
         <v>10000000</v>
       </c>
-      <c r="CZ4" s="25" t="s">
+      <c r="DB4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA4" s="25">
+      <c r="DC4" s="25">
         <v>30000000</v>
       </c>
-      <c r="DB4" s="25" t="s">
+      <c r="DD4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC4" s="25" t="s">
+      <c r="DE4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD4" s="25" t="s">
+      <c r="DF4" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE4" s="25">
+      <c r="DG4" s="25">
         <v>1111222205</v>
       </c>
-      <c r="DF4" s="25" t="s">
+      <c r="DH4" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="DG4" s="25" t="s">
+      <c r="DI4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH4" s="25" t="s">
+      <c r="DJ4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DI4" s="25"/>
-      <c r="DJ4" s="25"/>
       <c r="DK4" s="25"/>
       <c r="DL4" s="25"/>
-      <c r="DM4" s="25" t="s">
+      <c r="DM4" s="25"/>
+      <c r="DN4" s="25"/>
+      <c r="DO4" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN4" s="93" t="s">
+      <c r="DP4" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO4" s="25" t="s">
+      <c r="DQ4" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="DP4" s="25" t="s">
+      <c r="DR4" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS4" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="DQ4" s="25" t="s">
+      <c r="DT4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR4" s="25">
+      <c r="DU4" s="25">
         <v>10</v>
       </c>
-      <c r="DS4" s="25">
+      <c r="DV4" s="25">
         <v>1</v>
       </c>
-      <c r="DT4" s="25">
+      <c r="DW4" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU4" s="26" t="s">
+      <c r="DX4" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="DV4" s="93">
+      <c r="DY4" s="93">
         <v>1122333</v>
       </c>
-      <c r="DW4" s="25" t="s">
+      <c r="DZ4" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="DX4" s="25" t="s">
+      <c r="EA4" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY4" s="25" t="s">
+      <c r="EB4" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ4" s="25">
+      <c r="EC4" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA4" s="25" t="s">
+      <c r="ED4" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB4" s="25">
+      <c r="EE4" s="25">
         <v>59185</v>
       </c>
-      <c r="EC4" s="25" t="s">
+      <c r="EF4" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED4" s="25" t="s">
+      <c r="EG4" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE4" s="25" t="s">
+      <c r="EH4" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF4" s="25" t="s">
+      <c r="EI4" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG4" s="25" t="s">
+      <c r="EJ4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH4" s="25" t="s">
+      <c r="EK4" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI4" s="25" t="s">
+      <c r="EL4" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ4" s="25">
+      <c r="EM4" s="25">
         <v>12430</v>
       </c>
-      <c r="EK4" s="25" t="s">
+      <c r="EN4" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL4" s="25" t="s">
+      <c r="EO4" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM4" s="25" t="s">
+      <c r="EP4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN4" s="25" t="s">
+      <c r="EQ4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO4" s="25" t="s">
+      <c r="ER4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP4" s="25" t="s">
+      <c r="ES4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ4" s="25" t="s">
+      <c r="ET4" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER4" s="25" t="s">
+      <c r="EU4" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES4" s="25" t="s">
+      <c r="EV4" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="ET4" s="93" t="s">
+      <c r="EW4" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU4" s="25" t="s">
+      <c r="EX4" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY4" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ4" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA4" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB4" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC4" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD4" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE4" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG4" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH4" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI4" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ4" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL4" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM4" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN4" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO4" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP4" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ4" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR4" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS4" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT4" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU4" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV4" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW4" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="FX4" s="25">
+        <v>10</v>
+      </c>
+      <c r="FY4" s="25"/>
+      <c r="FZ4" s="25">
+        <v>24</v>
+      </c>
+      <c r="GA4" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB4" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC4" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="GD4" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE4" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH4" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI4" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ4" s="25"/>
+      <c r="GK4" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM4" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV4" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW4" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY4" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ4" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA4" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB4" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC4" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD4" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE4" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF4" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG4" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH4" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI4" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ4" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK4" s="25" t="s">
+      <c r="GN4" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO4" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP4" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR4" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT4" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL4" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM4" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN4" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO4" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP4" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="FQ4" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR4" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS4" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT4" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="FU4" s="25">
-        <v>10</v>
-      </c>
-      <c r="FV4" s="25"/>
-      <c r="FW4" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX4" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FY4" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FZ4" s="25">
-        <v>1000000</v>
-      </c>
-      <c r="GA4" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB4" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE4" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF4" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG4" s="25"/>
-      <c r="GH4" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ4" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK4" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL4" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN4" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ4" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR4" s="98" t="s">
+      <c r="GU4" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV4" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS4" s="25" t="s">
+      <c r="GW4" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT4" s="25" t="s">
+      <c r="GX4" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU4" s="93" t="s">
+      <c r="GY4" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV4" s="25">
+      <c r="GZ4" s="25">
         <v>120100</v>
       </c>
-      <c r="GW4" s="25" t="s">
+      <c r="HA4" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX4" s="25">
+      <c r="HB4" s="25">
         <v>12430</v>
       </c>
-      <c r="GY4" s="25" t="s">
+      <c r="HC4" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ4" s="25" t="s">
+      <c r="HD4" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA4" s="25" t="s">
+      <c r="HE4" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB4" s="25" t="s">
+      <c r="HF4" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC4" s="25" t="s">
+      <c r="HG4" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD4" s="25" t="s">
+      <c r="HH4" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE4" s="93" t="s">
+      <c r="HI4" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:213" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>634</v>
       </c>
@@ -17364,374 +17455,386 @@
         <v>82</v>
       </c>
       <c r="CR5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT5" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS5" s="25" t="s">
+      <c r="CU5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT5" s="25" t="s">
+      <c r="CV5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU5" s="25" t="s">
+      <c r="CW5" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV5" s="25" t="s">
+      <c r="CX5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW5" s="25" t="s">
+      <c r="CY5" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="CX5" s="25" t="s">
+      <c r="CZ5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY5" s="25" t="s">
+      <c r="DA5" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="CZ5" s="25" t="s">
+      <c r="DB5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA5" s="25" t="s">
+      <c r="DC5" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="DB5" s="25" t="s">
+      <c r="DD5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC5" s="25" t="s">
+      <c r="DE5" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD5" s="25" t="s">
+      <c r="DF5" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE5" s="25">
+      <c r="DG5" s="25">
         <v>1111222204</v>
       </c>
-      <c r="DF5" s="91" t="s">
+      <c r="DH5" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="DG5" s="25" t="s">
+      <c r="DI5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH5" s="25" t="s">
+      <c r="DJ5" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="DI5" s="25">
+      <c r="DK5" s="25">
         <v>1111222203</v>
       </c>
-      <c r="DJ5" s="25" t="s">
+      <c r="DL5" s="25" t="s">
         <v>681</v>
       </c>
-      <c r="DK5" s="26" t="s">
+      <c r="DM5" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="DL5" s="25" t="s">
+      <c r="DN5" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="DM5" s="25" t="s">
+      <c r="DO5" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN5" s="93" t="s">
+      <c r="DP5" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO5" s="25" t="s">
+      <c r="DQ5" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="DP5" s="91" t="s">
+      <c r="DR5" s="91" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS5" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="DQ5" s="25" t="s">
+      <c r="DT5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR5" s="25">
+      <c r="DU5" s="25">
         <v>10</v>
       </c>
-      <c r="DS5" s="25">
+      <c r="DV5" s="25">
         <v>1</v>
       </c>
-      <c r="DT5" s="25">
+      <c r="DW5" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU5" s="26" t="s">
+      <c r="DX5" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="DV5" s="93">
+      <c r="DY5" s="93">
         <v>1122334</v>
       </c>
-      <c r="DW5" s="25" t="s">
+      <c r="DZ5" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="DX5" s="25" t="s">
+      <c r="EA5" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY5" s="25" t="s">
+      <c r="EB5" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ5" s="25">
+      <c r="EC5" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA5" s="25" t="s">
+      <c r="ED5" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB5" s="25">
+      <c r="EE5" s="25">
         <v>59185</v>
       </c>
-      <c r="EC5" s="25" t="s">
+      <c r="EF5" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED5" s="25" t="s">
+      <c r="EG5" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE5" s="25" t="s">
+      <c r="EH5" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF5" s="25" t="s">
+      <c r="EI5" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG5" s="25" t="s">
+      <c r="EJ5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH5" s="25" t="s">
+      <c r="EK5" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI5" s="25" t="s">
+      <c r="EL5" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ5" s="25">
+      <c r="EM5" s="25">
         <v>12430</v>
       </c>
-      <c r="EK5" s="25" t="s">
+      <c r="EN5" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL5" s="25" t="s">
+      <c r="EO5" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM5" s="25" t="s">
+      <c r="EP5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN5" s="25" t="s">
+      <c r="EQ5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO5" s="25" t="s">
+      <c r="ER5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP5" s="25" t="s">
+      <c r="ES5" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ5" s="25" t="s">
+      <c r="ET5" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER5" s="25" t="s">
+      <c r="EU5" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES5" s="25" t="s">
+      <c r="EV5" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="ET5" s="93" t="s">
+      <c r="EW5" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU5" s="99" t="s">
+      <c r="EX5" s="99" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY5" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA5" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB5" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC5" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD5" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE5" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG5" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ5" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL5" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM5" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN5" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO5" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP5" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ5" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR5" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS5" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT5" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU5" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV5" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW5" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="FX5" s="25">
+        <v>10</v>
+      </c>
+      <c r="FY5" s="25"/>
+      <c r="FZ5" s="25">
+        <v>24</v>
+      </c>
+      <c r="GA5" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB5" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC5" s="25">
+        <v>1000000</v>
+      </c>
+      <c r="GD5" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE5" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF5" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG5" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH5" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI5" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ5" s="25"/>
+      <c r="GK5" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL5" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM5" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV5" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW5" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX5" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY5" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ5" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA5" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB5" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC5" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD5" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE5" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF5" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG5" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI5" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ5" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK5" s="25" t="s">
+      <c r="GN5" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO5" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP5" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ5" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS5" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT5" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL5" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM5" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN5" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="FO5" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="FP5" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="FQ5" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR5" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS5" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT5" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="FU5" s="25">
-        <v>10</v>
-      </c>
-      <c r="FV5" s="25"/>
-      <c r="FW5" s="25">
-        <v>24</v>
-      </c>
-      <c r="FX5" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FY5" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="FZ5" s="25">
-        <v>1000000</v>
-      </c>
-      <c r="GA5" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB5" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE5" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF5" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG5" s="25"/>
-      <c r="GH5" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ5" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK5" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL5" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN5" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO5" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP5" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ5" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR5" s="98" t="s">
+      <c r="GU5" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV5" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS5" s="25" t="s">
+      <c r="GW5" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT5" s="25" t="s">
+      <c r="GX5" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU5" s="93" t="s">
+      <c r="GY5" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV5" s="25">
+      <c r="GZ5" s="25">
         <v>120100</v>
       </c>
-      <c r="GW5" s="25" t="s">
+      <c r="HA5" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX5" s="25">
+      <c r="HB5" s="25">
         <v>12430</v>
       </c>
-      <c r="GY5" s="25" t="s">
+      <c r="HC5" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ5" s="25" t="s">
+      <c r="HD5" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA5" s="25" t="s">
+      <c r="HE5" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB5" s="25" t="s">
+      <c r="HF5" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC5" s="25" t="s">
+      <c r="HG5" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD5" s="25" t="s">
+      <c r="HH5" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE5" s="93" t="s">
+      <c r="HI5" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:213" s="164" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:217" s="164" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="155" t="s">
         <v>633</v>
       </c>
       <c r="B6" s="156" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="D6" s="157" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E6" s="158" t="s">
         <v>347</v>
       </c>
       <c r="F6" s="157" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G6" s="159">
         <v>99887777</v>
@@ -17743,7 +17846,7 @@
         <v>14430</v>
       </c>
       <c r="J6" s="160" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>544</v>
@@ -17764,7 +17867,7 @@
         <v>175</v>
       </c>
       <c r="Q6" s="177" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R6" s="23" t="s">
         <v>692</v>
@@ -17863,366 +17966,378 @@
         <v>416</v>
       </c>
       <c r="CR6" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="155" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT6" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="CS6" s="155" t="s">
+      <c r="CU6" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="CT6" s="155" t="s">
+      <c r="CV6" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="CU6" s="155" t="s">
+      <c r="CW6" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="CV6" s="155" t="s">
+      <c r="CX6" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="CW6" s="163" t="s">
+      <c r="CY6" s="163" t="s">
         <v>675</v>
       </c>
-      <c r="CX6" s="155" t="s">
+      <c r="CZ6" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="CY6" s="163" t="s">
+      <c r="DA6" s="163" t="s">
         <v>676</v>
       </c>
-      <c r="CZ6" s="155" t="s">
+      <c r="DB6" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="DA6" s="163" t="s">
+      <c r="DC6" s="163" t="s">
         <v>677</v>
       </c>
-      <c r="DB6" s="155" t="s">
+      <c r="DD6" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="DC6" s="155" t="s">
+      <c r="DE6" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="DD6" s="155" t="s">
+      <c r="DF6" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="DE6" s="155">
+      <c r="DG6" s="155">
         <v>1111222299</v>
       </c>
-      <c r="DF6" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="DG6" s="155" t="s">
+      <c r="DH6" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="DI6" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="DH6" s="155" t="s">
+      <c r="DJ6" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="DI6" s="155">
+      <c r="DK6" s="155">
         <v>2111222202</v>
       </c>
-      <c r="DJ6" s="155" t="s">
-        <v>778</v>
-      </c>
-      <c r="DK6" s="163" t="s">
+      <c r="DL6" s="155" t="s">
+        <v>777</v>
+      </c>
+      <c r="DM6" s="163" t="s">
+        <v>779</v>
+      </c>
+      <c r="DN6" s="155" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO6" s="155" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP6" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ6" s="155" t="s">
+        <v>743</v>
+      </c>
+      <c r="DR6" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="DS6" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="DL6" s="155" t="s">
+      <c r="DT6" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU6" s="155">
+        <v>10</v>
+      </c>
+      <c r="DV6" s="155">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="155">
+        <v>10000000</v>
+      </c>
+      <c r="DX6" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="DY6" s="161">
+        <v>1122777</v>
+      </c>
+      <c r="DZ6" s="155" t="s">
+        <v>784</v>
+      </c>
+      <c r="EA6" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB6" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC6" s="155">
+        <v>735947227</v>
+      </c>
+      <c r="ED6" s="155" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE6" s="155">
+        <v>59185</v>
+      </c>
+      <c r="EF6" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG6" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH6" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI6" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ6" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK6" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="DM6" s="155" t="s">
+      <c r="EL6" s="155" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM6" s="155">
+        <v>12430</v>
+      </c>
+      <c r="EN6" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO6" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP6" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ6" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER6" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES6" s="155" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET6" s="155" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU6" s="155" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV6" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW6" s="161" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX6" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY6" s="155">
+        <v>5238528</v>
+      </c>
+      <c r="EZ6" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA6" s="155" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB6" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC6" s="155" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD6" s="155" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE6" s="155" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF6" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG6" s="155">
+        <v>2023</v>
+      </c>
+      <c r="FH6" s="155" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI6" s="155" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ6" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK6" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL6" s="161" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM6" s="155" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN6" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO6" s="155">
+        <v>15</v>
+      </c>
+      <c r="FP6" s="155">
+        <v>200000</v>
+      </c>
+      <c r="FQ6" s="155"/>
+      <c r="FR6" s="155" t="s">
+        <v>791</v>
+      </c>
+      <c r="FS6" s="155" t="s">
+        <v>792</v>
+      </c>
+      <c r="FT6" s="155" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU6" s="155" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV6" s="155" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW6" s="155">
+        <v>1250000000</v>
+      </c>
+      <c r="FX6" s="155">
+        <v>30</v>
+      </c>
+      <c r="FY6" s="155"/>
+      <c r="FZ6" s="155">
+        <v>48</v>
+      </c>
+      <c r="GA6" s="163" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB6" s="163">
+        <v>15</v>
+      </c>
+      <c r="GC6" s="155">
+        <v>1000000</v>
+      </c>
+      <c r="GD6" s="155">
+        <v>750000</v>
+      </c>
+      <c r="GE6" s="155" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF6" s="155" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG6" s="155" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH6" s="155" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI6" s="155" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ6" s="155"/>
+      <c r="GK6" s="155">
+        <v>250000000</v>
+      </c>
+      <c r="GL6" s="155" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM6" s="155" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN6" s="155" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO6" s="155">
+        <v>24</v>
+      </c>
+      <c r="GP6" s="155">
+        <v>20</v>
+      </c>
+      <c r="GQ6" s="155" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR6" s="155" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS6" s="155" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT6" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU6" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV6" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW6" s="155" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX6" s="155" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY6" s="161" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ6" s="155">
+        <v>120100</v>
+      </c>
+      <c r="HA6" s="155" t="s">
         <v>501</v>
       </c>
-      <c r="DN6" s="161" t="s">
-        <v>133</v>
-      </c>
-      <c r="DO6" s="155" t="s">
-        <v>743</v>
-      </c>
-      <c r="DP6" s="25" t="s">
-        <v>781</v>
-      </c>
-      <c r="DQ6" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR6" s="155">
-        <v>10</v>
-      </c>
-      <c r="DS6" s="155">
-        <v>1</v>
-      </c>
-      <c r="DT6" s="155">
-        <v>10000000</v>
-      </c>
-      <c r="DU6" s="163" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV6" s="161">
-        <v>1122777</v>
-      </c>
-      <c r="DW6" s="155" t="s">
-        <v>785</v>
-      </c>
-      <c r="DX6" s="155" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY6" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ6" s="155">
-        <v>735947227</v>
-      </c>
-      <c r="EA6" s="155" t="s">
-        <v>173</v>
-      </c>
-      <c r="EB6" s="155">
-        <v>59185</v>
-      </c>
-      <c r="EC6" s="155" t="s">
-        <v>174</v>
-      </c>
-      <c r="ED6" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="EE6" s="155" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF6" s="155" t="s">
-        <v>177</v>
-      </c>
-      <c r="EG6" s="155" t="s">
-        <v>26</v>
-      </c>
-      <c r="EH6" s="155" t="s">
-        <v>179</v>
-      </c>
-      <c r="EI6" s="155" t="s">
-        <v>180</v>
-      </c>
-      <c r="EJ6" s="155">
+      <c r="HB6" s="155">
         <v>12430</v>
       </c>
-      <c r="EK6" s="155" t="s">
-        <v>182</v>
-      </c>
-      <c r="EL6" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="EM6" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="EN6" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="EO6" s="155" t="s">
-        <v>98</v>
-      </c>
-      <c r="EP6" s="155" t="s">
-        <v>257</v>
-      </c>
-      <c r="EQ6" s="155" t="s">
-        <v>258</v>
-      </c>
-      <c r="ER6" s="155" t="s">
-        <v>589</v>
-      </c>
-      <c r="ES6" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="ET6" s="161" t="s">
-        <v>181</v>
-      </c>
-      <c r="EU6" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="EV6" s="155">
-        <v>5238528</v>
-      </c>
-      <c r="EW6" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX6" s="155" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY6" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ6" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA6" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB6" s="155" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC6" s="155" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD6" s="155">
-        <v>2023</v>
-      </c>
-      <c r="FE6" s="155" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF6" s="155" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG6" s="155" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH6" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI6" s="161" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ6" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK6" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="FL6" s="155">
-        <v>15</v>
-      </c>
-      <c r="FM6" s="155">
-        <v>200000</v>
-      </c>
-      <c r="FN6" s="155"/>
-      <c r="FO6" s="155" t="s">
-        <v>793</v>
-      </c>
-      <c r="FP6" s="155" t="s">
-        <v>794</v>
-      </c>
-      <c r="FQ6" s="155" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR6" s="155" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS6" s="155" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT6" s="155">
-        <v>1250000000</v>
-      </c>
-      <c r="FU6" s="155">
-        <v>30</v>
-      </c>
-      <c r="FV6" s="155"/>
-      <c r="FW6" s="155">
-        <v>48</v>
-      </c>
-      <c r="FX6" s="163">
-        <v>8.3969000000000005</v>
-      </c>
-      <c r="FY6" s="163">
-        <v>15</v>
-      </c>
-      <c r="FZ6" s="155">
-        <v>1000000</v>
-      </c>
-      <c r="GA6" s="155">
-        <v>750000</v>
-      </c>
-      <c r="GB6" s="155" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC6" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD6" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE6" s="155" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF6" s="155" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG6" s="155"/>
-      <c r="GH6" s="155">
-        <v>250000000</v>
-      </c>
-      <c r="GI6" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ6" s="155" t="s">
-        <v>241</v>
-      </c>
-      <c r="GK6" s="155" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL6" s="155" t="s">
-        <v>243</v>
-      </c>
-      <c r="GM6" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN6" s="155" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO6" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP6" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ6" s="161" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR6" s="162" t="s">
-        <v>246</v>
-      </c>
-      <c r="GS6" s="155" t="s">
-        <v>248</v>
-      </c>
-      <c r="GT6" s="155" t="s">
-        <v>250</v>
-      </c>
-      <c r="GU6" s="161" t="s">
-        <v>250</v>
-      </c>
-      <c r="GV6" s="155">
-        <v>120100</v>
-      </c>
-      <c r="GW6" s="155" t="s">
-        <v>501</v>
-      </c>
-      <c r="GX6" s="155">
-        <v>12430</v>
-      </c>
-      <c r="GY6" s="155" t="s">
+      <c r="HC6" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="GZ6" s="155" t="s">
+      <c r="HD6" s="155" t="s">
         <v>519</v>
       </c>
-      <c r="HA6" s="155" t="s">
+      <c r="HE6" s="155" t="s">
         <v>511</v>
       </c>
-      <c r="HB6" s="155" t="s">
+      <c r="HF6" s="155" t="s">
         <v>513</v>
       </c>
-      <c r="HC6" s="155" t="s">
+      <c r="HG6" s="155" t="s">
         <v>515</v>
       </c>
-      <c r="HD6" s="155" t="s">
+      <c r="HH6" s="155" t="s">
         <v>517</v>
       </c>
-      <c r="HE6" s="161" t="s">
+      <c r="HI6" s="161" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:213" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>633</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>753</v>
+        <v>811</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>347</v>
@@ -18240,7 +18355,7 @@
         <v>14430</v>
       </c>
       <c r="J7" s="153" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>544</v>
@@ -18261,7 +18376,7 @@
         <v>175</v>
       </c>
       <c r="Q7" s="143" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>692</v>
@@ -18360,358 +18475,370 @@
         <v>416</v>
       </c>
       <c r="CR7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT7" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS7" s="25" t="s">
+      <c r="CU7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT7" s="25" t="s">
+      <c r="CV7" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU7" s="25" t="s">
+      <c r="CW7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV7" s="25" t="s">
+      <c r="CX7" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW7" s="26" t="s">
+      <c r="CY7" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="CX7" s="25" t="s">
+      <c r="CZ7" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY7" s="26" t="s">
+      <c r="DA7" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="CZ7" s="25" t="s">
+      <c r="DB7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA7" s="26" t="s">
+      <c r="DC7" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="DB7" s="25" t="s">
+      <c r="DD7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC7" s="25" t="s">
+      <c r="DE7" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD7" s="25" t="s">
+      <c r="DF7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE7" s="25">
+      <c r="DG7" s="25">
         <v>1111222211</v>
       </c>
-      <c r="DF7" s="25" t="s">
-        <v>753</v>
-      </c>
-      <c r="DG7" s="25" t="s">
+      <c r="DH7" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="DI7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH7" s="25" t="s">
+      <c r="DJ7" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DI7" s="25"/>
-      <c r="DJ7" s="25"/>
-      <c r="DK7" s="26"/>
+      <c r="DK7" s="25"/>
       <c r="DL7" s="25"/>
-      <c r="DM7" s="25" t="s">
+      <c r="DM7" s="26"/>
+      <c r="DN7" s="25"/>
+      <c r="DO7" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN7" s="93" t="s">
+      <c r="DP7" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO7" s="25" t="s">
+      <c r="DQ7" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="DP7" s="25" t="s">
-        <v>782</v>
-      </c>
-      <c r="DQ7" s="25" t="s">
+      <c r="DR7" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS7" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="DT7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR7" s="25">
+      <c r="DU7" s="25">
         <v>10</v>
       </c>
-      <c r="DS7" s="25">
+      <c r="DV7" s="25">
         <v>1</v>
       </c>
-      <c r="DT7" s="25">
+      <c r="DW7" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU7" s="26" t="s">
+      <c r="DX7" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="DV7" s="93">
+      <c r="DY7" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW7" s="25" t="s">
-        <v>786</v>
-      </c>
-      <c r="DX7" s="25" t="s">
+      <c r="DZ7" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="EA7" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY7" s="25" t="s">
+      <c r="EB7" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ7" s="25">
+      <c r="EC7" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA7" s="25" t="s">
+      <c r="ED7" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB7" s="25">
+      <c r="EE7" s="25">
         <v>59185</v>
       </c>
-      <c r="EC7" s="25" t="s">
+      <c r="EF7" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED7" s="25" t="s">
+      <c r="EG7" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE7" s="25" t="s">
+      <c r="EH7" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF7" s="25" t="s">
+      <c r="EI7" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG7" s="25" t="s">
+      <c r="EJ7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH7" s="25" t="s">
+      <c r="EK7" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI7" s="25" t="s">
+      <c r="EL7" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ7" s="25">
+      <c r="EM7" s="25">
         <v>12430</v>
       </c>
-      <c r="EK7" s="25" t="s">
+      <c r="EN7" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL7" s="25" t="s">
+      <c r="EO7" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM7" s="25" t="s">
+      <c r="EP7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN7" s="25" t="s">
+      <c r="EQ7" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO7" s="25" t="s">
+      <c r="ER7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP7" s="25" t="s">
+      <c r="ES7" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ7" s="25" t="s">
+      <c r="ET7" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER7" s="25" t="s">
+      <c r="EU7" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES7" s="25" t="s">
+      <c r="EV7" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="ET7" s="93" t="s">
+      <c r="EW7" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU7" s="25" t="s">
+      <c r="EX7" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY7" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ7" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA7" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE7" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF7" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG7" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH7" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI7" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ7" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK7" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL7" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM7" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN7" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO7" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP7" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ7" s="25"/>
+      <c r="FR7" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="FS7" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="FT7" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU7" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV7" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW7" s="25">
+        <v>1250000000</v>
+      </c>
+      <c r="FX7" s="25">
+        <v>30</v>
+      </c>
+      <c r="FY7" s="25"/>
+      <c r="FZ7" s="25">
+        <v>48</v>
+      </c>
+      <c r="GA7" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB7" s="26">
+        <v>15</v>
+      </c>
+      <c r="GC7" s="25">
+        <v>5000000</v>
+      </c>
+      <c r="GD7" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE7" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF7" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG7" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH7" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI7" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="GJ7" s="25"/>
+      <c r="GK7" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL7" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM7" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV7" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW7" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX7" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY7" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ7" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA7" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB7" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC7" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD7" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE7" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF7" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG7" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH7" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI7" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ7" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK7" s="25" t="s">
+      <c r="GN7" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO7" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP7" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ7" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="GR7" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS7" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT7" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL7" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM7" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN7" s="25"/>
-      <c r="FO7" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="FP7" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="FQ7" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR7" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS7" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT7" s="25">
-        <v>1250000000</v>
-      </c>
-      <c r="FU7" s="25">
-        <v>30</v>
-      </c>
-      <c r="FV7" s="25"/>
-      <c r="FW7" s="25">
-        <v>48</v>
-      </c>
-      <c r="FX7" s="26">
-        <v>8.3969000000000005</v>
-      </c>
-      <c r="FY7" s="26">
-        <v>15</v>
-      </c>
-      <c r="FZ7" s="25">
-        <v>5000000</v>
-      </c>
-      <c r="GA7" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB7" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC7" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD7" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE7" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF7" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="GG7" s="25"/>
-      <c r="GH7" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI7" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ7" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="GK7" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="GL7" s="25">
-        <v>20</v>
-      </c>
-      <c r="GM7" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="GN7" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO7" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP7" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ7" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR7" s="98" t="s">
+      <c r="GU7" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV7" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS7" s="25" t="s">
+      <c r="GW7" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT7" s="25" t="s">
+      <c r="GX7" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU7" s="93" t="s">
+      <c r="GY7" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV7" s="25">
+      <c r="GZ7" s="25">
         <v>120100</v>
       </c>
-      <c r="GW7" s="25" t="s">
+      <c r="HA7" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX7" s="25">
+      <c r="HB7" s="25">
         <v>12430</v>
       </c>
-      <c r="GY7" s="25" t="s">
+      <c r="HC7" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ7" s="25" t="s">
+      <c r="HD7" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA7" s="25" t="s">
+      <c r="HE7" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB7" s="25" t="s">
+      <c r="HF7" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC7" s="25" t="s">
+      <c r="HG7" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD7" s="25" t="s">
+      <c r="HH7" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE7" s="93" t="s">
+      <c r="HI7" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:213" s="184" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:217" s="184" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>633</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C8" s="179" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D8" s="180" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E8" s="181" t="s">
         <v>347</v>
@@ -18729,7 +18856,7 @@
         <v>14430</v>
       </c>
       <c r="J8" s="186" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K8" s="179" t="s">
         <v>544</v>
@@ -18750,7 +18877,7 @@
         <v>175</v>
       </c>
       <c r="Q8" s="187" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R8" s="179" t="s">
         <v>692</v>
@@ -18849,364 +18976,376 @@
         <v>416</v>
       </c>
       <c r="CR8" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="84" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT8" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="CS8" s="84" t="s">
+      <c r="CU8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="CT8" s="84" t="s">
+      <c r="CV8" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="CU8" s="84" t="s">
+      <c r="CW8" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="CV8" s="84" t="s">
+      <c r="CX8" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="CW8" s="183" t="s">
+      <c r="CY8" s="183" t="s">
         <v>675</v>
       </c>
-      <c r="CX8" s="84" t="s">
+      <c r="CZ8" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="CY8" s="183" t="s">
+      <c r="DA8" s="183" t="s">
         <v>676</v>
       </c>
-      <c r="CZ8" s="84" t="s">
+      <c r="DB8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="DA8" s="183" t="s">
+      <c r="DC8" s="183" t="s">
         <v>677</v>
       </c>
-      <c r="DB8" s="84" t="s">
+      <c r="DD8" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="DC8" s="84" t="s">
+      <c r="DE8" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="DD8" s="84" t="s">
+      <c r="DF8" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="DE8" s="84">
+      <c r="DG8" s="84">
         <v>1111222211</v>
       </c>
-      <c r="DF8" s="84" t="s">
-        <v>753</v>
-      </c>
-      <c r="DG8" s="84" t="s">
+      <c r="DH8" s="84" t="s">
+        <v>752</v>
+      </c>
+      <c r="DI8" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="DH8" s="84" t="s">
+      <c r="DJ8" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="DI8" s="84"/>
-      <c r="DJ8" s="84"/>
-      <c r="DK8" s="183"/>
+      <c r="DK8" s="84"/>
       <c r="DL8" s="84"/>
-      <c r="DM8" s="84" t="s">
+      <c r="DM8" s="183"/>
+      <c r="DN8" s="84"/>
+      <c r="DO8" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="DN8" s="178" t="s">
+      <c r="DP8" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="DO8" s="84" t="s">
+      <c r="DQ8" s="84" t="s">
         <v>744</v>
       </c>
-      <c r="DP8" s="84" t="s">
-        <v>782</v>
-      </c>
-      <c r="DQ8" s="84" t="s">
+      <c r="DR8" s="84" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS8" s="84" t="s">
+        <v>781</v>
+      </c>
+      <c r="DT8" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="DR8" s="84">
+      <c r="DU8" s="84">
         <v>10</v>
       </c>
-      <c r="DS8" s="84">
+      <c r="DV8" s="84">
         <v>1</v>
       </c>
-      <c r="DT8" s="84">
+      <c r="DW8" s="84">
         <v>10000000</v>
       </c>
-      <c r="DU8" s="183" t="s">
+      <c r="DX8" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="DV8" s="178">
+      <c r="DY8" s="178">
         <v>1122777</v>
       </c>
-      <c r="DW8" s="84" t="s">
-        <v>786</v>
-      </c>
-      <c r="DX8" s="84" t="s">
+      <c r="DZ8" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="EA8" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="DY8" s="84" t="s">
+      <c r="EB8" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="DZ8" s="84">
+      <c r="EC8" s="84">
         <v>735947227</v>
       </c>
-      <c r="EA8" s="84" t="s">
+      <c r="ED8" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="EB8" s="84">
+      <c r="EE8" s="84">
         <v>59185</v>
       </c>
-      <c r="EC8" s="84" t="s">
+      <c r="EF8" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="ED8" s="84" t="s">
+      <c r="EG8" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="EE8" s="84" t="s">
+      <c r="EH8" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="EF8" s="84" t="s">
+      <c r="EI8" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="EG8" s="84" t="s">
+      <c r="EJ8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="EH8" s="84" t="s">
+      <c r="EK8" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="EI8" s="84" t="s">
+      <c r="EL8" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="EJ8" s="84">
+      <c r="EM8" s="84">
         <v>12430</v>
       </c>
-      <c r="EK8" s="84" t="s">
+      <c r="EN8" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="EL8" s="84" t="s">
+      <c r="EO8" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="EM8" s="84" t="s">
+      <c r="EP8" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="EN8" s="84" t="s">
+      <c r="EQ8" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="EO8" s="84" t="s">
+      <c r="ER8" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="EP8" s="84" t="s">
+      <c r="ES8" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="EQ8" s="84" t="s">
+      <c r="ET8" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="ER8" s="84" t="s">
+      <c r="EU8" s="84" t="s">
         <v>589</v>
       </c>
-      <c r="ES8" s="84" t="s">
+      <c r="EV8" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="ET8" s="178" t="s">
+      <c r="EW8" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="EU8" s="84" t="s">
+      <c r="EX8" s="84" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY8" s="84">
+        <v>5238528</v>
+      </c>
+      <c r="EZ8" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA8" s="84" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB8" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC8" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD8" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE8" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF8" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG8" s="84">
+        <v>2023</v>
+      </c>
+      <c r="FH8" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI8" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK8" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL8" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM8" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN8" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO8" s="84">
+        <v>15</v>
+      </c>
+      <c r="FP8" s="84">
+        <v>200000</v>
+      </c>
+      <c r="FQ8" s="84"/>
+      <c r="FR8" s="84" t="s">
+        <v>791</v>
+      </c>
+      <c r="FS8" s="84" t="s">
+        <v>792</v>
+      </c>
+      <c r="FT8" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU8" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV8" s="84" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW8" s="84">
+        <v>1000000000</v>
+      </c>
+      <c r="FX8" s="84">
+        <v>30</v>
+      </c>
+      <c r="FY8" s="84"/>
+      <c r="FZ8" s="84">
+        <v>48</v>
+      </c>
+      <c r="GA8" s="183" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB8" s="183">
+        <v>15</v>
+      </c>
+      <c r="GC8" s="84">
+        <v>5000000</v>
+      </c>
+      <c r="GD8" s="84">
+        <v>750000</v>
+      </c>
+      <c r="GE8" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH8" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI8" s="84" t="s">
+        <v>598</v>
+      </c>
+      <c r="GJ8" s="84"/>
+      <c r="GK8" s="84">
+        <v>250000000</v>
+      </c>
+      <c r="GL8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM8" s="84" t="s">
         <v>789</v>
       </c>
-      <c r="EV8" s="84">
-        <v>5238528</v>
-      </c>
-      <c r="EW8" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX8" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY8" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ8" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA8" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB8" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC8" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD8" s="84">
-        <v>2023</v>
-      </c>
-      <c r="FE8" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF8" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG8" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH8" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI8" s="178" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ8" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK8" s="84" t="s">
+      <c r="GN8" s="84" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO8" s="84">
+        <v>24</v>
+      </c>
+      <c r="GP8" s="84">
+        <v>20</v>
+      </c>
+      <c r="GQ8" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="GR8" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS8" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT8" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="FL8" s="84">
-        <v>15</v>
-      </c>
-      <c r="FM8" s="84">
-        <v>200000</v>
-      </c>
-      <c r="FN8" s="84"/>
-      <c r="FO8" s="84" t="s">
-        <v>793</v>
-      </c>
-      <c r="FP8" s="84" t="s">
-        <v>794</v>
-      </c>
-      <c r="FQ8" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR8" s="84" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS8" s="84" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT8" s="84">
-        <v>1000000000</v>
-      </c>
-      <c r="FU8" s="84">
-        <v>30</v>
-      </c>
-      <c r="FV8" s="84"/>
-      <c r="FW8" s="84">
-        <v>48</v>
-      </c>
-      <c r="FX8" s="183">
-        <v>8.3969000000000005</v>
-      </c>
-      <c r="FY8" s="183">
-        <v>15</v>
-      </c>
-      <c r="FZ8" s="84">
-        <v>5000000</v>
-      </c>
-      <c r="GA8" s="84">
-        <v>750000</v>
-      </c>
-      <c r="GB8" s="84" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC8" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD8" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE8" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF8" s="84" t="s">
-        <v>598</v>
-      </c>
-      <c r="GG8" s="84"/>
-      <c r="GH8" s="84">
-        <v>250000000</v>
-      </c>
-      <c r="GI8" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ8" s="84" t="s">
-        <v>791</v>
-      </c>
-      <c r="GK8" s="84" t="s">
-        <v>792</v>
-      </c>
-      <c r="GL8" s="84">
-        <v>20</v>
-      </c>
-      <c r="GM8" s="84" t="s">
-        <v>596</v>
-      </c>
-      <c r="GN8" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO8" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP8" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ8" s="178" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR8" s="188" t="s">
+      <c r="GU8" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV8" s="188" t="s">
         <v>246</v>
       </c>
-      <c r="GS8" s="84" t="s">
+      <c r="GW8" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="GT8" s="84" t="s">
+      <c r="GX8" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="GU8" s="178" t="s">
+      <c r="GY8" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="GV8" s="84">
+      <c r="GZ8" s="84">
         <v>120100</v>
       </c>
-      <c r="GW8" s="84" t="s">
+      <c r="HA8" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="GX8" s="84">
+      <c r="HB8" s="84">
         <v>12430</v>
       </c>
-      <c r="GY8" s="84" t="s">
+      <c r="HC8" s="84" t="s">
         <v>508</v>
       </c>
-      <c r="GZ8" s="84" t="s">
+      <c r="HD8" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="HA8" s="84" t="s">
+      <c r="HE8" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="HB8" s="84" t="s">
+      <c r="HF8" s="84" t="s">
         <v>513</v>
       </c>
-      <c r="HC8" s="84" t="s">
+      <c r="HG8" s="84" t="s">
         <v>515</v>
       </c>
-      <c r="HD8" s="84" t="s">
+      <c r="HH8" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="HE8" s="178" t="s">
+      <c r="HI8" s="178" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:213" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:217" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>634</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E9" s="141" t="s">
         <v>347</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G9" s="142">
         <v>99887777</v>
@@ -19218,7 +19357,7 @@
         <v>14430</v>
       </c>
       <c r="J9" s="153" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>544</v>
@@ -19275,10 +19414,10 @@
         <v>175</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH9" s="21" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AI9" s="21">
         <v>1250000000</v>
@@ -19342,10 +19481,10 @@
         <v>237</v>
       </c>
       <c r="BF9" s="21" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="BG9" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BH9" s="21">
         <v>20</v>
@@ -19360,7 +19499,7 @@
         <v>233</v>
       </c>
       <c r="BL9" s="151" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="BM9" s="21" t="s">
         <v>540</v>
@@ -19377,7 +19516,7 @@
         <v>553</v>
       </c>
       <c r="BS9" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="BT9" s="21">
         <v>99887777</v>
@@ -19386,20 +19525,20 @@
         <v>347</v>
       </c>
       <c r="BV9" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="BW9" s="24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="BX9" s="24" t="s">
         <v>347</v>
       </c>
       <c r="BY9" s="24" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BZ9" s="21"/>
       <c r="CA9" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="CB9" s="93" t="s">
         <v>543</v>
@@ -19408,7 +19547,7 @@
         <v>14430</v>
       </c>
       <c r="CD9" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="CE9" s="25" t="s">
         <v>544</v>
@@ -19450,364 +19589,376 @@
         <v>416</v>
       </c>
       <c r="CR9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT9" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS9" s="25" t="s">
+      <c r="CU9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT9" s="25" t="s">
+      <c r="CV9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU9" s="25" t="s">
+      <c r="CW9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV9" s="25" t="s">
+      <c r="CX9" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW9" s="26" t="s">
+      <c r="CY9" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="CX9" s="25" t="s">
+      <c r="CZ9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY9" s="26" t="s">
+      <c r="DA9" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="CZ9" s="25" t="s">
+      <c r="DB9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA9" s="26" t="s">
+      <c r="DC9" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="DB9" s="25" t="s">
+      <c r="DD9" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC9" s="25" t="s">
+      <c r="DE9" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD9" s="25" t="s">
+      <c r="DF9" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE9" s="25">
+      <c r="DG9" s="25">
         <v>2111222299</v>
       </c>
-      <c r="DF9" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="DG9" s="25" t="s">
+      <c r="DH9" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="DI9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH9" s="25" t="s">
+      <c r="DJ9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="DI9" s="25"/>
-      <c r="DJ9" s="25"/>
-      <c r="DK9" s="26"/>
+      <c r="DK9" s="25"/>
       <c r="DL9" s="25"/>
-      <c r="DM9" s="25" t="s">
+      <c r="DM9" s="26"/>
+      <c r="DN9" s="25"/>
+      <c r="DO9" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN9" s="93" t="s">
+      <c r="DP9" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO9" s="25" t="s">
+      <c r="DQ9" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="DP9" s="25" t="s">
-        <v>783</v>
-      </c>
-      <c r="DQ9" s="25" t="s">
+      <c r="DR9" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="DS9" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="DT9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR9" s="25">
+      <c r="DU9" s="25">
         <v>10</v>
       </c>
-      <c r="DS9" s="25">
+      <c r="DV9" s="25">
         <v>1</v>
       </c>
-      <c r="DT9" s="25">
+      <c r="DW9" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU9" s="26" t="s">
+      <c r="DX9" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="DV9" s="93">
+      <c r="DY9" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW9" s="25" t="s">
-        <v>787</v>
-      </c>
-      <c r="DX9" s="25" t="s">
+      <c r="DZ9" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="EA9" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY9" s="25" t="s">
+      <c r="EB9" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ9" s="25">
+      <c r="EC9" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA9" s="25" t="s">
+      <c r="ED9" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB9" s="25">
+      <c r="EE9" s="25">
         <v>59185</v>
       </c>
-      <c r="EC9" s="25" t="s">
+      <c r="EF9" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED9" s="25" t="s">
+      <c r="EG9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE9" s="25" t="s">
+      <c r="EH9" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF9" s="25" t="s">
+      <c r="EI9" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG9" s="25" t="s">
+      <c r="EJ9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH9" s="25" t="s">
+      <c r="EK9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI9" s="25" t="s">
+      <c r="EL9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ9" s="25">
+      <c r="EM9" s="25">
         <v>12430</v>
       </c>
-      <c r="EK9" s="25" t="s">
+      <c r="EN9" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL9" s="25" t="s">
+      <c r="EO9" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM9" s="25" t="s">
+      <c r="EP9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN9" s="25" t="s">
+      <c r="EQ9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO9" s="25" t="s">
+      <c r="ER9" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP9" s="25" t="s">
+      <c r="ES9" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ9" s="25" t="s">
+      <c r="ET9" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER9" s="25" t="s">
+      <c r="EU9" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES9" s="25" t="s">
+      <c r="EV9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="ET9" s="93" t="s">
+      <c r="EW9" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU9" s="25" t="s">
+      <c r="EX9" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY9" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ9" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA9" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB9" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC9" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD9" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE9" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF9" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG9" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH9" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI9" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ9" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK9" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL9" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM9" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN9" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO9" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP9" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ9" s="25"/>
+      <c r="FR9" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="FS9" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="FT9" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU9" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV9" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW9" s="25">
+        <v>1250000000</v>
+      </c>
+      <c r="FX9" s="25">
+        <v>30</v>
+      </c>
+      <c r="FY9" s="25"/>
+      <c r="FZ9" s="25">
+        <v>48</v>
+      </c>
+      <c r="GA9" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB9" s="26">
+        <v>15</v>
+      </c>
+      <c r="GC9" s="25">
+        <v>5000000</v>
+      </c>
+      <c r="GD9" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE9" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH9" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI9" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ9" s="25"/>
+      <c r="GK9" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM9" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV9" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW9" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY9" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ9" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA9" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB9" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC9" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD9" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE9" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF9" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG9" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH9" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI9" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ9" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK9" s="25" t="s">
+      <c r="GN9" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO9" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP9" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR9" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS9" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT9" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL9" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM9" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN9" s="25"/>
-      <c r="FO9" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="FP9" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="FQ9" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR9" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS9" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT9" s="25">
-        <v>1250000000</v>
-      </c>
-      <c r="FU9" s="25">
-        <v>30</v>
-      </c>
-      <c r="FV9" s="25"/>
-      <c r="FW9" s="25">
-        <v>48</v>
-      </c>
-      <c r="FX9" s="26">
-        <v>8.3969000000000005</v>
-      </c>
-      <c r="FY9" s="26">
-        <v>15</v>
-      </c>
-      <c r="FZ9" s="25">
-        <v>5000000</v>
-      </c>
-      <c r="GA9" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB9" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC9" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD9" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE9" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF9" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG9" s="25"/>
-      <c r="GH9" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI9" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ9" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="GK9" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="GL9" s="25">
-        <v>20</v>
-      </c>
-      <c r="GM9" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN9" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO9" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP9" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ9" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR9" s="98" t="s">
+      <c r="GU9" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV9" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="GS9" s="25" t="s">
+      <c r="GW9" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT9" s="25" t="s">
+      <c r="GX9" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU9" s="93" t="s">
+      <c r="GY9" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="GV9" s="25">
+      <c r="GZ9" s="25">
         <v>120100</v>
       </c>
-      <c r="GW9" s="25" t="s">
+      <c r="HA9" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX9" s="25">
+      <c r="HB9" s="25">
         <v>12430</v>
       </c>
-      <c r="GY9" s="25" t="s">
+      <c r="HC9" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ9" s="25" t="s">
+      <c r="HD9" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA9" s="25" t="s">
+      <c r="HE9" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB9" s="25" t="s">
+      <c r="HF9" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC9" s="25" t="s">
+      <c r="HG9" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD9" s="25" t="s">
+      <c r="HH9" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE9" s="93" t="s">
+      <c r="HI9" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:213" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:217" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
         <v>634</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E10" s="141" t="s">
         <v>347</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G10" s="142">
         <v>99887777</v>
@@ -19819,7 +19970,7 @@
         <v>14430</v>
       </c>
       <c r="J10" s="185" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>544</v>
@@ -19876,10 +20027,10 @@
         <v>175</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH10" s="21" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AI10" s="21">
         <v>1280000000</v>
@@ -19945,10 +20096,10 @@
         <v>237</v>
       </c>
       <c r="BF10" s="21" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="BG10" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="BH10" s="21">
         <v>20</v>
@@ -19963,7 +20114,7 @@
         <v>233</v>
       </c>
       <c r="BL10" s="151" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="BM10" s="21" t="s">
         <v>540</v>
@@ -19980,7 +20131,7 @@
         <v>553</v>
       </c>
       <c r="BS10" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="BT10" s="21">
         <v>99887777</v>
@@ -19989,22 +20140,22 @@
         <v>347</v>
       </c>
       <c r="BV10" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="BW10" s="24" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BX10" s="24" t="s">
         <v>347</v>
       </c>
       <c r="BY10" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BZ10" s="21">
         <v>4211222202</v>
       </c>
       <c r="CA10" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="CB10" s="93" t="s">
         <v>543</v>
@@ -20013,7 +20164,7 @@
         <v>14430</v>
       </c>
       <c r="CD10" s="25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="CE10" s="25" t="s">
         <v>544</v>
@@ -20055,355 +20206,367 @@
         <v>416</v>
       </c>
       <c r="CR10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CS10" s="25" t="s">
+      <c r="CU10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CT10" s="25" t="s">
+      <c r="CV10" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU10" s="25" t="s">
+      <c r="CW10" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="CV10" s="25" t="s">
+      <c r="CX10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="CW10" s="26" t="s">
+      <c r="CY10" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="CX10" s="25" t="s">
+      <c r="CZ10" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="CY10" s="26" t="s">
+      <c r="DA10" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="CZ10" s="25" t="s">
+      <c r="DB10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="DA10" s="26" t="s">
+      <c r="DC10" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="DB10" s="25" t="s">
+      <c r="DD10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="DC10" s="25" t="s">
+      <c r="DE10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="DD10" s="25" t="s">
+      <c r="DF10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="DE10" s="25">
+      <c r="DG10" s="25">
         <v>6111222299</v>
       </c>
-      <c r="DF10" s="25" t="s">
-        <v>755</v>
-      </c>
-      <c r="DG10" s="25" t="s">
+      <c r="DH10" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="DI10" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="DH10" s="25" t="s">
+      <c r="DJ10" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="DI10" s="25">
+      <c r="DK10" s="25">
         <v>4211222202</v>
       </c>
-      <c r="DJ10" s="25" t="s">
-        <v>777</v>
-      </c>
-      <c r="DK10" s="26" t="s">
-        <v>779</v>
-      </c>
       <c r="DL10" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="DM10" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="DN10" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="DM10" s="25" t="s">
+      <c r="DO10" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DN10" s="93" t="s">
+      <c r="DP10" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="DO10" s="25" t="s">
+      <c r="DQ10" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="DP10" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="DQ10" s="25" t="s">
+      <c r="DR10" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS10" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="DT10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="DR10" s="25">
+      <c r="DU10" s="25">
         <v>10</v>
       </c>
-      <c r="DS10" s="25">
+      <c r="DV10" s="25">
         <v>1</v>
       </c>
-      <c r="DT10" s="25">
+      <c r="DW10" s="25">
         <v>10000000</v>
       </c>
-      <c r="DU10" s="26" t="s">
+      <c r="DX10" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="DV10" s="93">
+      <c r="DY10" s="93">
         <v>1122777</v>
       </c>
-      <c r="DW10" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="DX10" s="25" t="s">
+      <c r="DZ10" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="EA10" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="DY10" s="25" t="s">
+      <c r="EB10" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="DZ10" s="25">
+      <c r="EC10" s="25">
         <v>735947227</v>
       </c>
-      <c r="EA10" s="25" t="s">
+      <c r="ED10" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="EB10" s="25">
+      <c r="EE10" s="25">
         <v>59185</v>
       </c>
-      <c r="EC10" s="25" t="s">
+      <c r="EF10" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="ED10" s="25" t="s">
+      <c r="EG10" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="EE10" s="25" t="s">
+      <c r="EH10" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="EF10" s="25" t="s">
+      <c r="EI10" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="EG10" s="25" t="s">
+      <c r="EJ10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="EH10" s="25" t="s">
+      <c r="EK10" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="EI10" s="25" t="s">
+      <c r="EL10" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="EJ10" s="25">
+      <c r="EM10" s="25">
         <v>12430</v>
       </c>
-      <c r="EK10" s="25" t="s">
+      <c r="EN10" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="EL10" s="25" t="s">
+      <c r="EO10" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="EM10" s="25" t="s">
+      <c r="EP10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EN10" s="25" t="s">
+      <c r="EQ10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="EO10" s="25" t="s">
+      <c r="ER10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="EP10" s="25" t="s">
+      <c r="ES10" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="EQ10" s="25" t="s">
+      <c r="ET10" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="ER10" s="25" t="s">
+      <c r="EU10" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="ES10" s="25" t="s">
+      <c r="EV10" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="ET10" s="93" t="s">
+      <c r="EW10" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="EU10" s="25" t="s">
+      <c r="EX10" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY10" s="25">
+        <v>5238528</v>
+      </c>
+      <c r="EZ10" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA10" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB10" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD10" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE10" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG10" s="25">
+        <v>2023</v>
+      </c>
+      <c r="FH10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI10" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ10" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK10" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL10" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM10" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN10" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO10" s="25">
+        <v>15</v>
+      </c>
+      <c r="FP10" s="25">
+        <v>200000</v>
+      </c>
+      <c r="FQ10" s="25"/>
+      <c r="FR10" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="FS10" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="FT10" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU10" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV10" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW10" s="25">
+        <v>1280000000</v>
+      </c>
+      <c r="FX10" s="25">
+        <v>30</v>
+      </c>
+      <c r="FY10" s="25"/>
+      <c r="FZ10" s="25">
+        <v>48</v>
+      </c>
+      <c r="GA10" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB10" s="26">
+        <v>15</v>
+      </c>
+      <c r="GC10" s="25">
+        <v>40960000</v>
+      </c>
+      <c r="GD10" s="25">
+        <v>750000</v>
+      </c>
+      <c r="GE10" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH10" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI10" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ10" s="25"/>
+      <c r="GK10" s="25">
+        <v>250000000</v>
+      </c>
+      <c r="GL10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM10" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="EV10" s="25">
-        <v>5238528</v>
-      </c>
-      <c r="EW10" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="EX10" s="25" t="s">
-        <v>795</v>
-      </c>
-      <c r="EY10" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="EZ10" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FA10" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB10" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="FC10" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="FD10" s="25">
-        <v>2023</v>
-      </c>
-      <c r="FE10" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="FF10" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="FG10" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH10" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="FI10" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ10" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="FK10" s="25" t="s">
+      <c r="GN10" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO10" s="25">
+        <v>24</v>
+      </c>
+      <c r="GP10" s="25">
+        <v>20</v>
+      </c>
+      <c r="GQ10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR10" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT10" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="FL10" s="25">
-        <v>15</v>
-      </c>
-      <c r="FM10" s="25">
-        <v>200000</v>
-      </c>
-      <c r="FN10" s="25"/>
-      <c r="FO10" s="25" t="s">
-        <v>793</v>
-      </c>
-      <c r="FP10" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="FQ10" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="FR10" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="FS10" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT10" s="25">
-        <v>1280000000</v>
-      </c>
-      <c r="FU10" s="25">
-        <v>30</v>
-      </c>
-      <c r="FV10" s="25"/>
-      <c r="FW10" s="25">
-        <v>48</v>
-      </c>
-      <c r="FX10" s="26">
-        <v>8.3969000000000005</v>
-      </c>
-      <c r="FY10" s="26">
-        <v>15</v>
-      </c>
-      <c r="FZ10" s="25">
-        <v>40960000</v>
-      </c>
-      <c r="GA10" s="25">
-        <v>750000</v>
-      </c>
-      <c r="GB10" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="GC10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE10" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="GF10" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="GG10" s="25"/>
-      <c r="GH10" s="25">
-        <v>250000000</v>
-      </c>
-      <c r="GI10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ10" s="25" t="s">
-        <v>791</v>
-      </c>
-      <c r="GK10" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="GL10" s="25">
-        <v>20</v>
-      </c>
-      <c r="GM10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN10" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="GO10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP10" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="GQ10" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR10" s="25" t="s">
+      <c r="GU10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV10" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="GS10" s="25" t="s">
+      <c r="GW10" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="GT10" s="25" t="s">
+      <c r="GX10" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GU10" s="25" t="s">
+      <c r="GY10" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="GV10" s="25">
+      <c r="GZ10" s="25">
         <v>120100</v>
       </c>
-      <c r="GW10" s="25" t="s">
+      <c r="HA10" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="GX10" s="25">
+      <c r="HB10" s="25">
         <v>12430</v>
       </c>
-      <c r="GY10" s="25" t="s">
+      <c r="HC10" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="GZ10" s="25" t="s">
+      <c r="HD10" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="HA10" s="25" t="s">
+      <c r="HE10" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="HB10" s="25" t="s">
+      <c r="HF10" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="HC10" s="25" t="s">
+      <c r="HG10" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="HD10" s="25" t="s">
+      <c r="HH10" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="HE10" s="93" t="s">
+      <c r="HI10" s="93" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:213" s="176" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:217" s="176" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="166" t="s">
         <v>633</v>
       </c>
@@ -20552,353 +20715,365 @@
         <v>416</v>
       </c>
       <c r="CR11" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="173" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT11" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="CS11" s="173" t="s">
+      <c r="CU11" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="CT11" s="173" t="s">
+      <c r="CV11" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="CU11" s="173" t="s">
+      <c r="CW11" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="CV11" s="173" t="s">
+      <c r="CX11" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="CW11" s="174" t="s">
+      <c r="CY11" s="174" t="s">
         <v>675</v>
       </c>
-      <c r="CX11" s="173" t="s">
+      <c r="CZ11" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="CY11" s="174" t="s">
+      <c r="DA11" s="174" t="s">
         <v>676</v>
       </c>
-      <c r="CZ11" s="173" t="s">
+      <c r="DB11" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="DA11" s="174" t="s">
+      <c r="DC11" s="174" t="s">
         <v>677</v>
       </c>
-      <c r="DB11" s="173" t="s">
+      <c r="DD11" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="DC11" s="173" t="s">
+      <c r="DE11" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="DD11" s="173" t="s">
+      <c r="DF11" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="DE11" s="173">
+      <c r="DG11" s="173">
         <v>1111222277</v>
       </c>
-      <c r="DF11" s="173" t="s">
+      <c r="DH11" s="173" t="s">
         <v>739</v>
       </c>
-      <c r="DG11" s="173" t="s">
+      <c r="DI11" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="DH11" s="173" t="s">
+      <c r="DJ11" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="DI11" s="173">
+      <c r="DK11" s="173">
         <v>1111222278</v>
       </c>
-      <c r="DJ11" s="173" t="s">
+      <c r="DL11" s="173" t="s">
         <v>691</v>
       </c>
-      <c r="DK11" s="174" t="s">
+      <c r="DM11" s="174" t="s">
         <v>679</v>
       </c>
-      <c r="DL11" s="173" t="s">
+      <c r="DN11" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="DM11" s="173" t="s">
+      <c r="DO11" s="173" t="s">
         <v>501</v>
       </c>
-      <c r="DN11" s="166" t="s">
+      <c r="DP11" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="DO11" s="173" t="s">
+      <c r="DQ11" s="173" t="s">
         <v>746</v>
       </c>
-      <c r="DP11" s="173" t="s">
+      <c r="DR11" s="173" t="s">
+        <v>801</v>
+      </c>
+      <c r="DS11" s="173" t="s">
         <v>739</v>
       </c>
-      <c r="DQ11" s="173" t="s">
+      <c r="DT11" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="DR11" s="173">
+      <c r="DU11" s="173">
         <v>10</v>
       </c>
-      <c r="DS11" s="173">
+      <c r="DV11" s="173">
         <v>1</v>
       </c>
-      <c r="DT11" s="173">
+      <c r="DW11" s="173">
         <v>10000000</v>
       </c>
-      <c r="DU11" s="174" t="s">
+      <c r="DX11" s="174" t="s">
         <v>255</v>
       </c>
-      <c r="DV11" s="166">
+      <c r="DY11" s="166">
         <v>1122777</v>
       </c>
-      <c r="DW11" s="173" t="s">
+      <c r="DZ11" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="DX11" s="173" t="s">
+      <c r="EA11" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="DY11" s="173" t="s">
+      <c r="EB11" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="DZ11" s="173">
+      <c r="EC11" s="173">
         <v>735947227</v>
       </c>
-      <c r="EA11" s="173" t="s">
+      <c r="ED11" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="EB11" s="173">
+      <c r="EE11" s="173">
         <v>59185</v>
       </c>
-      <c r="EC11" s="173" t="s">
+      <c r="EF11" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="ED11" s="173" t="s">
+      <c r="EG11" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="EE11" s="173" t="s">
+      <c r="EH11" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="EF11" s="173" t="s">
+      <c r="EI11" s="173" t="s">
         <v>177</v>
       </c>
-      <c r="EG11" s="173" t="s">
+      <c r="EJ11" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="EH11" s="173" t="s">
+      <c r="EK11" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="EI11" s="173" t="s">
+      <c r="EL11" s="173" t="s">
         <v>180</v>
       </c>
-      <c r="EJ11" s="173">
+      <c r="EM11" s="173">
         <v>12430</v>
       </c>
-      <c r="EK11" s="173" t="s">
+      <c r="EN11" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="EL11" s="173" t="s">
+      <c r="EO11" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="EM11" s="173" t="s">
+      <c r="EP11" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="EN11" s="173" t="s">
+      <c r="EQ11" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="EO11" s="173" t="s">
+      <c r="ER11" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="EP11" s="173" t="s">
+      <c r="ES11" s="173" t="s">
         <v>257</v>
       </c>
-      <c r="EQ11" s="173" t="s">
+      <c r="ET11" s="173" t="s">
         <v>258</v>
       </c>
-      <c r="ER11" s="173" t="s">
+      <c r="EU11" s="173" t="s">
         <v>589</v>
       </c>
-      <c r="ES11" s="173" t="s">
+      <c r="EV11" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="ET11" s="166" t="s">
+      <c r="EW11" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="EU11" s="175" t="s">
-        <v>751</v>
-      </c>
-      <c r="EV11" s="173">
+      <c r="EX11" s="175" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY11" s="173">
         <v>5238528</v>
       </c>
-      <c r="EW11" s="173" t="s">
+      <c r="EZ11" s="173" t="s">
         <v>185</v>
       </c>
-      <c r="EX11" s="173" t="s">
-        <v>186</v>
-      </c>
-      <c r="EY11" s="173" t="s">
+      <c r="FA11" s="173" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB11" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="EZ11" s="173" t="s">
+      <c r="FC11" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="FA11" s="173" t="s">
+      <c r="FD11" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="FB11" s="173" t="s">
+      <c r="FE11" s="173" t="s">
         <v>393</v>
       </c>
-      <c r="FC11" s="173" t="s">
+      <c r="FF11" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="FD11" s="173">
+      <c r="FG11" s="173">
         <v>2023</v>
       </c>
-      <c r="FE11" s="173" t="s">
+      <c r="FH11" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="FF11" s="173" t="s">
+      <c r="FI11" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="FG11" s="173" t="s">
+      <c r="FJ11" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="FH11" s="173" t="s">
+      <c r="FK11" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="FI11" s="166" t="s">
+      <c r="FL11" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="FJ11" s="173" t="s">
+      <c r="FM11" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="FK11" s="173" t="s">
+      <c r="FN11" s="173" t="s">
         <v>237</v>
       </c>
-      <c r="FL11" s="173">
+      <c r="FO11" s="173">
         <v>15</v>
       </c>
-      <c r="FM11" s="173">
+      <c r="FP11" s="173">
         <v>200000</v>
       </c>
-      <c r="FN11" s="173" t="s">
+      <c r="FQ11" s="173" t="s">
         <v>615</v>
       </c>
-      <c r="FO11" s="173" t="s">
+      <c r="FR11" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="FP11" s="173" t="s">
+      <c r="FS11" s="173" t="s">
         <v>750</v>
       </c>
-      <c r="FQ11" s="173" t="s">
+      <c r="FT11" s="173" t="s">
         <v>613</v>
       </c>
-      <c r="FR11" s="173" t="s">
+      <c r="FU11" s="173" t="s">
         <v>614</v>
       </c>
-      <c r="FS11" s="173" t="s">
-        <v>390</v>
-      </c>
-      <c r="FT11" s="173">
+      <c r="FV11" s="173" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW11" s="173">
         <v>250000000</v>
       </c>
-      <c r="FU11" s="173">
+      <c r="FX11" s="173">
         <v>10</v>
       </c>
-      <c r="FV11" s="173"/>
-      <c r="FW11" s="173">
+      <c r="FY11" s="173"/>
+      <c r="FZ11" s="173">
         <v>24</v>
       </c>
-      <c r="FX11" s="174" t="s">
-        <v>601</v>
-      </c>
-      <c r="FY11" s="174" t="s">
-        <v>601</v>
-      </c>
-      <c r="FZ11" s="173">
+      <c r="GA11" s="174" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB11" s="174" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC11" s="173">
         <v>1000000</v>
       </c>
-      <c r="GA11" s="173">
+      <c r="GD11" s="173">
         <v>750000</v>
       </c>
-      <c r="GB11" s="173" t="s">
+      <c r="GE11" s="173" t="s">
         <v>391</v>
       </c>
-      <c r="GC11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GD11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GE11" s="173" t="s">
+      <c r="GF11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH11" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="GF11" s="173" t="s">
+      <c r="GI11" s="173" t="s">
         <v>597</v>
       </c>
-      <c r="GG11" s="173"/>
-      <c r="GH11" s="173">
+      <c r="GJ11" s="173"/>
+      <c r="GK11" s="173">
         <v>250000000</v>
       </c>
-      <c r="GI11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GJ11" s="173" t="s">
+      <c r="GL11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM11" s="173" t="s">
         <v>241</v>
       </c>
-      <c r="GK11" s="173" t="s">
-        <v>242</v>
-      </c>
-      <c r="GL11" s="173" t="s">
+      <c r="GN11" s="173" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO11" s="173">
+        <v>24</v>
+      </c>
+      <c r="GP11" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="GM11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GN11" s="173" t="s">
+      <c r="GQ11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR11" s="173" t="s">
         <v>244</v>
       </c>
-      <c r="GO11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GP11" s="173" t="s">
+      <c r="GS11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT11" s="173" t="s">
         <v>237</v>
       </c>
-      <c r="GQ11" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR11" s="173" t="s">
+      <c r="GU11" s="173" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV11" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="GS11" s="173" t="s">
+      <c r="GW11" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="GT11" s="173" t="s">
+      <c r="GX11" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="GU11" s="173" t="s">
+      <c r="GY11" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="GV11" s="173">
+      <c r="GZ11" s="173">
         <v>120100</v>
       </c>
-      <c r="GW11" s="173" t="s">
+      <c r="HA11" s="173" t="s">
         <v>501</v>
       </c>
-      <c r="GX11" s="173">
+      <c r="HB11" s="173">
         <v>12430</v>
       </c>
-      <c r="GY11" s="173" t="s">
+      <c r="HC11" s="173" t="s">
         <v>508</v>
       </c>
-      <c r="GZ11" s="173" t="s">
+      <c r="HD11" s="173" t="s">
         <v>519</v>
       </c>
-      <c r="HA11" s="173" t="s">
+      <c r="HE11" s="173" t="s">
         <v>511</v>
       </c>
-      <c r="HB11" s="173" t="s">
+      <c r="HF11" s="173" t="s">
         <v>513</v>
       </c>
-      <c r="HC11" s="173" t="s">
+      <c r="HG11" s="173" t="s">
         <v>515</v>
       </c>
-      <c r="HD11" s="173" t="s">
+      <c r="HH11" s="173" t="s">
         <v>517</v>
       </c>
-      <c r="HE11" s="166" t="s">
+      <c r="HI11" s="166" t="s">
         <v>105</v>
       </c>
     </row>

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBE3E17-214C-4000-AB79-3E2620BA96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8746D467-8C59-4CB6-BA02-BD4FF85157E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint2 (dari Aplikasi Baru (2)" sheetId="9" r:id="rId1"/>
     <sheet name="Simulasi" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint5 (dari Simulasi)" sheetId="8" r:id="rId3"/>
     <sheet name="Sprint2 (dari Aplikasi Baru)" sheetId="1" r:id="rId4"/>
-    <sheet name="Sprint4" sheetId="7" r:id="rId5"/>
-    <sheet name="Sprint3" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3Edit" sheetId="6" r:id="rId7"/>
-    <sheet name="Sprint1" sheetId="2" r:id="rId8"/>
+    <sheet name="RBS" sheetId="10" r:id="rId5"/>
+    <sheet name="Sprint4" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint3Edit" sheetId="6" r:id="rId8"/>
+    <sheet name="Sprint1" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="854">
   <si>
     <t>konsumen</t>
   </si>
@@ -2479,6 +2480,132 @@
   </si>
   <si>
     <t>KILLJOY</t>
+  </si>
+  <si>
+    <t>KONSUMEN A</t>
+  </si>
+  <si>
+    <t>KONSUMEN B</t>
+  </si>
+  <si>
+    <t>KONSUMEN C</t>
+  </si>
+  <si>
+    <t>KONSUMEN D</t>
+  </si>
+  <si>
+    <t>KONSUMEN E</t>
+  </si>
+  <si>
+    <t>3672086105760011</t>
+  </si>
+  <si>
+    <t>3672086105750012</t>
+  </si>
+  <si>
+    <t>3672086105750013</t>
+  </si>
+  <si>
+    <t>3772086105750014</t>
+  </si>
+  <si>
+    <t>3672086105750015</t>
+  </si>
+  <si>
+    <t>KONSUMENA@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMENB@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMENC@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMEND@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMENE@gmail.com</t>
+  </si>
+  <si>
+    <t>IBU KONSUMEN A</t>
+  </si>
+  <si>
+    <t>IBU KONSUMEN B</t>
+  </si>
+  <si>
+    <t>IBU KONSUMEN C</t>
+  </si>
+  <si>
+    <t>IBU KONSUMEN D</t>
+  </si>
+  <si>
+    <t>IBU KONSUMEN E</t>
+  </si>
+  <si>
+    <t>KONSUMEN F</t>
+  </si>
+  <si>
+    <t>3772086105750016</t>
+  </si>
+  <si>
+    <t>KONSUMEN G</t>
+  </si>
+  <si>
+    <t>3772086105750017</t>
+  </si>
+  <si>
+    <t>KONSUMEN H</t>
+  </si>
+  <si>
+    <t>3772086105750018</t>
+  </si>
+  <si>
+    <t>KONSUMENH@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMENG@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMEN I</t>
+  </si>
+  <si>
+    <t>3772086105750019</t>
+  </si>
+  <si>
+    <t>KONSUMENI@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMEN J</t>
+  </si>
+  <si>
+    <t>KONSUMENJ@gmail.com</t>
+  </si>
+  <si>
+    <t>KONSUMEN K</t>
+  </si>
+  <si>
+    <t>3772086105750020</t>
+  </si>
+  <si>
+    <t>3772086105750021</t>
+  </si>
+  <si>
+    <t>KONSUMENK@gmail.com</t>
+  </si>
+  <si>
+    <t>APPROVE@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>IBU APPROVE</t>
+  </si>
+  <si>
+    <t>BUDI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>12312314412</t>
+  </si>
+  <si>
+    <t>IBU BUDI</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2620,6 +2747,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2754,7 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -3220,6 +3359,120 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9598,7 +9851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E6878C-B034-47D1-9866-C29D059CCCD9}">
   <dimension ref="A1:BO15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
@@ -14697,16 +14950,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9714DEC-43C5-4011-A240-3BE24ABA98F9}">
-  <dimension ref="A1:HI11"/>
+  <dimension ref="A1:HI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
@@ -14813,7 +15066,7 @@
     <col min="109" max="109" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="21" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -14919,6 +15172,8170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:217" s="138" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="191" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>616</v>
+      </c>
+      <c r="I1" s="123" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1" s="123" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1" s="123" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="123" t="s">
+        <v>620</v>
+      </c>
+      <c r="M1" s="123" t="s">
+        <v>621</v>
+      </c>
+      <c r="N1" s="123" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" s="123" t="s">
+        <v>617</v>
+      </c>
+      <c r="P1" s="123" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="123" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="123" t="s">
+        <v>625</v>
+      </c>
+      <c r="S1" s="123" t="s">
+        <v>626</v>
+      </c>
+      <c r="T1" s="123" t="s">
+        <v>627</v>
+      </c>
+      <c r="U1" s="123" t="s">
+        <v>628</v>
+      </c>
+      <c r="V1" s="123" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1" s="123" t="s">
+        <v>631</v>
+      </c>
+      <c r="X1" s="127" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="129" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA1" s="129" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB1" s="129" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC1" s="129" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD1" s="129" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE1" s="130" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF1" s="86" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG1" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH1" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI1" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ1" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK1" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL1" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM1" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN1" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO1" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP1" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ1" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR1" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT1" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU1" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV1" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW1" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX1" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY1" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ1" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA1" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="86" t="s">
+        <v>602</v>
+      </c>
+      <c r="BC1" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD1" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="BE1" s="86" t="s">
+        <v>538</v>
+      </c>
+      <c r="BF1" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="BG1" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="BH1" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="BI1" s="86" t="s">
+        <v>533</v>
+      </c>
+      <c r="BJ1" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK1" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="BL1" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="BM1" s="86" t="s">
+        <v>539</v>
+      </c>
+      <c r="BN1" s="86" t="s">
+        <v>542</v>
+      </c>
+      <c r="BO1" s="86" t="s">
+        <v>549</v>
+      </c>
+      <c r="BP1" s="86" t="s">
+        <v>554</v>
+      </c>
+      <c r="BQ1" s="86" t="s">
+        <v>551</v>
+      </c>
+      <c r="BR1" s="86" t="s">
+        <v>552</v>
+      </c>
+      <c r="BS1" s="86" t="s">
+        <v>454</v>
+      </c>
+      <c r="BT1" s="86" t="s">
+        <v>455</v>
+      </c>
+      <c r="BU1" s="86" t="s">
+        <v>447</v>
+      </c>
+      <c r="BV1" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW1" s="86" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX1" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY1" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ1" s="86" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA1" s="86" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB1" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="CC1" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="CD1" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="CE1" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="CF1" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="CG1" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="CH1" s="86" t="s">
+        <v>457</v>
+      </c>
+      <c r="CI1" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="CJ1" s="86" t="s">
+        <v>463</v>
+      </c>
+      <c r="CK1" s="86" t="s">
+        <v>464</v>
+      </c>
+      <c r="CL1" s="86" t="s">
+        <v>465</v>
+      </c>
+      <c r="CM1" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="CN1" s="86" t="s">
+        <v>467</v>
+      </c>
+      <c r="CO1" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="CP1" s="90" t="s">
+        <v>469</v>
+      </c>
+      <c r="CQ1" s="132" t="s">
+        <v>555</v>
+      </c>
+      <c r="CR1" s="132" t="s">
+        <v>797</v>
+      </c>
+      <c r="CS1" s="132" t="s">
+        <v>796</v>
+      </c>
+      <c r="CT1" s="132" t="s">
+        <v>518</v>
+      </c>
+      <c r="CU1" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="CV1" s="132" t="s">
+        <v>557</v>
+      </c>
+      <c r="CW1" s="132" t="s">
+        <v>558</v>
+      </c>
+      <c r="CX1" s="132" t="s">
+        <v>559</v>
+      </c>
+      <c r="CY1" s="132" t="s">
+        <v>560</v>
+      </c>
+      <c r="CZ1" s="132" t="s">
+        <v>561</v>
+      </c>
+      <c r="DA1" s="132" t="s">
+        <v>562</v>
+      </c>
+      <c r="DB1" s="132" t="s">
+        <v>563</v>
+      </c>
+      <c r="DC1" s="132" t="s">
+        <v>564</v>
+      </c>
+      <c r="DD1" s="132" t="s">
+        <v>565</v>
+      </c>
+      <c r="DE1" s="132" t="s">
+        <v>566</v>
+      </c>
+      <c r="DF1" s="132" t="s">
+        <v>567</v>
+      </c>
+      <c r="DG1" s="132" t="s">
+        <v>568</v>
+      </c>
+      <c r="DH1" s="132" t="s">
+        <v>569</v>
+      </c>
+      <c r="DI1" s="132" t="s">
+        <v>570</v>
+      </c>
+      <c r="DJ1" s="132" t="s">
+        <v>571</v>
+      </c>
+      <c r="DK1" s="132" t="s">
+        <v>572</v>
+      </c>
+      <c r="DL1" s="132" t="s">
+        <v>573</v>
+      </c>
+      <c r="DM1" s="132" t="s">
+        <v>574</v>
+      </c>
+      <c r="DN1" s="132" t="s">
+        <v>575</v>
+      </c>
+      <c r="DO1" s="132" t="s">
+        <v>576</v>
+      </c>
+      <c r="DP1" s="133" t="s">
+        <v>577</v>
+      </c>
+      <c r="DQ1" s="134" t="s">
+        <v>579</v>
+      </c>
+      <c r="DR1" s="134" t="s">
+        <v>799</v>
+      </c>
+      <c r="DS1" s="134" t="s">
+        <v>603</v>
+      </c>
+      <c r="DT1" s="134" t="s">
+        <v>604</v>
+      </c>
+      <c r="DU1" s="134" t="s">
+        <v>580</v>
+      </c>
+      <c r="DV1" s="134" t="s">
+        <v>581</v>
+      </c>
+      <c r="DW1" s="134" t="s">
+        <v>582</v>
+      </c>
+      <c r="DX1" s="134" t="s">
+        <v>583</v>
+      </c>
+      <c r="DY1" s="165" t="s">
+        <v>584</v>
+      </c>
+      <c r="DZ1" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="EA1" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="EB1" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC1" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="ED1" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE1" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="EF1" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="EG1" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="EH1" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI1" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="EJ1" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="EK1" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="EL1" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="EM1" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="EN1" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="EO1" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="EP1" s="86" t="s">
+        <v>503</v>
+      </c>
+      <c r="EQ1" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER1" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="ES1" s="86" t="s">
+        <v>585</v>
+      </c>
+      <c r="ET1" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="EU1" s="86" t="s">
+        <v>587</v>
+      </c>
+      <c r="EV1" s="86" t="s">
+        <v>609</v>
+      </c>
+      <c r="EW1" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="EX1" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="EY1" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="EZ1" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="FA1" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="FB1" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="FC1" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="FD1" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="FE1" s="132" t="s">
+        <v>392</v>
+      </c>
+      <c r="FF1" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="FG1" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="FH1" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="FI1" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="FJ1" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="FK1" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="FL1" s="133" t="s">
+        <v>199</v>
+      </c>
+      <c r="FM1" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="FN1" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="FO1" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="FP1" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="FQ1" s="86" t="s">
+        <v>611</v>
+      </c>
+      <c r="FR1" s="86" t="s">
+        <v>610</v>
+      </c>
+      <c r="FS1" s="86" t="s">
+        <v>612</v>
+      </c>
+      <c r="FT1" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="FU1" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="FV1" s="86" t="s">
+        <v>635</v>
+      </c>
+      <c r="FW1" s="86" t="s">
+        <v>636</v>
+      </c>
+      <c r="FX1" s="86" t="s">
+        <v>637</v>
+      </c>
+      <c r="FY1" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="FZ1" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="GA1" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="GB1" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="GC1" s="86" t="s">
+        <v>642</v>
+      </c>
+      <c r="GD1" s="86" t="s">
+        <v>643</v>
+      </c>
+      <c r="GE1" s="86" t="s">
+        <v>644</v>
+      </c>
+      <c r="GF1" s="86" t="s">
+        <v>645</v>
+      </c>
+      <c r="GG1" s="86" t="s">
+        <v>646</v>
+      </c>
+      <c r="GH1" s="86" t="s">
+        <v>647</v>
+      </c>
+      <c r="GI1" s="86" t="s">
+        <v>648</v>
+      </c>
+      <c r="GJ1" s="86" t="s">
+        <v>649</v>
+      </c>
+      <c r="GK1" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="GL1" s="86" t="s">
+        <v>651</v>
+      </c>
+      <c r="GM1" s="86" t="s">
+        <v>652</v>
+      </c>
+      <c r="GN1" s="86" t="s">
+        <v>653</v>
+      </c>
+      <c r="GO1" s="86" t="s">
+        <v>808</v>
+      </c>
+      <c r="GP1" s="86" t="s">
+        <v>654</v>
+      </c>
+      <c r="GQ1" s="86" t="s">
+        <v>655</v>
+      </c>
+      <c r="GR1" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="GS1" s="86" t="s">
+        <v>657</v>
+      </c>
+      <c r="GT1" s="86" t="s">
+        <v>658</v>
+      </c>
+      <c r="GU1" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="GV1" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="GW1" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="GX1" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="GY1" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="GZ1" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="HA1" s="86" t="s">
+        <v>505</v>
+      </c>
+      <c r="HB1" s="86" t="s">
+        <v>506</v>
+      </c>
+      <c r="HC1" s="86" t="s">
+        <v>507</v>
+      </c>
+      <c r="HD1" s="86" t="s">
+        <v>509</v>
+      </c>
+      <c r="HE1" s="86" t="s">
+        <v>510</v>
+      </c>
+      <c r="HF1" s="86" t="s">
+        <v>512</v>
+      </c>
+      <c r="HG1" s="86" t="s">
+        <v>514</v>
+      </c>
+      <c r="HH1" s="86" t="s">
+        <v>516</v>
+      </c>
+      <c r="HI1" s="90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="193" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="193" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="194" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H2" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I2" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J2" s="197" t="s">
+        <v>849</v>
+      </c>
+      <c r="K2" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L2" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T2" s="193">
+        <v>12</v>
+      </c>
+      <c r="U2" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W2" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="198"/>
+      <c r="AH2" s="198"/>
+      <c r="AI2" s="198"/>
+      <c r="AJ2" s="198"/>
+      <c r="AK2" s="198"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="198"/>
+      <c r="AN2" s="198"/>
+      <c r="AO2" s="198"/>
+      <c r="AP2" s="198"/>
+      <c r="AQ2" s="198"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="198"/>
+      <c r="AT2" s="198"/>
+      <c r="AU2" s="198"/>
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="198"/>
+      <c r="AY2" s="198"/>
+      <c r="AZ2" s="198"/>
+      <c r="BA2" s="198"/>
+      <c r="BB2" s="198"/>
+      <c r="BC2" s="198"/>
+      <c r="BD2" s="198"/>
+      <c r="BE2" s="198"/>
+      <c r="BF2" s="198"/>
+      <c r="BG2" s="198"/>
+      <c r="BH2" s="198"/>
+      <c r="BI2" s="198"/>
+      <c r="BJ2" s="198"/>
+      <c r="BK2" s="198"/>
+      <c r="BL2" s="192"/>
+      <c r="BM2" s="198"/>
+      <c r="BN2" s="198"/>
+      <c r="BO2" s="198"/>
+      <c r="BP2" s="198"/>
+      <c r="BQ2" s="198"/>
+      <c r="BR2" s="198"/>
+      <c r="BS2" s="198"/>
+      <c r="BT2" s="198"/>
+      <c r="BU2" s="198"/>
+      <c r="BV2" s="198"/>
+      <c r="BW2" s="198"/>
+      <c r="BX2" s="199"/>
+      <c r="BY2" s="200"/>
+      <c r="BZ2" s="198"/>
+      <c r="CA2" s="198"/>
+      <c r="CB2" s="192"/>
+      <c r="CC2" s="198"/>
+      <c r="CD2" s="198"/>
+      <c r="CE2" s="200"/>
+      <c r="CF2" s="198"/>
+      <c r="CG2" s="198"/>
+      <c r="CH2" s="198"/>
+      <c r="CI2" s="198"/>
+      <c r="CJ2" s="198"/>
+      <c r="CK2" s="198"/>
+      <c r="CL2" s="198"/>
+      <c r="CM2" s="198"/>
+      <c r="CN2" s="198"/>
+      <c r="CO2" s="198"/>
+      <c r="CP2" s="192"/>
+      <c r="CQ2" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR2" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT2" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU2" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV2" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW2" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX2" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY2" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ2" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA2" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB2" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC2" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD2" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE2" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF2" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG2" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH2" s="198" t="str">
+        <f>C2</f>
+        <v>APPROVE</v>
+      </c>
+      <c r="DI2" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ2" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK2" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL2" s="198" t="str">
+        <f>DH2</f>
+        <v>APPROVE</v>
+      </c>
+      <c r="DM2" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN2" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO2" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP2" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ2" s="198" t="s">
+        <v>850</v>
+      </c>
+      <c r="DR2" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS2" s="198" t="str">
+        <f>DL2</f>
+        <v>APPROVE</v>
+      </c>
+      <c r="DT2" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU2" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV2" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX2" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY2" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ2" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA2" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB2" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC2" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED2" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE2" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF2" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG2" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH2" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI2" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ2" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK2" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL2" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM2" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN2" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO2" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP2" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ2" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER2" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES2" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET2" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU2" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV2" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW2" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX2" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY2" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ2" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA2" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB2" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC2" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD2" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE2" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF2" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG2" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH2" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI2" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ2" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK2" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL2" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM2" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN2" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO2" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP2" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ2" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR2" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS2" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT2" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU2" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV2" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW2" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX2" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY2" s="198"/>
+      <c r="FZ2" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA2" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB2" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC2" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD2" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE2" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF2" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG2" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH2" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI2" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ2" s="198"/>
+      <c r="GK2" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL2" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM2" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN2" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO2" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP2" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ2" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR2" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS2" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT2" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU2" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV2" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW2" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX2" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY2" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ2" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA2" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB2" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC2" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD2" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE2" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF2" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG2" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH2" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI2" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="193" t="s">
+        <v>751</v>
+      </c>
+      <c r="C3" s="193" t="s">
+        <v>751</v>
+      </c>
+      <c r="D3" s="194" t="s">
+        <v>757</v>
+      </c>
+      <c r="E3" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="194" t="s">
+        <v>759</v>
+      </c>
+      <c r="G3" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H3" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J3" s="197" t="s">
+        <v>851</v>
+      </c>
+      <c r="K3" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L3" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N3" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P3" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="232" t="s">
+        <v>484</v>
+      </c>
+      <c r="R3" s="194" t="s">
+        <v>852</v>
+      </c>
+      <c r="S3" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T3" s="193">
+        <v>12</v>
+      </c>
+      <c r="U3" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V3" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W3" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="198"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="198"/>
+      <c r="AJ3" s="198"/>
+      <c r="AK3" s="198"/>
+      <c r="AL3" s="198"/>
+      <c r="AM3" s="198"/>
+      <c r="AN3" s="198"/>
+      <c r="AO3" s="198"/>
+      <c r="AP3" s="198"/>
+      <c r="AQ3" s="198"/>
+      <c r="AR3" s="198"/>
+      <c r="AS3" s="198"/>
+      <c r="AT3" s="198"/>
+      <c r="AU3" s="198"/>
+      <c r="AV3" s="198"/>
+      <c r="AW3" s="198"/>
+      <c r="AX3" s="198"/>
+      <c r="AY3" s="198"/>
+      <c r="AZ3" s="198"/>
+      <c r="BA3" s="198"/>
+      <c r="BB3" s="198"/>
+      <c r="BC3" s="198"/>
+      <c r="BD3" s="198"/>
+      <c r="BE3" s="198"/>
+      <c r="BF3" s="198"/>
+      <c r="BG3" s="198"/>
+      <c r="BH3" s="198"/>
+      <c r="BI3" s="198"/>
+      <c r="BJ3" s="198"/>
+      <c r="BK3" s="198"/>
+      <c r="BL3" s="192"/>
+      <c r="BM3" s="198"/>
+      <c r="BN3" s="198"/>
+      <c r="BO3" s="198"/>
+      <c r="BP3" s="198"/>
+      <c r="BQ3" s="198"/>
+      <c r="BR3" s="198"/>
+      <c r="BS3" s="198"/>
+      <c r="BT3" s="198"/>
+      <c r="BU3" s="198"/>
+      <c r="BV3" s="198"/>
+      <c r="BW3" s="198"/>
+      <c r="BX3" s="199"/>
+      <c r="BY3" s="200"/>
+      <c r="BZ3" s="198"/>
+      <c r="CA3" s="198"/>
+      <c r="CB3" s="192"/>
+      <c r="CC3" s="198"/>
+      <c r="CD3" s="198"/>
+      <c r="CE3" s="200"/>
+      <c r="CF3" s="198"/>
+      <c r="CG3" s="198"/>
+      <c r="CH3" s="198"/>
+      <c r="CI3" s="198"/>
+      <c r="CJ3" s="198"/>
+      <c r="CK3" s="198"/>
+      <c r="CL3" s="198"/>
+      <c r="CM3" s="198"/>
+      <c r="CN3" s="198"/>
+      <c r="CO3" s="198"/>
+      <c r="CP3" s="192"/>
+      <c r="CQ3" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR3" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT3" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU3" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV3" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW3" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX3" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY3" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ3" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA3" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB3" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC3" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD3" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE3" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF3" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG3" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH3" s="198" t="str">
+        <f>C3</f>
+        <v>BUDI</v>
+      </c>
+      <c r="DI3" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ3" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK3" s="198">
+        <v>1111222299</v>
+      </c>
+      <c r="DL3" s="198" t="str">
+        <f>DH3</f>
+        <v>BUDI</v>
+      </c>
+      <c r="DM3" s="200" t="s">
+        <v>779</v>
+      </c>
+      <c r="DN3" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO3" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP3" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ3" s="198" t="s">
+        <v>853</v>
+      </c>
+      <c r="DR3" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS3" s="198" t="str">
+        <f>DL3</f>
+        <v>BUDI</v>
+      </c>
+      <c r="DT3" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU3" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV3" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW3" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX3" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY3" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ3" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA3" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB3" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC3" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED3" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE3" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF3" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG3" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH3" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI3" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ3" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK3" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL3" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM3" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN3" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO3" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP3" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ3" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER3" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES3" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET3" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU3" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV3" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW3" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX3" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY3" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ3" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA3" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB3" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC3" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD3" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE3" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF3" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG3" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH3" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI3" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ3" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK3" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL3" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM3" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN3" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO3" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP3" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ3" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR3" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS3" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT3" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU3" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV3" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW3" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX3" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY3" s="198"/>
+      <c r="FZ3" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA3" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB3" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC3" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD3" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE3" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF3" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG3" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH3" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI3" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ3" s="198"/>
+      <c r="GK3" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL3" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM3" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN3" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO3" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP3" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ3" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR3" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS3" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT3" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU3" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV3" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW3" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX3" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY3" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ3" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA3" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB3" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC3" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD3" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE3" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF3" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG3" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH3" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI3" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="193" t="s">
+        <v>812</v>
+      </c>
+      <c r="C4" s="193" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" s="194" t="s">
+        <v>817</v>
+      </c>
+      <c r="E4" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G4" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H4" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I4" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J4" s="197" t="s">
+        <v>822</v>
+      </c>
+      <c r="K4" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L4" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T4" s="193">
+        <v>12</v>
+      </c>
+      <c r="U4" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V4" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W4" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="198"/>
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
+      <c r="AK4" s="198"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="198"/>
+      <c r="AN4" s="198"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
+      <c r="AQ4" s="198"/>
+      <c r="AR4" s="198"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="198"/>
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="198"/>
+      <c r="AX4" s="198"/>
+      <c r="AY4" s="198"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="198"/>
+      <c r="BB4" s="198"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="198"/>
+      <c r="BI4" s="198"/>
+      <c r="BJ4" s="198"/>
+      <c r="BK4" s="198"/>
+      <c r="BL4" s="192"/>
+      <c r="BM4" s="198"/>
+      <c r="BN4" s="198"/>
+      <c r="BO4" s="198"/>
+      <c r="BP4" s="198"/>
+      <c r="BQ4" s="198"/>
+      <c r="BR4" s="198"/>
+      <c r="BS4" s="198"/>
+      <c r="BT4" s="198"/>
+      <c r="BU4" s="198"/>
+      <c r="BV4" s="198"/>
+      <c r="BW4" s="198"/>
+      <c r="BX4" s="199"/>
+      <c r="BY4" s="200"/>
+      <c r="BZ4" s="198"/>
+      <c r="CA4" s="198"/>
+      <c r="CB4" s="192"/>
+      <c r="CC4" s="198"/>
+      <c r="CD4" s="198"/>
+      <c r="CE4" s="200"/>
+      <c r="CF4" s="198"/>
+      <c r="CG4" s="198"/>
+      <c r="CH4" s="198"/>
+      <c r="CI4" s="198"/>
+      <c r="CJ4" s="198"/>
+      <c r="CK4" s="198"/>
+      <c r="CL4" s="198"/>
+      <c r="CM4" s="198"/>
+      <c r="CN4" s="198"/>
+      <c r="CO4" s="198"/>
+      <c r="CP4" s="192"/>
+      <c r="CQ4" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR4" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT4" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU4" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV4" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW4" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX4" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY4" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ4" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA4" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB4" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC4" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD4" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE4" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF4" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG4" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH4" s="198" t="str">
+        <f>C4</f>
+        <v>KONSUMEN A</v>
+      </c>
+      <c r="DI4" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ4" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK4" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL4" s="198" t="str">
+        <f>DH4</f>
+        <v>KONSUMEN A</v>
+      </c>
+      <c r="DM4" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN4" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO4" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP4" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ4" s="198" t="s">
+        <v>827</v>
+      </c>
+      <c r="DR4" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS4" s="198" t="str">
+        <f>DL4</f>
+        <v>KONSUMEN A</v>
+      </c>
+      <c r="DT4" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU4" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV4" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW4" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX4" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY4" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ4" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA4" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB4" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC4" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED4" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE4" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF4" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG4" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH4" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI4" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ4" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK4" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL4" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM4" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN4" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO4" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP4" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ4" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER4" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES4" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET4" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU4" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV4" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW4" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX4" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY4" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ4" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA4" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB4" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC4" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD4" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE4" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF4" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG4" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH4" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI4" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ4" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK4" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL4" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM4" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN4" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO4" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP4" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ4" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR4" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS4" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT4" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU4" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV4" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW4" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX4" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY4" s="198"/>
+      <c r="FZ4" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA4" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB4" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC4" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD4" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE4" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF4" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG4" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH4" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI4" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ4" s="198"/>
+      <c r="GK4" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL4" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM4" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN4" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO4" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP4" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ4" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR4" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS4" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT4" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU4" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV4" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW4" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX4" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY4" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ4" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA4" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB4" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC4" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD4" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE4" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF4" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG4" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH4" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI4" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B5" s="193" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" s="193" t="s">
+        <v>813</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>818</v>
+      </c>
+      <c r="E5" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H5" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I5" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J5" s="197" t="s">
+        <v>823</v>
+      </c>
+      <c r="K5" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L5" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T5" s="193">
+        <v>12</v>
+      </c>
+      <c r="U5" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V5" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W5" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="192"/>
+      <c r="AF5" s="198"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="198"/>
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="198"/>
+      <c r="AK5" s="198"/>
+      <c r="AL5" s="198"/>
+      <c r="AM5" s="198"/>
+      <c r="AN5" s="198"/>
+      <c r="AO5" s="198"/>
+      <c r="AP5" s="198"/>
+      <c r="AQ5" s="198"/>
+      <c r="AR5" s="198"/>
+      <c r="AS5" s="198"/>
+      <c r="AT5" s="198"/>
+      <c r="AU5" s="198"/>
+      <c r="AV5" s="198"/>
+      <c r="AW5" s="198"/>
+      <c r="AX5" s="198"/>
+      <c r="AY5" s="198"/>
+      <c r="AZ5" s="198"/>
+      <c r="BA5" s="198"/>
+      <c r="BB5" s="198"/>
+      <c r="BC5" s="198"/>
+      <c r="BD5" s="198"/>
+      <c r="BE5" s="198"/>
+      <c r="BF5" s="198"/>
+      <c r="BG5" s="198"/>
+      <c r="BH5" s="198"/>
+      <c r="BI5" s="198"/>
+      <c r="BJ5" s="198"/>
+      <c r="BK5" s="198"/>
+      <c r="BL5" s="192"/>
+      <c r="BM5" s="198"/>
+      <c r="BN5" s="198"/>
+      <c r="BO5" s="198"/>
+      <c r="BP5" s="198"/>
+      <c r="BQ5" s="198"/>
+      <c r="BR5" s="198"/>
+      <c r="BS5" s="198"/>
+      <c r="BT5" s="198"/>
+      <c r="BU5" s="198"/>
+      <c r="BV5" s="198"/>
+      <c r="BW5" s="198"/>
+      <c r="BX5" s="199"/>
+      <c r="BY5" s="200"/>
+      <c r="BZ5" s="198"/>
+      <c r="CA5" s="198"/>
+      <c r="CB5" s="192"/>
+      <c r="CC5" s="198"/>
+      <c r="CD5" s="198"/>
+      <c r="CE5" s="200"/>
+      <c r="CF5" s="198"/>
+      <c r="CG5" s="198"/>
+      <c r="CH5" s="198"/>
+      <c r="CI5" s="198"/>
+      <c r="CJ5" s="198"/>
+      <c r="CK5" s="198"/>
+      <c r="CL5" s="198"/>
+      <c r="CM5" s="198"/>
+      <c r="CN5" s="198"/>
+      <c r="CO5" s="198"/>
+      <c r="CP5" s="192"/>
+      <c r="CQ5" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR5" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT5" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU5" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV5" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW5" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX5" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY5" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ5" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA5" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB5" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC5" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD5" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE5" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF5" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG5" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH5" s="198" t="str">
+        <f>C5</f>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DI5" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ5" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK5" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL5" s="198" t="str">
+        <f>DH5</f>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DM5" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN5" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO5" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP5" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ5" s="198" t="s">
+        <v>828</v>
+      </c>
+      <c r="DR5" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS5" s="198" t="str">
+        <f>DL5</f>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DT5" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU5" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV5" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX5" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY5" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ5" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA5" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB5" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC5" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED5" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE5" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF5" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG5" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH5" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI5" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ5" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK5" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL5" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM5" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN5" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO5" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP5" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ5" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER5" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES5" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET5" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU5" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV5" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW5" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX5" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY5" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ5" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA5" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB5" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC5" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD5" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE5" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF5" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG5" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH5" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI5" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ5" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK5" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL5" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM5" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN5" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO5" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP5" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ5" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR5" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS5" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT5" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU5" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV5" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW5" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX5" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY5" s="198"/>
+      <c r="FZ5" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA5" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB5" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC5" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD5" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE5" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH5" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI5" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ5" s="198"/>
+      <c r="GK5" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM5" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN5" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO5" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP5" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR5" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT5" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU5" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV5" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW5" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX5" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY5" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ5" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA5" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB5" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC5" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD5" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE5" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF5" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG5" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH5" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI5" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:217" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B6" s="193" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" s="193" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" s="194" t="s">
+        <v>819</v>
+      </c>
+      <c r="E6" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H6" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I6" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J6" s="197" t="s">
+        <v>824</v>
+      </c>
+      <c r="K6" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L6" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T6" s="193">
+        <v>12</v>
+      </c>
+      <c r="U6" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V6" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W6" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="198"/>
+      <c r="AA6" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="198"/>
+      <c r="AE6" s="192"/>
+      <c r="AF6" s="198"/>
+      <c r="AG6" s="198"/>
+      <c r="AH6" s="198"/>
+      <c r="AI6" s="198"/>
+      <c r="AJ6" s="198"/>
+      <c r="AK6" s="198"/>
+      <c r="AL6" s="198"/>
+      <c r="AM6" s="198"/>
+      <c r="AN6" s="198"/>
+      <c r="AO6" s="198"/>
+      <c r="AP6" s="198"/>
+      <c r="AQ6" s="198"/>
+      <c r="AR6" s="198"/>
+      <c r="AS6" s="198"/>
+      <c r="AT6" s="198"/>
+      <c r="AU6" s="198"/>
+      <c r="AV6" s="198"/>
+      <c r="AW6" s="198"/>
+      <c r="AX6" s="198"/>
+      <c r="AY6" s="198"/>
+      <c r="AZ6" s="198"/>
+      <c r="BA6" s="198"/>
+      <c r="BB6" s="198"/>
+      <c r="BC6" s="198"/>
+      <c r="BD6" s="198"/>
+      <c r="BE6" s="198"/>
+      <c r="BF6" s="198"/>
+      <c r="BG6" s="198"/>
+      <c r="BH6" s="198"/>
+      <c r="BI6" s="198"/>
+      <c r="BJ6" s="198"/>
+      <c r="BK6" s="198"/>
+      <c r="BL6" s="192"/>
+      <c r="BM6" s="198"/>
+      <c r="BN6" s="198"/>
+      <c r="BO6" s="198"/>
+      <c r="BP6" s="198"/>
+      <c r="BQ6" s="198"/>
+      <c r="BR6" s="198"/>
+      <c r="BS6" s="198"/>
+      <c r="BT6" s="198"/>
+      <c r="BU6" s="198"/>
+      <c r="BV6" s="198"/>
+      <c r="BW6" s="198"/>
+      <c r="BX6" s="199"/>
+      <c r="BY6" s="200"/>
+      <c r="BZ6" s="198"/>
+      <c r="CA6" s="198"/>
+      <c r="CB6" s="192"/>
+      <c r="CC6" s="198"/>
+      <c r="CD6" s="198"/>
+      <c r="CE6" s="200"/>
+      <c r="CF6" s="198"/>
+      <c r="CG6" s="198"/>
+      <c r="CH6" s="198"/>
+      <c r="CI6" s="198"/>
+      <c r="CJ6" s="198"/>
+      <c r="CK6" s="198"/>
+      <c r="CL6" s="198"/>
+      <c r="CM6" s="198"/>
+      <c r="CN6" s="198"/>
+      <c r="CO6" s="198"/>
+      <c r="CP6" s="192"/>
+      <c r="CQ6" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR6" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT6" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU6" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV6" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW6" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX6" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY6" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ6" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA6" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB6" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC6" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD6" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE6" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF6" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG6" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH6" s="198" t="str">
+        <f t="shared" ref="DH6:DH11" si="0">C6</f>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DI6" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ6" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK6" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL6" s="198" t="str">
+        <f>DH6</f>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DM6" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN6" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO6" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP6" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ6" s="198" t="s">
+        <v>829</v>
+      </c>
+      <c r="DR6" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS6" s="198" t="str">
+        <f>DL6</f>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DT6" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU6" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV6" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX6" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY6" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ6" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA6" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB6" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC6" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED6" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE6" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF6" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG6" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH6" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI6" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ6" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK6" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL6" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM6" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN6" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO6" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP6" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ6" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER6" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES6" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET6" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU6" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV6" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW6" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX6" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY6" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ6" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA6" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB6" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC6" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD6" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE6" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF6" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG6" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH6" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI6" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ6" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK6" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL6" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM6" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN6" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO6" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP6" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ6" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR6" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS6" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT6" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU6" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV6" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW6" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX6" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY6" s="198"/>
+      <c r="FZ6" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA6" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB6" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC6" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD6" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE6" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH6" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI6" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ6" s="198"/>
+      <c r="GK6" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM6" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN6" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO6" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP6" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR6" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT6" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU6" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV6" s="198" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW6" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX6" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY6" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ6" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA6" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB6" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC6" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD6" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE6" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF6" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG6" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH6" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI6" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:217" s="213" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B7" s="203" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="203" t="s">
+        <v>815</v>
+      </c>
+      <c r="D7" s="204" t="s">
+        <v>820</v>
+      </c>
+      <c r="E7" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="206">
+        <v>99887766</v>
+      </c>
+      <c r="H7" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J7" s="207" t="s">
+        <v>825</v>
+      </c>
+      <c r="K7" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="203" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T7" s="203">
+        <v>18</v>
+      </c>
+      <c r="U7" s="203" t="s">
+        <v>389</v>
+      </c>
+      <c r="V7" s="203" t="s">
+        <v>148</v>
+      </c>
+      <c r="W7" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="206"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="204"/>
+      <c r="AK7" s="204"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="203"/>
+      <c r="AQ7" s="203"/>
+      <c r="AR7" s="203"/>
+      <c r="AS7" s="204"/>
+      <c r="AT7" s="203"/>
+      <c r="AU7" s="203"/>
+      <c r="AV7" s="203"/>
+      <c r="AW7" s="204"/>
+      <c r="AX7" s="203"/>
+      <c r="AY7" s="203"/>
+      <c r="AZ7" s="203"/>
+      <c r="BA7" s="203"/>
+      <c r="BB7" s="203"/>
+      <c r="BC7" s="203"/>
+      <c r="BD7" s="203"/>
+      <c r="BE7" s="203"/>
+      <c r="BF7" s="203"/>
+      <c r="BG7" s="204"/>
+      <c r="BH7" s="203"/>
+      <c r="BI7" s="203"/>
+      <c r="BJ7" s="203"/>
+      <c r="BK7" s="203"/>
+      <c r="BL7" s="208"/>
+      <c r="BM7" s="203"/>
+      <c r="BN7" s="203"/>
+      <c r="BO7" s="203"/>
+      <c r="BP7" s="203"/>
+      <c r="BQ7" s="203"/>
+      <c r="BR7" s="203"/>
+      <c r="BS7" s="203"/>
+      <c r="BT7" s="203"/>
+      <c r="BU7" s="204"/>
+      <c r="BV7" s="203"/>
+      <c r="BW7" s="203"/>
+      <c r="BX7" s="204"/>
+      <c r="BY7" s="204"/>
+      <c r="BZ7" s="203"/>
+      <c r="CA7" s="203"/>
+      <c r="CB7" s="202"/>
+      <c r="CC7" s="209"/>
+      <c r="CD7" s="210"/>
+      <c r="CE7" s="209"/>
+      <c r="CF7" s="209"/>
+      <c r="CG7" s="209"/>
+      <c r="CH7" s="209"/>
+      <c r="CI7" s="209"/>
+      <c r="CJ7" s="209"/>
+      <c r="CK7" s="209"/>
+      <c r="CL7" s="209"/>
+      <c r="CM7" s="209"/>
+      <c r="CN7" s="209"/>
+      <c r="CO7" s="209"/>
+      <c r="CP7" s="202"/>
+      <c r="CQ7" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR7" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="209" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT7" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU7" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV7" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW7" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX7" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY7" s="209" t="s">
+        <v>675</v>
+      </c>
+      <c r="CZ7" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA7" s="209" t="s">
+        <v>676</v>
+      </c>
+      <c r="DB7" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC7" s="209" t="s">
+        <v>677</v>
+      </c>
+      <c r="DD7" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE7" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF7" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG7" s="209">
+        <v>1111222204</v>
+      </c>
+      <c r="DH7" s="209" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN D</v>
+      </c>
+      <c r="DI7" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ7" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK7" s="209">
+        <v>1111222203</v>
+      </c>
+      <c r="DL7" s="209" t="str">
+        <f>DH7</f>
+        <v>KONSUMEN D</v>
+      </c>
+      <c r="DM7" s="211" t="s">
+        <v>673</v>
+      </c>
+      <c r="DN7" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO7" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP7" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ7" s="209" t="s">
+        <v>830</v>
+      </c>
+      <c r="DR7" s="209" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS7" s="209" t="str">
+        <f>DL7</f>
+        <v>KONSUMEN D</v>
+      </c>
+      <c r="DT7" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU7" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV7" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX7" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY7" s="202">
+        <v>1122334</v>
+      </c>
+      <c r="DZ7" s="209" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA7" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB7" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC7" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED7" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE7" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF7" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG7" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH7" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI7" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ7" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK7" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL7" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM7" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN7" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO7" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP7" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ7" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER7" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES7" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET7" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU7" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV7" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW7" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX7" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY7" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ7" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA7" s="209" t="s">
+        <v>793</v>
+      </c>
+      <c r="FB7" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC7" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD7" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE7" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF7" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG7" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH7" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI7" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ7" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK7" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL7" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM7" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN7" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO7" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP7" s="209">
+        <v>200000</v>
+      </c>
+      <c r="FQ7" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR7" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS7" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT7" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU7" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV7" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW7" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX7" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY7" s="209"/>
+      <c r="FZ7" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA7" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB7" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC7" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD7" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE7" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF7" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG7" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH7" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI7" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ7" s="209"/>
+      <c r="GK7" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL7" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM7" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN7" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO7" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP7" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ7" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR7" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS7" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT7" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU7" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV7" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW7" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX7" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY7" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ7" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA7" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB7" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC7" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD7" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE7" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF7" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG7" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH7" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI7" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="203" t="s">
+        <v>816</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>816</v>
+      </c>
+      <c r="D8" s="204" t="s">
+        <v>821</v>
+      </c>
+      <c r="E8" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="206">
+        <v>99887777</v>
+      </c>
+      <c r="H8" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I8" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J8" s="207" t="s">
+        <v>826</v>
+      </c>
+      <c r="K8" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L8" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="203" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T8" s="203">
+        <v>12</v>
+      </c>
+      <c r="U8" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="V8" s="203" t="s">
+        <v>391</v>
+      </c>
+      <c r="W8" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="209"/>
+      <c r="AA8" s="209" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="202"/>
+      <c r="AF8" s="209"/>
+      <c r="AG8" s="209"/>
+      <c r="AH8" s="209"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="209"/>
+      <c r="AK8" s="209"/>
+      <c r="AL8" s="209"/>
+      <c r="AM8" s="209"/>
+      <c r="AN8" s="209"/>
+      <c r="AO8" s="209"/>
+      <c r="AP8" s="209"/>
+      <c r="AQ8" s="209"/>
+      <c r="AR8" s="209"/>
+      <c r="AS8" s="209"/>
+      <c r="AT8" s="209"/>
+      <c r="AU8" s="209"/>
+      <c r="AV8" s="209"/>
+      <c r="AW8" s="209"/>
+      <c r="AX8" s="209"/>
+      <c r="AY8" s="209"/>
+      <c r="AZ8" s="209"/>
+      <c r="BA8" s="209"/>
+      <c r="BB8" s="209"/>
+      <c r="BC8" s="209"/>
+      <c r="BD8" s="209"/>
+      <c r="BE8" s="209"/>
+      <c r="BF8" s="209"/>
+      <c r="BG8" s="209"/>
+      <c r="BH8" s="209"/>
+      <c r="BI8" s="209"/>
+      <c r="BJ8" s="209"/>
+      <c r="BK8" s="209"/>
+      <c r="BL8" s="202"/>
+      <c r="BM8" s="209"/>
+      <c r="BN8" s="209"/>
+      <c r="BO8" s="209"/>
+      <c r="BP8" s="209"/>
+      <c r="BQ8" s="209"/>
+      <c r="BR8" s="209"/>
+      <c r="BS8" s="209"/>
+      <c r="BT8" s="209"/>
+      <c r="BU8" s="209"/>
+      <c r="BV8" s="209"/>
+      <c r="BW8" s="209"/>
+      <c r="BX8" s="214"/>
+      <c r="BY8" s="211"/>
+      <c r="BZ8" s="209"/>
+      <c r="CA8" s="209"/>
+      <c r="CB8" s="202"/>
+      <c r="CC8" s="209"/>
+      <c r="CD8" s="209"/>
+      <c r="CE8" s="211"/>
+      <c r="CF8" s="209"/>
+      <c r="CG8" s="209"/>
+      <c r="CH8" s="209"/>
+      <c r="CI8" s="209"/>
+      <c r="CJ8" s="209"/>
+      <c r="CK8" s="209"/>
+      <c r="CL8" s="209"/>
+      <c r="CM8" s="209"/>
+      <c r="CN8" s="209"/>
+      <c r="CO8" s="209"/>
+      <c r="CP8" s="202"/>
+      <c r="CQ8" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR8" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="211" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT8" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU8" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV8" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW8" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX8" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY8" s="209">
+        <v>2000</v>
+      </c>
+      <c r="CZ8" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA8" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DB8" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC8" s="209">
+        <v>30000000</v>
+      </c>
+      <c r="DD8" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE8" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF8" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG8" s="209">
+        <v>1111222201</v>
+      </c>
+      <c r="DH8" s="209" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN E</v>
+      </c>
+      <c r="DI8" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ8" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK8" s="209">
+        <v>1111222202</v>
+      </c>
+      <c r="DL8" s="209" t="str">
+        <f>DH8</f>
+        <v>KONSUMEN E</v>
+      </c>
+      <c r="DM8" s="211" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN8" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO8" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP8" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ8" s="209" t="s">
+        <v>831</v>
+      </c>
+      <c r="DR8" s="209" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS8" s="209" t="str">
+        <f>DL8</f>
+        <v>KONSUMEN E</v>
+      </c>
+      <c r="DT8" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU8" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV8" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW8" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX8" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY8" s="202">
+        <v>1122335</v>
+      </c>
+      <c r="DZ8" s="209" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA8" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB8" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC8" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED8" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE8" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF8" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG8" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH8" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI8" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ8" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK8" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL8" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM8" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN8" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO8" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP8" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ8" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER8" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES8" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET8" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU8" s="211" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV8" s="211" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW8" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX8" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY8" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ8" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA8" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB8" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC8" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD8" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE8" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF8" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG8" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH8" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI8" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ8" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK8" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL8" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM8" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN8" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO8" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP8" s="209">
+        <v>200000</v>
+      </c>
+      <c r="FQ8" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR8" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS8" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT8" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU8" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV8" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW8" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX8" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY8" s="209"/>
+      <c r="FZ8" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA8" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB8" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC8" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD8" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE8" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF8" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG8" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH8" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI8" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ8" s="209"/>
+      <c r="GK8" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL8" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM8" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN8" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO8" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP8" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ8" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR8" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS8" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT8" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU8" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV8" s="209" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW8" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX8" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY8" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ8" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA8" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB8" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC8" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD8" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE8" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF8" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG8" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH8" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI8" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="193" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" s="193" t="s">
+        <v>832</v>
+      </c>
+      <c r="D9" s="194" t="s">
+        <v>833</v>
+      </c>
+      <c r="E9" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G9" s="196">
+        <v>99887711</v>
+      </c>
+      <c r="H9" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I9" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J9" s="197" t="s">
+        <v>839</v>
+      </c>
+      <c r="K9" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L9" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N9" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P9" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" s="193" t="s">
+        <v>484</v>
+      </c>
+      <c r="R9" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T9" s="193">
+        <v>0</v>
+      </c>
+      <c r="U9" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W9" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG9" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH9" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI9" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ9" s="198">
+        <v>10</v>
+      </c>
+      <c r="AK9" s="198"/>
+      <c r="AL9" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN9" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP9" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ9" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT9" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU9" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV9" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW9" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX9" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY9" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ9" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA9" s="198"/>
+      <c r="BB9" s="198"/>
+      <c r="BC9" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE9" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF9" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG9" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH9" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ9" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL9" s="215" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM9" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN9" s="198" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO9" s="198"/>
+      <c r="BP9" s="198"/>
+      <c r="BQ9" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR9" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS9" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT9" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU9" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV9" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW9" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX9" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY9" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ9" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA9" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB9" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC9" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD9" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE9" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF9" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG9" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH9" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI9" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ9" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK9" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL9" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM9" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN9" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO9" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP9" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ9" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR9" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT9" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU9" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV9" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW9" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX9" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY9" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ9" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA9" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB9" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC9" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD9" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE9" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF9" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG9" s="198">
+        <v>1111222205</v>
+      </c>
+      <c r="DH9" s="198" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN F</v>
+      </c>
+      <c r="DI9" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ9" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK9" s="198"/>
+      <c r="DL9" s="198"/>
+      <c r="DM9" s="198"/>
+      <c r="DN9" s="198"/>
+      <c r="DO9" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP9" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ9" s="198" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR9" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS9" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT9" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU9" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV9" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW9" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX9" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY9" s="192">
+        <v>1122333</v>
+      </c>
+      <c r="DZ9" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA9" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB9" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC9" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED9" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE9" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF9" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG9" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH9" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI9" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ9" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK9" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL9" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM9" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN9" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO9" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP9" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ9" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER9" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES9" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET9" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU9" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV9" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW9" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX9" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY9" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ9" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA9" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB9" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC9" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD9" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE9" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF9" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG9" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH9" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI9" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ9" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK9" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL9" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM9" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN9" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO9" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP9" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ9" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR9" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS9" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT9" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU9" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV9" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW9" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX9" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY9" s="198"/>
+      <c r="FZ9" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA9" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB9" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC9" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD9" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE9" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH9" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI9" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ9" s="198"/>
+      <c r="GK9" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM9" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN9" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO9" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP9" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR9" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS9" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT9" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU9" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV9" s="217" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW9" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX9" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY9" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ9" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA9" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB9" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC9" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD9" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE9" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF9" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG9" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH9" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI9" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="193" t="s">
+        <v>834</v>
+      </c>
+      <c r="C10" s="193" t="s">
+        <v>834</v>
+      </c>
+      <c r="D10" s="194" t="s">
+        <v>835</v>
+      </c>
+      <c r="E10" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G10" s="196">
+        <v>99887711</v>
+      </c>
+      <c r="H10" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I10" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J10" s="197" t="s">
+        <v>839</v>
+      </c>
+      <c r="K10" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L10" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N10" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P10" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="193" t="s">
+        <v>484</v>
+      </c>
+      <c r="R10" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T10" s="193">
+        <v>0</v>
+      </c>
+      <c r="U10" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W10" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="196"/>
+      <c r="AF10" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG10" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH10" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI10" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ10" s="198">
+        <v>10</v>
+      </c>
+      <c r="AK10" s="198"/>
+      <c r="AL10" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN10" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO10" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP10" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ10" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT10" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU10" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV10" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW10" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX10" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY10" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ10" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA10" s="198"/>
+      <c r="BB10" s="198"/>
+      <c r="BC10" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE10" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF10" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG10" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH10" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ10" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL10" s="215" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM10" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN10" s="198" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO10" s="198"/>
+      <c r="BP10" s="198"/>
+      <c r="BQ10" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR10" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS10" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT10" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU10" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV10" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW10" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX10" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY10" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ10" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA10" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB10" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC10" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD10" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE10" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF10" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG10" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH10" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI10" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ10" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK10" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL10" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM10" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN10" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO10" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP10" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ10" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR10" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT10" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU10" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV10" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW10" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX10" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY10" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ10" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA10" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB10" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC10" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD10" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE10" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF10" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG10" s="198">
+        <v>1111222205</v>
+      </c>
+      <c r="DH10" s="198" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN G</v>
+      </c>
+      <c r="DI10" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ10" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK10" s="198"/>
+      <c r="DL10" s="198"/>
+      <c r="DM10" s="198"/>
+      <c r="DN10" s="198"/>
+      <c r="DO10" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP10" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ10" s="198" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR10" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS10" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT10" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU10" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV10" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW10" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX10" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY10" s="192">
+        <v>1122333</v>
+      </c>
+      <c r="DZ10" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA10" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB10" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC10" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED10" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE10" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF10" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG10" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH10" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI10" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ10" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK10" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL10" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM10" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN10" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO10" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP10" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ10" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER10" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES10" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET10" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU10" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV10" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW10" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX10" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY10" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ10" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA10" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB10" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC10" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD10" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE10" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF10" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG10" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH10" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI10" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ10" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK10" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL10" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM10" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN10" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO10" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP10" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ10" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR10" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS10" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT10" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU10" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV10" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW10" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX10" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY10" s="198"/>
+      <c r="FZ10" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA10" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB10" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC10" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD10" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE10" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH10" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI10" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ10" s="198"/>
+      <c r="GK10" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM10" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN10" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO10" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP10" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR10" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS10" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT10" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU10" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV10" s="217" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW10" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX10" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY10" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ10" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA10" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB10" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC10" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD10" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE10" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF10" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG10" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH10" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI10" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" s="193" t="s">
+        <v>836</v>
+      </c>
+      <c r="C11" s="193" t="s">
+        <v>836</v>
+      </c>
+      <c r="D11" s="194" t="s">
+        <v>837</v>
+      </c>
+      <c r="E11" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="196">
+        <v>99887711</v>
+      </c>
+      <c r="H11" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I11" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J11" s="197" t="s">
+        <v>838</v>
+      </c>
+      <c r="K11" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L11" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N11" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P11" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="193" t="s">
+        <v>484</v>
+      </c>
+      <c r="R11" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T11" s="193">
+        <v>0</v>
+      </c>
+      <c r="U11" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="V11" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W11" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="193"/>
+      <c r="AE11" s="196"/>
+      <c r="AF11" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG11" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH11" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI11" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ11" s="198">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="198"/>
+      <c r="AL11" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM11" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN11" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP11" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ11" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT11" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU11" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV11" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW11" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX11" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY11" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ11" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA11" s="198"/>
+      <c r="BB11" s="198"/>
+      <c r="BC11" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE11" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF11" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG11" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH11" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ11" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL11" s="215" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM11" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN11" s="198" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO11" s="198"/>
+      <c r="BP11" s="198"/>
+      <c r="BQ11" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR11" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS11" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT11" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU11" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV11" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW11" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX11" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY11" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ11" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA11" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB11" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC11" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD11" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE11" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF11" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG11" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH11" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI11" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ11" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK11" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL11" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM11" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN11" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO11" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP11" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ11" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR11" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT11" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU11" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV11" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW11" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX11" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY11" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ11" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA11" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB11" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC11" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD11" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE11" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF11" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG11" s="198">
+        <v>1111222205</v>
+      </c>
+      <c r="DH11" s="198" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN H</v>
+      </c>
+      <c r="DI11" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ11" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK11" s="198"/>
+      <c r="DL11" s="198"/>
+      <c r="DM11" s="198"/>
+      <c r="DN11" s="198"/>
+      <c r="DO11" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP11" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ11" s="198" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR11" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS11" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT11" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU11" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV11" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX11" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY11" s="192">
+        <v>1122333</v>
+      </c>
+      <c r="DZ11" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA11" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB11" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC11" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED11" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE11" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF11" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG11" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH11" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI11" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ11" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK11" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL11" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM11" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN11" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO11" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP11" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ11" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER11" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES11" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET11" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU11" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV11" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW11" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX11" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY11" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ11" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA11" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB11" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC11" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD11" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE11" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF11" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG11" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH11" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI11" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ11" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK11" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL11" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM11" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN11" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO11" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP11" s="198">
+        <v>200000</v>
+      </c>
+      <c r="FQ11" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR11" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS11" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT11" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU11" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV11" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW11" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX11" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY11" s="198"/>
+      <c r="FZ11" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA11" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB11" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC11" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD11" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE11" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH11" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI11" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ11" s="198"/>
+      <c r="GK11" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM11" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN11" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO11" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP11" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR11" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS11" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT11" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU11" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV11" s="217" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW11" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX11" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY11" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ11" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA11" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB11" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC11" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD11" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE11" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF11" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG11" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH11" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI11" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>840</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>840</v>
+      </c>
+      <c r="D12" s="204" t="s">
+        <v>841</v>
+      </c>
+      <c r="E12" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="206">
+        <v>99887711</v>
+      </c>
+      <c r="H12" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I12" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J12" s="207" t="s">
+        <v>842</v>
+      </c>
+      <c r="K12" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L12" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="N12" s="203" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="203">
+        <v>15413</v>
+      </c>
+      <c r="P12" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="R12" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T12" s="203">
+        <v>0</v>
+      </c>
+      <c r="U12" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="V12" s="203" t="s">
+        <v>391</v>
+      </c>
+      <c r="W12" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y12" s="203"/>
+      <c r="Z12" s="203"/>
+      <c r="AA12" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB12" s="203"/>
+      <c r="AC12" s="203"/>
+      <c r="AD12" s="203"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG12" s="209" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH12" s="209" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI12" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="AJ12" s="209">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="209"/>
+      <c r="AL12" s="209">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="209" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN12" s="209">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="209">
+        <v>750000</v>
+      </c>
+      <c r="AQ12" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT12" s="209" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU12" s="209" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV12" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW12" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX12" s="209">
+        <v>2024</v>
+      </c>
+      <c r="AY12" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ12" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA12" s="209"/>
+      <c r="BB12" s="209"/>
+      <c r="BC12" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="BD12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE12" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF12" s="209" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG12" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH12" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ12" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL12" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM12" s="209" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN12" s="209" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO12" s="209"/>
+      <c r="BP12" s="209"/>
+      <c r="BQ12" s="209" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR12" s="209" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS12" s="209" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT12" s="209">
+        <v>99887711</v>
+      </c>
+      <c r="BU12" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV12" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW12" s="209">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX12" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY12" s="211" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ12" s="209">
+        <v>3213115323</v>
+      </c>
+      <c r="CA12" s="209" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB12" s="202" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC12" s="209">
+        <v>14430</v>
+      </c>
+      <c r="CD12" s="210" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE12" s="211" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF12" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG12" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH12" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CI12" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ12" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK12" s="209" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL12" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM12" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CN12" s="209">
+        <v>12</v>
+      </c>
+      <c r="CO12" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP12" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ12" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR12" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="211" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT12" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU12" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV12" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW12" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX12" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY12" s="209">
+        <v>2000</v>
+      </c>
+      <c r="CZ12" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA12" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DB12" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC12" s="209">
+        <v>30000000</v>
+      </c>
+      <c r="DD12" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE12" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF12" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG12" s="209">
+        <v>1111222205</v>
+      </c>
+      <c r="DH12" s="209" t="str">
+        <f t="shared" ref="DH12" si="1">C12</f>
+        <v>KONSUMEN I</v>
+      </c>
+      <c r="DI12" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ12" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK12" s="209"/>
+      <c r="DL12" s="209"/>
+      <c r="DM12" s="209"/>
+      <c r="DN12" s="209"/>
+      <c r="DO12" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP12" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ12" s="209" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR12" s="209" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS12" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT12" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU12" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV12" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW12" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX12" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY12" s="202">
+        <v>1122333</v>
+      </c>
+      <c r="DZ12" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA12" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB12" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC12" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED12" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE12" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF12" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG12" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH12" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI12" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ12" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK12" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL12" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM12" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN12" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO12" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP12" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ12" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER12" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES12" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET12" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU12" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV12" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW12" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX12" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY12" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ12" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA12" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB12" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC12" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD12" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE12" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF12" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG12" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH12" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI12" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ12" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK12" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL12" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM12" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN12" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO12" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP12" s="209">
+        <v>200000</v>
+      </c>
+      <c r="FQ12" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR12" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS12" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT12" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU12" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV12" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW12" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX12" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY12" s="209"/>
+      <c r="FZ12" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA12" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB12" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC12" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD12" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE12" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH12" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI12" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ12" s="209"/>
+      <c r="GK12" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM12" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN12" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO12" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP12" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR12" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS12" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT12" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU12" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV12" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW12" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX12" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY12" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ12" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA12" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB12" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC12" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD12" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE12" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF12" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG12" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH12" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI12" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" s="203" t="s">
+        <v>843</v>
+      </c>
+      <c r="C13" s="203" t="s">
+        <v>843</v>
+      </c>
+      <c r="D13" s="204" t="s">
+        <v>846</v>
+      </c>
+      <c r="E13" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="206">
+        <v>99887711</v>
+      </c>
+      <c r="H13" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I13" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J13" s="207" t="s">
+        <v>844</v>
+      </c>
+      <c r="K13" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L13" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="N13" s="203" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="203">
+        <v>15413</v>
+      </c>
+      <c r="P13" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="R13" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T13" s="203">
+        <v>0</v>
+      </c>
+      <c r="U13" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="V13" s="203" t="s">
+        <v>391</v>
+      </c>
+      <c r="W13" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB13" s="203"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="206"/>
+      <c r="AF13" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG13" s="209" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH13" s="209" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI13" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="AJ13" s="209">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="209"/>
+      <c r="AL13" s="209">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="209" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN13" s="209">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="209">
+        <v>750000</v>
+      </c>
+      <c r="AQ13" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT13" s="209" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU13" s="209" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV13" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW13" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX13" s="209">
+        <v>2024</v>
+      </c>
+      <c r="AY13" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ13" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA13" s="209"/>
+      <c r="BB13" s="209"/>
+      <c r="BC13" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="BD13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE13" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF13" s="209" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG13" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH13" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ13" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL13" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM13" s="209" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN13" s="209" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO13" s="209"/>
+      <c r="BP13" s="209"/>
+      <c r="BQ13" s="209" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR13" s="209" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS13" s="209" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT13" s="209">
+        <v>99887711</v>
+      </c>
+      <c r="BU13" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV13" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW13" s="209">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX13" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY13" s="211" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ13" s="209">
+        <v>3213115323</v>
+      </c>
+      <c r="CA13" s="209" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB13" s="202" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC13" s="209">
+        <v>14430</v>
+      </c>
+      <c r="CD13" s="210" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE13" s="211" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF13" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG13" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH13" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CI13" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ13" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK13" s="209" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL13" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM13" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CN13" s="209">
+        <v>12</v>
+      </c>
+      <c r="CO13" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP13" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ13" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR13" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="211" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT13" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU13" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV13" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW13" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX13" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY13" s="209">
+        <v>2000</v>
+      </c>
+      <c r="CZ13" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA13" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DB13" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC13" s="209">
+        <v>30000000</v>
+      </c>
+      <c r="DD13" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE13" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF13" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG13" s="209">
+        <v>1111222205</v>
+      </c>
+      <c r="DH13" s="209" t="str">
+        <f t="shared" ref="DH13" si="2">C13</f>
+        <v>KONSUMEN J</v>
+      </c>
+      <c r="DI13" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ13" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK13" s="209"/>
+      <c r="DL13" s="209"/>
+      <c r="DM13" s="209"/>
+      <c r="DN13" s="209"/>
+      <c r="DO13" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP13" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ13" s="209" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR13" s="209" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS13" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT13" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU13" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV13" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW13" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX13" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY13" s="202">
+        <v>1122333</v>
+      </c>
+      <c r="DZ13" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA13" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB13" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC13" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED13" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE13" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF13" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG13" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH13" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI13" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ13" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK13" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL13" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM13" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN13" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO13" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP13" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ13" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER13" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES13" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET13" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU13" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV13" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW13" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX13" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY13" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ13" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA13" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB13" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC13" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD13" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE13" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF13" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG13" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH13" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI13" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ13" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK13" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL13" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM13" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN13" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO13" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP13" s="209">
+        <v>200000</v>
+      </c>
+      <c r="FQ13" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR13" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS13" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT13" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU13" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV13" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW13" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX13" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY13" s="209"/>
+      <c r="FZ13" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA13" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB13" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC13" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD13" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE13" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH13" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI13" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ13" s="209"/>
+      <c r="GK13" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM13" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN13" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO13" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP13" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR13" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS13" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT13" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU13" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV13" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW13" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX13" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY13" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ13" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA13" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB13" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC13" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD13" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE13" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF13" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG13" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH13" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI13" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:217" s="231" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="219" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14" s="220" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>845</v>
+      </c>
+      <c r="D14" s="221" t="s">
+        <v>847</v>
+      </c>
+      <c r="E14" s="222" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="223">
+        <v>99887711</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="220">
+        <v>14430</v>
+      </c>
+      <c r="J14" s="224" t="s">
+        <v>848</v>
+      </c>
+      <c r="K14" s="220" t="s">
+        <v>544</v>
+      </c>
+      <c r="L14" s="220" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" s="220" t="s">
+        <v>416</v>
+      </c>
+      <c r="N14" s="220" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="220">
+        <v>15413</v>
+      </c>
+      <c r="P14" s="220" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="220" t="s">
+        <v>484</v>
+      </c>
+      <c r="R14" s="220" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="220">
+        <v>15413</v>
+      </c>
+      <c r="T14" s="220">
+        <v>0</v>
+      </c>
+      <c r="U14" s="220" t="s">
+        <v>149</v>
+      </c>
+      <c r="V14" s="220" t="s">
+        <v>391</v>
+      </c>
+      <c r="W14" s="220" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="220" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="220"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG14" s="225" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH14" s="225" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI14" s="225">
+        <v>250000000</v>
+      </c>
+      <c r="AJ14" s="225">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="225"/>
+      <c r="AL14" s="225">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="225" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN14" s="225">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="225">
+        <v>1000000</v>
+      </c>
+      <c r="AP14" s="225">
+        <v>750000</v>
+      </c>
+      <c r="AQ14" s="225" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT14" s="225" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU14" s="225" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV14" s="225" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW14" s="225" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX14" s="225">
+        <v>2024</v>
+      </c>
+      <c r="AY14" s="225" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ14" s="225" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA14" s="225"/>
+      <c r="BB14" s="225"/>
+      <c r="BC14" s="225">
+        <v>250000000</v>
+      </c>
+      <c r="BD14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE14" s="225" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF14" s="225" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG14" s="225" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH14" s="225" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ14" s="225" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL14" s="226" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM14" s="225" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN14" s="225" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO14" s="225"/>
+      <c r="BP14" s="225"/>
+      <c r="BQ14" s="225" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR14" s="225" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS14" s="225" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT14" s="225">
+        <v>99887711</v>
+      </c>
+      <c r="BU14" s="227" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV14" s="225" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW14" s="225">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX14" s="227" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY14" s="228" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ14" s="225">
+        <v>3213115323</v>
+      </c>
+      <c r="CA14" s="225" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB14" s="219" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC14" s="225">
+        <v>14430</v>
+      </c>
+      <c r="CD14" s="229" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE14" s="228" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF14" s="225" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG14" s="225" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH14" s="225">
+        <v>15413</v>
+      </c>
+      <c r="CI14" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ14" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK14" s="225" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL14" s="225" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM14" s="225">
+        <v>15413</v>
+      </c>
+      <c r="CN14" s="225">
+        <v>12</v>
+      </c>
+      <c r="CO14" s="225" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP14" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ14" s="225" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR14" s="225" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="228" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT14" s="225" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU14" s="225" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV14" s="225" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW14" s="225" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX14" s="225" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY14" s="225">
+        <v>2000</v>
+      </c>
+      <c r="CZ14" s="225" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA14" s="225">
+        <v>10000000</v>
+      </c>
+      <c r="DB14" s="225" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC14" s="225">
+        <v>30000000</v>
+      </c>
+      <c r="DD14" s="225" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE14" s="225" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF14" s="225" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG14" s="225">
+        <v>1111222205</v>
+      </c>
+      <c r="DH14" s="225" t="str">
+        <f t="shared" ref="DH14" si="3">C14</f>
+        <v>KONSUMEN K</v>
+      </c>
+      <c r="DI14" s="225" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ14" s="225" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK14" s="225"/>
+      <c r="DL14" s="225"/>
+      <c r="DM14" s="225"/>
+      <c r="DN14" s="225"/>
+      <c r="DO14" s="225" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP14" s="219" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ14" s="225" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR14" s="225" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS14" s="225" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT14" s="225" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU14" s="225">
+        <v>10</v>
+      </c>
+      <c r="DV14" s="225">
+        <v>1</v>
+      </c>
+      <c r="DW14" s="225">
+        <v>10000000</v>
+      </c>
+      <c r="DX14" s="228" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY14" s="219">
+        <v>1122333</v>
+      </c>
+      <c r="DZ14" s="225" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA14" s="225" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB14" s="225" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC14" s="225">
+        <v>735947227</v>
+      </c>
+      <c r="ED14" s="225" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE14" s="225">
+        <v>59185</v>
+      </c>
+      <c r="EF14" s="225" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG14" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH14" s="225" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI14" s="225" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ14" s="225" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK14" s="225" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL14" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM14" s="225">
+        <v>12430</v>
+      </c>
+      <c r="EN14" s="225" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO14" s="225" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP14" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ14" s="225" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER14" s="225" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES14" s="225" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET14" s="225" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU14" s="225" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV14" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW14" s="219" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX14" s="225" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY14" s="225">
+        <v>5238528</v>
+      </c>
+      <c r="EZ14" s="225" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA14" s="225" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB14" s="225" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC14" s="225" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD14" s="225" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE14" s="225" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF14" s="225" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG14" s="225">
+        <v>2023</v>
+      </c>
+      <c r="FH14" s="225" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI14" s="225" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ14" s="225" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK14" s="225" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL14" s="219" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM14" s="225" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN14" s="225" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO14" s="225">
+        <v>15</v>
+      </c>
+      <c r="FP14" s="225">
+        <v>200000</v>
+      </c>
+      <c r="FQ14" s="225" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR14" s="225" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS14" s="225" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT14" s="225" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU14" s="225" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV14" s="225" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW14" s="225">
+        <v>250000000</v>
+      </c>
+      <c r="FX14" s="225">
+        <v>10</v>
+      </c>
+      <c r="FY14" s="225"/>
+      <c r="FZ14" s="225">
+        <v>24</v>
+      </c>
+      <c r="GA14" s="228" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB14" s="228" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC14" s="225">
+        <v>1000000</v>
+      </c>
+      <c r="GD14" s="225">
+        <v>750000</v>
+      </c>
+      <c r="GE14" s="225" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH14" s="225" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI14" s="225" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ14" s="225"/>
+      <c r="GK14" s="225">
+        <v>250000000</v>
+      </c>
+      <c r="GL14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM14" s="225" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN14" s="225" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO14" s="225">
+        <v>24</v>
+      </c>
+      <c r="GP14" s="225">
+        <v>20</v>
+      </c>
+      <c r="GQ14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR14" s="225" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS14" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT14" s="225" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU14" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV14" s="230" t="s">
+        <v>246</v>
+      </c>
+      <c r="GW14" s="225" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX14" s="225" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY14" s="219" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ14" s="225">
+        <v>120100</v>
+      </c>
+      <c r="HA14" s="225" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB14" s="225">
+        <v>12430</v>
+      </c>
+      <c r="HC14" s="225" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD14" s="225" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE14" s="225" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF14" s="225" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG14" s="225" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH14" s="225" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI14" s="219" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{349895E6-7011-401C-9C56-65679A4DA08E}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{7F2E91AC-D39D-4E9F-AEDE-3B46A547F8B9}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{86C3F04C-0722-4913-A70C-D137E67A2660}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{508D0011-4E8D-4F00-9262-7B521508083E}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{27F277B2-C0CD-4AB7-A01E-C3B5648322E5}"/>
+    <hyperlink ref="CD9" r:id="rId6" xr:uid="{CD7D2390-8B6F-4F41-A3A7-FE11B36C1C21}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{9CC21C4E-7C4C-4509-B038-4178ADF4554B}"/>
+    <hyperlink ref="CD10" r:id="rId8" xr:uid="{74F29673-6CB1-4790-942F-BAA045EA0259}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{6A1C12E3-BD34-4E30-B569-7901E1E85C39}"/>
+    <hyperlink ref="CD11" r:id="rId10" xr:uid="{63F75253-332B-4FAC-903D-308225AAF7E3}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{5F42B570-8F53-451F-828F-6621438AE398}"/>
+    <hyperlink ref="CD12" r:id="rId12" xr:uid="{A05301A3-C197-4E11-8015-B891D244DC6D}"/>
+    <hyperlink ref="J12" r:id="rId13" xr:uid="{8A6EDC47-2142-4575-95EA-8427914D2CD7}"/>
+    <hyperlink ref="CD13" r:id="rId14" xr:uid="{D601CDD0-4590-4C0C-82FD-0EEC2C36ABF6}"/>
+    <hyperlink ref="J13" r:id="rId15" xr:uid="{BC9FF2FB-9EA4-4037-80B0-960F8BC95460}"/>
+    <hyperlink ref="CD14" r:id="rId16" xr:uid="{1749D64A-8D87-46AD-8A53-A923C2EA1CFE}"/>
+    <hyperlink ref="J14" r:id="rId17" xr:uid="{DF1CF49D-AF3D-4EEC-8DD6-163CA0668200}"/>
+    <hyperlink ref="J4" r:id="rId18" xr:uid="{87B46711-7C36-4593-9E51-0938B2A64E24}"/>
+    <hyperlink ref="J3" r:id="rId19" xr:uid="{AED02ABF-5225-4710-A04D-DCA8840C0F57}"/>
+    <hyperlink ref="Q3" r:id="rId20" xr:uid="{9A919702-C5B7-4E53-8821-521AA0C0CD58}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73AAD06-26CB-48F0-8192-DF42E5CD476B}">
+  <dimension ref="A1:HI11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.44140625" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.44140625" customWidth="1"/>
+    <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="15" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="26" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="21" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="16" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="16" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="9" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="10" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="20" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="185" max="186" width="17" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="20" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="29" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="29" customWidth="1"/>
+    <col min="198" max="198" width="34" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="22" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="146.88671875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="16" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:217" s="138" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="139" t="s">
         <v>632</v>
       </c>
@@ -16794,8 +25211,8 @@
       <c r="BV4" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="BW4" s="25" t="s">
-        <v>337</v>
+      <c r="BW4" s="25">
+        <v>3266270707071000</v>
       </c>
       <c r="BX4" s="27" t="s">
         <v>350</v>
@@ -21101,7 +29518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C37B22-7F65-49CE-B5BC-37DBED8D4CED}">
   <dimension ref="A1:EZ5"/>
   <sheetViews>
@@ -23572,7 +31989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B768244-13EF-4C33-9CC2-6DF1ACFBC062}">
   <dimension ref="A1:EI15"/>
   <sheetViews>
@@ -27878,7 +36295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCB84B0-8893-4C41-8493-67CB66356E98}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -28431,7 +36848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E8FB5-1B42-4D66-9DF5-69DD7C6EE670}">
   <dimension ref="A1:F10"/>
   <sheetViews>

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8746D467-8C59-4CB6-BA02-BD4FF85157E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E660B-A400-4356-877E-03B53B2B1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="855">
   <si>
     <t>konsumen</t>
   </si>
@@ -2606,6 +2606,9 @@
   </si>
   <si>
     <t>IBU BUDI</t>
+  </si>
+  <si>
+    <t>Usia Konsumen Kurang Dari 21 Tahun dan Status Belum Menikah (CS)</t>
   </si>
 </sst>
 </file>
@@ -14952,8 +14955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9714DEC-43C5-4011-A240-3BE24ABA98F9}">
   <dimension ref="A1:HI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="GS1" workbookViewId="0">
+      <selection activeCell="GV7" sqref="GV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16024,7 +16027,7 @@
         <v>1111222202</v>
       </c>
       <c r="DL2" s="198" t="str">
-        <f>DH2</f>
+        <f t="shared" ref="DL2:DL8" si="0">DH2</f>
         <v>APPROVE</v>
       </c>
       <c r="DM2" s="200" t="s">
@@ -16046,7 +16049,7 @@
         <v>800</v>
       </c>
       <c r="DS2" s="198" t="str">
-        <f>DL2</f>
+        <f t="shared" ref="DS2:DS8" si="1">DL2</f>
         <v>APPROVE</v>
       </c>
       <c r="DT2" s="198" t="s">
@@ -16286,7 +16289,7 @@
         <v>233</v>
       </c>
       <c r="GV2" s="198" t="s">
-        <v>246</v>
+        <v>854</v>
       </c>
       <c r="GW2" s="198" t="s">
         <v>248</v>
@@ -16538,7 +16541,7 @@
         <v>1111222299</v>
       </c>
       <c r="DL3" s="198" t="str">
-        <f>DH3</f>
+        <f t="shared" si="0"/>
         <v>BUDI</v>
       </c>
       <c r="DM3" s="200" t="s">
@@ -16560,7 +16563,7 @@
         <v>800</v>
       </c>
       <c r="DS3" s="198" t="str">
-        <f>DL3</f>
+        <f t="shared" si="1"/>
         <v>BUDI</v>
       </c>
       <c r="DT3" s="198" t="s">
@@ -17042,7 +17045,7 @@
         <v>1111222202</v>
       </c>
       <c r="DL4" s="198" t="str">
-        <f>DH4</f>
+        <f t="shared" si="0"/>
         <v>KONSUMEN A</v>
       </c>
       <c r="DM4" s="200" t="s">
@@ -17064,7 +17067,7 @@
         <v>800</v>
       </c>
       <c r="DS4" s="198" t="str">
-        <f>DL4</f>
+        <f t="shared" si="1"/>
         <v>KONSUMEN A</v>
       </c>
       <c r="DT4" s="198" t="s">
@@ -17546,7 +17549,7 @@
         <v>1111222202</v>
       </c>
       <c r="DL5" s="198" t="str">
-        <f>DH5</f>
+        <f t="shared" si="0"/>
         <v>KONSUMEN B</v>
       </c>
       <c r="DM5" s="200" t="s">
@@ -17568,7 +17571,7 @@
         <v>800</v>
       </c>
       <c r="DS5" s="198" t="str">
-        <f>DL5</f>
+        <f t="shared" si="1"/>
         <v>KONSUMEN B</v>
       </c>
       <c r="DT5" s="198" t="s">
@@ -18037,7 +18040,7 @@
         <v>1111222201</v>
       </c>
       <c r="DH6" s="198" t="str">
-        <f t="shared" ref="DH6:DH11" si="0">C6</f>
+        <f t="shared" ref="DH6:DH11" si="2">C6</f>
         <v>KONSUMEN C</v>
       </c>
       <c r="DI6" s="198" t="s">
@@ -18050,7 +18053,7 @@
         <v>1111222202</v>
       </c>
       <c r="DL6" s="198" t="str">
-        <f>DH6</f>
+        <f t="shared" si="0"/>
         <v>KONSUMEN C</v>
       </c>
       <c r="DM6" s="200" t="s">
@@ -18072,7 +18075,7 @@
         <v>800</v>
       </c>
       <c r="DS6" s="198" t="str">
-        <f>DL6</f>
+        <f t="shared" si="1"/>
         <v>KONSUMEN C</v>
       </c>
       <c r="DT6" s="198" t="s">
@@ -18541,22 +18544,22 @@
         <v>1111222204</v>
       </c>
       <c r="DH7" s="209" t="str">
+        <f t="shared" si="2"/>
+        <v>KONSUMEN D</v>
+      </c>
+      <c r="DI7" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ7" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK7" s="209">
+        <v>1111222203</v>
+      </c>
+      <c r="DL7" s="209" t="str">
         <f t="shared" si="0"/>
         <v>KONSUMEN D</v>
       </c>
-      <c r="DI7" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ7" s="209" t="s">
-        <v>79</v>
-      </c>
-      <c r="DK7" s="209">
-        <v>1111222203</v>
-      </c>
-      <c r="DL7" s="209" t="str">
-        <f>DH7</f>
-        <v>KONSUMEN D</v>
-      </c>
       <c r="DM7" s="211" t="s">
         <v>673</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>800</v>
       </c>
       <c r="DS7" s="209" t="str">
-        <f>DL7</f>
+        <f t="shared" si="1"/>
         <v>KONSUMEN D</v>
       </c>
       <c r="DT7" s="209" t="s">
@@ -19045,22 +19048,22 @@
         <v>1111222201</v>
       </c>
       <c r="DH8" s="209" t="str">
+        <f t="shared" si="2"/>
+        <v>KONSUMEN E</v>
+      </c>
+      <c r="DI8" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ8" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK8" s="209">
+        <v>1111222202</v>
+      </c>
+      <c r="DL8" s="209" t="str">
         <f t="shared" si="0"/>
         <v>KONSUMEN E</v>
       </c>
-      <c r="DI8" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ8" s="209" t="s">
-        <v>79</v>
-      </c>
-      <c r="DK8" s="209">
-        <v>1111222202</v>
-      </c>
-      <c r="DL8" s="209" t="str">
-        <f>DH8</f>
-        <v>KONSUMEN E</v>
-      </c>
       <c r="DM8" s="211" t="s">
         <v>672</v>
       </c>
@@ -19080,7 +19083,7 @@
         <v>800</v>
       </c>
       <c r="DS8" s="209" t="str">
-        <f>DL8</f>
+        <f t="shared" si="1"/>
         <v>KONSUMEN E</v>
       </c>
       <c r="DT8" s="209" t="s">
@@ -19675,7 +19678,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH9" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>KONSUMEN F</v>
       </c>
       <c r="DI9" s="198" t="s">
@@ -20295,7 +20298,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH10" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>KONSUMEN G</v>
       </c>
       <c r="DI10" s="198" t="s">
@@ -20915,7 +20918,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH11" s="198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>KONSUMEN H</v>
       </c>
       <c r="DI11" s="198" t="s">
@@ -21535,7 +21538,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH12" s="209" t="str">
-        <f t="shared" ref="DH12" si="1">C12</f>
+        <f t="shared" ref="DH12" si="3">C12</f>
         <v>KONSUMEN I</v>
       </c>
       <c r="DI12" s="209" t="s">
@@ -22155,7 +22158,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH13" s="209" t="str">
-        <f t="shared" ref="DH13" si="2">C13</f>
+        <f t="shared" ref="DH13" si="4">C13</f>
         <v>KONSUMEN J</v>
       </c>
       <c r="DI13" s="209" t="s">
@@ -22775,7 +22778,7 @@
         <v>1111222205</v>
       </c>
       <c r="DH14" s="225" t="str">
-        <f t="shared" ref="DH14" si="3">C14</f>
+        <f t="shared" ref="DH14" si="5">C14</f>
         <v>KONSUMEN K</v>
       </c>
       <c r="DI14" s="225" t="s">

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E660B-A400-4356-877E-03B53B2B1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF0D53-0602-4E9D-BAA8-67D88C9379A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7936" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8246" uniqueCount="859">
   <si>
     <t>konsumen</t>
   </si>
@@ -2482,9 +2482,6 @@
     <t>KILLJOY</t>
   </si>
   <si>
-    <t>KONSUMEN A</t>
-  </si>
-  <si>
     <t>KONSUMEN B</t>
   </si>
   <si>
@@ -2497,9 +2494,6 @@
     <t>KONSUMEN E</t>
   </si>
   <si>
-    <t>3672086105760011</t>
-  </si>
-  <si>
     <t>3672086105750012</t>
   </si>
   <si>
@@ -2512,9 +2506,6 @@
     <t>3672086105750015</t>
   </si>
   <si>
-    <t>KONSUMENA@gmail.com</t>
-  </si>
-  <si>
     <t>KONSUMENB@gmail.com</t>
   </si>
   <si>
@@ -2527,9 +2518,6 @@
     <t>KONSUMENE@gmail.com</t>
   </si>
   <si>
-    <t>IBU KONSUMEN A</t>
-  </si>
-  <si>
     <t>IBU KONSUMEN B</t>
   </si>
   <si>
@@ -2609,6 +2597,30 @@
   </si>
   <si>
     <t>Usia Konsumen Kurang Dari 21 Tahun dan Status Belum Menikah (CS)</t>
+  </si>
+  <si>
+    <t>REJECT@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>IBU REJECT</t>
+  </si>
+  <si>
+    <t>REGUREL@gmail.com</t>
+  </si>
+  <si>
+    <t>IBU REGUREL</t>
+  </si>
+  <si>
+    <t>CP REGUREL</t>
+  </si>
+  <si>
+    <t>OKI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>PASANGANOKI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>IBU OKI</t>
   </si>
 </sst>
 </file>
@@ -14953,10 +14965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9714DEC-43C5-4011-A240-3BE24ABA98F9}">
-  <dimension ref="A1:HI14"/>
+  <dimension ref="A1:HI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GS1" workbookViewId="0">
-      <selection activeCell="GV7" sqref="GV7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14976,7 +14988,7 @@
     <col min="14" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.44140625" customWidth="1"/>
+    <col min="17" max="17" width="27.88671875" customWidth="1"/>
     <col min="18" max="18" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -15856,7 +15868,7 @@
         <v>14430</v>
       </c>
       <c r="J2" s="197" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="K2" s="193" t="s">
         <v>544</v>
@@ -16027,7 +16039,7 @@
         <v>1111222202</v>
       </c>
       <c r="DL2" s="198" t="str">
-        <f t="shared" ref="DL2:DL8" si="0">DH2</f>
+        <f t="shared" ref="DL2:DL10" si="0">DH2</f>
         <v>APPROVE</v>
       </c>
       <c r="DM2" s="200" t="s">
@@ -16043,13 +16055,13 @@
         <v>133</v>
       </c>
       <c r="DQ2" s="198" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="DR2" s="198" t="s">
         <v>800</v>
       </c>
       <c r="DS2" s="198" t="str">
-        <f t="shared" ref="DS2:DS8" si="1">DL2</f>
+        <f t="shared" ref="DS2:DS10" si="1">DL2</f>
         <v>APPROVE</v>
       </c>
       <c r="DT2" s="198" t="s">
@@ -16197,7 +16209,7 @@
         <v>15</v>
       </c>
       <c r="FP2" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ2" s="198" t="s">
         <v>615</v>
@@ -16289,7 +16301,7 @@
         <v>233</v>
       </c>
       <c r="GV2" s="198" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="GW2" s="198" t="s">
         <v>248</v>
@@ -16360,7 +16372,7 @@
         <v>14430</v>
       </c>
       <c r="J3" s="197" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="K3" s="193" t="s">
         <v>544</v>
@@ -16384,7 +16396,7 @@
         <v>484</v>
       </c>
       <c r="R3" s="194" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S3" s="193">
         <v>15413</v>
@@ -16557,7 +16569,7 @@
         <v>133</v>
       </c>
       <c r="DQ3" s="198" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="DR3" s="198" t="s">
         <v>800</v>
@@ -16711,7 +16723,7 @@
         <v>15</v>
       </c>
       <c r="FP3" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ3" s="198" t="s">
         <v>615</v>
@@ -16803,7 +16815,7 @@
         <v>233</v>
       </c>
       <c r="GV3" s="198" t="s">
-        <v>246</v>
+        <v>850</v>
       </c>
       <c r="GW3" s="198" t="s">
         <v>248</v>
@@ -16850,13 +16862,13 @@
         <v>633</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>812</v>
+        <v>660</v>
       </c>
       <c r="C4" s="193" t="s">
-        <v>812</v>
+        <v>660</v>
       </c>
       <c r="D4" s="194" t="s">
-        <v>817</v>
+        <v>664</v>
       </c>
       <c r="E4" s="195" t="s">
         <v>347</v>
@@ -16865,7 +16877,7 @@
         <v>434</v>
       </c>
       <c r="G4" s="196">
-        <v>99887777</v>
+        <v>99887766</v>
       </c>
       <c r="H4" s="193" t="s">
         <v>543</v>
@@ -16874,7 +16886,7 @@
         <v>14430</v>
       </c>
       <c r="J4" s="197" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="K4" s="193" t="s">
         <v>544</v>
@@ -16888,8 +16900,8 @@
       <c r="N4" s="193"/>
       <c r="O4" s="193"/>
       <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
+      <c r="Q4" s="232"/>
+      <c r="R4" s="194"/>
       <c r="S4" s="193">
         <v>15413</v>
       </c>
@@ -17029,11 +17041,11 @@
         <v>132</v>
       </c>
       <c r="DG4" s="198">
-        <v>1111222201</v>
+        <v>1111222204</v>
       </c>
       <c r="DH4" s="198" t="str">
         <f>C4</f>
-        <v>KONSUMEN A</v>
+        <v>REJECT</v>
       </c>
       <c r="DI4" s="198" t="s">
         <v>114</v>
@@ -17042,14 +17054,14 @@
         <v>79</v>
       </c>
       <c r="DK4" s="198">
-        <v>1111222202</v>
+        <v>1111222203</v>
       </c>
       <c r="DL4" s="198" t="str">
-        <f t="shared" si="0"/>
-        <v>KONSUMEN A</v>
+        <f t="shared" ref="DL4" si="2">DH4</f>
+        <v>REJECT</v>
       </c>
       <c r="DM4" s="200" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="DN4" s="198" t="s">
         <v>179</v>
@@ -17061,14 +17073,14 @@
         <v>133</v>
       </c>
       <c r="DQ4" s="198" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="DR4" s="198" t="s">
         <v>800</v>
       </c>
       <c r="DS4" s="198" t="str">
-        <f t="shared" si="1"/>
-        <v>KONSUMEN A</v>
+        <f t="shared" ref="DS4" si="3">DL4</f>
+        <v>REJECT</v>
       </c>
       <c r="DT4" s="198" t="s">
         <v>83</v>
@@ -17086,7 +17098,7 @@
         <v>685</v>
       </c>
       <c r="DY4" s="192">
-        <v>1122335</v>
+        <v>1122334</v>
       </c>
       <c r="DZ4" s="198" t="s">
         <v>748</v>
@@ -17215,7 +17227,7 @@
         <v>15</v>
       </c>
       <c r="FP4" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ4" s="198" t="s">
         <v>615</v>
@@ -17307,7 +17319,7 @@
         <v>233</v>
       </c>
       <c r="GV4" s="198" t="s">
-        <v>246</v>
+        <v>850</v>
       </c>
       <c r="GW4" s="198" t="s">
         <v>248</v>
@@ -17354,13 +17366,13 @@
         <v>633</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>813</v>
+        <v>661</v>
       </c>
       <c r="C5" s="193" t="s">
-        <v>813</v>
+        <v>661</v>
       </c>
       <c r="D5" s="194" t="s">
-        <v>818</v>
+        <v>665</v>
       </c>
       <c r="E5" s="195" t="s">
         <v>347</v>
@@ -17369,7 +17381,7 @@
         <v>434</v>
       </c>
       <c r="G5" s="196">
-        <v>99887777</v>
+        <v>99887711</v>
       </c>
       <c r="H5" s="193" t="s">
         <v>543</v>
@@ -17378,7 +17390,7 @@
         <v>14430</v>
       </c>
       <c r="J5" s="197" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="K5" s="193" t="s">
         <v>544</v>
@@ -17392,16 +17404,16 @@
       <c r="N5" s="193"/>
       <c r="O5" s="193"/>
       <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
+      <c r="Q5" s="232"/>
+      <c r="R5" s="194"/>
       <c r="S5" s="193">
         <v>15413</v>
       </c>
       <c r="T5" s="193">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U5" s="193" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="V5" s="193" t="s">
         <v>391</v>
@@ -17421,69 +17433,185 @@
       <c r="AC5" s="198"/>
       <c r="AD5" s="198"/>
       <c r="AE5" s="192"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
+      <c r="AF5" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG5" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH5" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI5" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ5" s="198">
+        <v>10</v>
+      </c>
       <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
-      <c r="AW5" s="198"/>
-      <c r="AX5" s="198"/>
-      <c r="AY5" s="198"/>
-      <c r="AZ5" s="198"/>
+      <c r="AL5" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN5" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO5" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP5" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ5" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT5" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU5" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV5" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW5" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX5" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY5" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ5" s="198" t="s">
+        <v>597</v>
+      </c>
       <c r="BA5" s="198"/>
       <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="198"/>
-      <c r="BE5" s="198"/>
-      <c r="BF5" s="198"/>
-      <c r="BG5" s="198"/>
-      <c r="BH5" s="198"/>
-      <c r="BI5" s="198"/>
-      <c r="BJ5" s="198"/>
-      <c r="BK5" s="198"/>
-      <c r="BL5" s="192"/>
-      <c r="BM5" s="198"/>
-      <c r="BN5" s="198"/>
+      <c r="BC5" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE5" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF5" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG5" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH5" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ5" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK5" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL5" s="192" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM5" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN5" s="198" t="s">
+        <v>541</v>
+      </c>
       <c r="BO5" s="198"/>
       <c r="BP5" s="198"/>
-      <c r="BQ5" s="198"/>
-      <c r="BR5" s="198"/>
-      <c r="BS5" s="198"/>
-      <c r="BT5" s="198"/>
-      <c r="BU5" s="198"/>
-      <c r="BV5" s="198"/>
-      <c r="BW5" s="198"/>
-      <c r="BX5" s="199"/>
-      <c r="BY5" s="200"/>
-      <c r="BZ5" s="198"/>
-      <c r="CA5" s="198"/>
-      <c r="CB5" s="192"/>
-      <c r="CC5" s="198"/>
-      <c r="CD5" s="198"/>
-      <c r="CE5" s="200"/>
-      <c r="CF5" s="198"/>
-      <c r="CG5" s="198"/>
-      <c r="CH5" s="198"/>
-      <c r="CI5" s="198"/>
-      <c r="CJ5" s="198"/>
-      <c r="CK5" s="198"/>
-      <c r="CL5" s="198"/>
-      <c r="CM5" s="198"/>
-      <c r="CN5" s="198"/>
-      <c r="CO5" s="198"/>
-      <c r="CP5" s="192"/>
+      <c r="BQ5" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR5" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS5" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT5" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU5" s="198" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV5" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW5" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX5" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY5" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ5" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA5" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB5" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC5" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD5" s="198" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE5" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF5" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG5" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH5" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI5" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ5" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK5" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL5" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM5" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN5" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO5" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP5" s="192" t="s">
+        <v>233</v>
+      </c>
       <c r="CQ5" s="198" t="s">
         <v>82</v>
       </c>
@@ -17533,31 +17661,21 @@
         <v>132</v>
       </c>
       <c r="DG5" s="198">
-        <v>1111222201</v>
-      </c>
-      <c r="DH5" s="198" t="str">
-        <f>C5</f>
-        <v>KONSUMEN B</v>
+        <v>1111222205</v>
+      </c>
+      <c r="DH5" s="198" t="s">
+        <v>661</v>
       </c>
       <c r="DI5" s="198" t="s">
         <v>114</v>
       </c>
       <c r="DJ5" s="198" t="s">
-        <v>79</v>
-      </c>
-      <c r="DK5" s="198">
-        <v>1111222202</v>
-      </c>
-      <c r="DL5" s="198" t="str">
-        <f t="shared" si="0"/>
-        <v>KONSUMEN B</v>
-      </c>
-      <c r="DM5" s="200" t="s">
-        <v>672</v>
-      </c>
-      <c r="DN5" s="198" t="s">
-        <v>179</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="DK5" s="198"/>
+      <c r="DL5" s="198"/>
+      <c r="DM5" s="200"/>
+      <c r="DN5" s="198"/>
       <c r="DO5" s="198" t="s">
         <v>501</v>
       </c>
@@ -17565,14 +17683,13 @@
         <v>133</v>
       </c>
       <c r="DQ5" s="198" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="DR5" s="198" t="s">
-        <v>800</v>
-      </c>
-      <c r="DS5" s="198" t="str">
-        <f t="shared" si="1"/>
-        <v>KONSUMEN B</v>
+        <v>802</v>
+      </c>
+      <c r="DS5" s="198" t="s">
+        <v>243</v>
       </c>
       <c r="DT5" s="198" t="s">
         <v>83</v>
@@ -17590,10 +17707,10 @@
         <v>685</v>
       </c>
       <c r="DY5" s="192">
-        <v>1122335</v>
+        <v>1122333</v>
       </c>
       <c r="DZ5" s="198" t="s">
-        <v>748</v>
+        <v>855</v>
       </c>
       <c r="EA5" s="198" t="s">
         <v>171</v>
@@ -17719,7 +17836,7 @@
         <v>15</v>
       </c>
       <c r="FP5" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ5" s="198" t="s">
         <v>615</v>
@@ -17811,7 +17928,7 @@
         <v>233</v>
       </c>
       <c r="GV5" s="198" t="s">
-        <v>246</v>
+        <v>850</v>
       </c>
       <c r="GW5" s="198" t="s">
         <v>248</v>
@@ -17853,24 +17970,24 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:217" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="192" t="s">
         <v>633</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>814</v>
+        <v>754</v>
       </c>
       <c r="C6" s="193" t="s">
-        <v>814</v>
+        <v>754</v>
       </c>
       <c r="D6" s="194" t="s">
-        <v>819</v>
+        <v>758</v>
       </c>
       <c r="E6" s="195" t="s">
         <v>347</v>
       </c>
       <c r="F6" s="194" t="s">
-        <v>434</v>
+        <v>761</v>
       </c>
       <c r="G6" s="196">
         <v>99887777</v>
@@ -17882,33 +17999,43 @@
         <v>14430</v>
       </c>
       <c r="J6" s="197" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="K6" s="193" t="s">
         <v>544</v>
       </c>
       <c r="L6" s="193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M6" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
+        <v>416</v>
+      </c>
+      <c r="N6" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P6" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="232" t="s">
+        <v>857</v>
+      </c>
+      <c r="R6" s="194" t="s">
+        <v>692</v>
+      </c>
       <c r="S6" s="193">
         <v>15413</v>
       </c>
       <c r="T6" s="193">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U6" s="193" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="V6" s="193" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="W6" s="193" t="s">
         <v>0</v>
@@ -17925,71 +18052,187 @@
       <c r="AC6" s="198"/>
       <c r="AD6" s="198"/>
       <c r="AE6" s="192"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="198"/>
-      <c r="AI6" s="198"/>
-      <c r="AJ6" s="198"/>
+      <c r="AF6" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG6" s="198" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH6" s="198" t="s">
+        <v>788</v>
+      </c>
+      <c r="AI6" s="198">
+        <v>1280000000</v>
+      </c>
+      <c r="AJ6" s="198">
+        <v>20</v>
+      </c>
       <c r="AK6" s="198"/>
-      <c r="AL6" s="198"/>
-      <c r="AM6" s="198"/>
-      <c r="AN6" s="198"/>
-      <c r="AO6" s="198"/>
-      <c r="AP6" s="198"/>
-      <c r="AQ6" s="198"/>
-      <c r="AR6" s="198"/>
-      <c r="AS6" s="198"/>
-      <c r="AT6" s="198"/>
-      <c r="AU6" s="198"/>
-      <c r="AV6" s="198"/>
-      <c r="AW6" s="198"/>
-      <c r="AX6" s="198"/>
-      <c r="AY6" s="198"/>
-      <c r="AZ6" s="198"/>
+      <c r="AL6" s="198">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="198">
+        <v>8.3969000000000005</v>
+      </c>
+      <c r="AN6" s="198">
+        <v>15</v>
+      </c>
+      <c r="AO6" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP6" s="198">
+        <v>40960000</v>
+      </c>
+      <c r="AQ6" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR6" s="198" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS6" s="198" t="s">
+        <v>596</v>
+      </c>
+      <c r="AT6" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU6" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV6" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW6" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX6" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY6" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ6" s="198" t="s">
+        <v>598</v>
+      </c>
       <c r="BA6" s="198"/>
       <c r="BB6" s="198"/>
-      <c r="BC6" s="198"/>
-      <c r="BD6" s="198"/>
-      <c r="BE6" s="198"/>
-      <c r="BF6" s="198"/>
-      <c r="BG6" s="198"/>
-      <c r="BH6" s="198"/>
-      <c r="BI6" s="198"/>
-      <c r="BJ6" s="198"/>
-      <c r="BK6" s="198"/>
-      <c r="BL6" s="192"/>
-      <c r="BM6" s="198"/>
-      <c r="BN6" s="198"/>
+      <c r="BC6" s="198">
+        <v>1280000000</v>
+      </c>
+      <c r="BD6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE6" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF6" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="BG6" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="BH6" s="198">
+        <v>20</v>
+      </c>
+      <c r="BI6" s="198" t="s">
+        <v>596</v>
+      </c>
+      <c r="BJ6" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK6" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL6" s="192" t="s">
+        <v>758</v>
+      </c>
+      <c r="BM6" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN6" s="198" t="s">
+        <v>541</v>
+      </c>
       <c r="BO6" s="198"/>
       <c r="BP6" s="198"/>
-      <c r="BQ6" s="198"/>
-      <c r="BR6" s="198"/>
-      <c r="BS6" s="198"/>
-      <c r="BT6" s="198"/>
-      <c r="BU6" s="198"/>
-      <c r="BV6" s="198"/>
-      <c r="BW6" s="198"/>
-      <c r="BX6" s="199"/>
-      <c r="BY6" s="200"/>
-      <c r="BZ6" s="198"/>
-      <c r="CA6" s="198"/>
-      <c r="CB6" s="192"/>
-      <c r="CC6" s="198"/>
-      <c r="CD6" s="198"/>
-      <c r="CE6" s="200"/>
-      <c r="CF6" s="198"/>
-      <c r="CG6" s="198"/>
-      <c r="CH6" s="198"/>
-      <c r="CI6" s="198"/>
-      <c r="CJ6" s="198"/>
-      <c r="CK6" s="198"/>
-      <c r="CL6" s="198"/>
-      <c r="CM6" s="198"/>
-      <c r="CN6" s="198"/>
-      <c r="CO6" s="198"/>
-      <c r="CP6" s="192"/>
+      <c r="BQ6" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR6" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS6" s="198" t="s">
+        <v>761</v>
+      </c>
+      <c r="BT6" s="198">
+        <v>99887777</v>
+      </c>
+      <c r="BU6" s="198" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV6" s="198" t="s">
+        <v>770</v>
+      </c>
+      <c r="BW6" s="198" t="s">
+        <v>772</v>
+      </c>
+      <c r="BX6" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY6" s="200" t="s">
+        <v>774</v>
+      </c>
+      <c r="BZ6" s="198">
+        <v>4211222202</v>
+      </c>
+      <c r="CA6" s="198" t="s">
+        <v>776</v>
+      </c>
+      <c r="CB6" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC6" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD6" s="198" t="s">
+        <v>766</v>
+      </c>
+      <c r="CE6" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF6" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG6" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH6" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI6" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ6" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK6" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL6" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM6" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN6" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO6" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP6" s="192" t="s">
+        <v>233</v>
+      </c>
       <c r="CQ6" s="198" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="CR6" s="198" t="s">
         <v>0</v>
@@ -18012,20 +18255,20 @@
       <c r="CX6" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="CY6" s="198">
-        <v>2000</v>
+      <c r="CY6" s="198" t="s">
+        <v>675</v>
       </c>
       <c r="CZ6" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="DA6" s="198">
-        <v>10000000</v>
+      <c r="DA6" s="198" t="s">
+        <v>676</v>
       </c>
       <c r="DB6" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="DC6" s="198">
-        <v>30000000</v>
+      <c r="DC6" s="198" t="s">
+        <v>677</v>
       </c>
       <c r="DD6" s="198" t="s">
         <v>105</v>
@@ -18037,11 +18280,10 @@
         <v>132</v>
       </c>
       <c r="DG6" s="198">
-        <v>1111222201</v>
-      </c>
-      <c r="DH6" s="198" t="str">
-        <f t="shared" ref="DH6:DH11" si="2">C6</f>
-        <v>KONSUMEN C</v>
+        <v>6111222299</v>
+      </c>
+      <c r="DH6" s="198" t="s">
+        <v>754</v>
       </c>
       <c r="DI6" s="198" t="s">
         <v>114</v>
@@ -18050,14 +18292,13 @@
         <v>79</v>
       </c>
       <c r="DK6" s="198">
-        <v>1111222202</v>
-      </c>
-      <c r="DL6" s="198" t="str">
-        <f t="shared" si="0"/>
-        <v>KONSUMEN C</v>
+        <v>4211222202</v>
+      </c>
+      <c r="DL6" s="198" t="s">
+        <v>776</v>
       </c>
       <c r="DM6" s="200" t="s">
-        <v>672</v>
+        <v>778</v>
       </c>
       <c r="DN6" s="198" t="s">
         <v>179</v>
@@ -18069,14 +18310,13 @@
         <v>133</v>
       </c>
       <c r="DQ6" s="198" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="DR6" s="198" t="s">
         <v>800</v>
       </c>
-      <c r="DS6" s="198" t="str">
-        <f t="shared" si="1"/>
-        <v>KONSUMEN C</v>
+      <c r="DS6" s="198" t="s">
+        <v>783</v>
       </c>
       <c r="DT6" s="198" t="s">
         <v>83</v>
@@ -18091,13 +18331,13 @@
         <v>10000000</v>
       </c>
       <c r="DX6" s="200" t="s">
-        <v>685</v>
+        <v>255</v>
       </c>
       <c r="DY6" s="192">
-        <v>1122335</v>
+        <v>1122777</v>
       </c>
       <c r="DZ6" s="198" t="s">
-        <v>748</v>
+        <v>787</v>
       </c>
       <c r="EA6" s="198" t="s">
         <v>171</v>
@@ -18178,7 +18418,7 @@
         <v>185</v>
       </c>
       <c r="FA6" s="198" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="FB6" s="198" t="s">
         <v>200</v>
@@ -18223,16 +18463,16 @@
         <v>15</v>
       </c>
       <c r="FP6" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ6" s="198" t="s">
         <v>615</v>
       </c>
       <c r="FR6" s="198" t="s">
-        <v>234</v>
+        <v>791</v>
       </c>
       <c r="FS6" s="198" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="FT6" s="198" t="s">
         <v>613</v>
@@ -18244,23 +18484,23 @@
         <v>805</v>
       </c>
       <c r="FW6" s="198">
-        <v>250000000</v>
+        <v>1280000000</v>
       </c>
       <c r="FX6" s="198">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="FY6" s="198"/>
       <c r="FZ6" s="198">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="GA6" s="200" t="s">
         <v>806</v>
       </c>
-      <c r="GB6" s="200" t="s">
-        <v>807</v>
+      <c r="GB6" s="200">
+        <v>15</v>
       </c>
       <c r="GC6" s="198">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="GD6" s="198">
         <v>750000</v>
@@ -18315,7 +18555,7 @@
         <v>233</v>
       </c>
       <c r="GV6" s="198" t="s">
-        <v>246</v>
+        <v>850</v>
       </c>
       <c r="GW6" s="198" t="s">
         <v>248</v>
@@ -18357,2251 +18597,2019 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:217" s="213" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="202" t="s">
+    <row r="7" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="192" t="s">
         <v>633</v>
       </c>
-      <c r="B7" s="203" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="203" t="s">
-        <v>815</v>
-      </c>
-      <c r="D7" s="204" t="s">
+      <c r="B7" s="193" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7" s="193" t="s">
+        <v>812</v>
+      </c>
+      <c r="D7" s="194" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H7" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J7" s="197" t="s">
         <v>820</v>
       </c>
-      <c r="E7" s="205" t="s">
+      <c r="K7" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L7" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T7" s="193">
+        <v>12</v>
+      </c>
+      <c r="U7" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V7" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W7" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y7" s="198"/>
+      <c r="Z7" s="198"/>
+      <c r="AA7" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB7" s="198"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="198"/>
+      <c r="AE7" s="192"/>
+      <c r="AF7" s="198"/>
+      <c r="AG7" s="198"/>
+      <c r="AH7" s="198"/>
+      <c r="AI7" s="198"/>
+      <c r="AJ7" s="198"/>
+      <c r="AK7" s="198"/>
+      <c r="AL7" s="198"/>
+      <c r="AM7" s="198"/>
+      <c r="AN7" s="198"/>
+      <c r="AO7" s="198"/>
+      <c r="AP7" s="198"/>
+      <c r="AQ7" s="198"/>
+      <c r="AR7" s="198"/>
+      <c r="AS7" s="198"/>
+      <c r="AT7" s="198"/>
+      <c r="AU7" s="198"/>
+      <c r="AV7" s="198"/>
+      <c r="AW7" s="198"/>
+      <c r="AX7" s="198"/>
+      <c r="AY7" s="198"/>
+      <c r="AZ7" s="198"/>
+      <c r="BA7" s="198"/>
+      <c r="BB7" s="198"/>
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="198"/>
+      <c r="BE7" s="198"/>
+      <c r="BF7" s="198"/>
+      <c r="BG7" s="198"/>
+      <c r="BH7" s="198"/>
+      <c r="BI7" s="198"/>
+      <c r="BJ7" s="198"/>
+      <c r="BK7" s="198"/>
+      <c r="BL7" s="192"/>
+      <c r="BM7" s="198"/>
+      <c r="BN7" s="198"/>
+      <c r="BO7" s="198"/>
+      <c r="BP7" s="198"/>
+      <c r="BQ7" s="198"/>
+      <c r="BR7" s="198"/>
+      <c r="BS7" s="198"/>
+      <c r="BT7" s="198"/>
+      <c r="BU7" s="198"/>
+      <c r="BV7" s="198"/>
+      <c r="BW7" s="198"/>
+      <c r="BX7" s="199"/>
+      <c r="BY7" s="200"/>
+      <c r="BZ7" s="198"/>
+      <c r="CA7" s="198"/>
+      <c r="CB7" s="192"/>
+      <c r="CC7" s="198"/>
+      <c r="CD7" s="198"/>
+      <c r="CE7" s="200"/>
+      <c r="CF7" s="198"/>
+      <c r="CG7" s="198"/>
+      <c r="CH7" s="198"/>
+      <c r="CI7" s="198"/>
+      <c r="CJ7" s="198"/>
+      <c r="CK7" s="198"/>
+      <c r="CL7" s="198"/>
+      <c r="CM7" s="198"/>
+      <c r="CN7" s="198"/>
+      <c r="CO7" s="198"/>
+      <c r="CP7" s="192"/>
+      <c r="CQ7" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR7" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT7" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU7" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV7" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW7" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX7" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY7" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ7" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA7" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB7" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC7" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD7" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE7" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF7" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG7" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH7" s="198" t="str">
+        <f>C7</f>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DI7" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ7" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK7" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL7" s="198" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DM7" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN7" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO7" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP7" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ7" s="198" t="s">
+        <v>824</v>
+      </c>
+      <c r="DR7" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS7" s="198" t="str">
+        <f t="shared" si="1"/>
+        <v>KONSUMEN B</v>
+      </c>
+      <c r="DT7" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU7" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV7" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW7" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX7" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY7" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ7" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA7" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB7" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC7" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED7" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE7" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF7" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG7" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH7" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI7" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ7" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK7" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL7" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM7" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN7" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO7" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP7" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ7" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER7" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES7" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET7" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU7" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV7" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW7" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX7" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY7" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ7" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA7" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB7" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC7" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD7" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE7" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF7" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG7" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH7" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI7" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ7" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK7" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL7" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM7" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN7" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO7" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP7" s="198">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR7" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS7" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT7" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU7" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV7" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW7" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX7" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY7" s="198"/>
+      <c r="FZ7" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA7" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB7" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC7" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD7" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE7" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF7" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG7" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH7" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI7" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ7" s="198"/>
+      <c r="GK7" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL7" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM7" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN7" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO7" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP7" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ7" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR7" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS7" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT7" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU7" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV7" s="198" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW7" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX7" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY7" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ7" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA7" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB7" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC7" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD7" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE7" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF7" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG7" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH7" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI7" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:217" s="201" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="193" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" s="193" t="s">
+        <v>813</v>
+      </c>
+      <c r="D8" s="194" t="s">
+        <v>817</v>
+      </c>
+      <c r="E8" s="195" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="204" t="s">
+      <c r="F8" s="194" t="s">
         <v>434</v>
       </c>
-      <c r="G7" s="206">
+      <c r="G8" s="196">
+        <v>99887777</v>
+      </c>
+      <c r="H8" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I8" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J8" s="197" t="s">
+        <v>821</v>
+      </c>
+      <c r="K8" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L8" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T8" s="193">
+        <v>12</v>
+      </c>
+      <c r="U8" s="193" t="s">
+        <v>317</v>
+      </c>
+      <c r="V8" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W8" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="198"/>
+      <c r="AA8" s="198" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="198"/>
+      <c r="AD8" s="198"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="198"/>
+      <c r="AG8" s="198"/>
+      <c r="AH8" s="198"/>
+      <c r="AI8" s="198"/>
+      <c r="AJ8" s="198"/>
+      <c r="AK8" s="198"/>
+      <c r="AL8" s="198"/>
+      <c r="AM8" s="198"/>
+      <c r="AN8" s="198"/>
+      <c r="AO8" s="198"/>
+      <c r="AP8" s="198"/>
+      <c r="AQ8" s="198"/>
+      <c r="AR8" s="198"/>
+      <c r="AS8" s="198"/>
+      <c r="AT8" s="198"/>
+      <c r="AU8" s="198"/>
+      <c r="AV8" s="198"/>
+      <c r="AW8" s="198"/>
+      <c r="AX8" s="198"/>
+      <c r="AY8" s="198"/>
+      <c r="AZ8" s="198"/>
+      <c r="BA8" s="198"/>
+      <c r="BB8" s="198"/>
+      <c r="BC8" s="198"/>
+      <c r="BD8" s="198"/>
+      <c r="BE8" s="198"/>
+      <c r="BF8" s="198"/>
+      <c r="BG8" s="198"/>
+      <c r="BH8" s="198"/>
+      <c r="BI8" s="198"/>
+      <c r="BJ8" s="198"/>
+      <c r="BK8" s="198"/>
+      <c r="BL8" s="192"/>
+      <c r="BM8" s="198"/>
+      <c r="BN8" s="198"/>
+      <c r="BO8" s="198"/>
+      <c r="BP8" s="198"/>
+      <c r="BQ8" s="198"/>
+      <c r="BR8" s="198"/>
+      <c r="BS8" s="198"/>
+      <c r="BT8" s="198"/>
+      <c r="BU8" s="198"/>
+      <c r="BV8" s="198"/>
+      <c r="BW8" s="198"/>
+      <c r="BX8" s="199"/>
+      <c r="BY8" s="200"/>
+      <c r="BZ8" s="198"/>
+      <c r="CA8" s="198"/>
+      <c r="CB8" s="192"/>
+      <c r="CC8" s="198"/>
+      <c r="CD8" s="198"/>
+      <c r="CE8" s="200"/>
+      <c r="CF8" s="198"/>
+      <c r="CG8" s="198"/>
+      <c r="CH8" s="198"/>
+      <c r="CI8" s="198"/>
+      <c r="CJ8" s="198"/>
+      <c r="CK8" s="198"/>
+      <c r="CL8" s="198"/>
+      <c r="CM8" s="198"/>
+      <c r="CN8" s="198"/>
+      <c r="CO8" s="198"/>
+      <c r="CP8" s="192"/>
+      <c r="CQ8" s="198" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR8" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT8" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU8" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV8" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW8" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX8" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY8" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ8" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA8" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB8" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC8" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD8" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE8" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF8" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG8" s="198">
+        <v>1111222201</v>
+      </c>
+      <c r="DH8" s="198" t="str">
+        <f t="shared" ref="DH8:DH13" si="4">C8</f>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DI8" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ8" s="198" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK8" s="198">
+        <v>1111222202</v>
+      </c>
+      <c r="DL8" s="198" t="str">
+        <f t="shared" si="0"/>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DM8" s="200" t="s">
+        <v>672</v>
+      </c>
+      <c r="DN8" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO8" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP8" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ8" s="198" t="s">
+        <v>825</v>
+      </c>
+      <c r="DR8" s="198" t="s">
+        <v>800</v>
+      </c>
+      <c r="DS8" s="198" t="str">
+        <f t="shared" si="1"/>
+        <v>KONSUMEN C</v>
+      </c>
+      <c r="DT8" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU8" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV8" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW8" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX8" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY8" s="192">
+        <v>1122335</v>
+      </c>
+      <c r="DZ8" s="198" t="s">
+        <v>748</v>
+      </c>
+      <c r="EA8" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB8" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC8" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED8" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE8" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF8" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG8" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH8" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI8" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ8" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK8" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL8" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM8" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN8" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO8" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP8" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ8" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER8" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES8" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET8" s="200" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU8" s="200" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV8" s="200" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW8" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX8" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY8" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ8" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA8" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB8" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC8" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD8" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE8" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF8" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG8" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH8" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI8" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ8" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK8" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL8" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM8" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN8" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO8" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP8" s="198">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR8" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS8" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT8" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU8" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV8" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW8" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX8" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY8" s="198"/>
+      <c r="FZ8" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA8" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB8" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC8" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD8" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE8" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF8" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG8" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH8" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI8" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ8" s="198"/>
+      <c r="GK8" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL8" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM8" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN8" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO8" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP8" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ8" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR8" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS8" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT8" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU8" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV8" s="198" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW8" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX8" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY8" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ8" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA8" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB8" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC8" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD8" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE8" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF8" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG8" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH8" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI8" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:217" s="213" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B9" s="203" t="s">
+        <v>814</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>814</v>
+      </c>
+      <c r="D9" s="204" t="s">
+        <v>818</v>
+      </c>
+      <c r="E9" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G9" s="206">
         <v>99887766</v>
       </c>
-      <c r="H7" s="203" t="s">
+      <c r="H9" s="203" t="s">
         <v>543</v>
       </c>
-      <c r="I7" s="203">
+      <c r="I9" s="203">
         <v>14430</v>
       </c>
-      <c r="J7" s="207" t="s">
-        <v>825</v>
-      </c>
-      <c r="K7" s="203" t="s">
+      <c r="J9" s="207" t="s">
+        <v>822</v>
+      </c>
+      <c r="K9" s="203" t="s">
         <v>544</v>
       </c>
-      <c r="L7" s="203" t="s">
+      <c r="L9" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="203" t="s">
+      <c r="M9" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203">
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203">
         <v>15413</v>
       </c>
-      <c r="T7" s="203">
+      <c r="T9" s="203">
         <v>18</v>
       </c>
-      <c r="U7" s="203" t="s">
+      <c r="U9" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="V7" s="203" t="s">
+      <c r="V9" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="W7" s="203" t="s">
+      <c r="W9" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="X7" s="206" t="s">
+      <c r="X9" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203" t="s">
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203" t="s">
         <v>523</v>
       </c>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="206"/>
-      <c r="AF7" s="203"/>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="203"/>
-      <c r="AJ7" s="204"/>
-      <c r="AK7" s="204"/>
-      <c r="AL7" s="203"/>
-      <c r="AM7" s="203"/>
-      <c r="AN7" s="203"/>
-      <c r="AO7" s="203"/>
-      <c r="AP7" s="203"/>
-      <c r="AQ7" s="203"/>
-      <c r="AR7" s="203"/>
-      <c r="AS7" s="204"/>
-      <c r="AT7" s="203"/>
-      <c r="AU7" s="203"/>
-      <c r="AV7" s="203"/>
-      <c r="AW7" s="204"/>
-      <c r="AX7" s="203"/>
-      <c r="AY7" s="203"/>
-      <c r="AZ7" s="203"/>
-      <c r="BA7" s="203"/>
-      <c r="BB7" s="203"/>
-      <c r="BC7" s="203"/>
-      <c r="BD7" s="203"/>
-      <c r="BE7" s="203"/>
-      <c r="BF7" s="203"/>
-      <c r="BG7" s="204"/>
-      <c r="BH7" s="203"/>
-      <c r="BI7" s="203"/>
-      <c r="BJ7" s="203"/>
-      <c r="BK7" s="203"/>
-      <c r="BL7" s="208"/>
-      <c r="BM7" s="203"/>
-      <c r="BN7" s="203"/>
-      <c r="BO7" s="203"/>
-      <c r="BP7" s="203"/>
-      <c r="BQ7" s="203"/>
-      <c r="BR7" s="203"/>
-      <c r="BS7" s="203"/>
-      <c r="BT7" s="203"/>
-      <c r="BU7" s="204"/>
-      <c r="BV7" s="203"/>
-      <c r="BW7" s="203"/>
-      <c r="BX7" s="204"/>
-      <c r="BY7" s="204"/>
-      <c r="BZ7" s="203"/>
-      <c r="CA7" s="203"/>
-      <c r="CB7" s="202"/>
-      <c r="CC7" s="209"/>
-      <c r="CD7" s="210"/>
-      <c r="CE7" s="209"/>
-      <c r="CF7" s="209"/>
-      <c r="CG7" s="209"/>
-      <c r="CH7" s="209"/>
-      <c r="CI7" s="209"/>
-      <c r="CJ7" s="209"/>
-      <c r="CK7" s="209"/>
-      <c r="CL7" s="209"/>
-      <c r="CM7" s="209"/>
-      <c r="CN7" s="209"/>
-      <c r="CO7" s="209"/>
-      <c r="CP7" s="202"/>
-      <c r="CQ7" s="209" t="s">
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="206"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="204"/>
+      <c r="AK9" s="204"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="203"/>
+      <c r="AQ9" s="203"/>
+      <c r="AR9" s="203"/>
+      <c r="AS9" s="204"/>
+      <c r="AT9" s="203"/>
+      <c r="AU9" s="203"/>
+      <c r="AV9" s="203"/>
+      <c r="AW9" s="204"/>
+      <c r="AX9" s="203"/>
+      <c r="AY9" s="203"/>
+      <c r="AZ9" s="203"/>
+      <c r="BA9" s="203"/>
+      <c r="BB9" s="203"/>
+      <c r="BC9" s="203"/>
+      <c r="BD9" s="203"/>
+      <c r="BE9" s="203"/>
+      <c r="BF9" s="203"/>
+      <c r="BG9" s="204"/>
+      <c r="BH9" s="203"/>
+      <c r="BI9" s="203"/>
+      <c r="BJ9" s="203"/>
+      <c r="BK9" s="203"/>
+      <c r="BL9" s="208"/>
+      <c r="BM9" s="203"/>
+      <c r="BN9" s="203"/>
+      <c r="BO9" s="203"/>
+      <c r="BP9" s="203"/>
+      <c r="BQ9" s="203"/>
+      <c r="BR9" s="203"/>
+      <c r="BS9" s="203"/>
+      <c r="BT9" s="203"/>
+      <c r="BU9" s="204"/>
+      <c r="BV9" s="203"/>
+      <c r="BW9" s="203"/>
+      <c r="BX9" s="204"/>
+      <c r="BY9" s="204"/>
+      <c r="BZ9" s="203"/>
+      <c r="CA9" s="203"/>
+      <c r="CB9" s="202"/>
+      <c r="CC9" s="209"/>
+      <c r="CD9" s="210"/>
+      <c r="CE9" s="209"/>
+      <c r="CF9" s="209"/>
+      <c r="CG9" s="209"/>
+      <c r="CH9" s="209"/>
+      <c r="CI9" s="209"/>
+      <c r="CJ9" s="209"/>
+      <c r="CK9" s="209"/>
+      <c r="CL9" s="209"/>
+      <c r="CM9" s="209"/>
+      <c r="CN9" s="209"/>
+      <c r="CO9" s="209"/>
+      <c r="CP9" s="202"/>
+      <c r="CQ9" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="CR7" s="209" t="s">
+      <c r="CR9" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="CS7" s="209" t="s">
+      <c r="CS9" s="209" t="s">
         <v>798</v>
       </c>
-      <c r="CT7" s="209" t="s">
+      <c r="CT9" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="CU7" s="209" t="s">
+      <c r="CU9" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="CV7" s="209" t="s">
+      <c r="CV9" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="CW7" s="209" t="s">
+      <c r="CW9" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="CX7" s="209" t="s">
+      <c r="CX9" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="CY7" s="209" t="s">
+      <c r="CY9" s="209" t="s">
         <v>675</v>
       </c>
-      <c r="CZ7" s="209" t="s">
+      <c r="CZ9" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="DA7" s="209" t="s">
+      <c r="DA9" s="209" t="s">
         <v>676</v>
       </c>
-      <c r="DB7" s="209" t="s">
+      <c r="DB9" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="DC7" s="209" t="s">
+      <c r="DC9" s="209" t="s">
         <v>677</v>
       </c>
-      <c r="DD7" s="209" t="s">
+      <c r="DD9" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="DE7" s="209" t="s">
+      <c r="DE9" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="DF7" s="209" t="s">
+      <c r="DF9" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="DG7" s="209">
+      <c r="DG9" s="209">
         <v>1111222204</v>
       </c>
-      <c r="DH7" s="209" t="str">
-        <f t="shared" si="2"/>
+      <c r="DH9" s="209" t="str">
+        <f t="shared" si="4"/>
         <v>KONSUMEN D</v>
       </c>
-      <c r="DI7" s="209" t="s">
+      <c r="DI9" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="DJ7" s="209" t="s">
+      <c r="DJ9" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="DK7" s="209">
+      <c r="DK9" s="209">
         <v>1111222203</v>
       </c>
-      <c r="DL7" s="209" t="str">
+      <c r="DL9" s="209" t="str">
         <f t="shared" si="0"/>
         <v>KONSUMEN D</v>
       </c>
-      <c r="DM7" s="211" t="s">
+      <c r="DM9" s="211" t="s">
         <v>673</v>
       </c>
-      <c r="DN7" s="209" t="s">
+      <c r="DN9" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="DO7" s="209" t="s">
+      <c r="DO9" s="209" t="s">
         <v>501</v>
       </c>
-      <c r="DP7" s="202" t="s">
+      <c r="DP9" s="202" t="s">
         <v>133</v>
       </c>
-      <c r="DQ7" s="209" t="s">
-        <v>830</v>
-      </c>
-      <c r="DR7" s="209" t="s">
+      <c r="DQ9" s="209" t="s">
+        <v>826</v>
+      </c>
+      <c r="DR9" s="209" t="s">
         <v>800</v>
       </c>
-      <c r="DS7" s="209" t="str">
+      <c r="DS9" s="209" t="str">
         <f t="shared" si="1"/>
         <v>KONSUMEN D</v>
       </c>
-      <c r="DT7" s="209" t="s">
+      <c r="DT9" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="DU7" s="209">
+      <c r="DU9" s="209">
         <v>10</v>
       </c>
-      <c r="DV7" s="209">
+      <c r="DV9" s="209">
         <v>1</v>
       </c>
-      <c r="DW7" s="209">
+      <c r="DW9" s="209">
         <v>10000000</v>
       </c>
-      <c r="DX7" s="211" t="s">
+      <c r="DX9" s="211" t="s">
         <v>685</v>
       </c>
-      <c r="DY7" s="202">
+      <c r="DY9" s="202">
         <v>1122334</v>
       </c>
-      <c r="DZ7" s="209" t="s">
+      <c r="DZ9" s="209" t="s">
         <v>748</v>
       </c>
-      <c r="EA7" s="209" t="s">
+      <c r="EA9" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="EB7" s="209" t="s">
+      <c r="EB9" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="EC7" s="209">
+      <c r="EC9" s="209">
         <v>735947227</v>
       </c>
-      <c r="ED7" s="209" t="s">
+      <c r="ED9" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="EE7" s="209">
+      <c r="EE9" s="209">
         <v>59185</v>
       </c>
-      <c r="EF7" s="209" t="s">
+      <c r="EF9" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="EG7" s="209" t="s">
+      <c r="EG9" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="EH7" s="209" t="s">
+      <c r="EH9" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="EI7" s="209" t="s">
+      <c r="EI9" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="EJ7" s="209" t="s">
+      <c r="EJ9" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="EK7" s="209" t="s">
+      <c r="EK9" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="EL7" s="209" t="s">
+      <c r="EL9" s="209" t="s">
         <v>180</v>
       </c>
-      <c r="EM7" s="209">
+      <c r="EM9" s="209">
         <v>12430</v>
       </c>
-      <c r="EN7" s="209" t="s">
+      <c r="EN9" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="EO7" s="209" t="s">
+      <c r="EO9" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="EP7" s="209" t="s">
+      <c r="EP9" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="EQ7" s="209" t="s">
+      <c r="EQ9" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="ER7" s="209" t="s">
+      <c r="ER9" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="ES7" s="209" t="s">
+      <c r="ES9" s="209" t="s">
         <v>257</v>
       </c>
-      <c r="ET7" s="209" t="s">
+      <c r="ET9" s="209" t="s">
         <v>258</v>
       </c>
-      <c r="EU7" s="209" t="s">
+      <c r="EU9" s="209" t="s">
         <v>589</v>
       </c>
-      <c r="EV7" s="209" t="s">
+      <c r="EV9" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="EW7" s="202" t="s">
+      <c r="EW9" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="EX7" s="209" t="s">
+      <c r="EX9" s="209" t="s">
         <v>804</v>
       </c>
-      <c r="EY7" s="209">
+      <c r="EY9" s="209">
         <v>5238528</v>
       </c>
-      <c r="EZ7" s="209" t="s">
+      <c r="EZ9" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="FA7" s="209" t="s">
+      <c r="FA9" s="209" t="s">
         <v>793</v>
       </c>
-      <c r="FB7" s="209" t="s">
+      <c r="FB9" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="FC7" s="209" t="s">
+      <c r="FC9" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="FD7" s="209" t="s">
+      <c r="FD9" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="FE7" s="209" t="s">
+      <c r="FE9" s="209" t="s">
         <v>393</v>
       </c>
-      <c r="FF7" s="209" t="s">
+      <c r="FF9" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="FG7" s="209">
+      <c r="FG9" s="209">
         <v>2023</v>
       </c>
-      <c r="FH7" s="209" t="s">
+      <c r="FH9" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="FI7" s="209" t="s">
+      <c r="FI9" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="FJ7" s="209" t="s">
+      <c r="FJ9" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="FK7" s="209" t="s">
+      <c r="FK9" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="FL7" s="202" t="s">
+      <c r="FL9" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="FM7" s="209" t="s">
+      <c r="FM9" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="FN7" s="209" t="s">
+      <c r="FN9" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="FO7" s="209">
+      <c r="FO9" s="209">
         <v>15</v>
       </c>
-      <c r="FP7" s="209">
-        <v>200000</v>
-      </c>
-      <c r="FQ7" s="209" t="s">
+      <c r="FP9" s="209">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="209" t="s">
         <v>615</v>
       </c>
-      <c r="FR7" s="209" t="s">
+      <c r="FR9" s="209" t="s">
         <v>234</v>
       </c>
-      <c r="FS7" s="209" t="s">
+      <c r="FS9" s="209" t="s">
         <v>750</v>
       </c>
-      <c r="FT7" s="209" t="s">
+      <c r="FT9" s="209" t="s">
         <v>613</v>
       </c>
-      <c r="FU7" s="209" t="s">
+      <c r="FU9" s="209" t="s">
         <v>614</v>
       </c>
-      <c r="FV7" s="209" t="s">
+      <c r="FV9" s="209" t="s">
         <v>805</v>
       </c>
-      <c r="FW7" s="209">
+      <c r="FW9" s="209">
         <v>250000000</v>
       </c>
-      <c r="FX7" s="209">
+      <c r="FX9" s="209">
         <v>10</v>
       </c>
-      <c r="FY7" s="209"/>
-      <c r="FZ7" s="209">
+      <c r="FY9" s="209"/>
+      <c r="FZ9" s="209">
         <v>24</v>
       </c>
-      <c r="GA7" s="211" t="s">
+      <c r="GA9" s="211" t="s">
         <v>806</v>
       </c>
-      <c r="GB7" s="211" t="s">
+      <c r="GB9" s="211" t="s">
         <v>807</v>
       </c>
-      <c r="GC7" s="209">
+      <c r="GC9" s="209">
         <v>1000000</v>
       </c>
-      <c r="GD7" s="209">
+      <c r="GD9" s="209">
         <v>750000</v>
       </c>
-      <c r="GE7" s="209" t="s">
+      <c r="GE9" s="209" t="s">
         <v>391</v>
       </c>
-      <c r="GF7" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG7" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH7" s="209" t="s">
+      <c r="GF9" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG9" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH9" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="GI7" s="209" t="s">
+      <c r="GI9" s="209" t="s">
         <v>597</v>
       </c>
-      <c r="GJ7" s="209"/>
-      <c r="GK7" s="209">
+      <c r="GJ9" s="209"/>
+      <c r="GK9" s="209">
         <v>250000000</v>
       </c>
-      <c r="GL7" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM7" s="209" t="s">
+      <c r="GL9" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM9" s="209" t="s">
         <v>789</v>
       </c>
-      <c r="GN7" s="209" t="s">
+      <c r="GN9" s="209" t="s">
         <v>790</v>
       </c>
-      <c r="GO7" s="209">
+      <c r="GO9" s="209">
         <v>24</v>
       </c>
-      <c r="GP7" s="209">
+      <c r="GP9" s="209">
         <v>20</v>
       </c>
-      <c r="GQ7" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR7" s="209" t="s">
+      <c r="GQ9" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR9" s="209" t="s">
         <v>244</v>
       </c>
-      <c r="GS7" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT7" s="209" t="s">
+      <c r="GS9" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT9" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="GU7" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV7" s="212" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW7" s="209" t="s">
+      <c r="GU9" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV9" s="212" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW9" s="209" t="s">
         <v>248</v>
       </c>
-      <c r="GX7" s="209" t="s">
+      <c r="GX9" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="GY7" s="202" t="s">
+      <c r="GY9" s="202" t="s">
         <v>250</v>
       </c>
-      <c r="GZ7" s="209">
+      <c r="GZ9" s="209">
         <v>120100</v>
       </c>
-      <c r="HA7" s="209" t="s">
+      <c r="HA9" s="209" t="s">
         <v>501</v>
       </c>
-      <c r="HB7" s="209">
+      <c r="HB9" s="209">
         <v>12430</v>
       </c>
-      <c r="HC7" s="209" t="s">
+      <c r="HC9" s="209" t="s">
         <v>508</v>
       </c>
-      <c r="HD7" s="209" t="s">
+      <c r="HD9" s="209" t="s">
         <v>519</v>
       </c>
-      <c r="HE7" s="209" t="s">
+      <c r="HE9" s="209" t="s">
         <v>511</v>
       </c>
-      <c r="HF7" s="209" t="s">
+      <c r="HF9" s="209" t="s">
         <v>513</v>
       </c>
-      <c r="HG7" s="209" t="s">
+      <c r="HG9" s="209" t="s">
         <v>515</v>
       </c>
-      <c r="HH7" s="209" t="s">
+      <c r="HH9" s="209" t="s">
         <v>517</v>
       </c>
-      <c r="HI7" s="202" t="s">
+      <c r="HI9" s="202" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202" t="s">
+    <row r="10" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="202" t="s">
         <v>633</v>
       </c>
-      <c r="B8" s="203" t="s">
-        <v>816</v>
-      </c>
-      <c r="C8" s="203" t="s">
-        <v>816</v>
-      </c>
-      <c r="D8" s="204" t="s">
-        <v>821</v>
-      </c>
-      <c r="E8" s="205" t="s">
+      <c r="B10" s="203" t="s">
+        <v>815</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="204" t="s">
+        <v>819</v>
+      </c>
+      <c r="E10" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F10" s="204" t="s">
         <v>434</v>
       </c>
-      <c r="G8" s="206">
+      <c r="G10" s="206">
         <v>99887777</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H10" s="203" t="s">
         <v>543</v>
       </c>
-      <c r="I8" s="203">
+      <c r="I10" s="203">
         <v>14430</v>
       </c>
-      <c r="J8" s="207" t="s">
-        <v>826</v>
-      </c>
-      <c r="K8" s="203" t="s">
+      <c r="J10" s="207" t="s">
+        <v>823</v>
+      </c>
+      <c r="K10" s="203" t="s">
         <v>544</v>
       </c>
-      <c r="L8" s="203" t="s">
+      <c r="L10" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="M8" s="203" t="s">
+      <c r="M10" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203">
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203">
         <v>15413</v>
       </c>
-      <c r="T8" s="203">
+      <c r="T10" s="203">
         <v>12</v>
       </c>
-      <c r="U8" s="203" t="s">
+      <c r="U10" s="203" t="s">
         <v>317</v>
       </c>
-      <c r="V8" s="203" t="s">
+      <c r="V10" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="W8" s="203" t="s">
+      <c r="W10" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="206" t="s">
+      <c r="X10" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" s="209"/>
-      <c r="Z8" s="209"/>
-      <c r="AA8" s="209" t="s">
+      <c r="Y10" s="209"/>
+      <c r="Z10" s="209"/>
+      <c r="AA10" s="209" t="s">
         <v>523</v>
       </c>
-      <c r="AB8" s="209"/>
-      <c r="AC8" s="209"/>
-      <c r="AD8" s="209"/>
-      <c r="AE8" s="202"/>
-      <c r="AF8" s="209"/>
-      <c r="AG8" s="209"/>
-      <c r="AH8" s="209"/>
-      <c r="AI8" s="209"/>
-      <c r="AJ8" s="209"/>
-      <c r="AK8" s="209"/>
-      <c r="AL8" s="209"/>
-      <c r="AM8" s="209"/>
-      <c r="AN8" s="209"/>
-      <c r="AO8" s="209"/>
-      <c r="AP8" s="209"/>
-      <c r="AQ8" s="209"/>
-      <c r="AR8" s="209"/>
-      <c r="AS8" s="209"/>
-      <c r="AT8" s="209"/>
-      <c r="AU8" s="209"/>
-      <c r="AV8" s="209"/>
-      <c r="AW8" s="209"/>
-      <c r="AX8" s="209"/>
-      <c r="AY8" s="209"/>
-      <c r="AZ8" s="209"/>
-      <c r="BA8" s="209"/>
-      <c r="BB8" s="209"/>
-      <c r="BC8" s="209"/>
-      <c r="BD8" s="209"/>
-      <c r="BE8" s="209"/>
-      <c r="BF8" s="209"/>
-      <c r="BG8" s="209"/>
-      <c r="BH8" s="209"/>
-      <c r="BI8" s="209"/>
-      <c r="BJ8" s="209"/>
-      <c r="BK8" s="209"/>
-      <c r="BL8" s="202"/>
-      <c r="BM8" s="209"/>
-      <c r="BN8" s="209"/>
-      <c r="BO8" s="209"/>
-      <c r="BP8" s="209"/>
-      <c r="BQ8" s="209"/>
-      <c r="BR8" s="209"/>
-      <c r="BS8" s="209"/>
-      <c r="BT8" s="209"/>
-      <c r="BU8" s="209"/>
-      <c r="BV8" s="209"/>
-      <c r="BW8" s="209"/>
-      <c r="BX8" s="214"/>
-      <c r="BY8" s="211"/>
-      <c r="BZ8" s="209"/>
-      <c r="CA8" s="209"/>
-      <c r="CB8" s="202"/>
-      <c r="CC8" s="209"/>
-      <c r="CD8" s="209"/>
-      <c r="CE8" s="211"/>
-      <c r="CF8" s="209"/>
-      <c r="CG8" s="209"/>
-      <c r="CH8" s="209"/>
-      <c r="CI8" s="209"/>
-      <c r="CJ8" s="209"/>
-      <c r="CK8" s="209"/>
-      <c r="CL8" s="209"/>
-      <c r="CM8" s="209"/>
-      <c r="CN8" s="209"/>
-      <c r="CO8" s="209"/>
-      <c r="CP8" s="202"/>
-      <c r="CQ8" s="209" t="s">
+      <c r="AB10" s="209"/>
+      <c r="AC10" s="209"/>
+      <c r="AD10" s="209"/>
+      <c r="AE10" s="202"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="209"/>
+      <c r="AN10" s="209"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="209"/>
+      <c r="AQ10" s="209"/>
+      <c r="AR10" s="209"/>
+      <c r="AS10" s="209"/>
+      <c r="AT10" s="209"/>
+      <c r="AU10" s="209"/>
+      <c r="AV10" s="209"/>
+      <c r="AW10" s="209"/>
+      <c r="AX10" s="209"/>
+      <c r="AY10" s="209"/>
+      <c r="AZ10" s="209"/>
+      <c r="BA10" s="209"/>
+      <c r="BB10" s="209"/>
+      <c r="BC10" s="209"/>
+      <c r="BD10" s="209"/>
+      <c r="BE10" s="209"/>
+      <c r="BF10" s="209"/>
+      <c r="BG10" s="209"/>
+      <c r="BH10" s="209"/>
+      <c r="BI10" s="209"/>
+      <c r="BJ10" s="209"/>
+      <c r="BK10" s="209"/>
+      <c r="BL10" s="202"/>
+      <c r="BM10" s="209"/>
+      <c r="BN10" s="209"/>
+      <c r="BO10" s="209"/>
+      <c r="BP10" s="209"/>
+      <c r="BQ10" s="209"/>
+      <c r="BR10" s="209"/>
+      <c r="BS10" s="209"/>
+      <c r="BT10" s="209"/>
+      <c r="BU10" s="209"/>
+      <c r="BV10" s="209"/>
+      <c r="BW10" s="209"/>
+      <c r="BX10" s="214"/>
+      <c r="BY10" s="211"/>
+      <c r="BZ10" s="209"/>
+      <c r="CA10" s="209"/>
+      <c r="CB10" s="202"/>
+      <c r="CC10" s="209"/>
+      <c r="CD10" s="209"/>
+      <c r="CE10" s="211"/>
+      <c r="CF10" s="209"/>
+      <c r="CG10" s="209"/>
+      <c r="CH10" s="209"/>
+      <c r="CI10" s="209"/>
+      <c r="CJ10" s="209"/>
+      <c r="CK10" s="209"/>
+      <c r="CL10" s="209"/>
+      <c r="CM10" s="209"/>
+      <c r="CN10" s="209"/>
+      <c r="CO10" s="209"/>
+      <c r="CP10" s="202"/>
+      <c r="CQ10" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="CR8" s="209" t="s">
+      <c r="CR10" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="CS8" s="211" t="s">
+      <c r="CS10" s="211" t="s">
         <v>798</v>
       </c>
-      <c r="CT8" s="209" t="s">
+      <c r="CT10" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="CU8" s="209" t="s">
+      <c r="CU10" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="CV8" s="209" t="s">
+      <c r="CV10" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="CW8" s="209" t="s">
+      <c r="CW10" s="209" t="s">
         <v>102</v>
       </c>
-      <c r="CX8" s="209" t="s">
+      <c r="CX10" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="CY8" s="209">
+      <c r="CY10" s="209">
         <v>2000</v>
       </c>
-      <c r="CZ8" s="209" t="s">
+      <c r="CZ10" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="DA8" s="209">
+      <c r="DA10" s="209">
         <v>10000000</v>
       </c>
-      <c r="DB8" s="209" t="s">
+      <c r="DB10" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="DC8" s="209">
+      <c r="DC10" s="209">
         <v>30000000</v>
       </c>
-      <c r="DD8" s="209" t="s">
+      <c r="DD10" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="DE8" s="209" t="s">
+      <c r="DE10" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="DF8" s="209" t="s">
+      <c r="DF10" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="DG8" s="209">
+      <c r="DG10" s="209">
         <v>1111222201</v>
       </c>
-      <c r="DH8" s="209" t="str">
-        <f t="shared" si="2"/>
+      <c r="DH10" s="209" t="str">
+        <f t="shared" si="4"/>
         <v>KONSUMEN E</v>
       </c>
-      <c r="DI8" s="209" t="s">
+      <c r="DI10" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="DJ8" s="209" t="s">
+      <c r="DJ10" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="DK8" s="209">
+      <c r="DK10" s="209">
         <v>1111222202</v>
       </c>
-      <c r="DL8" s="209" t="str">
+      <c r="DL10" s="209" t="str">
         <f t="shared" si="0"/>
         <v>KONSUMEN E</v>
       </c>
-      <c r="DM8" s="211" t="s">
+      <c r="DM10" s="211" t="s">
         <v>672</v>
       </c>
-      <c r="DN8" s="209" t="s">
+      <c r="DN10" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="DO8" s="209" t="s">
+      <c r="DO10" s="209" t="s">
         <v>501</v>
       </c>
-      <c r="DP8" s="202" t="s">
+      <c r="DP10" s="202" t="s">
         <v>133</v>
       </c>
-      <c r="DQ8" s="209" t="s">
-        <v>831</v>
-      </c>
-      <c r="DR8" s="209" t="s">
+      <c r="DQ10" s="209" t="s">
+        <v>827</v>
+      </c>
+      <c r="DR10" s="209" t="s">
         <v>800</v>
       </c>
-      <c r="DS8" s="209" t="str">
+      <c r="DS10" s="209" t="str">
         <f t="shared" si="1"/>
         <v>KONSUMEN E</v>
       </c>
-      <c r="DT8" s="209" t="s">
+      <c r="DT10" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="DU8" s="209">
+      <c r="DU10" s="209">
         <v>10</v>
       </c>
-      <c r="DV8" s="209">
+      <c r="DV10" s="209">
         <v>1</v>
       </c>
-      <c r="DW8" s="209">
+      <c r="DW10" s="209">
         <v>10000000</v>
       </c>
-      <c r="DX8" s="211" t="s">
+      <c r="DX10" s="211" t="s">
         <v>685</v>
       </c>
-      <c r="DY8" s="202">
+      <c r="DY10" s="202">
         <v>1122335</v>
       </c>
-      <c r="DZ8" s="209" t="s">
+      <c r="DZ10" s="209" t="s">
         <v>748</v>
       </c>
-      <c r="EA8" s="209" t="s">
+      <c r="EA10" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="EB8" s="209" t="s">
+      <c r="EB10" s="209" t="s">
         <v>172</v>
       </c>
-      <c r="EC8" s="209">
+      <c r="EC10" s="209">
         <v>735947227</v>
       </c>
-      <c r="ED8" s="209" t="s">
+      <c r="ED10" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="EE8" s="209">
+      <c r="EE10" s="209">
         <v>59185</v>
       </c>
-      <c r="EF8" s="209" t="s">
+      <c r="EF10" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="EG8" s="209" t="s">
+      <c r="EG10" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="EH8" s="209" t="s">
+      <c r="EH10" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="EI8" s="209" t="s">
+      <c r="EI10" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="EJ8" s="209" t="s">
+      <c r="EJ10" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="EK8" s="209" t="s">
+      <c r="EK10" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="EL8" s="209" t="s">
+      <c r="EL10" s="209" t="s">
         <v>180</v>
       </c>
-      <c r="EM8" s="209">
+      <c r="EM10" s="209">
         <v>12430</v>
       </c>
-      <c r="EN8" s="209" t="s">
+      <c r="EN10" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="EO8" s="209" t="s">
+      <c r="EO10" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="EP8" s="209" t="s">
+      <c r="EP10" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="EQ8" s="209" t="s">
+      <c r="EQ10" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="ER8" s="209" t="s">
+      <c r="ER10" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="ES8" s="209" t="s">
+      <c r="ES10" s="209" t="s">
         <v>257</v>
       </c>
-      <c r="ET8" s="211" t="s">
+      <c r="ET10" s="211" t="s">
         <v>258</v>
       </c>
-      <c r="EU8" s="211" t="s">
+      <c r="EU10" s="211" t="s">
         <v>589</v>
       </c>
-      <c r="EV8" s="211" t="s">
+      <c r="EV10" s="211" t="s">
         <v>175</v>
       </c>
-      <c r="EW8" s="202" t="s">
+      <c r="EW10" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="EX8" s="209" t="s">
+      <c r="EX10" s="209" t="s">
         <v>804</v>
       </c>
-      <c r="EY8" s="209">
+      <c r="EY10" s="209">
         <v>5238528</v>
       </c>
-      <c r="EZ8" s="209" t="s">
+      <c r="EZ10" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="FA8" s="209" t="s">
+      <c r="FA10" s="209" t="s">
         <v>749</v>
       </c>
-      <c r="FB8" s="209" t="s">
+      <c r="FB10" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="FC8" s="209" t="s">
+      <c r="FC10" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="FD8" s="209" t="s">
+      <c r="FD10" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="FE8" s="209" t="s">
+      <c r="FE10" s="209" t="s">
         <v>393</v>
       </c>
-      <c r="FF8" s="209" t="s">
+      <c r="FF10" s="209" t="s">
         <v>149</v>
       </c>
-      <c r="FG8" s="209">
+      <c r="FG10" s="209">
         <v>2023</v>
       </c>
-      <c r="FH8" s="209" t="s">
+      <c r="FH10" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="FI8" s="209" t="s">
+      <c r="FI10" s="209" t="s">
         <v>203</v>
       </c>
-      <c r="FJ8" s="209" t="s">
+      <c r="FJ10" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="FK8" s="209" t="s">
+      <c r="FK10" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="FL8" s="202" t="s">
+      <c r="FL10" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="FM8" s="209" t="s">
+      <c r="FM10" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="FN8" s="209" t="s">
+      <c r="FN10" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="FO8" s="209">
+      <c r="FO10" s="209">
         <v>15</v>
       </c>
-      <c r="FP8" s="209">
-        <v>200000</v>
-      </c>
-      <c r="FQ8" s="209" t="s">
+      <c r="FP10" s="209">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="209" t="s">
         <v>615</v>
       </c>
-      <c r="FR8" s="209" t="s">
+      <c r="FR10" s="209" t="s">
         <v>234</v>
       </c>
-      <c r="FS8" s="209" t="s">
+      <c r="FS10" s="209" t="s">
         <v>750</v>
       </c>
-      <c r="FT8" s="209" t="s">
+      <c r="FT10" s="209" t="s">
         <v>613</v>
       </c>
-      <c r="FU8" s="209" t="s">
+      <c r="FU10" s="209" t="s">
         <v>614</v>
       </c>
-      <c r="FV8" s="209" t="s">
+      <c r="FV10" s="209" t="s">
         <v>805</v>
       </c>
-      <c r="FW8" s="209">
+      <c r="FW10" s="209">
         <v>250000000</v>
       </c>
-      <c r="FX8" s="209">
+      <c r="FX10" s="209">
         <v>10</v>
       </c>
-      <c r="FY8" s="209"/>
-      <c r="FZ8" s="209">
+      <c r="FY10" s="209"/>
+      <c r="FZ10" s="209">
         <v>24</v>
       </c>
-      <c r="GA8" s="211" t="s">
+      <c r="GA10" s="211" t="s">
         <v>806</v>
       </c>
-      <c r="GB8" s="211" t="s">
+      <c r="GB10" s="211" t="s">
         <v>807</v>
       </c>
-      <c r="GC8" s="209">
+      <c r="GC10" s="209">
         <v>1000000</v>
       </c>
-      <c r="GD8" s="209">
+      <c r="GD10" s="209">
         <v>750000</v>
       </c>
-      <c r="GE8" s="209" t="s">
+      <c r="GE10" s="209" t="s">
         <v>391</v>
       </c>
-      <c r="GF8" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG8" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH8" s="209" t="s">
+      <c r="GF10" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG10" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH10" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="GI8" s="209" t="s">
+      <c r="GI10" s="209" t="s">
         <v>597</v>
       </c>
-      <c r="GJ8" s="209"/>
-      <c r="GK8" s="209">
+      <c r="GJ10" s="209"/>
+      <c r="GK10" s="209">
         <v>250000000</v>
       </c>
-      <c r="GL8" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM8" s="209" t="s">
+      <c r="GL10" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM10" s="209" t="s">
         <v>789</v>
       </c>
-      <c r="GN8" s="209" t="s">
+      <c r="GN10" s="209" t="s">
         <v>790</v>
       </c>
-      <c r="GO8" s="209">
+      <c r="GO10" s="209">
         <v>24</v>
       </c>
-      <c r="GP8" s="209">
+      <c r="GP10" s="209">
         <v>20</v>
       </c>
-      <c r="GQ8" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR8" s="209" t="s">
+      <c r="GQ10" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR10" s="209" t="s">
         <v>244</v>
       </c>
-      <c r="GS8" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT8" s="209" t="s">
+      <c r="GS10" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT10" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="GU8" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV8" s="209" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW8" s="209" t="s">
+      <c r="GU10" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV10" s="209" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW10" s="209" t="s">
         <v>248</v>
       </c>
-      <c r="GX8" s="209" t="s">
+      <c r="GX10" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="GY8" s="202" t="s">
+      <c r="GY10" s="202" t="s">
         <v>250</v>
       </c>
-      <c r="GZ8" s="209">
+      <c r="GZ10" s="209">
         <v>120100</v>
       </c>
-      <c r="HA8" s="209" t="s">
+      <c r="HA10" s="209" t="s">
         <v>501</v>
       </c>
-      <c r="HB8" s="209">
+      <c r="HB10" s="209">
         <v>12430</v>
       </c>
-      <c r="HC8" s="209" t="s">
+      <c r="HC10" s="209" t="s">
         <v>508</v>
       </c>
-      <c r="HD8" s="209" t="s">
+      <c r="HD10" s="209" t="s">
         <v>519</v>
       </c>
-      <c r="HE8" s="209" t="s">
+      <c r="HE10" s="209" t="s">
         <v>511</v>
       </c>
-      <c r="HF8" s="209" t="s">
+      <c r="HF10" s="209" t="s">
         <v>513</v>
       </c>
-      <c r="HG8" s="209" t="s">
+      <c r="HG10" s="209" t="s">
         <v>515</v>
       </c>
-      <c r="HH8" s="209" t="s">
+      <c r="HH10" s="209" t="s">
         <v>517</v>
       </c>
-      <c r="HI8" s="202" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192" t="s">
-        <v>633</v>
-      </c>
-      <c r="B9" s="193" t="s">
-        <v>832</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>832</v>
-      </c>
-      <c r="D9" s="194" t="s">
-        <v>833</v>
-      </c>
-      <c r="E9" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="194" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="196">
-        <v>99887711</v>
-      </c>
-      <c r="H9" s="193" t="s">
-        <v>543</v>
-      </c>
-      <c r="I9" s="193">
-        <v>14430</v>
-      </c>
-      <c r="J9" s="197" t="s">
-        <v>839</v>
-      </c>
-      <c r="K9" s="193" t="s">
-        <v>544</v>
-      </c>
-      <c r="L9" s="193" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" s="193" t="s">
-        <v>416</v>
-      </c>
-      <c r="N9" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="O9" s="193">
-        <v>15413</v>
-      </c>
-      <c r="P9" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="193" t="s">
-        <v>484</v>
-      </c>
-      <c r="R9" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" s="193">
-        <v>15413</v>
-      </c>
-      <c r="T9" s="193">
-        <v>0</v>
-      </c>
-      <c r="U9" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="V9" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="W9" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="196" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG9" s="198" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH9" s="198" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI9" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="AJ9" s="198">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="198"/>
-      <c r="AL9" s="198">
-        <v>24</v>
-      </c>
-      <c r="AM9" s="198" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN9" s="198">
-        <v>6</v>
-      </c>
-      <c r="AO9" s="198">
-        <v>1000000</v>
-      </c>
-      <c r="AP9" s="198">
-        <v>750000</v>
-      </c>
-      <c r="AQ9" s="198" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT9" s="198" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU9" s="198" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV9" s="198" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW9" s="198" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX9" s="198">
-        <v>2024</v>
-      </c>
-      <c r="AY9" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ9" s="198" t="s">
-        <v>597</v>
-      </c>
-      <c r="BA9" s="198"/>
-      <c r="BB9" s="198"/>
-      <c r="BC9" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="BD9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE9" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF9" s="198" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG9" s="198" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH9" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ9" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL9" s="215" t="s">
-        <v>665</v>
-      </c>
-      <c r="BM9" s="198" t="s">
-        <v>540</v>
-      </c>
-      <c r="BN9" s="198" t="s">
-        <v>541</v>
-      </c>
-      <c r="BO9" s="198"/>
-      <c r="BP9" s="198"/>
-      <c r="BQ9" s="198" t="s">
-        <v>550</v>
-      </c>
-      <c r="BR9" s="198" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS9" s="198" t="s">
-        <v>434</v>
-      </c>
-      <c r="BT9" s="198">
-        <v>99887711</v>
-      </c>
-      <c r="BU9" s="199" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV9" s="198" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW9" s="198">
-        <v>3266270707071000</v>
-      </c>
-      <c r="BX9" s="199" t="s">
-        <v>350</v>
-      </c>
-      <c r="BY9" s="200" t="s">
-        <v>671</v>
-      </c>
-      <c r="BZ9" s="198">
-        <v>3213115323</v>
-      </c>
-      <c r="CA9" s="198" t="s">
-        <v>376</v>
-      </c>
-      <c r="CB9" s="192" t="s">
-        <v>543</v>
-      </c>
-      <c r="CC9" s="198">
-        <v>14430</v>
-      </c>
-      <c r="CD9" s="216" t="s">
-        <v>668</v>
-      </c>
-      <c r="CE9" s="200" t="s">
-        <v>544</v>
-      </c>
-      <c r="CF9" s="198" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG9" s="198" t="s">
-        <v>416</v>
-      </c>
-      <c r="CH9" s="198">
-        <v>15413</v>
-      </c>
-      <c r="CI9" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ9" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK9" s="198" t="s">
-        <v>484</v>
-      </c>
-      <c r="CL9" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM9" s="198">
-        <v>15413</v>
-      </c>
-      <c r="CN9" s="198">
-        <v>12</v>
-      </c>
-      <c r="CO9" s="198" t="s">
-        <v>317</v>
-      </c>
-      <c r="CP9" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ9" s="198" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR9" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="200" t="s">
-        <v>798</v>
-      </c>
-      <c r="CT9" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU9" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV9" s="198" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW9" s="198" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX9" s="198" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY9" s="198">
-        <v>2000</v>
-      </c>
-      <c r="CZ9" s="198" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA9" s="198">
-        <v>10000000</v>
-      </c>
-      <c r="DB9" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC9" s="198">
-        <v>30000000</v>
-      </c>
-      <c r="DD9" s="198" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE9" s="198" t="s">
-        <v>109</v>
-      </c>
-      <c r="DF9" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG9" s="198">
-        <v>1111222205</v>
-      </c>
-      <c r="DH9" s="198" t="str">
-        <f t="shared" si="2"/>
-        <v>KONSUMEN F</v>
-      </c>
-      <c r="DI9" s="198" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ9" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="DK9" s="198"/>
-      <c r="DL9" s="198"/>
-      <c r="DM9" s="198"/>
-      <c r="DN9" s="198"/>
-      <c r="DO9" s="198" t="s">
-        <v>501</v>
-      </c>
-      <c r="DP9" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="DQ9" s="198" t="s">
-        <v>683</v>
-      </c>
-      <c r="DR9" s="198" t="s">
-        <v>802</v>
-      </c>
-      <c r="DS9" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="DT9" s="198" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU9" s="198">
-        <v>10</v>
-      </c>
-      <c r="DV9" s="198">
-        <v>1</v>
-      </c>
-      <c r="DW9" s="198">
-        <v>10000000</v>
-      </c>
-      <c r="DX9" s="200" t="s">
-        <v>685</v>
-      </c>
-      <c r="DY9" s="192">
-        <v>1122333</v>
-      </c>
-      <c r="DZ9" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA9" s="198" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB9" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC9" s="198">
-        <v>735947227</v>
-      </c>
-      <c r="ED9" s="198" t="s">
-        <v>173</v>
-      </c>
-      <c r="EE9" s="198">
-        <v>59185</v>
-      </c>
-      <c r="EF9" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="EG9" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH9" s="198" t="s">
-        <v>176</v>
-      </c>
-      <c r="EI9" s="198" t="s">
-        <v>177</v>
-      </c>
-      <c r="EJ9" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="EK9" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="EL9" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM9" s="198">
-        <v>12430</v>
-      </c>
-      <c r="EN9" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="EO9" s="198" t="s">
-        <v>178</v>
-      </c>
-      <c r="EP9" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="EQ9" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="ER9" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="ES9" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="ET9" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="EU9" s="198" t="s">
-        <v>589</v>
-      </c>
-      <c r="EV9" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW9" s="192" t="s">
-        <v>181</v>
-      </c>
-      <c r="EX9" s="198" t="s">
-        <v>804</v>
-      </c>
-      <c r="EY9" s="198">
-        <v>5238528</v>
-      </c>
-      <c r="EZ9" s="198" t="s">
-        <v>185</v>
-      </c>
-      <c r="FA9" s="198" t="s">
-        <v>749</v>
-      </c>
-      <c r="FB9" s="198" t="s">
-        <v>200</v>
-      </c>
-      <c r="FC9" s="198" t="s">
-        <v>201</v>
-      </c>
-      <c r="FD9" s="198" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE9" s="198" t="s">
-        <v>393</v>
-      </c>
-      <c r="FF9" s="198" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG9" s="198">
-        <v>2023</v>
-      </c>
-      <c r="FH9" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="FI9" s="198" t="s">
-        <v>203</v>
-      </c>
-      <c r="FJ9" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK9" s="198" t="s">
-        <v>204</v>
-      </c>
-      <c r="FL9" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM9" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="FN9" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="FO9" s="198">
-        <v>15</v>
-      </c>
-      <c r="FP9" s="198">
-        <v>200000</v>
-      </c>
-      <c r="FQ9" s="198" t="s">
-        <v>615</v>
-      </c>
-      <c r="FR9" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS9" s="198" t="s">
-        <v>750</v>
-      </c>
-      <c r="FT9" s="198" t="s">
-        <v>613</v>
-      </c>
-      <c r="FU9" s="198" t="s">
-        <v>614</v>
-      </c>
-      <c r="FV9" s="198" t="s">
-        <v>805</v>
-      </c>
-      <c r="FW9" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="FX9" s="198">
-        <v>10</v>
-      </c>
-      <c r="FY9" s="198"/>
-      <c r="FZ9" s="198">
-        <v>24</v>
-      </c>
-      <c r="GA9" s="200" t="s">
-        <v>806</v>
-      </c>
-      <c r="GB9" s="200" t="s">
-        <v>807</v>
-      </c>
-      <c r="GC9" s="198">
-        <v>1000000</v>
-      </c>
-      <c r="GD9" s="198">
-        <v>750000</v>
-      </c>
-      <c r="GE9" s="198" t="s">
-        <v>391</v>
-      </c>
-      <c r="GF9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH9" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="GI9" s="198" t="s">
-        <v>597</v>
-      </c>
-      <c r="GJ9" s="198"/>
-      <c r="GK9" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="GL9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM9" s="198" t="s">
-        <v>789</v>
-      </c>
-      <c r="GN9" s="198" t="s">
-        <v>790</v>
-      </c>
-      <c r="GO9" s="198">
-        <v>24</v>
-      </c>
-      <c r="GP9" s="198">
-        <v>20</v>
-      </c>
-      <c r="GQ9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR9" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="GS9" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT9" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="GU9" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV9" s="217" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW9" s="198" t="s">
-        <v>248</v>
-      </c>
-      <c r="GX9" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="GY9" s="192" t="s">
-        <v>250</v>
-      </c>
-      <c r="GZ9" s="198">
-        <v>120100</v>
-      </c>
-      <c r="HA9" s="198" t="s">
-        <v>501</v>
-      </c>
-      <c r="HB9" s="198">
-        <v>12430</v>
-      </c>
-      <c r="HC9" s="198" t="s">
-        <v>508</v>
-      </c>
-      <c r="HD9" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="HE9" s="198" t="s">
-        <v>511</v>
-      </c>
-      <c r="HF9" s="198" t="s">
-        <v>513</v>
-      </c>
-      <c r="HG9" s="198" t="s">
-        <v>515</v>
-      </c>
-      <c r="HH9" s="198" t="s">
-        <v>517</v>
-      </c>
-      <c r="HI9" s="192" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192" t="s">
-        <v>633</v>
-      </c>
-      <c r="B10" s="193" t="s">
-        <v>834</v>
-      </c>
-      <c r="C10" s="193" t="s">
-        <v>834</v>
-      </c>
-      <c r="D10" s="194" t="s">
-        <v>835</v>
-      </c>
-      <c r="E10" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="194" t="s">
-        <v>434</v>
-      </c>
-      <c r="G10" s="196">
-        <v>99887711</v>
-      </c>
-      <c r="H10" s="193" t="s">
-        <v>543</v>
-      </c>
-      <c r="I10" s="193">
-        <v>14430</v>
-      </c>
-      <c r="J10" s="197" t="s">
-        <v>839</v>
-      </c>
-      <c r="K10" s="193" t="s">
-        <v>544</v>
-      </c>
-      <c r="L10" s="193" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="193" t="s">
-        <v>416</v>
-      </c>
-      <c r="N10" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10" s="193">
-        <v>15413</v>
-      </c>
-      <c r="P10" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10" s="193" t="s">
-        <v>484</v>
-      </c>
-      <c r="R10" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="193">
-        <v>15413</v>
-      </c>
-      <c r="T10" s="193">
-        <v>0</v>
-      </c>
-      <c r="U10" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="V10" s="193" t="s">
-        <v>391</v>
-      </c>
-      <c r="W10" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="196" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="193"/>
-      <c r="AE10" s="196"/>
-      <c r="AF10" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG10" s="198" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH10" s="198" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI10" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="AJ10" s="198">
-        <v>10</v>
-      </c>
-      <c r="AK10" s="198"/>
-      <c r="AL10" s="198">
-        <v>24</v>
-      </c>
-      <c r="AM10" s="198" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN10" s="198">
-        <v>6</v>
-      </c>
-      <c r="AO10" s="198">
-        <v>1000000</v>
-      </c>
-      <c r="AP10" s="198">
-        <v>750000</v>
-      </c>
-      <c r="AQ10" s="198" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT10" s="198" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU10" s="198" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV10" s="198" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW10" s="198" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX10" s="198">
-        <v>2024</v>
-      </c>
-      <c r="AY10" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ10" s="198" t="s">
-        <v>597</v>
-      </c>
-      <c r="BA10" s="198"/>
-      <c r="BB10" s="198"/>
-      <c r="BC10" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="BD10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE10" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF10" s="198" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG10" s="198" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH10" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ10" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL10" s="215" t="s">
-        <v>665</v>
-      </c>
-      <c r="BM10" s="198" t="s">
-        <v>540</v>
-      </c>
-      <c r="BN10" s="198" t="s">
-        <v>541</v>
-      </c>
-      <c r="BO10" s="198"/>
-      <c r="BP10" s="198"/>
-      <c r="BQ10" s="198" t="s">
-        <v>550</v>
-      </c>
-      <c r="BR10" s="198" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS10" s="198" t="s">
-        <v>434</v>
-      </c>
-      <c r="BT10" s="198">
-        <v>99887711</v>
-      </c>
-      <c r="BU10" s="199" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV10" s="198" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW10" s="198">
-        <v>3266270707071000</v>
-      </c>
-      <c r="BX10" s="199" t="s">
-        <v>350</v>
-      </c>
-      <c r="BY10" s="200" t="s">
-        <v>671</v>
-      </c>
-      <c r="BZ10" s="198">
-        <v>3213115323</v>
-      </c>
-      <c r="CA10" s="198" t="s">
-        <v>376</v>
-      </c>
-      <c r="CB10" s="192" t="s">
-        <v>543</v>
-      </c>
-      <c r="CC10" s="198">
-        <v>14430</v>
-      </c>
-      <c r="CD10" s="216" t="s">
-        <v>668</v>
-      </c>
-      <c r="CE10" s="200" t="s">
-        <v>544</v>
-      </c>
-      <c r="CF10" s="198" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG10" s="198" t="s">
-        <v>416</v>
-      </c>
-      <c r="CH10" s="198">
-        <v>15413</v>
-      </c>
-      <c r="CI10" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ10" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK10" s="198" t="s">
-        <v>484</v>
-      </c>
-      <c r="CL10" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM10" s="198">
-        <v>15413</v>
-      </c>
-      <c r="CN10" s="198">
-        <v>12</v>
-      </c>
-      <c r="CO10" s="198" t="s">
-        <v>317</v>
-      </c>
-      <c r="CP10" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ10" s="198" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR10" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="200" t="s">
-        <v>798</v>
-      </c>
-      <c r="CT10" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU10" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV10" s="198" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW10" s="198" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX10" s="198" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY10" s="198">
-        <v>2000</v>
-      </c>
-      <c r="CZ10" s="198" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA10" s="198">
-        <v>10000000</v>
-      </c>
-      <c r="DB10" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC10" s="198">
-        <v>30000000</v>
-      </c>
-      <c r="DD10" s="198" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE10" s="198" t="s">
-        <v>109</v>
-      </c>
-      <c r="DF10" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG10" s="198">
-        <v>1111222205</v>
-      </c>
-      <c r="DH10" s="198" t="str">
-        <f t="shared" si="2"/>
-        <v>KONSUMEN G</v>
-      </c>
-      <c r="DI10" s="198" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ10" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="DK10" s="198"/>
-      <c r="DL10" s="198"/>
-      <c r="DM10" s="198"/>
-      <c r="DN10" s="198"/>
-      <c r="DO10" s="198" t="s">
-        <v>501</v>
-      </c>
-      <c r="DP10" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="DQ10" s="198" t="s">
-        <v>683</v>
-      </c>
-      <c r="DR10" s="198" t="s">
-        <v>802</v>
-      </c>
-      <c r="DS10" s="198" t="s">
-        <v>243</v>
-      </c>
-      <c r="DT10" s="198" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU10" s="198">
-        <v>10</v>
-      </c>
-      <c r="DV10" s="198">
-        <v>1</v>
-      </c>
-      <c r="DW10" s="198">
-        <v>10000000</v>
-      </c>
-      <c r="DX10" s="200" t="s">
-        <v>685</v>
-      </c>
-      <c r="DY10" s="192">
-        <v>1122333</v>
-      </c>
-      <c r="DZ10" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA10" s="198" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB10" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC10" s="198">
-        <v>735947227</v>
-      </c>
-      <c r="ED10" s="198" t="s">
-        <v>173</v>
-      </c>
-      <c r="EE10" s="198">
-        <v>59185</v>
-      </c>
-      <c r="EF10" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="EG10" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH10" s="198" t="s">
-        <v>176</v>
-      </c>
-      <c r="EI10" s="198" t="s">
-        <v>177</v>
-      </c>
-      <c r="EJ10" s="198" t="s">
-        <v>26</v>
-      </c>
-      <c r="EK10" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="EL10" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM10" s="198">
-        <v>12430</v>
-      </c>
-      <c r="EN10" s="198" t="s">
-        <v>182</v>
-      </c>
-      <c r="EO10" s="198" t="s">
-        <v>178</v>
-      </c>
-      <c r="EP10" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="EQ10" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="ER10" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="ES10" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="ET10" s="198" t="s">
-        <v>258</v>
-      </c>
-      <c r="EU10" s="198" t="s">
-        <v>589</v>
-      </c>
-      <c r="EV10" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW10" s="192" t="s">
-        <v>181</v>
-      </c>
-      <c r="EX10" s="198" t="s">
-        <v>804</v>
-      </c>
-      <c r="EY10" s="198">
-        <v>5238528</v>
-      </c>
-      <c r="EZ10" s="198" t="s">
-        <v>185</v>
-      </c>
-      <c r="FA10" s="198" t="s">
-        <v>749</v>
-      </c>
-      <c r="FB10" s="198" t="s">
-        <v>200</v>
-      </c>
-      <c r="FC10" s="198" t="s">
-        <v>201</v>
-      </c>
-      <c r="FD10" s="198" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE10" s="198" t="s">
-        <v>393</v>
-      </c>
-      <c r="FF10" s="198" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG10" s="198">
-        <v>2023</v>
-      </c>
-      <c r="FH10" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="FI10" s="198" t="s">
-        <v>203</v>
-      </c>
-      <c r="FJ10" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK10" s="198" t="s">
-        <v>204</v>
-      </c>
-      <c r="FL10" s="192" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM10" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="FN10" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="FO10" s="198">
-        <v>15</v>
-      </c>
-      <c r="FP10" s="198">
-        <v>200000</v>
-      </c>
-      <c r="FQ10" s="198" t="s">
-        <v>615</v>
-      </c>
-      <c r="FR10" s="198" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS10" s="198" t="s">
-        <v>750</v>
-      </c>
-      <c r="FT10" s="198" t="s">
-        <v>613</v>
-      </c>
-      <c r="FU10" s="198" t="s">
-        <v>614</v>
-      </c>
-      <c r="FV10" s="198" t="s">
-        <v>805</v>
-      </c>
-      <c r="FW10" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="FX10" s="198">
-        <v>10</v>
-      </c>
-      <c r="FY10" s="198"/>
-      <c r="FZ10" s="198">
-        <v>24</v>
-      </c>
-      <c r="GA10" s="200" t="s">
-        <v>806</v>
-      </c>
-      <c r="GB10" s="200" t="s">
-        <v>807</v>
-      </c>
-      <c r="GC10" s="198">
-        <v>1000000</v>
-      </c>
-      <c r="GD10" s="198">
-        <v>750000</v>
-      </c>
-      <c r="GE10" s="198" t="s">
-        <v>391</v>
-      </c>
-      <c r="GF10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH10" s="198" t="s">
-        <v>318</v>
-      </c>
-      <c r="GI10" s="198" t="s">
-        <v>597</v>
-      </c>
-      <c r="GJ10" s="198"/>
-      <c r="GK10" s="198">
-        <v>250000000</v>
-      </c>
-      <c r="GL10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM10" s="198" t="s">
-        <v>789</v>
-      </c>
-      <c r="GN10" s="198" t="s">
-        <v>790</v>
-      </c>
-      <c r="GO10" s="198">
-        <v>24</v>
-      </c>
-      <c r="GP10" s="198">
-        <v>20</v>
-      </c>
-      <c r="GQ10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR10" s="198" t="s">
-        <v>244</v>
-      </c>
-      <c r="GS10" s="198" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT10" s="198" t="s">
-        <v>237</v>
-      </c>
-      <c r="GU10" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV10" s="217" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW10" s="198" t="s">
-        <v>248</v>
-      </c>
-      <c r="GX10" s="198" t="s">
-        <v>250</v>
-      </c>
-      <c r="GY10" s="192" t="s">
-        <v>250</v>
-      </c>
-      <c r="GZ10" s="198">
-        <v>120100</v>
-      </c>
-      <c r="HA10" s="198" t="s">
-        <v>501</v>
-      </c>
-      <c r="HB10" s="198">
-        <v>12430</v>
-      </c>
-      <c r="HC10" s="198" t="s">
-        <v>508</v>
-      </c>
-      <c r="HD10" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="HE10" s="198" t="s">
-        <v>511</v>
-      </c>
-      <c r="HF10" s="198" t="s">
-        <v>513</v>
-      </c>
-      <c r="HG10" s="198" t="s">
-        <v>515</v>
-      </c>
-      <c r="HH10" s="198" t="s">
-        <v>517</v>
-      </c>
-      <c r="HI10" s="192" t="s">
+      <c r="HI10" s="202" t="s">
         <v>105</v>
       </c>
     </row>
@@ -20610,13 +20618,13 @@
         <v>633</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D11" s="194" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E11" s="195" t="s">
         <v>347</v>
@@ -20634,7 +20642,7 @@
         <v>14430</v>
       </c>
       <c r="J11" s="197" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K11" s="193" t="s">
         <v>544</v>
@@ -20918,8 +20926,8 @@
         <v>1111222205</v>
       </c>
       <c r="DH11" s="198" t="str">
-        <f t="shared" si="2"/>
-        <v>KONSUMEN H</v>
+        <f t="shared" si="4"/>
+        <v>KONSUMEN F</v>
       </c>
       <c r="DI11" s="198" t="s">
         <v>114</v>
@@ -21091,7 +21099,7 @@
         <v>15</v>
       </c>
       <c r="FP11" s="198">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="FQ11" s="198" t="s">
         <v>615</v>
@@ -21183,7 +21191,7 @@
         <v>233</v>
       </c>
       <c r="GV11" s="217" t="s">
-        <v>246</v>
+        <v>850</v>
       </c>
       <c r="GW11" s="198" t="s">
         <v>248</v>
@@ -21225,1892 +21233,3135 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202" t="s">
+    <row r="12" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="192" t="s">
         <v>633</v>
       </c>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="193" t="s">
+        <v>830</v>
+      </c>
+      <c r="C12" s="193" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="194" t="s">
+        <v>831</v>
+      </c>
+      <c r="E12" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="196">
+        <v>99887711</v>
+      </c>
+      <c r="H12" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I12" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J12" s="197" t="s">
+        <v>835</v>
+      </c>
+      <c r="K12" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L12" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N12" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P12" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="193" t="s">
+        <v>484</v>
+      </c>
+      <c r="R12" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T12" s="193">
+        <v>0</v>
+      </c>
+      <c r="U12" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="V12" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W12" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG12" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH12" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI12" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ12" s="198">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="198"/>
+      <c r="AL12" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN12" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP12" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ12" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT12" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU12" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV12" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW12" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX12" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY12" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ12" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA12" s="198"/>
+      <c r="BB12" s="198"/>
+      <c r="BC12" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE12" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF12" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG12" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH12" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ12" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL12" s="215" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM12" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN12" s="198" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO12" s="198"/>
+      <c r="BP12" s="198"/>
+      <c r="BQ12" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR12" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS12" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT12" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU12" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV12" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW12" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX12" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY12" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ12" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA12" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB12" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC12" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD12" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE12" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF12" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG12" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH12" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI12" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ12" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK12" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL12" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM12" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN12" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO12" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP12" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ12" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR12" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT12" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU12" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV12" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW12" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX12" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY12" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ12" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA12" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB12" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC12" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD12" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE12" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF12" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG12" s="198">
+        <v>1111222205</v>
+      </c>
+      <c r="DH12" s="198" t="str">
+        <f t="shared" si="4"/>
+        <v>KONSUMEN G</v>
+      </c>
+      <c r="DI12" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ12" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK12" s="198"/>
+      <c r="DL12" s="198"/>
+      <c r="DM12" s="198"/>
+      <c r="DN12" s="198"/>
+      <c r="DO12" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP12" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ12" s="198" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR12" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS12" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT12" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU12" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV12" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW12" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX12" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY12" s="192">
+        <v>1122333</v>
+      </c>
+      <c r="DZ12" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA12" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB12" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC12" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED12" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE12" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF12" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG12" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH12" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI12" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ12" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK12" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL12" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM12" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN12" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO12" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP12" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ12" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER12" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES12" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET12" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU12" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV12" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW12" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX12" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY12" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ12" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA12" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB12" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC12" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD12" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE12" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF12" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG12" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH12" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI12" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ12" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK12" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL12" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM12" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN12" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO12" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP12" s="198">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR12" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS12" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT12" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU12" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV12" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW12" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX12" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY12" s="198"/>
+      <c r="FZ12" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA12" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB12" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC12" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD12" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE12" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH12" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI12" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ12" s="198"/>
+      <c r="GK12" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM12" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN12" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO12" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP12" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR12" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS12" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT12" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU12" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV12" s="217" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW12" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX12" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY12" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ12" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA12" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB12" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC12" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD12" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE12" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF12" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG12" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH12" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI12" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:217" s="201" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="192" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" s="193" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" s="193" t="s">
+        <v>832</v>
+      </c>
+      <c r="D13" s="194" t="s">
+        <v>833</v>
+      </c>
+      <c r="E13" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="194" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="196">
+        <v>99887711</v>
+      </c>
+      <c r="H13" s="193" t="s">
+        <v>543</v>
+      </c>
+      <c r="I13" s="193">
+        <v>14430</v>
+      </c>
+      <c r="J13" s="197" t="s">
+        <v>834</v>
+      </c>
+      <c r="K13" s="193" t="s">
+        <v>544</v>
+      </c>
+      <c r="L13" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="N13" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="193">
+        <v>15413</v>
+      </c>
+      <c r="P13" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="193" t="s">
+        <v>484</v>
+      </c>
+      <c r="R13" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" s="193">
+        <v>15413</v>
+      </c>
+      <c r="T13" s="193">
+        <v>0</v>
+      </c>
+      <c r="U13" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="V13" s="193" t="s">
+        <v>391</v>
+      </c>
+      <c r="W13" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG13" s="198" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH13" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI13" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="AJ13" s="198">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="198"/>
+      <c r="AL13" s="198">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="198" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN13" s="198">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="AP13" s="198">
+        <v>750000</v>
+      </c>
+      <c r="AQ13" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT13" s="198" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU13" s="198" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV13" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW13" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX13" s="198">
+        <v>2024</v>
+      </c>
+      <c r="AY13" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ13" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA13" s="198"/>
+      <c r="BB13" s="198"/>
+      <c r="BC13" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="BD13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE13" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF13" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG13" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH13" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ13" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL13" s="215" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM13" s="198" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN13" s="198" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO13" s="198"/>
+      <c r="BP13" s="198"/>
+      <c r="BQ13" s="198" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR13" s="198" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS13" s="198" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT13" s="198">
+        <v>99887711</v>
+      </c>
+      <c r="BU13" s="199" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV13" s="198" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW13" s="198">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX13" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY13" s="200" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ13" s="198">
+        <v>3213115323</v>
+      </c>
+      <c r="CA13" s="198" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB13" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC13" s="198">
+        <v>14430</v>
+      </c>
+      <c r="CD13" s="216" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE13" s="200" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF13" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG13" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH13" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CI13" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ13" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK13" s="198" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL13" s="198" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM13" s="198">
+        <v>15413</v>
+      </c>
+      <c r="CN13" s="198">
+        <v>12</v>
+      </c>
+      <c r="CO13" s="198" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP13" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ13" s="198" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR13" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="200" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT13" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU13" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV13" s="198" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW13" s="198" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX13" s="198" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY13" s="198">
+        <v>2000</v>
+      </c>
+      <c r="CZ13" s="198" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA13" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DB13" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC13" s="198">
+        <v>30000000</v>
+      </c>
+      <c r="DD13" s="198" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE13" s="198" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF13" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG13" s="198">
+        <v>1111222205</v>
+      </c>
+      <c r="DH13" s="198" t="str">
+        <f t="shared" si="4"/>
+        <v>KONSUMEN H</v>
+      </c>
+      <c r="DI13" s="198" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ13" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK13" s="198"/>
+      <c r="DL13" s="198"/>
+      <c r="DM13" s="198"/>
+      <c r="DN13" s="198"/>
+      <c r="DO13" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP13" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ13" s="198" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR13" s="198" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS13" s="198" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT13" s="198" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU13" s="198">
+        <v>10</v>
+      </c>
+      <c r="DV13" s="198">
+        <v>1</v>
+      </c>
+      <c r="DW13" s="198">
+        <v>10000000</v>
+      </c>
+      <c r="DX13" s="200" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY13" s="192">
+        <v>1122333</v>
+      </c>
+      <c r="DZ13" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA13" s="198" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB13" s="198" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC13" s="198">
+        <v>735947227</v>
+      </c>
+      <c r="ED13" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE13" s="198">
+        <v>59185</v>
+      </c>
+      <c r="EF13" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG13" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH13" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI13" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ13" s="198" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK13" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL13" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM13" s="198">
+        <v>12430</v>
+      </c>
+      <c r="EN13" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO13" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP13" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ13" s="198" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER13" s="198" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES13" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET13" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU13" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV13" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW13" s="192" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX13" s="198" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY13" s="198">
+        <v>5238528</v>
+      </c>
+      <c r="EZ13" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA13" s="198" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB13" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC13" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD13" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE13" s="198" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF13" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG13" s="198">
+        <v>2023</v>
+      </c>
+      <c r="FH13" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI13" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ13" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK13" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL13" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM13" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN13" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO13" s="198">
+        <v>15</v>
+      </c>
+      <c r="FP13" s="198">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="198" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR13" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS13" s="198" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT13" s="198" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU13" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV13" s="198" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW13" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="FX13" s="198">
+        <v>10</v>
+      </c>
+      <c r="FY13" s="198"/>
+      <c r="FZ13" s="198">
+        <v>24</v>
+      </c>
+      <c r="GA13" s="200" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB13" s="200" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC13" s="198">
+        <v>1000000</v>
+      </c>
+      <c r="GD13" s="198">
+        <v>750000</v>
+      </c>
+      <c r="GE13" s="198" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH13" s="198" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI13" s="198" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ13" s="198"/>
+      <c r="GK13" s="198">
+        <v>250000000</v>
+      </c>
+      <c r="GL13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM13" s="198" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN13" s="198" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO13" s="198">
+        <v>24</v>
+      </c>
+      <c r="GP13" s="198">
+        <v>20</v>
+      </c>
+      <c r="GQ13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR13" s="198" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS13" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT13" s="198" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU13" s="192" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV13" s="217" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW13" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX13" s="198" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY13" s="192" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ13" s="198">
+        <v>120100</v>
+      </c>
+      <c r="HA13" s="198" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB13" s="198">
+        <v>12430</v>
+      </c>
+      <c r="HC13" s="198" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD13" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE13" s="198" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF13" s="198" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG13" s="198" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH13" s="198" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI13" s="192" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14" s="203" t="s">
+        <v>836</v>
+      </c>
+      <c r="C14" s="203" t="s">
+        <v>836</v>
+      </c>
+      <c r="D14" s="204" t="s">
+        <v>837</v>
+      </c>
+      <c r="E14" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="206">
+        <v>99887711</v>
+      </c>
+      <c r="H14" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J14" s="207" t="s">
+        <v>838</v>
+      </c>
+      <c r="K14" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L14" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="N14" s="203" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="203">
+        <v>15413</v>
+      </c>
+      <c r="P14" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="R14" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T14" s="203">
+        <v>0</v>
+      </c>
+      <c r="U14" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="V14" s="203" t="s">
+        <v>391</v>
+      </c>
+      <c r="W14" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB14" s="203"/>
+      <c r="AC14" s="203"/>
+      <c r="AD14" s="203"/>
+      <c r="AE14" s="206"/>
+      <c r="AF14" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG14" s="209" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH14" s="209" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI14" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="AJ14" s="209">
+        <v>10</v>
+      </c>
+      <c r="AK14" s="209"/>
+      <c r="AL14" s="209">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="209" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN14" s="209">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="AP14" s="209">
+        <v>750000</v>
+      </c>
+      <c r="AQ14" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT14" s="209" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU14" s="209" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV14" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW14" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX14" s="209">
+        <v>2024</v>
+      </c>
+      <c r="AY14" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ14" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA14" s="209"/>
+      <c r="BB14" s="209"/>
+      <c r="BC14" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="BD14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE14" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF14" s="209" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG14" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH14" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ14" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL14" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM14" s="209" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN14" s="209" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO14" s="209"/>
+      <c r="BP14" s="209"/>
+      <c r="BQ14" s="209" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR14" s="209" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS14" s="209" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT14" s="209">
+        <v>99887711</v>
+      </c>
+      <c r="BU14" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV14" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW14" s="209">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX14" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY14" s="211" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ14" s="209">
+        <v>3213115323</v>
+      </c>
+      <c r="CA14" s="209" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB14" s="202" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC14" s="209">
+        <v>14430</v>
+      </c>
+      <c r="CD14" s="210" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE14" s="211" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF14" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG14" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH14" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CI14" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ14" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK14" s="209" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL14" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM14" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CN14" s="209">
+        <v>12</v>
+      </c>
+      <c r="CO14" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP14" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ14" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR14" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="211" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT14" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU14" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV14" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW14" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX14" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY14" s="209">
+        <v>2000</v>
+      </c>
+      <c r="CZ14" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA14" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DB14" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC14" s="209">
+        <v>30000000</v>
+      </c>
+      <c r="DD14" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE14" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF14" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG14" s="209">
+        <v>1111222205</v>
+      </c>
+      <c r="DH14" s="209" t="str">
+        <f t="shared" ref="DH14" si="5">C14</f>
+        <v>KONSUMEN I</v>
+      </c>
+      <c r="DI14" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ14" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK14" s="209"/>
+      <c r="DL14" s="209"/>
+      <c r="DM14" s="209"/>
+      <c r="DN14" s="209"/>
+      <c r="DO14" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP14" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ14" s="209" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR14" s="209" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS14" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT14" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU14" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV14" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW14" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX14" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY14" s="202">
+        <v>1122333</v>
+      </c>
+      <c r="DZ14" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA14" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB14" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC14" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED14" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE14" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF14" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG14" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH14" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI14" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ14" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK14" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL14" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM14" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN14" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO14" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP14" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ14" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER14" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES14" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET14" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU14" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV14" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW14" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX14" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY14" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ14" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA14" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB14" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC14" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD14" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE14" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF14" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG14" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH14" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI14" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ14" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK14" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL14" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM14" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN14" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO14" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP14" s="209">
+        <v>0</v>
+      </c>
+      <c r="FQ14" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR14" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS14" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT14" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU14" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV14" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW14" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX14" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY14" s="209"/>
+      <c r="FZ14" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA14" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB14" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC14" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD14" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE14" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH14" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI14" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ14" s="209"/>
+      <c r="GK14" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM14" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN14" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO14" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP14" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR14" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS14" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT14" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU14" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV14" s="212" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW14" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX14" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY14" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ14" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA14" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB14" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC14" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD14" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE14" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF14" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG14" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH14" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI14" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="202" t="s">
+        <v>633</v>
+      </c>
+      <c r="B15" s="203" t="s">
+        <v>839</v>
+      </c>
+      <c r="C15" s="203" t="s">
+        <v>839</v>
+      </c>
+      <c r="D15" s="204" t="s">
+        <v>842</v>
+      </c>
+      <c r="E15" s="205" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="204" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="206">
+        <v>99887711</v>
+      </c>
+      <c r="H15" s="203" t="s">
+        <v>543</v>
+      </c>
+      <c r="I15" s="203">
+        <v>14430</v>
+      </c>
+      <c r="J15" s="207" t="s">
         <v>840</v>
       </c>
-      <c r="C12" s="203" t="s">
-        <v>840</v>
-      </c>
-      <c r="D12" s="204" t="s">
+      <c r="K15" s="203" t="s">
+        <v>544</v>
+      </c>
+      <c r="L15" s="203" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="N15" s="203" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="203">
+        <v>15413</v>
+      </c>
+      <c r="P15" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q15" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="R15" s="203" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" s="203">
+        <v>15413</v>
+      </c>
+      <c r="T15" s="203">
+        <v>0</v>
+      </c>
+      <c r="U15" s="203" t="s">
+        <v>149</v>
+      </c>
+      <c r="V15" s="203" t="s">
+        <v>391</v>
+      </c>
+      <c r="W15" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="206" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="206"/>
+      <c r="AF15" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG15" s="209" t="s">
+        <v>661</v>
+      </c>
+      <c r="AH15" s="209" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI15" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="AJ15" s="209">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="209"/>
+      <c r="AL15" s="209">
+        <v>24</v>
+      </c>
+      <c r="AM15" s="209" t="s">
+        <v>438</v>
+      </c>
+      <c r="AN15" s="209">
+        <v>6</v>
+      </c>
+      <c r="AO15" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="AP15" s="209">
+        <v>750000</v>
+      </c>
+      <c r="AQ15" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT15" s="209" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU15" s="209" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV15" s="209" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW15" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX15" s="209">
+        <v>2024</v>
+      </c>
+      <c r="AY15" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="AZ15" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA15" s="209"/>
+      <c r="BB15" s="209"/>
+      <c r="BC15" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="BD15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE15" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF15" s="209" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG15" s="209" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH15" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ15" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL15" s="218" t="s">
+        <v>665</v>
+      </c>
+      <c r="BM15" s="209" t="s">
+        <v>540</v>
+      </c>
+      <c r="BN15" s="209" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO15" s="209"/>
+      <c r="BP15" s="209"/>
+      <c r="BQ15" s="209" t="s">
+        <v>550</v>
+      </c>
+      <c r="BR15" s="209" t="s">
+        <v>553</v>
+      </c>
+      <c r="BS15" s="209" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT15" s="209">
+        <v>99887711</v>
+      </c>
+      <c r="BU15" s="214" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV15" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW15" s="209">
+        <v>3266270707071000</v>
+      </c>
+      <c r="BX15" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="BY15" s="211" t="s">
+        <v>671</v>
+      </c>
+      <c r="BZ15" s="209">
+        <v>3213115323</v>
+      </c>
+      <c r="CA15" s="209" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB15" s="202" t="s">
+        <v>543</v>
+      </c>
+      <c r="CC15" s="209">
+        <v>14430</v>
+      </c>
+      <c r="CD15" s="210" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE15" s="211" t="s">
+        <v>544</v>
+      </c>
+      <c r="CF15" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG15" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CH15" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CI15" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ15" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="CK15" s="209" t="s">
+        <v>484</v>
+      </c>
+      <c r="CL15" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM15" s="209">
+        <v>15413</v>
+      </c>
+      <c r="CN15" s="209">
+        <v>12</v>
+      </c>
+      <c r="CO15" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="CP15" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ15" s="209" t="s">
+        <v>416</v>
+      </c>
+      <c r="CR15" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="211" t="s">
+        <v>798</v>
+      </c>
+      <c r="CT15" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU15" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV15" s="209" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW15" s="209" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX15" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY15" s="209">
+        <v>2000</v>
+      </c>
+      <c r="CZ15" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA15" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DB15" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="DC15" s="209">
+        <v>30000000</v>
+      </c>
+      <c r="DD15" s="209" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE15" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF15" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="DG15" s="209">
+        <v>1111222205</v>
+      </c>
+      <c r="DH15" s="209" t="str">
+        <f t="shared" ref="DH15" si="6">C15</f>
+        <v>KONSUMEN J</v>
+      </c>
+      <c r="DI15" s="209" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ15" s="209" t="s">
+        <v>78</v>
+      </c>
+      <c r="DK15" s="209"/>
+      <c r="DL15" s="209"/>
+      <c r="DM15" s="209"/>
+      <c r="DN15" s="209"/>
+      <c r="DO15" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="DP15" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ15" s="209" t="s">
+        <v>683</v>
+      </c>
+      <c r="DR15" s="209" t="s">
+        <v>802</v>
+      </c>
+      <c r="DS15" s="209" t="s">
+        <v>243</v>
+      </c>
+      <c r="DT15" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="DU15" s="209">
+        <v>10</v>
+      </c>
+      <c r="DV15" s="209">
+        <v>1</v>
+      </c>
+      <c r="DW15" s="209">
+        <v>10000000</v>
+      </c>
+      <c r="DX15" s="211" t="s">
+        <v>685</v>
+      </c>
+      <c r="DY15" s="202">
+        <v>1122333</v>
+      </c>
+      <c r="DZ15" s="209" t="s">
+        <v>170</v>
+      </c>
+      <c r="EA15" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB15" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="EC15" s="209">
+        <v>735947227</v>
+      </c>
+      <c r="ED15" s="209" t="s">
+        <v>173</v>
+      </c>
+      <c r="EE15" s="209">
+        <v>59185</v>
+      </c>
+      <c r="EF15" s="209" t="s">
+        <v>174</v>
+      </c>
+      <c r="EG15" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EH15" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="EI15" s="209" t="s">
+        <v>177</v>
+      </c>
+      <c r="EJ15" s="209" t="s">
+        <v>26</v>
+      </c>
+      <c r="EK15" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="EL15" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="EM15" s="209">
+        <v>12430</v>
+      </c>
+      <c r="EN15" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="EO15" s="209" t="s">
+        <v>178</v>
+      </c>
+      <c r="EP15" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="EQ15" s="209" t="s">
+        <v>90</v>
+      </c>
+      <c r="ER15" s="209" t="s">
+        <v>98</v>
+      </c>
+      <c r="ES15" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="ET15" s="209" t="s">
+        <v>258</v>
+      </c>
+      <c r="EU15" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="EV15" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="EW15" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="EX15" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="EY15" s="209">
+        <v>5238528</v>
+      </c>
+      <c r="EZ15" s="209" t="s">
+        <v>185</v>
+      </c>
+      <c r="FA15" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="FB15" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="FC15" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FD15" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="FE15" s="209" t="s">
+        <v>393</v>
+      </c>
+      <c r="FF15" s="209" t="s">
+        <v>149</v>
+      </c>
+      <c r="FG15" s="209">
+        <v>2023</v>
+      </c>
+      <c r="FH15" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="FI15" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="FJ15" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="FK15" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="FL15" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="FM15" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="FN15" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="FO15" s="209">
+        <v>15</v>
+      </c>
+      <c r="FP15" s="209">
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="FR15" s="209" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS15" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="FT15" s="209" t="s">
+        <v>613</v>
+      </c>
+      <c r="FU15" s="209" t="s">
+        <v>614</v>
+      </c>
+      <c r="FV15" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="FW15" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="FX15" s="209">
+        <v>10</v>
+      </c>
+      <c r="FY15" s="209"/>
+      <c r="FZ15" s="209">
+        <v>24</v>
+      </c>
+      <c r="GA15" s="211" t="s">
+        <v>806</v>
+      </c>
+      <c r="GB15" s="211" t="s">
+        <v>807</v>
+      </c>
+      <c r="GC15" s="209">
+        <v>1000000</v>
+      </c>
+      <c r="GD15" s="209">
+        <v>750000</v>
+      </c>
+      <c r="GE15" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="GF15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH15" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="GI15" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="GJ15" s="209"/>
+      <c r="GK15" s="209">
+        <v>250000000</v>
+      </c>
+      <c r="GL15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM15" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="GN15" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="GO15" s="209">
+        <v>24</v>
+      </c>
+      <c r="GP15" s="209">
+        <v>20</v>
+      </c>
+      <c r="GQ15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR15" s="209" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS15" s="209" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT15" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="GU15" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV15" s="212" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW15" s="209" t="s">
+        <v>248</v>
+      </c>
+      <c r="GX15" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY15" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="GZ15" s="209">
+        <v>120100</v>
+      </c>
+      <c r="HA15" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="HB15" s="209">
+        <v>12430</v>
+      </c>
+      <c r="HC15" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="HD15" s="209" t="s">
+        <v>519</v>
+      </c>
+      <c r="HE15" s="209" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF15" s="209" t="s">
+        <v>513</v>
+      </c>
+      <c r="HG15" s="209" t="s">
+        <v>515</v>
+      </c>
+      <c r="HH15" s="209" t="s">
+        <v>517</v>
+      </c>
+      <c r="HI15" s="202" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:217" s="231" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="219" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="220" t="s">
         <v>841</v>
       </c>
-      <c r="E12" s="205" t="s">
+      <c r="C16" s="220" t="s">
+        <v>841</v>
+      </c>
+      <c r="D16" s="221" t="s">
+        <v>843</v>
+      </c>
+      <c r="E16" s="222" t="s">
         <v>347</v>
       </c>
-      <c r="F12" s="204" t="s">
+      <c r="F16" s="221" t="s">
         <v>434</v>
       </c>
-      <c r="G12" s="206">
+      <c r="G16" s="223">
         <v>99887711</v>
       </c>
-      <c r="H12" s="203" t="s">
+      <c r="H16" s="220" t="s">
         <v>543</v>
       </c>
-      <c r="I12" s="203">
+      <c r="I16" s="220">
         <v>14430</v>
       </c>
-      <c r="J12" s="207" t="s">
-        <v>842</v>
-      </c>
-      <c r="K12" s="203" t="s">
+      <c r="J16" s="224" t="s">
+        <v>844</v>
+      </c>
+      <c r="K16" s="220" t="s">
         <v>544</v>
       </c>
-      <c r="L12" s="203" t="s">
+      <c r="L16" s="220" t="s">
         <v>135</v>
       </c>
-      <c r="M12" s="203" t="s">
+      <c r="M16" s="220" t="s">
         <v>416</v>
       </c>
-      <c r="N12" s="203" t="s">
+      <c r="N16" s="220" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="203">
+      <c r="O16" s="220">
         <v>15413</v>
       </c>
-      <c r="P12" s="203" t="s">
+      <c r="P16" s="220" t="s">
         <v>175</v>
       </c>
-      <c r="Q12" s="203" t="s">
+      <c r="Q16" s="220" t="s">
         <v>484</v>
       </c>
-      <c r="R12" s="203" t="s">
+      <c r="R16" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="203">
+      <c r="S16" s="220">
         <v>15413</v>
       </c>
-      <c r="T12" s="203">
+      <c r="T16" s="220">
         <v>0</v>
       </c>
-      <c r="U12" s="203" t="s">
+      <c r="U16" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="V12" s="203" t="s">
+      <c r="V16" s="220" t="s">
         <v>391</v>
       </c>
-      <c r="W12" s="203" t="s">
+      <c r="W16" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="X12" s="206" t="s">
+      <c r="X16" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="203" t="s">
+      <c r="Y16" s="220"/>
+      <c r="Z16" s="220"/>
+      <c r="AA16" s="220" t="s">
         <v>523</v>
       </c>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="206"/>
-      <c r="AF12" s="209" t="s">
+      <c r="AB16" s="220"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="220"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="AG12" s="209" t="s">
+      <c r="AG16" s="225" t="s">
         <v>661</v>
       </c>
-      <c r="AH12" s="209" t="s">
+      <c r="AH16" s="225" t="s">
         <v>390</v>
       </c>
-      <c r="AI12" s="209">
+      <c r="AI16" s="225">
         <v>250000000</v>
       </c>
-      <c r="AJ12" s="209">
+      <c r="AJ16" s="225">
         <v>10</v>
       </c>
-      <c r="AK12" s="209"/>
-      <c r="AL12" s="209">
+      <c r="AK16" s="225"/>
+      <c r="AL16" s="225">
         <v>24</v>
       </c>
-      <c r="AM12" s="209" t="s">
+      <c r="AM16" s="225" t="s">
         <v>438</v>
       </c>
-      <c r="AN12" s="209">
+      <c r="AN16" s="225">
         <v>6</v>
       </c>
-      <c r="AO12" s="209">
+      <c r="AO16" s="225">
         <v>1000000</v>
       </c>
-      <c r="AP12" s="209">
+      <c r="AP16" s="225">
         <v>750000</v>
       </c>
-      <c r="AQ12" s="209" t="s">
+      <c r="AQ16" s="225" t="s">
         <v>391</v>
       </c>
-      <c r="AR12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT12" s="209" t="s">
+      <c r="AR16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="AS16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT16" s="225" t="s">
         <v>439</v>
       </c>
-      <c r="AU12" s="209" t="s">
+      <c r="AU16" s="225" t="s">
         <v>440</v>
       </c>
-      <c r="AV12" s="209" t="s">
+      <c r="AV16" s="225" t="s">
         <v>444</v>
       </c>
-      <c r="AW12" s="209" t="s">
+      <c r="AW16" s="225" t="s">
         <v>317</v>
       </c>
-      <c r="AX12" s="209">
+      <c r="AX16" s="225">
         <v>2024</v>
       </c>
-      <c r="AY12" s="209" t="s">
+      <c r="AY16" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="AZ12" s="209" t="s">
+      <c r="AZ16" s="225" t="s">
         <v>597</v>
       </c>
-      <c r="BA12" s="209"/>
-      <c r="BB12" s="209"/>
-      <c r="BC12" s="209">
+      <c r="BA16" s="225"/>
+      <c r="BB16" s="225"/>
+      <c r="BC16" s="225">
         <v>250000000</v>
       </c>
-      <c r="BD12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE12" s="209" t="s">
+      <c r="BD16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE16" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="BF12" s="209" t="s">
+      <c r="BF16" s="225" t="s">
         <v>241</v>
       </c>
-      <c r="BG12" s="209" t="s">
+      <c r="BG16" s="225" t="s">
         <v>242</v>
       </c>
-      <c r="BH12" s="209" t="s">
+      <c r="BH16" s="225" t="s">
         <v>243</v>
       </c>
-      <c r="BI12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ12" s="209" t="s">
+      <c r="BI16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ16" s="225" t="s">
         <v>244</v>
       </c>
-      <c r="BK12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL12" s="218" t="s">
+      <c r="BK16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL16" s="226" t="s">
         <v>665</v>
       </c>
-      <c r="BM12" s="209" t="s">
+      <c r="BM16" s="225" t="s">
         <v>540</v>
       </c>
-      <c r="BN12" s="209" t="s">
+      <c r="BN16" s="225" t="s">
         <v>541</v>
       </c>
-      <c r="BO12" s="209"/>
-      <c r="BP12" s="209"/>
-      <c r="BQ12" s="209" t="s">
+      <c r="BO16" s="225"/>
+      <c r="BP16" s="225"/>
+      <c r="BQ16" s="225" t="s">
         <v>550</v>
       </c>
-      <c r="BR12" s="209" t="s">
+      <c r="BR16" s="225" t="s">
         <v>553</v>
       </c>
-      <c r="BS12" s="209" t="s">
+      <c r="BS16" s="225" t="s">
         <v>434</v>
       </c>
-      <c r="BT12" s="209">
+      <c r="BT16" s="225">
         <v>99887711</v>
       </c>
-      <c r="BU12" s="214" t="s">
+      <c r="BU16" s="227" t="s">
         <v>347</v>
       </c>
-      <c r="BV12" s="209" t="s">
+      <c r="BV16" s="225" t="s">
         <v>274</v>
       </c>
-      <c r="BW12" s="209">
+      <c r="BW16" s="225">
         <v>3266270707071000</v>
       </c>
-      <c r="BX12" s="214" t="s">
+      <c r="BX16" s="227" t="s">
         <v>350</v>
       </c>
-      <c r="BY12" s="211" t="s">
+      <c r="BY16" s="228" t="s">
         <v>671</v>
       </c>
-      <c r="BZ12" s="209">
+      <c r="BZ16" s="225">
         <v>3213115323</v>
       </c>
-      <c r="CA12" s="209" t="s">
+      <c r="CA16" s="225" t="s">
         <v>376</v>
       </c>
-      <c r="CB12" s="202" t="s">
+      <c r="CB16" s="219" t="s">
         <v>543</v>
       </c>
-      <c r="CC12" s="209">
+      <c r="CC16" s="225">
         <v>14430</v>
       </c>
-      <c r="CD12" s="210" t="s">
+      <c r="CD16" s="229" t="s">
         <v>668</v>
       </c>
-      <c r="CE12" s="211" t="s">
+      <c r="CE16" s="228" t="s">
         <v>544</v>
       </c>
-      <c r="CF12" s="209" t="s">
+      <c r="CF16" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="CG12" s="209" t="s">
+      <c r="CG16" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="CH12" s="209">
+      <c r="CH16" s="225">
         <v>15413</v>
       </c>
-      <c r="CI12" s="209" t="s">
+      <c r="CI16" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="CJ12" s="209" t="s">
+      <c r="CJ16" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="CK12" s="209" t="s">
+      <c r="CK16" s="225" t="s">
         <v>484</v>
       </c>
-      <c r="CL12" s="209" t="s">
+      <c r="CL16" s="225" t="s">
         <v>93</v>
       </c>
-      <c r="CM12" s="209">
+      <c r="CM16" s="225">
         <v>15413</v>
       </c>
-      <c r="CN12" s="209">
+      <c r="CN16" s="225">
         <v>12</v>
       </c>
-      <c r="CO12" s="209" t="s">
+      <c r="CO16" s="225" t="s">
         <v>317</v>
       </c>
-      <c r="CP12" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ12" s="209" t="s">
+      <c r="CP16" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="CQ16" s="225" t="s">
         <v>416</v>
       </c>
-      <c r="CR12" s="209" t="s">
+      <c r="CR16" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="CS12" s="211" t="s">
+      <c r="CS16" s="228" t="s">
         <v>798</v>
       </c>
-      <c r="CT12" s="209" t="s">
+      <c r="CT16" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="CU12" s="209" t="s">
+      <c r="CU16" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="CV12" s="209" t="s">
+      <c r="CV16" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="CW12" s="209" t="s">
+      <c r="CW16" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="CX12" s="209" t="s">
+      <c r="CX16" s="225" t="s">
         <v>103</v>
       </c>
-      <c r="CY12" s="209">
+      <c r="CY16" s="225">
         <v>2000</v>
       </c>
-      <c r="CZ12" s="209" t="s">
+      <c r="CZ16" s="225" t="s">
         <v>104</v>
       </c>
-      <c r="DA12" s="209">
+      <c r="DA16" s="225">
         <v>10000000</v>
       </c>
-      <c r="DB12" s="209" t="s">
+      <c r="DB16" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="DC12" s="209">
+      <c r="DC16" s="225">
         <v>30000000</v>
       </c>
-      <c r="DD12" s="209" t="s">
+      <c r="DD16" s="225" t="s">
         <v>105</v>
       </c>
-      <c r="DE12" s="209" t="s">
+      <c r="DE16" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="DF12" s="209" t="s">
+      <c r="DF16" s="225" t="s">
         <v>132</v>
       </c>
-      <c r="DG12" s="209">
+      <c r="DG16" s="225">
         <v>1111222205</v>
       </c>
-      <c r="DH12" s="209" t="str">
-        <f t="shared" ref="DH12" si="3">C12</f>
-        <v>KONSUMEN I</v>
-      </c>
-      <c r="DI12" s="209" t="s">
+      <c r="DH16" s="225" t="str">
+        <f t="shared" ref="DH16" si="7">C16</f>
+        <v>KONSUMEN K</v>
+      </c>
+      <c r="DI16" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="DJ12" s="209" t="s">
+      <c r="DJ16" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="DK12" s="209"/>
-      <c r="DL12" s="209"/>
-      <c r="DM12" s="209"/>
-      <c r="DN12" s="209"/>
-      <c r="DO12" s="209" t="s">
+      <c r="DK16" s="225"/>
+      <c r="DL16" s="225"/>
+      <c r="DM16" s="225"/>
+      <c r="DN16" s="225"/>
+      <c r="DO16" s="225" t="s">
         <v>501</v>
       </c>
-      <c r="DP12" s="202" t="s">
+      <c r="DP16" s="219" t="s">
         <v>133</v>
       </c>
-      <c r="DQ12" s="209" t="s">
+      <c r="DQ16" s="225" t="s">
         <v>683</v>
       </c>
-      <c r="DR12" s="209" t="s">
+      <c r="DR16" s="225" t="s">
         <v>802</v>
       </c>
-      <c r="DS12" s="209" t="s">
+      <c r="DS16" s="225" t="s">
         <v>243</v>
       </c>
-      <c r="DT12" s="209" t="s">
+      <c r="DT16" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="DU12" s="209">
+      <c r="DU16" s="225">
         <v>10</v>
       </c>
-      <c r="DV12" s="209">
+      <c r="DV16" s="225">
         <v>1</v>
       </c>
-      <c r="DW12" s="209">
+      <c r="DW16" s="225">
         <v>10000000</v>
       </c>
-      <c r="DX12" s="211" t="s">
+      <c r="DX16" s="228" t="s">
         <v>685</v>
       </c>
-      <c r="DY12" s="202">
+      <c r="DY16" s="219">
         <v>1122333</v>
       </c>
-      <c r="DZ12" s="209" t="s">
+      <c r="DZ16" s="225" t="s">
         <v>170</v>
       </c>
-      <c r="EA12" s="209" t="s">
+      <c r="EA16" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="EB12" s="209" t="s">
+      <c r="EB16" s="225" t="s">
         <v>172</v>
       </c>
-      <c r="EC12" s="209">
+      <c r="EC16" s="225">
         <v>735947227</v>
       </c>
-      <c r="ED12" s="209" t="s">
+      <c r="ED16" s="225" t="s">
         <v>173</v>
       </c>
-      <c r="EE12" s="209">
+      <c r="EE16" s="225">
         <v>59185</v>
       </c>
-      <c r="EF12" s="209" t="s">
+      <c r="EF16" s="225" t="s">
         <v>174</v>
       </c>
-      <c r="EG12" s="209" t="s">
+      <c r="EG16" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="EH12" s="209" t="s">
+      <c r="EH16" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="EI12" s="209" t="s">
+      <c r="EI16" s="225" t="s">
         <v>177</v>
       </c>
-      <c r="EJ12" s="209" t="s">
+      <c r="EJ16" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="EK12" s="209" t="s">
+      <c r="EK16" s="225" t="s">
         <v>179</v>
       </c>
-      <c r="EL12" s="209" t="s">
+      <c r="EL16" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="EM12" s="209">
+      <c r="EM16" s="225">
         <v>12430</v>
       </c>
-      <c r="EN12" s="209" t="s">
+      <c r="EN16" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="EO12" s="209" t="s">
+      <c r="EO16" s="225" t="s">
         <v>178</v>
       </c>
-      <c r="EP12" s="209" t="s">
+      <c r="EP16" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="EQ12" s="209" t="s">
+      <c r="EQ16" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="ER12" s="209" t="s">
+      <c r="ER16" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="ES12" s="209" t="s">
+      <c r="ES16" s="225" t="s">
         <v>257</v>
       </c>
-      <c r="ET12" s="209" t="s">
+      <c r="ET16" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="EU12" s="209" t="s">
+      <c r="EU16" s="225" t="s">
         <v>589</v>
       </c>
-      <c r="EV12" s="209" t="s">
+      <c r="EV16" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="EW12" s="202" t="s">
+      <c r="EW16" s="219" t="s">
         <v>181</v>
       </c>
-      <c r="EX12" s="209" t="s">
+      <c r="EX16" s="225" t="s">
         <v>804</v>
       </c>
-      <c r="EY12" s="209">
+      <c r="EY16" s="225">
         <v>5238528</v>
       </c>
-      <c r="EZ12" s="209" t="s">
+      <c r="EZ16" s="225" t="s">
         <v>185</v>
       </c>
-      <c r="FA12" s="209" t="s">
+      <c r="FA16" s="225" t="s">
         <v>749</v>
       </c>
-      <c r="FB12" s="209" t="s">
+      <c r="FB16" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="FC12" s="209" t="s">
+      <c r="FC16" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="FD12" s="209" t="s">
+      <c r="FD16" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="FE12" s="209" t="s">
+      <c r="FE16" s="225" t="s">
         <v>393</v>
       </c>
-      <c r="FF12" s="209" t="s">
+      <c r="FF16" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="FG12" s="209">
+      <c r="FG16" s="225">
         <v>2023</v>
       </c>
-      <c r="FH12" s="209" t="s">
+      <c r="FH16" s="225" t="s">
         <v>202</v>
       </c>
-      <c r="FI12" s="209" t="s">
+      <c r="FI16" s="225" t="s">
         <v>203</v>
       </c>
-      <c r="FJ12" s="209" t="s">
+      <c r="FJ16" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="FK12" s="209" t="s">
+      <c r="FK16" s="225" t="s">
         <v>204</v>
       </c>
-      <c r="FL12" s="202" t="s">
+      <c r="FL16" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="FM12" s="209" t="s">
+      <c r="FM16" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="FN12" s="209" t="s">
+      <c r="FN16" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="FO12" s="209">
+      <c r="FO16" s="225">
         <v>15</v>
       </c>
-      <c r="FP12" s="209">
-        <v>200000</v>
-      </c>
-      <c r="FQ12" s="209" t="s">
+      <c r="FP16" s="225">
+        <v>0</v>
+      </c>
+      <c r="FQ16" s="225" t="s">
         <v>615</v>
       </c>
-      <c r="FR12" s="209" t="s">
+      <c r="FR16" s="225" t="s">
         <v>234</v>
       </c>
-      <c r="FS12" s="209" t="s">
+      <c r="FS16" s="225" t="s">
         <v>750</v>
       </c>
-      <c r="FT12" s="209" t="s">
+      <c r="FT16" s="225" t="s">
         <v>613</v>
       </c>
-      <c r="FU12" s="209" t="s">
+      <c r="FU16" s="225" t="s">
         <v>614</v>
       </c>
-      <c r="FV12" s="209" t="s">
+      <c r="FV16" s="225" t="s">
         <v>805</v>
       </c>
-      <c r="FW12" s="209">
+      <c r="FW16" s="225">
         <v>250000000</v>
       </c>
-      <c r="FX12" s="209">
+      <c r="FX16" s="225">
         <v>10</v>
       </c>
-      <c r="FY12" s="209"/>
-      <c r="FZ12" s="209">
+      <c r="FY16" s="225"/>
+      <c r="FZ16" s="225">
         <v>24</v>
       </c>
-      <c r="GA12" s="211" t="s">
+      <c r="GA16" s="228" t="s">
         <v>806</v>
       </c>
-      <c r="GB12" s="211" t="s">
+      <c r="GB16" s="228" t="s">
         <v>807</v>
       </c>
-      <c r="GC12" s="209">
+      <c r="GC16" s="225">
         <v>1000000</v>
       </c>
-      <c r="GD12" s="209">
+      <c r="GD16" s="225">
         <v>750000</v>
       </c>
-      <c r="GE12" s="209" t="s">
+      <c r="GE16" s="225" t="s">
         <v>391</v>
       </c>
-      <c r="GF12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH12" s="209" t="s">
+      <c r="GF16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GG16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH16" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="GI12" s="209" t="s">
+      <c r="GI16" s="225" t="s">
         <v>597</v>
       </c>
-      <c r="GJ12" s="209"/>
-      <c r="GK12" s="209">
+      <c r="GJ16" s="225"/>
+      <c r="GK16" s="225">
         <v>250000000</v>
       </c>
-      <c r="GL12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM12" s="209" t="s">
+      <c r="GL16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM16" s="225" t="s">
         <v>789</v>
       </c>
-      <c r="GN12" s="209" t="s">
+      <c r="GN16" s="225" t="s">
         <v>790</v>
       </c>
-      <c r="GO12" s="209">
+      <c r="GO16" s="225">
         <v>24</v>
       </c>
-      <c r="GP12" s="209">
+      <c r="GP16" s="225">
         <v>20</v>
       </c>
-      <c r="GQ12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR12" s="209" t="s">
+      <c r="GQ16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GR16" s="225" t="s">
         <v>244</v>
       </c>
-      <c r="GS12" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT12" s="209" t="s">
+      <c r="GS16" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="GT16" s="225" t="s">
         <v>237</v>
       </c>
-      <c r="GU12" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV12" s="212" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW12" s="209" t="s">
+      <c r="GU16" s="219" t="s">
+        <v>233</v>
+      </c>
+      <c r="GV16" s="230" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW16" s="225" t="s">
         <v>248</v>
       </c>
-      <c r="GX12" s="209" t="s">
+      <c r="GX16" s="225" t="s">
         <v>250</v>
       </c>
-      <c r="GY12" s="202" t="s">
+      <c r="GY16" s="219" t="s">
         <v>250</v>
       </c>
-      <c r="GZ12" s="209">
+      <c r="GZ16" s="225">
         <v>120100</v>
       </c>
-      <c r="HA12" s="209" t="s">
+      <c r="HA16" s="225" t="s">
         <v>501</v>
       </c>
-      <c r="HB12" s="209">
+      <c r="HB16" s="225">
         <v>12430</v>
       </c>
-      <c r="HC12" s="209" t="s">
+      <c r="HC16" s="225" t="s">
         <v>508</v>
       </c>
-      <c r="HD12" s="209" t="s">
+      <c r="HD16" s="225" t="s">
         <v>519</v>
       </c>
-      <c r="HE12" s="209" t="s">
+      <c r="HE16" s="225" t="s">
         <v>511</v>
       </c>
-      <c r="HF12" s="209" t="s">
+      <c r="HF16" s="225" t="s">
         <v>513</v>
       </c>
-      <c r="HG12" s="209" t="s">
+      <c r="HG16" s="225" t="s">
         <v>515</v>
       </c>
-      <c r="HH12" s="209" t="s">
+      <c r="HH16" s="225" t="s">
         <v>517</v>
       </c>
-      <c r="HI12" s="202" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:217" s="213" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
-        <v>633</v>
-      </c>
-      <c r="B13" s="203" t="s">
-        <v>843</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>843</v>
-      </c>
-      <c r="D13" s="204" t="s">
-        <v>846</v>
-      </c>
-      <c r="E13" s="205" t="s">
-        <v>347</v>
-      </c>
-      <c r="F13" s="204" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="206">
-        <v>99887711</v>
-      </c>
-      <c r="H13" s="203" t="s">
-        <v>543</v>
-      </c>
-      <c r="I13" s="203">
-        <v>14430</v>
-      </c>
-      <c r="J13" s="207" t="s">
-        <v>844</v>
-      </c>
-      <c r="K13" s="203" t="s">
-        <v>544</v>
-      </c>
-      <c r="L13" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="203" t="s">
-        <v>416</v>
-      </c>
-      <c r="N13" s="203" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="203">
-        <v>15413</v>
-      </c>
-      <c r="P13" s="203" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="203" t="s">
-        <v>484</v>
-      </c>
-      <c r="R13" s="203" t="s">
-        <v>93</v>
-      </c>
-      <c r="S13" s="203">
-        <v>15413</v>
-      </c>
-      <c r="T13" s="203">
-        <v>0</v>
-      </c>
-      <c r="U13" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="V13" s="203" t="s">
-        <v>391</v>
-      </c>
-      <c r="W13" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="206" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y13" s="203"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="203" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB13" s="203"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="203"/>
-      <c r="AE13" s="206"/>
-      <c r="AF13" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG13" s="209" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH13" s="209" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI13" s="209">
-        <v>250000000</v>
-      </c>
-      <c r="AJ13" s="209">
-        <v>10</v>
-      </c>
-      <c r="AK13" s="209"/>
-      <c r="AL13" s="209">
-        <v>24</v>
-      </c>
-      <c r="AM13" s="209" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN13" s="209">
-        <v>6</v>
-      </c>
-      <c r="AO13" s="209">
-        <v>1000000</v>
-      </c>
-      <c r="AP13" s="209">
-        <v>750000</v>
-      </c>
-      <c r="AQ13" s="209" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT13" s="209" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU13" s="209" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV13" s="209" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW13" s="209" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX13" s="209">
-        <v>2024</v>
-      </c>
-      <c r="AY13" s="209" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ13" s="209" t="s">
-        <v>597</v>
-      </c>
-      <c r="BA13" s="209"/>
-      <c r="BB13" s="209"/>
-      <c r="BC13" s="209">
-        <v>250000000</v>
-      </c>
-      <c r="BD13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE13" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF13" s="209" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG13" s="209" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH13" s="209" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ13" s="209" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL13" s="218" t="s">
-        <v>665</v>
-      </c>
-      <c r="BM13" s="209" t="s">
-        <v>540</v>
-      </c>
-      <c r="BN13" s="209" t="s">
-        <v>541</v>
-      </c>
-      <c r="BO13" s="209"/>
-      <c r="BP13" s="209"/>
-      <c r="BQ13" s="209" t="s">
-        <v>550</v>
-      </c>
-      <c r="BR13" s="209" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS13" s="209" t="s">
-        <v>434</v>
-      </c>
-      <c r="BT13" s="209">
-        <v>99887711</v>
-      </c>
-      <c r="BU13" s="214" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV13" s="209" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW13" s="209">
-        <v>3266270707071000</v>
-      </c>
-      <c r="BX13" s="214" t="s">
-        <v>350</v>
-      </c>
-      <c r="BY13" s="211" t="s">
-        <v>671</v>
-      </c>
-      <c r="BZ13" s="209">
-        <v>3213115323</v>
-      </c>
-      <c r="CA13" s="209" t="s">
-        <v>376</v>
-      </c>
-      <c r="CB13" s="202" t="s">
-        <v>543</v>
-      </c>
-      <c r="CC13" s="209">
-        <v>14430</v>
-      </c>
-      <c r="CD13" s="210" t="s">
-        <v>668</v>
-      </c>
-      <c r="CE13" s="211" t="s">
-        <v>544</v>
-      </c>
-      <c r="CF13" s="209" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG13" s="209" t="s">
-        <v>416</v>
-      </c>
-      <c r="CH13" s="209">
-        <v>15413</v>
-      </c>
-      <c r="CI13" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ13" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK13" s="209" t="s">
-        <v>484</v>
-      </c>
-      <c r="CL13" s="209" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM13" s="209">
-        <v>15413</v>
-      </c>
-      <c r="CN13" s="209">
-        <v>12</v>
-      </c>
-      <c r="CO13" s="209" t="s">
-        <v>317</v>
-      </c>
-      <c r="CP13" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ13" s="209" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR13" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="211" t="s">
-        <v>798</v>
-      </c>
-      <c r="CT13" s="209" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU13" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV13" s="209" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW13" s="209" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX13" s="209" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY13" s="209">
-        <v>2000</v>
-      </c>
-      <c r="CZ13" s="209" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA13" s="209">
-        <v>10000000</v>
-      </c>
-      <c r="DB13" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC13" s="209">
-        <v>30000000</v>
-      </c>
-      <c r="DD13" s="209" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE13" s="209" t="s">
-        <v>109</v>
-      </c>
-      <c r="DF13" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG13" s="209">
-        <v>1111222205</v>
-      </c>
-      <c r="DH13" s="209" t="str">
-        <f t="shared" ref="DH13" si="4">C13</f>
-        <v>KONSUMEN J</v>
-      </c>
-      <c r="DI13" s="209" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ13" s="209" t="s">
-        <v>78</v>
-      </c>
-      <c r="DK13" s="209"/>
-      <c r="DL13" s="209"/>
-      <c r="DM13" s="209"/>
-      <c r="DN13" s="209"/>
-      <c r="DO13" s="209" t="s">
-        <v>501</v>
-      </c>
-      <c r="DP13" s="202" t="s">
-        <v>133</v>
-      </c>
-      <c r="DQ13" s="209" t="s">
-        <v>683</v>
-      </c>
-      <c r="DR13" s="209" t="s">
-        <v>802</v>
-      </c>
-      <c r="DS13" s="209" t="s">
-        <v>243</v>
-      </c>
-      <c r="DT13" s="209" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU13" s="209">
-        <v>10</v>
-      </c>
-      <c r="DV13" s="209">
-        <v>1</v>
-      </c>
-      <c r="DW13" s="209">
-        <v>10000000</v>
-      </c>
-      <c r="DX13" s="211" t="s">
-        <v>685</v>
-      </c>
-      <c r="DY13" s="202">
-        <v>1122333</v>
-      </c>
-      <c r="DZ13" s="209" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA13" s="209" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB13" s="209" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC13" s="209">
-        <v>735947227</v>
-      </c>
-      <c r="ED13" s="209" t="s">
-        <v>173</v>
-      </c>
-      <c r="EE13" s="209">
-        <v>59185</v>
-      </c>
-      <c r="EF13" s="209" t="s">
-        <v>174</v>
-      </c>
-      <c r="EG13" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH13" s="209" t="s">
-        <v>176</v>
-      </c>
-      <c r="EI13" s="209" t="s">
-        <v>177</v>
-      </c>
-      <c r="EJ13" s="209" t="s">
-        <v>26</v>
-      </c>
-      <c r="EK13" s="209" t="s">
-        <v>179</v>
-      </c>
-      <c r="EL13" s="209" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM13" s="209">
-        <v>12430</v>
-      </c>
-      <c r="EN13" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="EO13" s="209" t="s">
-        <v>178</v>
-      </c>
-      <c r="EP13" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="EQ13" s="209" t="s">
-        <v>90</v>
-      </c>
-      <c r="ER13" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="ES13" s="209" t="s">
-        <v>257</v>
-      </c>
-      <c r="ET13" s="209" t="s">
-        <v>258</v>
-      </c>
-      <c r="EU13" s="209" t="s">
-        <v>589</v>
-      </c>
-      <c r="EV13" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW13" s="202" t="s">
-        <v>181</v>
-      </c>
-      <c r="EX13" s="209" t="s">
-        <v>804</v>
-      </c>
-      <c r="EY13" s="209">
-        <v>5238528</v>
-      </c>
-      <c r="EZ13" s="209" t="s">
-        <v>185</v>
-      </c>
-      <c r="FA13" s="209" t="s">
-        <v>749</v>
-      </c>
-      <c r="FB13" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="FC13" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="FD13" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE13" s="209" t="s">
-        <v>393</v>
-      </c>
-      <c r="FF13" s="209" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG13" s="209">
-        <v>2023</v>
-      </c>
-      <c r="FH13" s="209" t="s">
-        <v>202</v>
-      </c>
-      <c r="FI13" s="209" t="s">
-        <v>203</v>
-      </c>
-      <c r="FJ13" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK13" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="FL13" s="202" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM13" s="209" t="s">
-        <v>318</v>
-      </c>
-      <c r="FN13" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="FO13" s="209">
-        <v>15</v>
-      </c>
-      <c r="FP13" s="209">
-        <v>200000</v>
-      </c>
-      <c r="FQ13" s="209" t="s">
-        <v>615</v>
-      </c>
-      <c r="FR13" s="209" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS13" s="209" t="s">
-        <v>750</v>
-      </c>
-      <c r="FT13" s="209" t="s">
-        <v>613</v>
-      </c>
-      <c r="FU13" s="209" t="s">
-        <v>614</v>
-      </c>
-      <c r="FV13" s="209" t="s">
-        <v>805</v>
-      </c>
-      <c r="FW13" s="209">
-        <v>250000000</v>
-      </c>
-      <c r="FX13" s="209">
-        <v>10</v>
-      </c>
-      <c r="FY13" s="209"/>
-      <c r="FZ13" s="209">
-        <v>24</v>
-      </c>
-      <c r="GA13" s="211" t="s">
-        <v>806</v>
-      </c>
-      <c r="GB13" s="211" t="s">
-        <v>807</v>
-      </c>
-      <c r="GC13" s="209">
-        <v>1000000</v>
-      </c>
-      <c r="GD13" s="209">
-        <v>750000</v>
-      </c>
-      <c r="GE13" s="209" t="s">
-        <v>391</v>
-      </c>
-      <c r="GF13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH13" s="209" t="s">
-        <v>318</v>
-      </c>
-      <c r="GI13" s="209" t="s">
-        <v>597</v>
-      </c>
-      <c r="GJ13" s="209"/>
-      <c r="GK13" s="209">
-        <v>250000000</v>
-      </c>
-      <c r="GL13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM13" s="209" t="s">
-        <v>789</v>
-      </c>
-      <c r="GN13" s="209" t="s">
-        <v>790</v>
-      </c>
-      <c r="GO13" s="209">
-        <v>24</v>
-      </c>
-      <c r="GP13" s="209">
-        <v>20</v>
-      </c>
-      <c r="GQ13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR13" s="209" t="s">
-        <v>244</v>
-      </c>
-      <c r="GS13" s="209" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT13" s="209" t="s">
-        <v>237</v>
-      </c>
-      <c r="GU13" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV13" s="212" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW13" s="209" t="s">
-        <v>248</v>
-      </c>
-      <c r="GX13" s="209" t="s">
-        <v>250</v>
-      </c>
-      <c r="GY13" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="GZ13" s="209">
-        <v>120100</v>
-      </c>
-      <c r="HA13" s="209" t="s">
-        <v>501</v>
-      </c>
-      <c r="HB13" s="209">
-        <v>12430</v>
-      </c>
-      <c r="HC13" s="209" t="s">
-        <v>508</v>
-      </c>
-      <c r="HD13" s="209" t="s">
-        <v>519</v>
-      </c>
-      <c r="HE13" s="209" t="s">
-        <v>511</v>
-      </c>
-      <c r="HF13" s="209" t="s">
-        <v>513</v>
-      </c>
-      <c r="HG13" s="209" t="s">
-        <v>515</v>
-      </c>
-      <c r="HH13" s="209" t="s">
-        <v>517</v>
-      </c>
-      <c r="HI13" s="202" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:217" s="231" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="219" t="s">
-        <v>633</v>
-      </c>
-      <c r="B14" s="220" t="s">
-        <v>845</v>
-      </c>
-      <c r="C14" s="220" t="s">
-        <v>845</v>
-      </c>
-      <c r="D14" s="221" t="s">
-        <v>847</v>
-      </c>
-      <c r="E14" s="222" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" s="221" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="223">
-        <v>99887711</v>
-      </c>
-      <c r="H14" s="220" t="s">
-        <v>543</v>
-      </c>
-      <c r="I14" s="220">
-        <v>14430</v>
-      </c>
-      <c r="J14" s="224" t="s">
-        <v>848</v>
-      </c>
-      <c r="K14" s="220" t="s">
-        <v>544</v>
-      </c>
-      <c r="L14" s="220" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" s="220" t="s">
-        <v>416</v>
-      </c>
-      <c r="N14" s="220" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="220">
-        <v>15413</v>
-      </c>
-      <c r="P14" s="220" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="220" t="s">
-        <v>484</v>
-      </c>
-      <c r="R14" s="220" t="s">
-        <v>93</v>
-      </c>
-      <c r="S14" s="220">
-        <v>15413</v>
-      </c>
-      <c r="T14" s="220">
-        <v>0</v>
-      </c>
-      <c r="U14" s="220" t="s">
-        <v>149</v>
-      </c>
-      <c r="V14" s="220" t="s">
-        <v>391</v>
-      </c>
-      <c r="W14" s="220" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="223" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y14" s="220"/>
-      <c r="Z14" s="220"/>
-      <c r="AA14" s="220" t="s">
-        <v>523</v>
-      </c>
-      <c r="AB14" s="220"/>
-      <c r="AC14" s="220"/>
-      <c r="AD14" s="220"/>
-      <c r="AE14" s="223"/>
-      <c r="AF14" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG14" s="225" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH14" s="225" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI14" s="225">
-        <v>250000000</v>
-      </c>
-      <c r="AJ14" s="225">
-        <v>10</v>
-      </c>
-      <c r="AK14" s="225"/>
-      <c r="AL14" s="225">
-        <v>24</v>
-      </c>
-      <c r="AM14" s="225" t="s">
-        <v>438</v>
-      </c>
-      <c r="AN14" s="225">
-        <v>6</v>
-      </c>
-      <c r="AO14" s="225">
-        <v>1000000</v>
-      </c>
-      <c r="AP14" s="225">
-        <v>750000</v>
-      </c>
-      <c r="AQ14" s="225" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT14" s="225" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU14" s="225" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV14" s="225" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW14" s="225" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX14" s="225">
-        <v>2024</v>
-      </c>
-      <c r="AY14" s="225" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ14" s="225" t="s">
-        <v>597</v>
-      </c>
-      <c r="BA14" s="225"/>
-      <c r="BB14" s="225"/>
-      <c r="BC14" s="225">
-        <v>250000000</v>
-      </c>
-      <c r="BD14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="BE14" s="225" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF14" s="225" t="s">
-        <v>241</v>
-      </c>
-      <c r="BG14" s="225" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH14" s="225" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="BJ14" s="225" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="BL14" s="226" t="s">
-        <v>665</v>
-      </c>
-      <c r="BM14" s="225" t="s">
-        <v>540</v>
-      </c>
-      <c r="BN14" s="225" t="s">
-        <v>541</v>
-      </c>
-      <c r="BO14" s="225"/>
-      <c r="BP14" s="225"/>
-      <c r="BQ14" s="225" t="s">
-        <v>550</v>
-      </c>
-      <c r="BR14" s="225" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS14" s="225" t="s">
-        <v>434</v>
-      </c>
-      <c r="BT14" s="225">
-        <v>99887711</v>
-      </c>
-      <c r="BU14" s="227" t="s">
-        <v>347</v>
-      </c>
-      <c r="BV14" s="225" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW14" s="225">
-        <v>3266270707071000</v>
-      </c>
-      <c r="BX14" s="227" t="s">
-        <v>350</v>
-      </c>
-      <c r="BY14" s="228" t="s">
-        <v>671</v>
-      </c>
-      <c r="BZ14" s="225">
-        <v>3213115323</v>
-      </c>
-      <c r="CA14" s="225" t="s">
-        <v>376</v>
-      </c>
-      <c r="CB14" s="219" t="s">
-        <v>543</v>
-      </c>
-      <c r="CC14" s="225">
-        <v>14430</v>
-      </c>
-      <c r="CD14" s="229" t="s">
-        <v>668</v>
-      </c>
-      <c r="CE14" s="228" t="s">
-        <v>544</v>
-      </c>
-      <c r="CF14" s="225" t="s">
-        <v>135</v>
-      </c>
-      <c r="CG14" s="225" t="s">
-        <v>416</v>
-      </c>
-      <c r="CH14" s="225">
-        <v>15413</v>
-      </c>
-      <c r="CI14" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ14" s="225" t="s">
-        <v>90</v>
-      </c>
-      <c r="CK14" s="225" t="s">
-        <v>484</v>
-      </c>
-      <c r="CL14" s="225" t="s">
-        <v>93</v>
-      </c>
-      <c r="CM14" s="225">
-        <v>15413</v>
-      </c>
-      <c r="CN14" s="225">
-        <v>12</v>
-      </c>
-      <c r="CO14" s="225" t="s">
-        <v>317</v>
-      </c>
-      <c r="CP14" s="219" t="s">
-        <v>233</v>
-      </c>
-      <c r="CQ14" s="225" t="s">
-        <v>416</v>
-      </c>
-      <c r="CR14" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS14" s="228" t="s">
-        <v>798</v>
-      </c>
-      <c r="CT14" s="225" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU14" s="225" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV14" s="225" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW14" s="225" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX14" s="225" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY14" s="225">
-        <v>2000</v>
-      </c>
-      <c r="CZ14" s="225" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA14" s="225">
-        <v>10000000</v>
-      </c>
-      <c r="DB14" s="225" t="s">
-        <v>98</v>
-      </c>
-      <c r="DC14" s="225">
-        <v>30000000</v>
-      </c>
-      <c r="DD14" s="225" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE14" s="225" t="s">
-        <v>109</v>
-      </c>
-      <c r="DF14" s="225" t="s">
-        <v>132</v>
-      </c>
-      <c r="DG14" s="225">
-        <v>1111222205</v>
-      </c>
-      <c r="DH14" s="225" t="str">
-        <f t="shared" ref="DH14" si="5">C14</f>
-        <v>KONSUMEN K</v>
-      </c>
-      <c r="DI14" s="225" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ14" s="225" t="s">
-        <v>78</v>
-      </c>
-      <c r="DK14" s="225"/>
-      <c r="DL14" s="225"/>
-      <c r="DM14" s="225"/>
-      <c r="DN14" s="225"/>
-      <c r="DO14" s="225" t="s">
-        <v>501</v>
-      </c>
-      <c r="DP14" s="219" t="s">
-        <v>133</v>
-      </c>
-      <c r="DQ14" s="225" t="s">
-        <v>683</v>
-      </c>
-      <c r="DR14" s="225" t="s">
-        <v>802</v>
-      </c>
-      <c r="DS14" s="225" t="s">
-        <v>243</v>
-      </c>
-      <c r="DT14" s="225" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU14" s="225">
-        <v>10</v>
-      </c>
-      <c r="DV14" s="225">
-        <v>1</v>
-      </c>
-      <c r="DW14" s="225">
-        <v>10000000</v>
-      </c>
-      <c r="DX14" s="228" t="s">
-        <v>685</v>
-      </c>
-      <c r="DY14" s="219">
-        <v>1122333</v>
-      </c>
-      <c r="DZ14" s="225" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA14" s="225" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB14" s="225" t="s">
-        <v>172</v>
-      </c>
-      <c r="EC14" s="225">
-        <v>735947227</v>
-      </c>
-      <c r="ED14" s="225" t="s">
-        <v>173</v>
-      </c>
-      <c r="EE14" s="225">
-        <v>59185</v>
-      </c>
-      <c r="EF14" s="225" t="s">
-        <v>174</v>
-      </c>
-      <c r="EG14" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH14" s="225" t="s">
-        <v>176</v>
-      </c>
-      <c r="EI14" s="225" t="s">
-        <v>177</v>
-      </c>
-      <c r="EJ14" s="225" t="s">
-        <v>26</v>
-      </c>
-      <c r="EK14" s="225" t="s">
-        <v>179</v>
-      </c>
-      <c r="EL14" s="225" t="s">
-        <v>180</v>
-      </c>
-      <c r="EM14" s="225">
-        <v>12430</v>
-      </c>
-      <c r="EN14" s="225" t="s">
-        <v>182</v>
-      </c>
-      <c r="EO14" s="225" t="s">
-        <v>178</v>
-      </c>
-      <c r="EP14" s="225" t="s">
-        <v>90</v>
-      </c>
-      <c r="EQ14" s="225" t="s">
-        <v>90</v>
-      </c>
-      <c r="ER14" s="225" t="s">
-        <v>98</v>
-      </c>
-      <c r="ES14" s="225" t="s">
-        <v>257</v>
-      </c>
-      <c r="ET14" s="225" t="s">
-        <v>258</v>
-      </c>
-      <c r="EU14" s="225" t="s">
-        <v>589</v>
-      </c>
-      <c r="EV14" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW14" s="219" t="s">
-        <v>181</v>
-      </c>
-      <c r="EX14" s="225" t="s">
-        <v>804</v>
-      </c>
-      <c r="EY14" s="225">
-        <v>5238528</v>
-      </c>
-      <c r="EZ14" s="225" t="s">
-        <v>185</v>
-      </c>
-      <c r="FA14" s="225" t="s">
-        <v>749</v>
-      </c>
-      <c r="FB14" s="225" t="s">
-        <v>200</v>
-      </c>
-      <c r="FC14" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="FD14" s="225" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE14" s="225" t="s">
-        <v>393</v>
-      </c>
-      <c r="FF14" s="225" t="s">
-        <v>149</v>
-      </c>
-      <c r="FG14" s="225">
-        <v>2023</v>
-      </c>
-      <c r="FH14" s="225" t="s">
-        <v>202</v>
-      </c>
-      <c r="FI14" s="225" t="s">
-        <v>203</v>
-      </c>
-      <c r="FJ14" s="225" t="s">
-        <v>175</v>
-      </c>
-      <c r="FK14" s="225" t="s">
-        <v>204</v>
-      </c>
-      <c r="FL14" s="219" t="s">
-        <v>179</v>
-      </c>
-      <c r="FM14" s="225" t="s">
-        <v>318</v>
-      </c>
-      <c r="FN14" s="225" t="s">
-        <v>237</v>
-      </c>
-      <c r="FO14" s="225">
-        <v>15</v>
-      </c>
-      <c r="FP14" s="225">
-        <v>200000</v>
-      </c>
-      <c r="FQ14" s="225" t="s">
-        <v>615</v>
-      </c>
-      <c r="FR14" s="225" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS14" s="225" t="s">
-        <v>750</v>
-      </c>
-      <c r="FT14" s="225" t="s">
-        <v>613</v>
-      </c>
-      <c r="FU14" s="225" t="s">
-        <v>614</v>
-      </c>
-      <c r="FV14" s="225" t="s">
-        <v>805</v>
-      </c>
-      <c r="FW14" s="225">
-        <v>250000000</v>
-      </c>
-      <c r="FX14" s="225">
-        <v>10</v>
-      </c>
-      <c r="FY14" s="225"/>
-      <c r="FZ14" s="225">
-        <v>24</v>
-      </c>
-      <c r="GA14" s="228" t="s">
-        <v>806</v>
-      </c>
-      <c r="GB14" s="228" t="s">
-        <v>807</v>
-      </c>
-      <c r="GC14" s="225">
-        <v>1000000</v>
-      </c>
-      <c r="GD14" s="225">
-        <v>750000</v>
-      </c>
-      <c r="GE14" s="225" t="s">
-        <v>391</v>
-      </c>
-      <c r="GF14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="GG14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="GH14" s="225" t="s">
-        <v>318</v>
-      </c>
-      <c r="GI14" s="225" t="s">
-        <v>597</v>
-      </c>
-      <c r="GJ14" s="225"/>
-      <c r="GK14" s="225">
-        <v>250000000</v>
-      </c>
-      <c r="GL14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="GM14" s="225" t="s">
-        <v>789</v>
-      </c>
-      <c r="GN14" s="225" t="s">
-        <v>790</v>
-      </c>
-      <c r="GO14" s="225">
-        <v>24</v>
-      </c>
-      <c r="GP14" s="225">
-        <v>20</v>
-      </c>
-      <c r="GQ14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="GR14" s="225" t="s">
-        <v>244</v>
-      </c>
-      <c r="GS14" s="225" t="s">
-        <v>233</v>
-      </c>
-      <c r="GT14" s="225" t="s">
-        <v>237</v>
-      </c>
-      <c r="GU14" s="219" t="s">
-        <v>233</v>
-      </c>
-      <c r="GV14" s="230" t="s">
-        <v>246</v>
-      </c>
-      <c r="GW14" s="225" t="s">
-        <v>248</v>
-      </c>
-      <c r="GX14" s="225" t="s">
-        <v>250</v>
-      </c>
-      <c r="GY14" s="219" t="s">
-        <v>250</v>
-      </c>
-      <c r="GZ14" s="225">
-        <v>120100</v>
-      </c>
-      <c r="HA14" s="225" t="s">
-        <v>501</v>
-      </c>
-      <c r="HB14" s="225">
-        <v>12430</v>
-      </c>
-      <c r="HC14" s="225" t="s">
-        <v>508</v>
-      </c>
-      <c r="HD14" s="225" t="s">
-        <v>519</v>
-      </c>
-      <c r="HE14" s="225" t="s">
-        <v>511</v>
-      </c>
-      <c r="HF14" s="225" t="s">
-        <v>513</v>
-      </c>
-      <c r="HG14" s="225" t="s">
-        <v>515</v>
-      </c>
-      <c r="HH14" s="225" t="s">
-        <v>517</v>
-      </c>
-      <c r="HI14" s="219" t="s">
+      <c r="HI16" s="219" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{349895E6-7011-401C-9C56-65679A4DA08E}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{7F2E91AC-D39D-4E9F-AEDE-3B46A547F8B9}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{86C3F04C-0722-4913-A70C-D137E67A2660}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{508D0011-4E8D-4F00-9262-7B521508083E}"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{349895E6-7011-401C-9C56-65679A4DA08E}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{7F2E91AC-D39D-4E9F-AEDE-3B46A547F8B9}"/>
+    <hyperlink ref="J9" r:id="rId3" xr:uid="{86C3F04C-0722-4913-A70C-D137E67A2660}"/>
+    <hyperlink ref="J10" r:id="rId4" xr:uid="{508D0011-4E8D-4F00-9262-7B521508083E}"/>
     <hyperlink ref="J2" r:id="rId5" xr:uid="{27F277B2-C0CD-4AB7-A01E-C3B5648322E5}"/>
-    <hyperlink ref="CD9" r:id="rId6" xr:uid="{CD7D2390-8B6F-4F41-A3A7-FE11B36C1C21}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{9CC21C4E-7C4C-4509-B038-4178ADF4554B}"/>
-    <hyperlink ref="CD10" r:id="rId8" xr:uid="{74F29673-6CB1-4790-942F-BAA045EA0259}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{6A1C12E3-BD34-4E30-B569-7901E1E85C39}"/>
-    <hyperlink ref="CD11" r:id="rId10" xr:uid="{63F75253-332B-4FAC-903D-308225AAF7E3}"/>
-    <hyperlink ref="J11" r:id="rId11" xr:uid="{5F42B570-8F53-451F-828F-6621438AE398}"/>
-    <hyperlink ref="CD12" r:id="rId12" xr:uid="{A05301A3-C197-4E11-8015-B891D244DC6D}"/>
-    <hyperlink ref="J12" r:id="rId13" xr:uid="{8A6EDC47-2142-4575-95EA-8427914D2CD7}"/>
-    <hyperlink ref="CD13" r:id="rId14" xr:uid="{D601CDD0-4590-4C0C-82FD-0EEC2C36ABF6}"/>
-    <hyperlink ref="J13" r:id="rId15" xr:uid="{BC9FF2FB-9EA4-4037-80B0-960F8BC95460}"/>
-    <hyperlink ref="CD14" r:id="rId16" xr:uid="{1749D64A-8D87-46AD-8A53-A923C2EA1CFE}"/>
-    <hyperlink ref="J14" r:id="rId17" xr:uid="{DF1CF49D-AF3D-4EEC-8DD6-163CA0668200}"/>
-    <hyperlink ref="J4" r:id="rId18" xr:uid="{87B46711-7C36-4593-9E51-0938B2A64E24}"/>
-    <hyperlink ref="J3" r:id="rId19" xr:uid="{AED02ABF-5225-4710-A04D-DCA8840C0F57}"/>
-    <hyperlink ref="Q3" r:id="rId20" xr:uid="{9A919702-C5B7-4E53-8821-521AA0C0CD58}"/>
+    <hyperlink ref="CD11" r:id="rId6" xr:uid="{CD7D2390-8B6F-4F41-A3A7-FE11B36C1C21}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{9CC21C4E-7C4C-4509-B038-4178ADF4554B}"/>
+    <hyperlink ref="CD12" r:id="rId8" xr:uid="{74F29673-6CB1-4790-942F-BAA045EA0259}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{6A1C12E3-BD34-4E30-B569-7901E1E85C39}"/>
+    <hyperlink ref="CD13" r:id="rId10" xr:uid="{63F75253-332B-4FAC-903D-308225AAF7E3}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{5F42B570-8F53-451F-828F-6621438AE398}"/>
+    <hyperlink ref="CD14" r:id="rId12" xr:uid="{A05301A3-C197-4E11-8015-B891D244DC6D}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{8A6EDC47-2142-4575-95EA-8427914D2CD7}"/>
+    <hyperlink ref="CD15" r:id="rId14" xr:uid="{D601CDD0-4590-4C0C-82FD-0EEC2C36ABF6}"/>
+    <hyperlink ref="J15" r:id="rId15" xr:uid="{BC9FF2FB-9EA4-4037-80B0-960F8BC95460}"/>
+    <hyperlink ref="CD16" r:id="rId16" xr:uid="{1749D64A-8D87-46AD-8A53-A923C2EA1CFE}"/>
+    <hyperlink ref="J16" r:id="rId17" xr:uid="{DF1CF49D-AF3D-4EEC-8DD6-163CA0668200}"/>
+    <hyperlink ref="J3" r:id="rId18" xr:uid="{AED02ABF-5225-4710-A04D-DCA8840C0F57}"/>
+    <hyperlink ref="Q3" r:id="rId19" xr:uid="{9A919702-C5B7-4E53-8821-521AA0C0CD58}"/>
+    <hyperlink ref="J4" r:id="rId20" xr:uid="{CEF3781F-727E-4A6C-8FC3-2EE24C7CAC61}"/>
+    <hyperlink ref="J5" r:id="rId21" xr:uid="{B14B4FC1-50FB-4EF4-8D58-3728BB5456E6}"/>
+    <hyperlink ref="J6" r:id="rId22" xr:uid="{D1BA35CA-4DFA-4366-8393-F51A528253A5}"/>
+    <hyperlink ref="Q6" r:id="rId23" xr:uid="{AD750836-4729-47F8-94CD-ACADC1DC82E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -23119,7 +24370,7 @@
   <dimension ref="A1:HI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A9744-C286-43BB-98EF-24BA585DD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22AABC-D5C8-4A40-BE80-7FE8046B2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
@@ -14983,7 +14983,7 @@
   <dimension ref="A1:HL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inputnonro.xlsx
+++ b/inputnonro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\IME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22AABC-D5C8-4A40-BE80-7FE8046B2981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32293350-6CC2-48C5-ABB0-E55748C3F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{54B6835C-D1D2-4C8A-90D7-92419B3AA248}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8296" uniqueCount="867">
   <si>
     <t>konsumen</t>
   </si>
@@ -2636,6 +2636,15 @@
   </si>
   <si>
     <t>BaruPasanganDOB</t>
+  </si>
+  <si>
+    <t>TMLI</t>
+  </si>
+  <si>
+    <t>SIMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P186 </t>
   </si>
 </sst>
 </file>
@@ -14983,7 +14992,7 @@
   <dimension ref="A1:HL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15971,8 +15980,12 @@
       <c r="BG2" s="198"/>
       <c r="BH2" s="198"/>
       <c r="BI2" s="198"/>
-      <c r="BJ2" s="198"/>
-      <c r="BK2" s="198"/>
+      <c r="BJ2" s="198" t="s">
+        <v>864</v>
+      </c>
+      <c r="BK2" s="198" t="s">
+        <v>865</v>
+      </c>
       <c r="BL2" s="198"/>
       <c r="BM2" s="198"/>
       <c r="BN2" s="198"/>
@@ -16188,7 +16201,7 @@
         <v>181</v>
       </c>
       <c r="FA2" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB2" s="198">
         <v>5238528</v>
@@ -16711,7 +16724,7 @@
         <v>181</v>
       </c>
       <c r="FA3" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB3" s="198">
         <v>5238528</v>
@@ -17224,7 +17237,7 @@
         <v>181</v>
       </c>
       <c r="FA4" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB4" s="198">
         <v>5238528</v>
@@ -17842,7 +17855,7 @@
         <v>181</v>
       </c>
       <c r="FA5" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB5" s="198">
         <v>5238528</v>
@@ -18478,7 +18491,7 @@
         <v>181</v>
       </c>
       <c r="FA6" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB6" s="198">
         <v>5238528</v>
@@ -18991,7 +19004,7 @@
         <v>181</v>
       </c>
       <c r="FA7" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB7" s="198">
         <v>5238528</v>
@@ -19504,7 +19517,7 @@
         <v>181</v>
       </c>
       <c r="FA8" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB8" s="198">
         <v>5238528</v>
@@ -20017,7 +20030,7 @@
         <v>181</v>
       </c>
       <c r="FA9" s="209" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB9" s="209">
         <v>5238528</v>
@@ -20530,7 +20543,7 @@
         <v>181</v>
       </c>
       <c r="FA10" s="209" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB10" s="209">
         <v>5238528</v>
@@ -21159,7 +21172,7 @@
         <v>181</v>
       </c>
       <c r="FA11" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB11" s="198">
         <v>5238528</v>
@@ -21788,7 +21801,7 @@
         <v>181</v>
       </c>
       <c r="FA12" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB12" s="198">
         <v>5238528</v>
@@ -22417,7 +22430,7 @@
         <v>181</v>
       </c>
       <c r="FA13" s="198" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB13" s="198">
         <v>5238528</v>
@@ -23046,7 +23059,7 @@
         <v>181</v>
       </c>
       <c r="FA14" s="209" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB14" s="209">
         <v>5238528</v>
@@ -23675,7 +23688,7 @@
         <v>181</v>
       </c>
       <c r="FA15" s="209" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB15" s="209">
         <v>5238528</v>
@@ -24304,7 +24317,7 @@
         <v>181</v>
       </c>
       <c r="FA16" s="225" t="s">
-        <v>804</v>
+        <v>866</v>
       </c>
       <c r="FB16" s="225">
         <v>5238528</v>
